--- a/0_Projektorga/RoadMap.xlsx
+++ b/0_Projektorga/RoadMap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janbantle/Documents/GitHub/Studienarbeit/0_Projektorga/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DH\T3000_B\Studienarbeit\0_Projektorga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0AB4353-C5A6-014D-8CC7-9983EF4FA9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C5CD1F-73F2-4B59-81C3-CD74478F51E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{FA9784DD-23F6-4C9A-9C04-5F94D8053CAD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FA9784DD-23F6-4C9A-9C04-5F94D8053CAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">Oktober </t>
   </si>
@@ -139,6 +139,9 @@
   <si>
     <t>Anforderungsanalyse</t>
   </si>
+  <si>
+    <t>Informatik</t>
+  </si>
 </sst>
 </file>
 
@@ -204,7 +207,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,6 +286,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="35">
     <border>
@@ -692,7 +707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -860,11 +875,66 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1697,8 +1767,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7711775" y="584693"/>
-          <a:ext cx="1440692" cy="532907"/>
+          <a:off x="7689363" y="563278"/>
+          <a:ext cx="1437206" cy="526431"/>
           <a:chOff x="1458657" y="1181100"/>
           <a:chExt cx="1758781" cy="489940"/>
         </a:xfrm>
@@ -2518,8 +2588,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4334933" y="584201"/>
-          <a:ext cx="1440692" cy="532907"/>
+          <a:off x="4322980" y="562786"/>
+          <a:ext cx="1437206" cy="526431"/>
           <a:chOff x="1458657" y="1181100"/>
           <a:chExt cx="1758781" cy="489940"/>
         </a:xfrm>
@@ -2726,6 +2796,291 @@
             </a:rPr>
             <a:t>Auslegung</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28223</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28663</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1129551</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle: Rounded Corners 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2917D784-E26E-447C-A89D-4BD3BF6926A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7244811" y="4681345"/>
+          <a:ext cx="6883564" cy="482325"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Erstellung</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> erster Seiten und Grundlegendes Layout für die Website</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10293</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1120587</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rectangle: Rounded Corners 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{719BB1E1-3B88-446D-8ADD-7FE036ECAAC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1444646" y="4672381"/>
+          <a:ext cx="2266741" cy="509219"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Konkretisierung</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> und Priorisierung der Usecases</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28223</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>10734</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>8964</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rectangle: Rounded Corners 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAAEC119-903B-4427-B225-32987005B626}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3775470" y="4663416"/>
+          <a:ext cx="2508789" cy="536113"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Evaluierung verschiedener</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> Frameworks für den Webserver</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3031,20 +3386,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3231B56-26CE-4D6A-A0C8-9C4700BBC328}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="15.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16">
+    <row r="1" spans="1:14" ht="15.6">
       <c r="A1" s="23"/>
       <c r="B1" s="42" t="s">
         <v>0</v>
@@ -3066,7 +3421,7 @@
       <c r="M1" s="48"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="15">
+    <row r="2" spans="1:14" ht="14.4">
       <c r="A2" s="24"/>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -3146,7 +3501,7 @@
       </c>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="43" customHeight="1" thickBot="1">
+    <row r="4" spans="1:14" ht="43.05" customHeight="1" thickBot="1">
       <c r="A4" s="15" t="s">
         <v>32</v>
       </c>
@@ -3370,7 +3725,7 @@
       <c r="M16" s="19"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" ht="16" thickBot="1">
+    <row r="17" spans="1:14" ht="15" thickBot="1">
       <c r="A17" s="37"/>
       <c r="B17" s="20"/>
       <c r="C17" s="21"/>
@@ -3386,8 +3741,56 @@
       <c r="M17" s="22"/>
       <c r="N17" s="1"/>
     </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="60"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="62"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="58"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="62"/>
+    </row>
+    <row r="20" spans="1:14" ht="14.4" thickBot="1">
+      <c r="A20" s="59"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="65"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B5:C5"/>
@@ -3401,6 +3804,22 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="B6:J14">
+    <cfRule type="expression" dxfId="13" priority="15">
+      <formula>AND(#REF!&gt;5%, #REF!&lt;=#REF!,ROUNDDOWN(NETWORKDAYS(#REF!,#REF!)*#REF!,0)+#REF!+1&gt;=#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="16">
+      <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:M8 K12:M14">
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>AND(#REF!&gt;5%, #REF!&lt;=#REF!,ROUNDDOWN(NETWORKDAYS(#REF!,#REF!)*#REF!,0)+#REF!+1&gt;=#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:M11">
     <cfRule type="expression" dxfId="9" priority="11">
       <formula>AND(#REF!&gt;5%, #REF!&lt;=#REF!,ROUNDDOWN(NETWORKDAYS(#REF!,#REF!)*#REF!,0)+#REF!+1&gt;=#REF!)</formula>
     </cfRule>
@@ -3408,7 +3827,7 @@
       <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:M8 K12:M14">
+  <conditionalFormatting sqref="B15:J17">
     <cfRule type="expression" dxfId="7" priority="9">
       <formula>AND(#REF!&gt;5%, #REF!&lt;=#REF!,ROUNDDOWN(NETWORKDAYS(#REF!,#REF!)*#REF!,0)+#REF!+1&gt;=#REF!)</formula>
     </cfRule>
@@ -3416,7 +3835,7 @@
       <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:M11">
+  <conditionalFormatting sqref="K15:M17">
     <cfRule type="expression" dxfId="5" priority="7">
       <formula>AND(#REF!&gt;5%, #REF!&lt;=#REF!,ROUNDDOWN(NETWORKDAYS(#REF!,#REF!)*#REF!,0)+#REF!+1&gt;=#REF!)</formula>
     </cfRule>
@@ -3424,24 +3843,24 @@
       <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:J17">
-    <cfRule type="expression" dxfId="3" priority="5">
+  <conditionalFormatting sqref="B18:J20">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>AND(#REF!&gt;5%, #REF!&lt;=#REF!,ROUNDDOWN(NETWORKDAYS(#REF!,#REF!)*#REF!,0)+#REF!+1&gt;=#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:M17">
-    <cfRule type="expression" dxfId="1" priority="3">
+  <conditionalFormatting sqref="K18:M20">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND(#REF!&gt;5%, #REF!&lt;=#REF!,ROUNDDOWN(NETWORKDAYS(#REF!,#REF!)*#REF!,0)+#REF!+1&gt;=#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/0_Projektorga/RoadMap.xlsx
+++ b/0_Projektorga/RoadMap.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DH\T3000_B\Studienarbeit\0_Projektorga\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janbantle/Documents/GitHub/Studienarbeit/0_Projektorga/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C5CD1F-73F2-4B59-81C3-CD74478F51E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6872A7-D650-BD41-95D0-5D97299C1A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FA9784DD-23F6-4C9A-9C04-5F94D8053CAD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{FA9784DD-23F6-4C9A-9C04-5F94D8053CAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="93">
   <si>
     <t xml:space="preserve">Oktober </t>
   </si>
@@ -141,17 +142,189 @@
   </si>
   <si>
     <t>Informatik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profil Riemenrad anpassen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verbindungselement Bodenplatte </t>
+  </si>
+  <si>
+    <t>Kugellager in Riemenrad</t>
+  </si>
+  <si>
+    <t>Verbindung Riemenrad Motor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doku </t>
+  </si>
+  <si>
+    <t>Theorie Schrittmotor</t>
+  </si>
+  <si>
+    <t>Theorie Ultraschall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konzept Kollisionsvermeidung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konzept Leistungskonvertierung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximale Drehzahl testen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wellenlager an Seitenplatte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skript Motortreiber schreiben </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konstruktion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neuen Treiber bestellen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leistungskonvertierung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batterie bestellen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ultraschallensoren </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Module testen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leistungsmodule bestellen </t>
+  </si>
+  <si>
+    <t>KW4</t>
+  </si>
+  <si>
+    <t>KW52</t>
+  </si>
+  <si>
+    <t>KW1</t>
+  </si>
+  <si>
+    <t>KW2</t>
+  </si>
+  <si>
+    <t>KW3</t>
+  </si>
+  <si>
+    <t>KW5</t>
+  </si>
+  <si>
+    <t>KW6</t>
+  </si>
+  <si>
+    <t>KW7</t>
+  </si>
+  <si>
+    <t>KW8</t>
+  </si>
+  <si>
+    <t>KW9</t>
+  </si>
+  <si>
+    <t>KW10</t>
+  </si>
+  <si>
+    <t>KW11</t>
+  </si>
+  <si>
+    <t>KW12</t>
+  </si>
+  <si>
+    <t>KW13</t>
+  </si>
+  <si>
+    <t>KW14</t>
+  </si>
+  <si>
+    <t>KW15</t>
+  </si>
+  <si>
+    <t>KW16</t>
+  </si>
+  <si>
+    <t>KW17</t>
+  </si>
+  <si>
+    <t>KW18</t>
+  </si>
+  <si>
+    <t>KW19</t>
+  </si>
+  <si>
+    <t>KW20</t>
+  </si>
+  <si>
+    <t>KW21</t>
+  </si>
+  <si>
+    <t>KW22</t>
+  </si>
+  <si>
+    <t>KW23</t>
+  </si>
+  <si>
+    <t>KW24</t>
+  </si>
+  <si>
+    <t>KW25</t>
+  </si>
+  <si>
+    <t>KW26</t>
+  </si>
+  <si>
+    <t>KW27</t>
+  </si>
+  <si>
+    <t>KW28</t>
+  </si>
+  <si>
+    <t>KW29</t>
+  </si>
+  <si>
+    <t>KW30</t>
+  </si>
+  <si>
+    <t>KW31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abgaben </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fertigung Riemenrad  </t>
+  </si>
+  <si>
+    <t>Fertigung Riemenrad II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konzept Positionierung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umsetzung: Getriebe </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mmm"/>
     <numFmt numFmtId="165" formatCode="d/m;@"/>
+    <numFmt numFmtId="169" formatCode="[$-407]mmmmm\ yy;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,8 +379,21 @@
       <name val="Calibri Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,8 +484,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2F75B5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -703,11 +919,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -800,6 +1087,33 @@
     <xf numFmtId="0" fontId="8" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -875,33 +1189,56 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="16" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1767,8 +2104,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7689363" y="563278"/>
-          <a:ext cx="1437206" cy="526431"/>
+          <a:off x="7706253" y="573282"/>
+          <a:ext cx="1440324" cy="525912"/>
           <a:chOff x="1458657" y="1181100"/>
           <a:chExt cx="1758781" cy="489940"/>
         </a:xfrm>
@@ -2588,8 +2925,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4322980" y="562786"/>
-          <a:ext cx="1437206" cy="526431"/>
+          <a:off x="4330516" y="572790"/>
+          <a:ext cx="1440324" cy="525912"/>
           <a:chOff x="1458657" y="1181100"/>
           <a:chExt cx="1758781" cy="489940"/>
         </a:xfrm>
@@ -3388,40 +3725,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3231B56-26CE-4D6A-A0C8-9C4700BBC328}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="18.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="15.19921875" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.6">
+    <row r="1" spans="1:14" ht="16">
       <c r="A1" s="23"/>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44" t="s">
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="47" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="48"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="57"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="14.4">
+    <row r="2" spans="1:14" ht="15">
       <c r="A2" s="24"/>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -3501,7 +3838,7 @@
       </c>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="43.05" customHeight="1" thickBot="1">
+    <row r="4" spans="1:14" ht="43" customHeight="1" thickBot="1">
       <c r="A4" s="15" t="s">
         <v>32</v>
       </c>
@@ -3523,26 +3860,26 @@
       <c r="A5" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="56"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="65"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="58" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="12"/>
@@ -3560,7 +3897,7 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A7" s="50"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="12"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -3576,7 +3913,7 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A8" s="51"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="12"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -3592,7 +3929,7 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="61" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="13"/>
@@ -3610,7 +3947,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A10" s="53"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="13"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -3626,7 +3963,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A11" s="54"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="13"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -3642,7 +3979,7 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="41" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="14"/>
@@ -3660,7 +3997,7 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A13" s="33"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="14"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -3676,7 +4013,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A14" s="34"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="14"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -3692,7 +4029,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="44" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="5"/>
@@ -3710,7 +4047,7 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A16" s="36"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -3725,8 +4062,8 @@
       <c r="M16" s="19"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" ht="15" thickBot="1">
-      <c r="A17" s="37"/>
+    <row r="17" spans="1:14" ht="16" thickBot="1">
+      <c r="A17" s="46"/>
       <c r="B17" s="20"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -3742,65 +4079,65 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="62"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="34"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="58"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="62"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="34"/>
     </row>
-    <row r="20" spans="1:14" ht="14.4" thickBot="1">
-      <c r="A20" s="59"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="65"/>
+    <row r="20" spans="1:14" ht="15" thickBot="1">
+      <c r="A20" s="40"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:K5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="L5:M5"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:K5"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="B6:J14">
@@ -3863,4 +4200,1283 @@
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08215EA3-8C9C-604B-8B92-D34B0C342221}">
+  <dimension ref="A1:HM34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AL10" sqref="AL10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.5" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="30" style="67" customWidth="1"/>
+    <col min="2" max="26" width="1.6640625" customWidth="1"/>
+    <col min="27" max="27" width="3.5" style="82"/>
+    <col min="28" max="30" width="3.5" style="83"/>
+    <col min="31" max="31" width="3.5" style="88"/>
+    <col min="32" max="32" width="3.5" style="82"/>
+    <col min="33" max="35" width="3.5" style="83"/>
+    <col min="36" max="36" width="3.5" style="88"/>
+    <col min="37" max="37" width="3.5" style="82"/>
+    <col min="38" max="40" width="3.5" style="83"/>
+    <col min="41" max="41" width="3.5" style="88"/>
+    <col min="42" max="42" width="3.5" style="82"/>
+    <col min="43" max="45" width="3.5" style="83"/>
+    <col min="46" max="46" width="3.5" style="88"/>
+    <col min="47" max="47" width="3.5" style="82"/>
+    <col min="48" max="50" width="3.5" style="83"/>
+    <col min="51" max="51" width="3.5" style="88"/>
+    <col min="52" max="52" width="3.5" style="82"/>
+    <col min="53" max="55" width="3.5" style="83"/>
+    <col min="56" max="56" width="3.5" style="88"/>
+    <col min="57" max="57" width="3.5" style="82"/>
+    <col min="58" max="60" width="3.5" style="83"/>
+    <col min="61" max="61" width="3.5" style="88"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:221" s="70" customFormat="1">
+      <c r="A1" s="66"/>
+      <c r="B1" s="69">
+        <v>44473</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69">
+        <f>B1+7</f>
+        <v>44480</v>
+      </c>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69">
+        <f t="shared" ref="L1" si="0">G1+7</f>
+        <v>44487</v>
+      </c>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69">
+        <f t="shared" ref="Q1" si="1">L1+7</f>
+        <v>44494</v>
+      </c>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69">
+        <f t="shared" ref="V1" si="2">Q1+7</f>
+        <v>44501</v>
+      </c>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="79">
+        <f t="shared" ref="AA1" si="3">V1+7</f>
+        <v>44508</v>
+      </c>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="85"/>
+      <c r="AF1" s="79">
+        <f t="shared" ref="AF1" si="4">AA1+7</f>
+        <v>44515</v>
+      </c>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="79">
+        <f t="shared" ref="AK1" si="5">AF1+7</f>
+        <v>44522</v>
+      </c>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="69"/>
+      <c r="AO1" s="85"/>
+      <c r="AP1" s="79">
+        <f t="shared" ref="AP1" si="6">AK1+7</f>
+        <v>44529</v>
+      </c>
+      <c r="AQ1" s="69"/>
+      <c r="AR1" s="69"/>
+      <c r="AS1" s="69"/>
+      <c r="AT1" s="85"/>
+      <c r="AU1" s="79">
+        <f t="shared" ref="AU1" si="7">AP1+7</f>
+        <v>44536</v>
+      </c>
+      <c r="AV1" s="69"/>
+      <c r="AW1" s="69"/>
+      <c r="AX1" s="69"/>
+      <c r="AY1" s="85"/>
+      <c r="AZ1" s="79">
+        <f t="shared" ref="AZ1" si="8">AU1+7</f>
+        <v>44543</v>
+      </c>
+      <c r="BA1" s="69"/>
+      <c r="BB1" s="69"/>
+      <c r="BC1" s="69"/>
+      <c r="BD1" s="85"/>
+      <c r="BE1" s="79">
+        <f t="shared" ref="BE1" si="9">AZ1+7</f>
+        <v>44550</v>
+      </c>
+      <c r="BF1" s="69"/>
+      <c r="BG1" s="69"/>
+      <c r="BH1" s="69"/>
+      <c r="BI1" s="85"/>
+      <c r="BJ1" s="69">
+        <f t="shared" ref="BJ1" si="10">BE1+7</f>
+        <v>44557</v>
+      </c>
+      <c r="BK1" s="69"/>
+      <c r="BL1" s="69"/>
+      <c r="BM1" s="69"/>
+      <c r="BN1" s="69"/>
+      <c r="BO1" s="69">
+        <f t="shared" ref="BO1" si="11">BJ1+7</f>
+        <v>44564</v>
+      </c>
+      <c r="BP1" s="69"/>
+      <c r="BQ1" s="69"/>
+      <c r="BR1" s="69"/>
+      <c r="BS1" s="69"/>
+      <c r="BT1" s="69">
+        <f t="shared" ref="BT1" si="12">BO1+7</f>
+        <v>44571</v>
+      </c>
+      <c r="BU1" s="69"/>
+      <c r="BV1" s="69"/>
+      <c r="BW1" s="69"/>
+      <c r="BX1" s="69"/>
+      <c r="BY1" s="69">
+        <f t="shared" ref="BY1" si="13">BT1+7</f>
+        <v>44578</v>
+      </c>
+      <c r="BZ1" s="69"/>
+      <c r="CA1" s="69"/>
+      <c r="CB1" s="69"/>
+      <c r="CC1" s="69"/>
+      <c r="CD1" s="69">
+        <f t="shared" ref="CD1" si="14">BY1+7</f>
+        <v>44585</v>
+      </c>
+      <c r="CE1" s="69"/>
+      <c r="CF1" s="69"/>
+      <c r="CG1" s="69"/>
+      <c r="CH1" s="69"/>
+      <c r="CI1" s="69">
+        <f t="shared" ref="CI1" si="15">CD1+7</f>
+        <v>44592</v>
+      </c>
+      <c r="CJ1" s="69"/>
+      <c r="CK1" s="69"/>
+      <c r="CL1" s="69"/>
+      <c r="CM1" s="69"/>
+      <c r="CN1" s="69">
+        <f t="shared" ref="CN1" si="16">CI1+7</f>
+        <v>44599</v>
+      </c>
+      <c r="CO1" s="69"/>
+      <c r="CP1" s="69"/>
+      <c r="CQ1" s="69"/>
+      <c r="CR1" s="69"/>
+      <c r="CS1" s="69">
+        <f t="shared" ref="CS1" si="17">CN1+7</f>
+        <v>44606</v>
+      </c>
+      <c r="CT1" s="69"/>
+      <c r="CU1" s="69"/>
+      <c r="CV1" s="69"/>
+      <c r="CW1" s="69"/>
+      <c r="CX1" s="69">
+        <f t="shared" ref="CX1" si="18">CS1+7</f>
+        <v>44613</v>
+      </c>
+      <c r="CY1" s="69"/>
+      <c r="CZ1" s="69"/>
+      <c r="DA1" s="69"/>
+      <c r="DB1" s="69"/>
+      <c r="DC1" s="69">
+        <f t="shared" ref="DC1" si="19">CX1+7</f>
+        <v>44620</v>
+      </c>
+      <c r="DD1" s="69"/>
+      <c r="DE1" s="69"/>
+      <c r="DF1" s="69"/>
+      <c r="DG1" s="69"/>
+      <c r="DH1" s="69">
+        <f t="shared" ref="DH1" si="20">DC1+7</f>
+        <v>44627</v>
+      </c>
+      <c r="DI1" s="69"/>
+      <c r="DJ1" s="69"/>
+      <c r="DK1" s="69"/>
+      <c r="DL1" s="69"/>
+      <c r="DM1" s="69">
+        <f t="shared" ref="DM1" si="21">DH1+7</f>
+        <v>44634</v>
+      </c>
+      <c r="DN1" s="69"/>
+      <c r="DO1" s="69"/>
+      <c r="DP1" s="69"/>
+      <c r="DQ1" s="69"/>
+      <c r="DR1" s="69">
+        <f t="shared" ref="DR1" si="22">DM1+7</f>
+        <v>44641</v>
+      </c>
+      <c r="DS1" s="69"/>
+      <c r="DT1" s="69"/>
+      <c r="DU1" s="69"/>
+      <c r="DV1" s="69"/>
+      <c r="DW1" s="69">
+        <f t="shared" ref="DW1" si="23">DR1+7</f>
+        <v>44648</v>
+      </c>
+      <c r="DX1" s="69"/>
+      <c r="DY1" s="69"/>
+      <c r="DZ1" s="69"/>
+      <c r="EA1" s="69"/>
+      <c r="EB1" s="69">
+        <f t="shared" ref="EB1" si="24">DW1+7</f>
+        <v>44655</v>
+      </c>
+      <c r="EC1" s="69"/>
+      <c r="ED1" s="69"/>
+      <c r="EE1" s="69"/>
+      <c r="EF1" s="69"/>
+      <c r="EG1" s="69">
+        <f t="shared" ref="EG1" si="25">EB1+7</f>
+        <v>44662</v>
+      </c>
+      <c r="EH1" s="69"/>
+      <c r="EI1" s="69"/>
+      <c r="EJ1" s="69"/>
+      <c r="EK1" s="69"/>
+      <c r="EL1" s="69">
+        <f t="shared" ref="EL1" si="26">EG1+7</f>
+        <v>44669</v>
+      </c>
+      <c r="EM1" s="69"/>
+      <c r="EN1" s="69"/>
+      <c r="EO1" s="69"/>
+      <c r="EP1" s="69"/>
+      <c r="EQ1" s="69">
+        <f t="shared" ref="EQ1" si="27">EL1+7</f>
+        <v>44676</v>
+      </c>
+      <c r="ER1" s="69"/>
+      <c r="ES1" s="69"/>
+      <c r="ET1" s="69"/>
+      <c r="EU1" s="69"/>
+      <c r="EV1" s="69">
+        <f t="shared" ref="EV1" si="28">EQ1+7</f>
+        <v>44683</v>
+      </c>
+      <c r="EW1" s="69"/>
+      <c r="EX1" s="69"/>
+      <c r="EY1" s="69"/>
+      <c r="EZ1" s="69"/>
+      <c r="FA1" s="69">
+        <f t="shared" ref="FA1" si="29">EV1+7</f>
+        <v>44690</v>
+      </c>
+      <c r="FB1" s="69"/>
+      <c r="FC1" s="69"/>
+      <c r="FD1" s="69"/>
+      <c r="FE1" s="69"/>
+      <c r="FF1" s="69">
+        <f t="shared" ref="FF1" si="30">FA1+7</f>
+        <v>44697</v>
+      </c>
+      <c r="FG1" s="69"/>
+      <c r="FH1" s="69"/>
+      <c r="FI1" s="69"/>
+      <c r="FJ1" s="69"/>
+      <c r="FK1" s="69">
+        <f t="shared" ref="FK1" si="31">FF1+7</f>
+        <v>44704</v>
+      </c>
+      <c r="FL1" s="69"/>
+      <c r="FM1" s="69"/>
+      <c r="FN1" s="69"/>
+      <c r="FO1" s="69"/>
+      <c r="FP1" s="69">
+        <f t="shared" ref="FP1" si="32">FK1+7</f>
+        <v>44711</v>
+      </c>
+      <c r="FQ1" s="69"/>
+      <c r="FR1" s="69"/>
+      <c r="FS1" s="69"/>
+      <c r="FT1" s="69"/>
+      <c r="FU1" s="69">
+        <f t="shared" ref="FU1" si="33">FP1+7</f>
+        <v>44718</v>
+      </c>
+      <c r="FV1" s="69"/>
+      <c r="FW1" s="69"/>
+      <c r="FX1" s="69"/>
+      <c r="FY1" s="69"/>
+      <c r="FZ1" s="69">
+        <f t="shared" ref="FZ1" si="34">FU1+7</f>
+        <v>44725</v>
+      </c>
+      <c r="GA1" s="69"/>
+      <c r="GB1" s="69"/>
+      <c r="GC1" s="69"/>
+      <c r="GD1" s="69"/>
+      <c r="GE1" s="69">
+        <f t="shared" ref="GE1" si="35">FZ1+7</f>
+        <v>44732</v>
+      </c>
+      <c r="GF1" s="69"/>
+      <c r="GG1" s="69"/>
+      <c r="GH1" s="69"/>
+      <c r="GI1" s="69"/>
+      <c r="GJ1" s="69">
+        <f t="shared" ref="GJ1" si="36">GE1+7</f>
+        <v>44739</v>
+      </c>
+      <c r="GK1" s="69"/>
+      <c r="GL1" s="69"/>
+      <c r="GM1" s="69"/>
+      <c r="GN1" s="69"/>
+      <c r="GO1" s="69">
+        <f t="shared" ref="GO1" si="37">GJ1+7</f>
+        <v>44746</v>
+      </c>
+      <c r="GP1" s="69"/>
+      <c r="GQ1" s="69"/>
+      <c r="GR1" s="69"/>
+      <c r="GS1" s="69"/>
+      <c r="GT1" s="69">
+        <f t="shared" ref="GT1" si="38">GO1+7</f>
+        <v>44753</v>
+      </c>
+      <c r="GU1" s="69"/>
+      <c r="GV1" s="69"/>
+      <c r="GW1" s="69"/>
+      <c r="GX1" s="69"/>
+      <c r="GY1" s="69">
+        <f t="shared" ref="GY1" si="39">GT1+7</f>
+        <v>44760</v>
+      </c>
+      <c r="GZ1" s="69"/>
+      <c r="HA1" s="69"/>
+      <c r="HB1" s="69"/>
+      <c r="HC1" s="69"/>
+      <c r="HD1" s="69">
+        <f t="shared" ref="HD1" si="40">GY1+7</f>
+        <v>44767</v>
+      </c>
+      <c r="HE1" s="69"/>
+      <c r="HF1" s="69"/>
+      <c r="HG1" s="69"/>
+      <c r="HH1" s="69"/>
+      <c r="HI1" s="69">
+        <f t="shared" ref="HI1" si="41">HD1+7</f>
+        <v>44774</v>
+      </c>
+      <c r="HJ1" s="69"/>
+      <c r="HK1" s="69"/>
+      <c r="HL1" s="69"/>
+      <c r="HM1" s="69"/>
+    </row>
+    <row r="2" spans="1:221" s="73" customFormat="1" ht="15" thickBot="1">
+      <c r="A2" s="71"/>
+      <c r="B2" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="86"/>
+      <c r="AP2" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ2" s="72"/>
+      <c r="AR2" s="72"/>
+      <c r="AS2" s="72"/>
+      <c r="AT2" s="86"/>
+      <c r="AU2" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV2" s="72"/>
+      <c r="AW2" s="72"/>
+      <c r="AX2" s="72"/>
+      <c r="AY2" s="86"/>
+      <c r="AZ2" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA2" s="72"/>
+      <c r="BB2" s="72"/>
+      <c r="BC2" s="72"/>
+      <c r="BD2" s="86"/>
+      <c r="BE2" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="BF2" s="72"/>
+      <c r="BG2" s="72"/>
+      <c r="BH2" s="72"/>
+      <c r="BI2" s="86"/>
+      <c r="BJ2" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="BK2" s="72"/>
+      <c r="BL2" s="72"/>
+      <c r="BM2" s="72"/>
+      <c r="BN2" s="72"/>
+      <c r="BO2" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="BP2" s="72"/>
+      <c r="BQ2" s="72"/>
+      <c r="BR2" s="72"/>
+      <c r="BS2" s="72"/>
+      <c r="BT2" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="BU2" s="72"/>
+      <c r="BV2" s="72"/>
+      <c r="BW2" s="72"/>
+      <c r="BX2" s="72"/>
+      <c r="BY2" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="BZ2" s="72"/>
+      <c r="CA2" s="72"/>
+      <c r="CB2" s="72"/>
+      <c r="CC2" s="72"/>
+      <c r="CD2" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="CE2" s="72"/>
+      <c r="CF2" s="72"/>
+      <c r="CG2" s="72"/>
+      <c r="CH2" s="72"/>
+      <c r="CI2" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="CJ2" s="72"/>
+      <c r="CK2" s="72"/>
+      <c r="CL2" s="72"/>
+      <c r="CM2" s="72"/>
+      <c r="CN2" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="CO2" s="72"/>
+      <c r="CP2" s="72"/>
+      <c r="CQ2" s="72"/>
+      <c r="CR2" s="72"/>
+      <c r="CS2" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="CT2" s="72"/>
+      <c r="CU2" s="72"/>
+      <c r="CV2" s="72"/>
+      <c r="CW2" s="72"/>
+      <c r="CX2" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="CY2" s="72"/>
+      <c r="CZ2" s="72"/>
+      <c r="DA2" s="72"/>
+      <c r="DB2" s="72"/>
+      <c r="DC2" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="DD2" s="72"/>
+      <c r="DE2" s="72"/>
+      <c r="DF2" s="72"/>
+      <c r="DG2" s="72"/>
+      <c r="DH2" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="DI2" s="72"/>
+      <c r="DJ2" s="72"/>
+      <c r="DK2" s="72"/>
+      <c r="DL2" s="72"/>
+      <c r="DM2" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="DN2" s="72"/>
+      <c r="DO2" s="72"/>
+      <c r="DP2" s="72"/>
+      <c r="DQ2" s="72"/>
+      <c r="DR2" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="DS2" s="72"/>
+      <c r="DT2" s="72"/>
+      <c r="DU2" s="72"/>
+      <c r="DV2" s="72"/>
+      <c r="DW2" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="DX2" s="72"/>
+      <c r="DY2" s="72"/>
+      <c r="DZ2" s="72"/>
+      <c r="EA2" s="72"/>
+      <c r="EB2" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="EC2" s="72"/>
+      <c r="ED2" s="72"/>
+      <c r="EE2" s="72"/>
+      <c r="EF2" s="72"/>
+      <c r="EG2" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="EH2" s="72"/>
+      <c r="EI2" s="72"/>
+      <c r="EJ2" s="72"/>
+      <c r="EK2" s="72"/>
+      <c r="EL2" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="EM2" s="72"/>
+      <c r="EN2" s="72"/>
+      <c r="EO2" s="72"/>
+      <c r="EP2" s="72"/>
+      <c r="EQ2" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="ER2" s="72"/>
+      <c r="ES2" s="72"/>
+      <c r="ET2" s="72"/>
+      <c r="EU2" s="72"/>
+      <c r="EV2" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="EW2" s="72"/>
+      <c r="EX2" s="72"/>
+      <c r="EY2" s="72"/>
+      <c r="EZ2" s="72"/>
+      <c r="FA2" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="FB2" s="72"/>
+      <c r="FC2" s="72"/>
+      <c r="FD2" s="72"/>
+      <c r="FE2" s="72"/>
+      <c r="FF2" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="FG2" s="72"/>
+      <c r="FH2" s="72"/>
+      <c r="FI2" s="72"/>
+      <c r="FJ2" s="72"/>
+      <c r="FK2" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="FL2" s="72"/>
+      <c r="FM2" s="72"/>
+      <c r="FN2" s="72"/>
+      <c r="FO2" s="72"/>
+      <c r="FP2" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="FQ2" s="72"/>
+      <c r="FR2" s="72"/>
+      <c r="FS2" s="72"/>
+      <c r="FT2" s="72"/>
+      <c r="FU2" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="FV2" s="72"/>
+      <c r="FW2" s="72"/>
+      <c r="FX2" s="72"/>
+      <c r="FY2" s="72"/>
+      <c r="FZ2" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="GA2" s="72"/>
+      <c r="GB2" s="72"/>
+      <c r="GC2" s="72"/>
+      <c r="GD2" s="72"/>
+      <c r="GE2" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="GF2" s="72"/>
+      <c r="GG2" s="72"/>
+      <c r="GH2" s="72"/>
+      <c r="GI2" s="72"/>
+      <c r="GJ2" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="GK2" s="72"/>
+      <c r="GL2" s="72"/>
+      <c r="GM2" s="72"/>
+      <c r="GN2" s="72"/>
+      <c r="GO2" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="GP2" s="72"/>
+      <c r="GQ2" s="72"/>
+      <c r="GR2" s="72"/>
+      <c r="GS2" s="72"/>
+      <c r="GT2" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="GU2" s="72"/>
+      <c r="GV2" s="72"/>
+      <c r="GW2" s="72"/>
+      <c r="GX2" s="72"/>
+      <c r="GY2" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="GZ2" s="72"/>
+      <c r="HA2" s="72"/>
+      <c r="HB2" s="72"/>
+      <c r="HC2" s="72"/>
+      <c r="HD2" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="HE2" s="72"/>
+      <c r="HF2" s="72"/>
+      <c r="HG2" s="72"/>
+      <c r="HH2" s="72"/>
+      <c r="HI2" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="HJ2" s="72"/>
+      <c r="HK2" s="72"/>
+      <c r="HL2" s="72"/>
+      <c r="HM2" s="72"/>
+    </row>
+    <row r="3" spans="1:221" s="77" customFormat="1" ht="15" thickBot="1">
+      <c r="A3" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="76"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="75"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="75"/>
+      <c r="Z3" s="75"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="75"/>
+      <c r="AC3" s="75"/>
+      <c r="AD3" s="75"/>
+      <c r="AE3" s="87"/>
+      <c r="AF3" s="84"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="89"/>
+      <c r="AK3" s="81"/>
+      <c r="AL3" s="75"/>
+      <c r="AM3" s="75"/>
+      <c r="AN3" s="75"/>
+      <c r="AO3" s="90"/>
+      <c r="AP3" s="81"/>
+      <c r="AQ3" s="75"/>
+      <c r="AR3" s="75"/>
+      <c r="AS3" s="75"/>
+      <c r="AT3" s="90"/>
+      <c r="AU3" s="81"/>
+      <c r="AV3" s="75"/>
+      <c r="AW3" s="75"/>
+      <c r="AX3" s="75"/>
+      <c r="AY3" s="90"/>
+      <c r="AZ3" s="81"/>
+      <c r="BA3" s="75"/>
+      <c r="BB3" s="75"/>
+      <c r="BC3" s="75"/>
+      <c r="BD3" s="93"/>
+      <c r="BE3" s="84"/>
+      <c r="BF3" s="78"/>
+      <c r="BG3" s="78"/>
+      <c r="BH3" s="78"/>
+      <c r="BI3" s="89"/>
+      <c r="BJ3" s="75"/>
+      <c r="BK3" s="75"/>
+      <c r="BL3" s="75"/>
+      <c r="BM3" s="75"/>
+      <c r="BN3" s="75"/>
+      <c r="BO3" s="75"/>
+      <c r="BP3" s="75"/>
+      <c r="BQ3" s="75"/>
+      <c r="BR3" s="75"/>
+      <c r="BS3" s="75"/>
+      <c r="BT3" s="75"/>
+      <c r="BU3" s="75"/>
+      <c r="BV3" s="75"/>
+      <c r="BW3" s="75"/>
+      <c r="BX3" s="75"/>
+      <c r="BY3" s="75"/>
+      <c r="BZ3" s="75"/>
+      <c r="CA3" s="75"/>
+      <c r="CB3" s="75"/>
+      <c r="CC3" s="75"/>
+      <c r="CD3" s="75"/>
+      <c r="CE3" s="75"/>
+      <c r="CF3" s="75"/>
+      <c r="CG3" s="75"/>
+      <c r="CH3" s="75"/>
+      <c r="CI3" s="75"/>
+      <c r="CJ3" s="75"/>
+      <c r="CK3" s="75"/>
+      <c r="CL3" s="75"/>
+      <c r="CM3" s="75"/>
+      <c r="CN3" s="75"/>
+      <c r="CO3" s="75"/>
+      <c r="CP3" s="75"/>
+      <c r="CQ3" s="75"/>
+      <c r="CR3" s="75"/>
+      <c r="CS3" s="75"/>
+      <c r="CT3" s="75"/>
+      <c r="CU3" s="75"/>
+      <c r="CV3" s="75"/>
+      <c r="CW3" s="75"/>
+      <c r="CX3" s="75"/>
+      <c r="CY3" s="75"/>
+      <c r="CZ3" s="75"/>
+      <c r="DA3" s="75"/>
+      <c r="DB3" s="75"/>
+      <c r="DC3" s="75"/>
+      <c r="DD3" s="75"/>
+      <c r="DE3" s="75"/>
+      <c r="DF3" s="75"/>
+      <c r="DG3" s="75"/>
+      <c r="DH3" s="75"/>
+      <c r="DI3" s="75"/>
+      <c r="DJ3" s="75"/>
+      <c r="DK3" s="75"/>
+      <c r="DL3" s="75"/>
+      <c r="DM3" s="75"/>
+      <c r="DN3" s="75"/>
+      <c r="DO3" s="75"/>
+      <c r="DP3" s="75"/>
+      <c r="DQ3" s="75"/>
+      <c r="DR3" s="75"/>
+      <c r="DS3" s="75"/>
+      <c r="DT3" s="75"/>
+      <c r="DU3" s="75"/>
+      <c r="DV3" s="75"/>
+      <c r="DW3" s="75"/>
+      <c r="DX3" s="75"/>
+      <c r="DY3" s="75"/>
+      <c r="DZ3" s="75"/>
+      <c r="EA3" s="75"/>
+      <c r="EB3" s="75"/>
+      <c r="EC3" s="75"/>
+      <c r="ED3" s="75"/>
+      <c r="EE3" s="75"/>
+      <c r="EF3" s="75"/>
+      <c r="EG3" s="75"/>
+      <c r="EH3" s="75"/>
+      <c r="EI3" s="75"/>
+      <c r="EJ3" s="75"/>
+      <c r="EK3" s="75"/>
+      <c r="EL3" s="75"/>
+      <c r="EM3" s="75"/>
+      <c r="EN3" s="75"/>
+      <c r="EO3" s="75"/>
+      <c r="EP3" s="75"/>
+      <c r="EQ3" s="75"/>
+      <c r="ER3" s="75"/>
+      <c r="ES3" s="75"/>
+      <c r="ET3" s="75"/>
+      <c r="EU3" s="75"/>
+      <c r="EV3" s="75"/>
+      <c r="EW3" s="75"/>
+      <c r="EX3" s="75"/>
+      <c r="EY3" s="75"/>
+      <c r="EZ3" s="75"/>
+      <c r="FA3" s="75"/>
+      <c r="FB3" s="75"/>
+      <c r="FC3" s="75"/>
+      <c r="FD3" s="75"/>
+      <c r="FE3" s="75"/>
+      <c r="FF3" s="75"/>
+      <c r="FG3" s="75"/>
+      <c r="FH3" s="75"/>
+      <c r="FI3" s="75"/>
+      <c r="FJ3" s="75"/>
+      <c r="FK3" s="75"/>
+      <c r="FL3" s="75"/>
+      <c r="FM3" s="75"/>
+      <c r="FN3" s="75"/>
+      <c r="FO3" s="75"/>
+      <c r="FP3" s="75"/>
+      <c r="FQ3" s="75"/>
+      <c r="FR3" s="75"/>
+      <c r="FS3" s="75"/>
+      <c r="FT3" s="75"/>
+      <c r="FU3" s="75"/>
+      <c r="FV3" s="75"/>
+      <c r="FW3" s="75"/>
+      <c r="FX3" s="75"/>
+      <c r="FY3" s="75"/>
+      <c r="FZ3" s="75"/>
+      <c r="GA3" s="75"/>
+      <c r="GB3" s="75"/>
+      <c r="GC3" s="75"/>
+      <c r="GD3" s="75"/>
+      <c r="GE3" s="75"/>
+      <c r="GF3" s="75"/>
+      <c r="GG3" s="75"/>
+      <c r="GH3" s="75"/>
+      <c r="GI3" s="75"/>
+      <c r="GJ3" s="75"/>
+      <c r="GK3" s="75"/>
+      <c r="GL3" s="75"/>
+      <c r="GM3" s="75"/>
+      <c r="GN3" s="75"/>
+      <c r="GO3" s="75"/>
+      <c r="GP3" s="75"/>
+      <c r="GQ3" s="75"/>
+      <c r="GR3" s="75"/>
+      <c r="GS3" s="75"/>
+      <c r="GT3" s="75"/>
+      <c r="GU3" s="75"/>
+      <c r="GV3" s="75"/>
+      <c r="GW3" s="75"/>
+      <c r="GX3" s="75"/>
+      <c r="GY3" s="75"/>
+      <c r="GZ3" s="75"/>
+      <c r="HA3" s="75"/>
+      <c r="HB3" s="75"/>
+      <c r="HC3" s="75"/>
+      <c r="HD3" s="75"/>
+      <c r="HE3" s="75"/>
+      <c r="HF3" s="75"/>
+      <c r="HG3" s="75"/>
+      <c r="HH3" s="75"/>
+      <c r="HI3" s="75"/>
+      <c r="HJ3" s="75"/>
+      <c r="HK3" s="75"/>
+      <c r="HL3" s="75"/>
+      <c r="HM3" s="75"/>
+    </row>
+    <row r="5" spans="1:221">
+      <c r="A5" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ5" s="91"/>
+      <c r="AR5" s="91"/>
+      <c r="AS5" s="91"/>
+      <c r="AT5" s="92"/>
+      <c r="AU5" s="94"/>
+      <c r="AV5" s="91"/>
+      <c r="AW5" s="91"/>
+      <c r="AX5" s="91"/>
+      <c r="AY5" s="92"/>
+      <c r="AZ5" s="94"/>
+      <c r="BA5" s="91"/>
+    </row>
+    <row r="6" spans="1:221">
+      <c r="A6" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF6" s="98"/>
+      <c r="AG6" s="99"/>
+      <c r="AH6" s="99"/>
+      <c r="AI6" s="99"/>
+      <c r="AJ6" s="100"/>
+      <c r="AQ6" s="91"/>
+      <c r="AR6" s="91"/>
+      <c r="AS6" s="91"/>
+      <c r="AT6" s="92"/>
+      <c r="AU6" s="94"/>
+      <c r="AV6" s="91"/>
+      <c r="AW6" s="91"/>
+      <c r="AX6" s="91"/>
+      <c r="AY6" s="92"/>
+      <c r="AZ6" s="94"/>
+      <c r="BA6" s="91"/>
+    </row>
+    <row r="7" spans="1:221">
+      <c r="A7" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK7" s="101"/>
+      <c r="AL7" s="102"/>
+      <c r="AM7" s="102"/>
+      <c r="AN7" s="102"/>
+      <c r="AO7" s="103"/>
+      <c r="AQ7" s="91"/>
+      <c r="AR7" s="91"/>
+      <c r="AS7" s="91"/>
+      <c r="AT7" s="92"/>
+      <c r="AU7" s="94"/>
+      <c r="AV7" s="91"/>
+      <c r="AW7" s="91"/>
+      <c r="AX7" s="91"/>
+      <c r="AY7" s="92"/>
+      <c r="AZ7" s="94"/>
+      <c r="BA7" s="91"/>
+    </row>
+    <row r="8" spans="1:221">
+      <c r="A8" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ8" s="91"/>
+      <c r="AR8" s="91"/>
+      <c r="AS8" s="91"/>
+      <c r="AT8" s="92"/>
+      <c r="AU8" s="94"/>
+      <c r="AV8" s="91"/>
+      <c r="AW8" s="91"/>
+      <c r="AX8" s="91"/>
+      <c r="AY8" s="92"/>
+      <c r="AZ8" s="94"/>
+      <c r="BA8" s="91"/>
+    </row>
+    <row r="9" spans="1:221">
+      <c r="A9" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ9" s="91"/>
+      <c r="AR9" s="91"/>
+      <c r="AS9" s="91"/>
+      <c r="AT9" s="92"/>
+      <c r="AU9" s="94"/>
+      <c r="AV9" s="91"/>
+      <c r="AW9" s="91"/>
+      <c r="AX9" s="91"/>
+      <c r="AY9" s="92"/>
+      <c r="AZ9" s="94"/>
+      <c r="BA9" s="91"/>
+    </row>
+    <row r="10" spans="1:221">
+      <c r="A10" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ10" s="91"/>
+      <c r="AR10" s="91"/>
+      <c r="AS10" s="91"/>
+      <c r="AT10" s="92"/>
+      <c r="AU10" s="94"/>
+      <c r="AV10" s="91"/>
+      <c r="AW10" s="91"/>
+      <c r="AX10" s="91"/>
+      <c r="AY10" s="92"/>
+      <c r="AZ10" s="94"/>
+      <c r="BA10" s="91"/>
+    </row>
+    <row r="11" spans="1:221">
+      <c r="A11" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ11" s="91"/>
+      <c r="AR11" s="91"/>
+      <c r="AS11" s="91"/>
+      <c r="AT11" s="92"/>
+      <c r="AU11" s="94"/>
+      <c r="AV11" s="91"/>
+      <c r="AW11" s="91"/>
+      <c r="AX11" s="91"/>
+      <c r="AY11" s="92"/>
+      <c r="AZ11" s="94"/>
+      <c r="BA11" s="91"/>
+    </row>
+    <row r="12" spans="1:221">
+      <c r="A12" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ12" s="91"/>
+      <c r="AR12" s="91"/>
+      <c r="AS12" s="91"/>
+      <c r="AT12" s="92"/>
+      <c r="AU12" s="94"/>
+      <c r="AV12" s="91"/>
+      <c r="AW12" s="91"/>
+      <c r="AX12" s="91"/>
+      <c r="AY12" s="92"/>
+      <c r="AZ12" s="94"/>
+      <c r="BA12" s="91"/>
+    </row>
+    <row r="14" spans="1:221">
+      <c r="A14" s="68" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:221">
+      <c r="A15" s="67" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:221">
+      <c r="A16" s="67" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41">
+      <c r="A18" s="68" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41">
+      <c r="A19" s="67" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41">
+      <c r="A20" s="67" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41">
+      <c r="A21" s="67" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41">
+      <c r="A23" s="68" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41">
+      <c r="A24" s="67" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41">
+      <c r="A25" s="67" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41">
+      <c r="A26" s="67" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41">
+      <c r="A28" s="68" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41">
+      <c r="A29" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF29" s="95"/>
+      <c r="AG29" s="96"/>
+      <c r="AH29" s="96"/>
+      <c r="AI29" s="96"/>
+      <c r="AJ29" s="97"/>
+    </row>
+    <row r="30" spans="1:41">
+      <c r="A30" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF30" s="95"/>
+      <c r="AG30" s="96"/>
+      <c r="AH30" s="96"/>
+      <c r="AI30" s="96"/>
+      <c r="AJ30" s="97"/>
+    </row>
+    <row r="31" spans="1:41">
+      <c r="A31" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK31" s="95"/>
+      <c r="AL31" s="96"/>
+      <c r="AM31" s="96"/>
+      <c r="AN31" s="96"/>
+      <c r="AO31" s="97"/>
+    </row>
+    <row r="32" spans="1:41">
+      <c r="A32" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK32" s="95"/>
+      <c r="AL32" s="96"/>
+      <c r="AM32" s="96"/>
+      <c r="AN32" s="96"/>
+      <c r="AO32" s="97"/>
+    </row>
+    <row r="33" spans="1:51">
+      <c r="A33" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK33" s="95"/>
+      <c r="AL33" s="96"/>
+      <c r="AM33" s="96"/>
+      <c r="AN33" s="96"/>
+      <c r="AO33" s="97"/>
+    </row>
+    <row r="34" spans="1:51">
+      <c r="A34" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU34" s="95"/>
+      <c r="AV34" s="96"/>
+      <c r="AW34" s="96"/>
+      <c r="AX34" s="96"/>
+      <c r="AY34" s="97"/>
+    </row>
+  </sheetData>
+  <mergeCells count="88">
+    <mergeCell ref="GY1:HC1"/>
+    <mergeCell ref="HD1:HH1"/>
+    <mergeCell ref="HI1:HM1"/>
+    <mergeCell ref="GY2:HC2"/>
+    <mergeCell ref="HD2:HH2"/>
+    <mergeCell ref="HI2:HM2"/>
+    <mergeCell ref="FU2:FY2"/>
+    <mergeCell ref="FZ2:GD2"/>
+    <mergeCell ref="GE2:GI2"/>
+    <mergeCell ref="GJ2:GN2"/>
+    <mergeCell ref="GO2:GS2"/>
+    <mergeCell ref="GT2:GX2"/>
+    <mergeCell ref="EQ2:EU2"/>
+    <mergeCell ref="EV2:EZ2"/>
+    <mergeCell ref="FA2:FE2"/>
+    <mergeCell ref="FF2:FJ2"/>
+    <mergeCell ref="FK2:FO2"/>
+    <mergeCell ref="FP2:FT2"/>
+    <mergeCell ref="DM2:DQ2"/>
+    <mergeCell ref="DR2:DV2"/>
+    <mergeCell ref="DW2:EA2"/>
+    <mergeCell ref="EB2:EF2"/>
+    <mergeCell ref="EG2:EK2"/>
+    <mergeCell ref="EL2:EP2"/>
+    <mergeCell ref="GO1:GS1"/>
+    <mergeCell ref="GT1:GX1"/>
+    <mergeCell ref="BY2:CC2"/>
+    <mergeCell ref="CD2:CH2"/>
+    <mergeCell ref="CI2:CM2"/>
+    <mergeCell ref="CN2:CR2"/>
+    <mergeCell ref="CS2:CW2"/>
+    <mergeCell ref="CX2:DB2"/>
+    <mergeCell ref="DC2:DG2"/>
+    <mergeCell ref="DH2:DL2"/>
+    <mergeCell ref="FK1:FO1"/>
+    <mergeCell ref="FP1:FT1"/>
+    <mergeCell ref="FU1:FY1"/>
+    <mergeCell ref="FZ1:GD1"/>
+    <mergeCell ref="GE1:GI1"/>
+    <mergeCell ref="GJ1:GN1"/>
+    <mergeCell ref="EG1:EK1"/>
+    <mergeCell ref="EL1:EP1"/>
+    <mergeCell ref="EQ1:EU1"/>
+    <mergeCell ref="EV1:EZ1"/>
+    <mergeCell ref="FA1:FE1"/>
+    <mergeCell ref="FF1:FJ1"/>
+    <mergeCell ref="DC1:DG1"/>
+    <mergeCell ref="DH1:DL1"/>
+    <mergeCell ref="DM1:DQ1"/>
+    <mergeCell ref="DR1:DV1"/>
+    <mergeCell ref="DW1:EA1"/>
+    <mergeCell ref="EB1:EF1"/>
+    <mergeCell ref="BY1:CC1"/>
+    <mergeCell ref="CD1:CH1"/>
+    <mergeCell ref="CI1:CM1"/>
+    <mergeCell ref="CN1:CR1"/>
+    <mergeCell ref="CS1:CW1"/>
+    <mergeCell ref="CX1:DB1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="BO1:BS1"/>
+    <mergeCell ref="BT1:BX1"/>
+    <mergeCell ref="AZ2:BD2"/>
+    <mergeCell ref="BE2:BI2"/>
+    <mergeCell ref="BJ2:BN2"/>
+    <mergeCell ref="BO2:BS2"/>
+    <mergeCell ref="BT2:BX2"/>
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AU1:AY1"/>
+    <mergeCell ref="AZ1:BD1"/>
+    <mergeCell ref="BE1:BI1"/>
+    <mergeCell ref="AF2:AJ2"/>
+    <mergeCell ref="AK2:AO2"/>
+    <mergeCell ref="AP2:AT2"/>
+    <mergeCell ref="AU2:AY2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="AA2:AE2"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/0_Projektorga/RoadMap.xlsx
+++ b/0_Projektorga/RoadMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janbantle/Documents/GitHub/Studienarbeit/0_Projektorga/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6872A7-D650-BD41-95D0-5D97299C1A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E250518-2961-A645-BE8A-BCD8BD040900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{FA9784DD-23F6-4C9A-9C04-5F94D8053CAD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="99">
   <si>
     <t xml:space="preserve">Oktober </t>
   </si>
@@ -189,19 +189,10 @@
     <t xml:space="preserve">Leistungskonvertierung </t>
   </si>
   <si>
-    <t xml:space="preserve">Batterie bestellen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ultraschallensoren </t>
-  </si>
-  <si>
     <t xml:space="preserve">Software </t>
   </si>
   <si>
     <t xml:space="preserve">Module testen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leistungsmodule bestellen </t>
   </si>
   <si>
     <t>KW4</t>
@@ -314,6 +305,33 @@
   <si>
     <t xml:space="preserve">Umsetzung: Getriebe </t>
   </si>
+  <si>
+    <t xml:space="preserve">Wirtschaft </t>
+  </si>
+  <si>
+    <t>Stand d. Technik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spannrolle </t>
+  </si>
+  <si>
+    <t>Ultraschallensoren testen</t>
+  </si>
+  <si>
+    <t>Module (ink. Batterie) bestellen</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Schnittstelle</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
 </sst>
 </file>
 
@@ -322,7 +340,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mmm"/>
     <numFmt numFmtId="165" formatCode="d/m;@"/>
-    <numFmt numFmtId="169" formatCode="[$-407]mmmmm\ yy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-407]mmmmm\ yy;@"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -393,7 +411,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -514,8 +532,20 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="42">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -990,11 +1020,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1105,45 +1150,20 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1189,56 +1209,78 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="0" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="16" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="17" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="16" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3738,24 +3780,24 @@
   <sheetData>
     <row r="1" spans="1:14" ht="16">
       <c r="A1" s="23"/>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53" t="s">
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="57"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="58"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="15">
@@ -3860,26 +3902,26 @@
       <c r="A5" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="49" t="s">
+      <c r="C5" s="77"/>
+      <c r="D5" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="65"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="66"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="59" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="12"/>
@@ -3897,7 +3939,7 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A7" s="59"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="12"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -3913,7 +3955,7 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A8" s="60"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="12"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -3929,7 +3971,7 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="62" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="13"/>
@@ -3947,7 +3989,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A10" s="62"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="13"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -3963,7 +4005,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A11" s="63"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="13"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -3979,7 +4021,7 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="70" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="14"/>
@@ -3997,7 +4039,7 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A13" s="42"/>
+      <c r="A13" s="71"/>
       <c r="B13" s="14"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -4013,7 +4055,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A14" s="43"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="14"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -4029,7 +4071,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="73" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="5"/>
@@ -4047,7 +4089,7 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A16" s="45"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -4063,7 +4105,7 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="16" thickBot="1">
-      <c r="A17" s="46"/>
+      <c r="A17" s="75"/>
       <c r="B17" s="20"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -4079,7 +4121,7 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="67" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="32"/>
@@ -4096,7 +4138,7 @@
       <c r="M18" s="34"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="39"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="32"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
@@ -4111,7 +4153,7 @@
       <c r="M19" s="34"/>
     </row>
     <row r="20" spans="1:14" ht="15" thickBot="1">
-      <c r="A20" s="40"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="35"/>
       <c r="C20" s="36"/>
       <c r="D20" s="36"/>
@@ -4127,17 +4169,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:K5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="L5:M5"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:K5"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="B6:J14">
@@ -4204,1212 +4246,6528 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08215EA3-8C9C-604B-8B92-D34B0C342221}">
-  <dimension ref="A1:HM34"/>
+  <dimension ref="A1:HM37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AL10" sqref="AL10"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AP14" sqref="AP14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="30" style="67" customWidth="1"/>
+    <col min="1" max="1" width="30" style="39" customWidth="1"/>
     <col min="2" max="26" width="1.6640625" customWidth="1"/>
-    <col min="27" max="27" width="3.5" style="82"/>
-    <col min="28" max="30" width="3.5" style="83"/>
-    <col min="31" max="31" width="3.5" style="88"/>
-    <col min="32" max="32" width="3.5" style="82"/>
-    <col min="33" max="35" width="3.5" style="83"/>
-    <col min="36" max="36" width="3.5" style="88"/>
-    <col min="37" max="37" width="3.5" style="82"/>
-    <col min="38" max="40" width="3.5" style="83"/>
-    <col min="41" max="41" width="3.5" style="88"/>
-    <col min="42" max="42" width="3.5" style="82"/>
-    <col min="43" max="45" width="3.5" style="83"/>
-    <col min="46" max="46" width="3.5" style="88"/>
-    <col min="47" max="47" width="3.5" style="82"/>
-    <col min="48" max="50" width="3.5" style="83"/>
-    <col min="51" max="51" width="3.5" style="88"/>
-    <col min="52" max="52" width="3.5" style="82"/>
-    <col min="53" max="55" width="3.5" style="83"/>
-    <col min="56" max="56" width="3.5" style="88"/>
-    <col min="57" max="57" width="3.5" style="82"/>
-    <col min="58" max="60" width="3.5" style="83"/>
-    <col min="61" max="61" width="3.5" style="88"/>
+    <col min="27" max="27" width="3.5" style="49"/>
+    <col min="28" max="30" width="3.5" style="50"/>
+    <col min="31" max="31" width="3.5" style="51"/>
+    <col min="32" max="32" width="3.5" style="49"/>
+    <col min="33" max="35" width="3.5" style="50"/>
+    <col min="36" max="36" width="3.5" style="51"/>
+    <col min="37" max="37" width="3.5" style="49"/>
+    <col min="38" max="40" width="3.5" style="50"/>
+    <col min="41" max="41" width="3.5" style="51"/>
+    <col min="42" max="42" width="3.5" style="49"/>
+    <col min="43" max="45" width="3.5" style="50"/>
+    <col min="46" max="46" width="3.5" style="51"/>
+    <col min="47" max="47" width="3.5" style="49"/>
+    <col min="48" max="50" width="3.5" style="50"/>
+    <col min="51" max="51" width="3.5" style="51"/>
+    <col min="52" max="52" width="3.5" style="49"/>
+    <col min="53" max="55" width="3.5" style="50"/>
+    <col min="56" max="56" width="3.5" style="51"/>
+    <col min="57" max="57" width="3.5" style="49"/>
+    <col min="58" max="60" width="3.5" style="50"/>
+    <col min="61" max="61" width="3.5" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:221" s="70" customFormat="1">
-      <c r="A1" s="66"/>
-      <c r="B1" s="69">
+    <row r="1" spans="1:221" s="41" customFormat="1">
+      <c r="A1" s="38"/>
+      <c r="B1" s="80">
         <v>44473</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69">
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80">
         <f>B1+7</f>
         <v>44480</v>
       </c>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69">
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80">
         <f t="shared" ref="L1" si="0">G1+7</f>
         <v>44487</v>
       </c>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69">
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80">
         <f t="shared" ref="Q1" si="1">L1+7</f>
         <v>44494</v>
       </c>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69">
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80">
         <f t="shared" ref="V1" si="2">Q1+7</f>
         <v>44501</v>
       </c>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="79">
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="84">
         <f t="shared" ref="AA1" si="3">V1+7</f>
         <v>44508</v>
       </c>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
       <c r="AE1" s="85"/>
-      <c r="AF1" s="79">
+      <c r="AF1" s="84">
         <f t="shared" ref="AF1" si="4">AA1+7</f>
         <v>44515</v>
       </c>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="69"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
       <c r="AJ1" s="85"/>
-      <c r="AK1" s="79">
+      <c r="AK1" s="84">
         <f t="shared" ref="AK1" si="5">AF1+7</f>
         <v>44522</v>
       </c>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="69"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="80"/>
+      <c r="AN1" s="80"/>
       <c r="AO1" s="85"/>
-      <c r="AP1" s="79">
+      <c r="AP1" s="84">
         <f t="shared" ref="AP1" si="6">AK1+7</f>
         <v>44529</v>
       </c>
-      <c r="AQ1" s="69"/>
-      <c r="AR1" s="69"/>
-      <c r="AS1" s="69"/>
+      <c r="AQ1" s="80"/>
+      <c r="AR1" s="80"/>
+      <c r="AS1" s="80"/>
       <c r="AT1" s="85"/>
-      <c r="AU1" s="79">
+      <c r="AU1" s="84">
         <f t="shared" ref="AU1" si="7">AP1+7</f>
         <v>44536</v>
       </c>
-      <c r="AV1" s="69"/>
-      <c r="AW1" s="69"/>
-      <c r="AX1" s="69"/>
+      <c r="AV1" s="80"/>
+      <c r="AW1" s="80"/>
+      <c r="AX1" s="80"/>
       <c r="AY1" s="85"/>
-      <c r="AZ1" s="79">
+      <c r="AZ1" s="84">
         <f t="shared" ref="AZ1" si="8">AU1+7</f>
         <v>44543</v>
       </c>
-      <c r="BA1" s="69"/>
-      <c r="BB1" s="69"/>
-      <c r="BC1" s="69"/>
+      <c r="BA1" s="80"/>
+      <c r="BB1" s="80"/>
+      <c r="BC1" s="80"/>
       <c r="BD1" s="85"/>
-      <c r="BE1" s="79">
+      <c r="BE1" s="84">
         <f t="shared" ref="BE1" si="9">AZ1+7</f>
         <v>44550</v>
       </c>
-      <c r="BF1" s="69"/>
-      <c r="BG1" s="69"/>
-      <c r="BH1" s="69"/>
+      <c r="BF1" s="80"/>
+      <c r="BG1" s="80"/>
+      <c r="BH1" s="80"/>
       <c r="BI1" s="85"/>
-      <c r="BJ1" s="69">
+      <c r="BJ1" s="80">
         <f t="shared" ref="BJ1" si="10">BE1+7</f>
         <v>44557</v>
       </c>
-      <c r="BK1" s="69"/>
-      <c r="BL1" s="69"/>
-      <c r="BM1" s="69"/>
-      <c r="BN1" s="69"/>
-      <c r="BO1" s="69">
+      <c r="BK1" s="80"/>
+      <c r="BL1" s="80"/>
+      <c r="BM1" s="80"/>
+      <c r="BN1" s="80"/>
+      <c r="BO1" s="80">
         <f t="shared" ref="BO1" si="11">BJ1+7</f>
         <v>44564</v>
       </c>
-      <c r="BP1" s="69"/>
-      <c r="BQ1" s="69"/>
-      <c r="BR1" s="69"/>
-      <c r="BS1" s="69"/>
-      <c r="BT1" s="69">
+      <c r="BP1" s="80"/>
+      <c r="BQ1" s="80"/>
+      <c r="BR1" s="80"/>
+      <c r="BS1" s="80"/>
+      <c r="BT1" s="80">
         <f t="shared" ref="BT1" si="12">BO1+7</f>
         <v>44571</v>
       </c>
-      <c r="BU1" s="69"/>
-      <c r="BV1" s="69"/>
-      <c r="BW1" s="69"/>
-      <c r="BX1" s="69"/>
-      <c r="BY1" s="69">
+      <c r="BU1" s="80"/>
+      <c r="BV1" s="80"/>
+      <c r="BW1" s="80"/>
+      <c r="BX1" s="80"/>
+      <c r="BY1" s="80">
         <f t="shared" ref="BY1" si="13">BT1+7</f>
         <v>44578</v>
       </c>
-      <c r="BZ1" s="69"/>
-      <c r="CA1" s="69"/>
-      <c r="CB1" s="69"/>
-      <c r="CC1" s="69"/>
-      <c r="CD1" s="69">
+      <c r="BZ1" s="80"/>
+      <c r="CA1" s="80"/>
+      <c r="CB1" s="80"/>
+      <c r="CC1" s="80"/>
+      <c r="CD1" s="80">
         <f t="shared" ref="CD1" si="14">BY1+7</f>
         <v>44585</v>
       </c>
-      <c r="CE1" s="69"/>
-      <c r="CF1" s="69"/>
-      <c r="CG1" s="69"/>
-      <c r="CH1" s="69"/>
-      <c r="CI1" s="69">
+      <c r="CE1" s="80"/>
+      <c r="CF1" s="80"/>
+      <c r="CG1" s="80"/>
+      <c r="CH1" s="80"/>
+      <c r="CI1" s="80">
         <f t="shared" ref="CI1" si="15">CD1+7</f>
         <v>44592</v>
       </c>
-      <c r="CJ1" s="69"/>
-      <c r="CK1" s="69"/>
-      <c r="CL1" s="69"/>
-      <c r="CM1" s="69"/>
-      <c r="CN1" s="69">
+      <c r="CJ1" s="80"/>
+      <c r="CK1" s="80"/>
+      <c r="CL1" s="80"/>
+      <c r="CM1" s="80"/>
+      <c r="CN1" s="80">
         <f t="shared" ref="CN1" si="16">CI1+7</f>
         <v>44599</v>
       </c>
-      <c r="CO1" s="69"/>
-      <c r="CP1" s="69"/>
-      <c r="CQ1" s="69"/>
-      <c r="CR1" s="69"/>
-      <c r="CS1" s="69">
+      <c r="CO1" s="80"/>
+      <c r="CP1" s="80"/>
+      <c r="CQ1" s="80"/>
+      <c r="CR1" s="80"/>
+      <c r="CS1" s="80">
         <f t="shared" ref="CS1" si="17">CN1+7</f>
         <v>44606</v>
       </c>
-      <c r="CT1" s="69"/>
-      <c r="CU1" s="69"/>
-      <c r="CV1" s="69"/>
-      <c r="CW1" s="69"/>
-      <c r="CX1" s="69">
+      <c r="CT1" s="80"/>
+      <c r="CU1" s="80"/>
+      <c r="CV1" s="80"/>
+      <c r="CW1" s="80"/>
+      <c r="CX1" s="80">
         <f t="shared" ref="CX1" si="18">CS1+7</f>
         <v>44613</v>
       </c>
-      <c r="CY1" s="69"/>
-      <c r="CZ1" s="69"/>
-      <c r="DA1" s="69"/>
-      <c r="DB1" s="69"/>
-      <c r="DC1" s="69">
+      <c r="CY1" s="80"/>
+      <c r="CZ1" s="80"/>
+      <c r="DA1" s="80"/>
+      <c r="DB1" s="80"/>
+      <c r="DC1" s="80">
         <f t="shared" ref="DC1" si="19">CX1+7</f>
         <v>44620</v>
       </c>
-      <c r="DD1" s="69"/>
-      <c r="DE1" s="69"/>
-      <c r="DF1" s="69"/>
-      <c r="DG1" s="69"/>
-      <c r="DH1" s="69">
+      <c r="DD1" s="80"/>
+      <c r="DE1" s="80"/>
+      <c r="DF1" s="80"/>
+      <c r="DG1" s="80"/>
+      <c r="DH1" s="80">
         <f t="shared" ref="DH1" si="20">DC1+7</f>
         <v>44627</v>
       </c>
-      <c r="DI1" s="69"/>
-      <c r="DJ1" s="69"/>
-      <c r="DK1" s="69"/>
-      <c r="DL1" s="69"/>
-      <c r="DM1" s="69">
+      <c r="DI1" s="80"/>
+      <c r="DJ1" s="80"/>
+      <c r="DK1" s="80"/>
+      <c r="DL1" s="80"/>
+      <c r="DM1" s="80">
         <f t="shared" ref="DM1" si="21">DH1+7</f>
         <v>44634</v>
       </c>
-      <c r="DN1" s="69"/>
-      <c r="DO1" s="69"/>
-      <c r="DP1" s="69"/>
-      <c r="DQ1" s="69"/>
-      <c r="DR1" s="69">
+      <c r="DN1" s="80"/>
+      <c r="DO1" s="80"/>
+      <c r="DP1" s="80"/>
+      <c r="DQ1" s="80"/>
+      <c r="DR1" s="80">
         <f t="shared" ref="DR1" si="22">DM1+7</f>
         <v>44641</v>
       </c>
-      <c r="DS1" s="69"/>
-      <c r="DT1" s="69"/>
-      <c r="DU1" s="69"/>
-      <c r="DV1" s="69"/>
-      <c r="DW1" s="69">
+      <c r="DS1" s="80"/>
+      <c r="DT1" s="80"/>
+      <c r="DU1" s="80"/>
+      <c r="DV1" s="80"/>
+      <c r="DW1" s="80">
         <f t="shared" ref="DW1" si="23">DR1+7</f>
         <v>44648</v>
       </c>
-      <c r="DX1" s="69"/>
-      <c r="DY1" s="69"/>
-      <c r="DZ1" s="69"/>
-      <c r="EA1" s="69"/>
-      <c r="EB1" s="69">
+      <c r="DX1" s="80"/>
+      <c r="DY1" s="80"/>
+      <c r="DZ1" s="80"/>
+      <c r="EA1" s="80"/>
+      <c r="EB1" s="80">
         <f t="shared" ref="EB1" si="24">DW1+7</f>
         <v>44655</v>
       </c>
-      <c r="EC1" s="69"/>
-      <c r="ED1" s="69"/>
-      <c r="EE1" s="69"/>
-      <c r="EF1" s="69"/>
-      <c r="EG1" s="69">
+      <c r="EC1" s="80"/>
+      <c r="ED1" s="80"/>
+      <c r="EE1" s="80"/>
+      <c r="EF1" s="80"/>
+      <c r="EG1" s="80">
         <f t="shared" ref="EG1" si="25">EB1+7</f>
         <v>44662</v>
       </c>
-      <c r="EH1" s="69"/>
-      <c r="EI1" s="69"/>
-      <c r="EJ1" s="69"/>
-      <c r="EK1" s="69"/>
-      <c r="EL1" s="69">
+      <c r="EH1" s="80"/>
+      <c r="EI1" s="80"/>
+      <c r="EJ1" s="80"/>
+      <c r="EK1" s="80"/>
+      <c r="EL1" s="80">
         <f t="shared" ref="EL1" si="26">EG1+7</f>
         <v>44669</v>
       </c>
-      <c r="EM1" s="69"/>
-      <c r="EN1" s="69"/>
-      <c r="EO1" s="69"/>
-      <c r="EP1" s="69"/>
-      <c r="EQ1" s="69">
+      <c r="EM1" s="80"/>
+      <c r="EN1" s="80"/>
+      <c r="EO1" s="80"/>
+      <c r="EP1" s="80"/>
+      <c r="EQ1" s="80">
         <f t="shared" ref="EQ1" si="27">EL1+7</f>
         <v>44676</v>
       </c>
-      <c r="ER1" s="69"/>
-      <c r="ES1" s="69"/>
-      <c r="ET1" s="69"/>
-      <c r="EU1" s="69"/>
-      <c r="EV1" s="69">
+      <c r="ER1" s="80"/>
+      <c r="ES1" s="80"/>
+      <c r="ET1" s="80"/>
+      <c r="EU1" s="80"/>
+      <c r="EV1" s="80">
         <f t="shared" ref="EV1" si="28">EQ1+7</f>
         <v>44683</v>
       </c>
-      <c r="EW1" s="69"/>
-      <c r="EX1" s="69"/>
-      <c r="EY1" s="69"/>
-      <c r="EZ1" s="69"/>
-      <c r="FA1" s="69">
+      <c r="EW1" s="80"/>
+      <c r="EX1" s="80"/>
+      <c r="EY1" s="80"/>
+      <c r="EZ1" s="80"/>
+      <c r="FA1" s="80">
         <f t="shared" ref="FA1" si="29">EV1+7</f>
         <v>44690</v>
       </c>
-      <c r="FB1" s="69"/>
-      <c r="FC1" s="69"/>
-      <c r="FD1" s="69"/>
-      <c r="FE1" s="69"/>
-      <c r="FF1" s="69">
+      <c r="FB1" s="80"/>
+      <c r="FC1" s="80"/>
+      <c r="FD1" s="80"/>
+      <c r="FE1" s="80"/>
+      <c r="FF1" s="80">
         <f t="shared" ref="FF1" si="30">FA1+7</f>
         <v>44697</v>
       </c>
-      <c r="FG1" s="69"/>
-      <c r="FH1" s="69"/>
-      <c r="FI1" s="69"/>
-      <c r="FJ1" s="69"/>
-      <c r="FK1" s="69">
+      <c r="FG1" s="80"/>
+      <c r="FH1" s="80"/>
+      <c r="FI1" s="80"/>
+      <c r="FJ1" s="80"/>
+      <c r="FK1" s="80">
         <f t="shared" ref="FK1" si="31">FF1+7</f>
         <v>44704</v>
       </c>
-      <c r="FL1" s="69"/>
-      <c r="FM1" s="69"/>
-      <c r="FN1" s="69"/>
-      <c r="FO1" s="69"/>
-      <c r="FP1" s="69">
+      <c r="FL1" s="80"/>
+      <c r="FM1" s="80"/>
+      <c r="FN1" s="80"/>
+      <c r="FO1" s="80"/>
+      <c r="FP1" s="80">
         <f t="shared" ref="FP1" si="32">FK1+7</f>
         <v>44711</v>
       </c>
-      <c r="FQ1" s="69"/>
-      <c r="FR1" s="69"/>
-      <c r="FS1" s="69"/>
-      <c r="FT1" s="69"/>
-      <c r="FU1" s="69">
+      <c r="FQ1" s="80"/>
+      <c r="FR1" s="80"/>
+      <c r="FS1" s="80"/>
+      <c r="FT1" s="80"/>
+      <c r="FU1" s="80">
         <f t="shared" ref="FU1" si="33">FP1+7</f>
         <v>44718</v>
       </c>
-      <c r="FV1" s="69"/>
-      <c r="FW1" s="69"/>
-      <c r="FX1" s="69"/>
-      <c r="FY1" s="69"/>
-      <c r="FZ1" s="69">
+      <c r="FV1" s="80"/>
+      <c r="FW1" s="80"/>
+      <c r="FX1" s="80"/>
+      <c r="FY1" s="80"/>
+      <c r="FZ1" s="80">
         <f t="shared" ref="FZ1" si="34">FU1+7</f>
         <v>44725</v>
       </c>
-      <c r="GA1" s="69"/>
-      <c r="GB1" s="69"/>
-      <c r="GC1" s="69"/>
-      <c r="GD1" s="69"/>
-      <c r="GE1" s="69">
+      <c r="GA1" s="80"/>
+      <c r="GB1" s="80"/>
+      <c r="GC1" s="80"/>
+      <c r="GD1" s="80"/>
+      <c r="GE1" s="80">
         <f t="shared" ref="GE1" si="35">FZ1+7</f>
         <v>44732</v>
       </c>
-      <c r="GF1" s="69"/>
-      <c r="GG1" s="69"/>
-      <c r="GH1" s="69"/>
-      <c r="GI1" s="69"/>
-      <c r="GJ1" s="69">
+      <c r="GF1" s="80"/>
+      <c r="GG1" s="80"/>
+      <c r="GH1" s="80"/>
+      <c r="GI1" s="80"/>
+      <c r="GJ1" s="80">
         <f t="shared" ref="GJ1" si="36">GE1+7</f>
         <v>44739</v>
       </c>
-      <c r="GK1" s="69"/>
-      <c r="GL1" s="69"/>
-      <c r="GM1" s="69"/>
-      <c r="GN1" s="69"/>
-      <c r="GO1" s="69">
+      <c r="GK1" s="80"/>
+      <c r="GL1" s="80"/>
+      <c r="GM1" s="80"/>
+      <c r="GN1" s="80"/>
+      <c r="GO1" s="80">
         <f t="shared" ref="GO1" si="37">GJ1+7</f>
         <v>44746</v>
       </c>
-      <c r="GP1" s="69"/>
-      <c r="GQ1" s="69"/>
-      <c r="GR1" s="69"/>
-      <c r="GS1" s="69"/>
-      <c r="GT1" s="69">
+      <c r="GP1" s="80"/>
+      <c r="GQ1" s="80"/>
+      <c r="GR1" s="80"/>
+      <c r="GS1" s="80"/>
+      <c r="GT1" s="80">
         <f t="shared" ref="GT1" si="38">GO1+7</f>
         <v>44753</v>
       </c>
-      <c r="GU1" s="69"/>
-      <c r="GV1" s="69"/>
-      <c r="GW1" s="69"/>
-      <c r="GX1" s="69"/>
-      <c r="GY1" s="69">
+      <c r="GU1" s="80"/>
+      <c r="GV1" s="80"/>
+      <c r="GW1" s="80"/>
+      <c r="GX1" s="80"/>
+      <c r="GY1" s="80">
         <f t="shared" ref="GY1" si="39">GT1+7</f>
         <v>44760</v>
       </c>
-      <c r="GZ1" s="69"/>
-      <c r="HA1" s="69"/>
-      <c r="HB1" s="69"/>
-      <c r="HC1" s="69"/>
-      <c r="HD1" s="69">
+      <c r="GZ1" s="80"/>
+      <c r="HA1" s="80"/>
+      <c r="HB1" s="80"/>
+      <c r="HC1" s="80"/>
+      <c r="HD1" s="80">
         <f t="shared" ref="HD1" si="40">GY1+7</f>
         <v>44767</v>
       </c>
-      <c r="HE1" s="69"/>
-      <c r="HF1" s="69"/>
-      <c r="HG1" s="69"/>
-      <c r="HH1" s="69"/>
-      <c r="HI1" s="69">
+      <c r="HE1" s="80"/>
+      <c r="HF1" s="80"/>
+      <c r="HG1" s="80"/>
+      <c r="HH1" s="80"/>
+      <c r="HI1" s="80">
         <f t="shared" ref="HI1" si="41">HD1+7</f>
         <v>44774</v>
       </c>
-      <c r="HJ1" s="69"/>
-      <c r="HK1" s="69"/>
-      <c r="HL1" s="69"/>
-      <c r="HM1" s="69"/>
+      <c r="HJ1" s="80"/>
+      <c r="HK1" s="80"/>
+      <c r="HL1" s="80"/>
+      <c r="HM1" s="80"/>
     </row>
-    <row r="2" spans="1:221" s="73" customFormat="1" ht="15" thickBot="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72" t="s">
+    <row r="2" spans="1:221" s="43" customFormat="1" ht="15" thickBot="1">
+      <c r="A2" s="42"/>
+      <c r="B2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72" t="s">
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72" t="s">
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72" t="s">
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="80" t="s">
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="80" t="s">
+      <c r="AB2" s="81"/>
+      <c r="AC2" s="81"/>
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="86"/>
-      <c r="AK2" s="80" t="s">
+      <c r="AG2" s="81"/>
+      <c r="AH2" s="81"/>
+      <c r="AI2" s="81"/>
+      <c r="AJ2" s="83"/>
+      <c r="AK2" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="86"/>
-      <c r="AP2" s="80" t="s">
+      <c r="AL2" s="81"/>
+      <c r="AM2" s="81"/>
+      <c r="AN2" s="81"/>
+      <c r="AO2" s="83"/>
+      <c r="AP2" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="AQ2" s="72"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="86"/>
-      <c r="AU2" s="80" t="s">
+      <c r="AQ2" s="81"/>
+      <c r="AR2" s="81"/>
+      <c r="AS2" s="81"/>
+      <c r="AT2" s="83"/>
+      <c r="AU2" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="AV2" s="72"/>
-      <c r="AW2" s="72"/>
-      <c r="AX2" s="72"/>
-      <c r="AY2" s="86"/>
-      <c r="AZ2" s="80" t="s">
+      <c r="AV2" s="81"/>
+      <c r="AW2" s="81"/>
+      <c r="AX2" s="81"/>
+      <c r="AY2" s="83"/>
+      <c r="AZ2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="BA2" s="72"/>
-      <c r="BB2" s="72"/>
-      <c r="BC2" s="72"/>
-      <c r="BD2" s="86"/>
-      <c r="BE2" s="80" t="s">
+      <c r="BA2" s="81"/>
+      <c r="BB2" s="81"/>
+      <c r="BC2" s="81"/>
+      <c r="BD2" s="83"/>
+      <c r="BE2" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="BF2" s="72"/>
-      <c r="BG2" s="72"/>
-      <c r="BH2" s="72"/>
-      <c r="BI2" s="86"/>
-      <c r="BJ2" s="72" t="s">
+      <c r="BF2" s="81"/>
+      <c r="BG2" s="81"/>
+      <c r="BH2" s="81"/>
+      <c r="BI2" s="83"/>
+      <c r="BJ2" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="BK2" s="81"/>
+      <c r="BL2" s="81"/>
+      <c r="BM2" s="81"/>
+      <c r="BN2" s="81"/>
+      <c r="BO2" s="81" t="s">
+        <v>55</v>
+      </c>
+      <c r="BP2" s="81"/>
+      <c r="BQ2" s="81"/>
+      <c r="BR2" s="81"/>
+      <c r="BS2" s="81"/>
+      <c r="BT2" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="BU2" s="81"/>
+      <c r="BV2" s="81"/>
+      <c r="BW2" s="81"/>
+      <c r="BX2" s="81"/>
+      <c r="BY2" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="BK2" s="72"/>
-      <c r="BL2" s="72"/>
-      <c r="BM2" s="72"/>
-      <c r="BN2" s="72"/>
-      <c r="BO2" s="72" t="s">
+      <c r="BZ2" s="81"/>
+      <c r="CA2" s="81"/>
+      <c r="CB2" s="81"/>
+      <c r="CC2" s="81"/>
+      <c r="CD2" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="CE2" s="81"/>
+      <c r="CF2" s="81"/>
+      <c r="CG2" s="81"/>
+      <c r="CH2" s="81"/>
+      <c r="CI2" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="BP2" s="72"/>
-      <c r="BQ2" s="72"/>
-      <c r="BR2" s="72"/>
-      <c r="BS2" s="72"/>
-      <c r="BT2" s="72" t="s">
+      <c r="CJ2" s="81"/>
+      <c r="CK2" s="81"/>
+      <c r="CL2" s="81"/>
+      <c r="CM2" s="81"/>
+      <c r="CN2" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="BU2" s="72"/>
-      <c r="BV2" s="72"/>
-      <c r="BW2" s="72"/>
-      <c r="BX2" s="72"/>
-      <c r="BY2" s="72" t="s">
+      <c r="CO2" s="81"/>
+      <c r="CP2" s="81"/>
+      <c r="CQ2" s="81"/>
+      <c r="CR2" s="81"/>
+      <c r="CS2" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="BZ2" s="72"/>
-      <c r="CA2" s="72"/>
-      <c r="CB2" s="72"/>
-      <c r="CC2" s="72"/>
-      <c r="CD2" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="CE2" s="72"/>
-      <c r="CF2" s="72"/>
-      <c r="CG2" s="72"/>
-      <c r="CH2" s="72"/>
-      <c r="CI2" s="72" t="s">
+      <c r="CT2" s="81"/>
+      <c r="CU2" s="81"/>
+      <c r="CV2" s="81"/>
+      <c r="CW2" s="81"/>
+      <c r="CX2" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="CJ2" s="72"/>
-      <c r="CK2" s="72"/>
-      <c r="CL2" s="72"/>
-      <c r="CM2" s="72"/>
-      <c r="CN2" s="72" t="s">
+      <c r="CY2" s="81"/>
+      <c r="CZ2" s="81"/>
+      <c r="DA2" s="81"/>
+      <c r="DB2" s="81"/>
+      <c r="DC2" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="CO2" s="72"/>
-      <c r="CP2" s="72"/>
-      <c r="CQ2" s="72"/>
-      <c r="CR2" s="72"/>
-      <c r="CS2" s="72" t="s">
+      <c r="DD2" s="81"/>
+      <c r="DE2" s="81"/>
+      <c r="DF2" s="81"/>
+      <c r="DG2" s="81"/>
+      <c r="DH2" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="CT2" s="72"/>
-      <c r="CU2" s="72"/>
-      <c r="CV2" s="72"/>
-      <c r="CW2" s="72"/>
-      <c r="CX2" s="72" t="s">
+      <c r="DI2" s="81"/>
+      <c r="DJ2" s="81"/>
+      <c r="DK2" s="81"/>
+      <c r="DL2" s="81"/>
+      <c r="DM2" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="CY2" s="72"/>
-      <c r="CZ2" s="72"/>
-      <c r="DA2" s="72"/>
-      <c r="DB2" s="72"/>
-      <c r="DC2" s="72" t="s">
+      <c r="DN2" s="81"/>
+      <c r="DO2" s="81"/>
+      <c r="DP2" s="81"/>
+      <c r="DQ2" s="81"/>
+      <c r="DR2" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="DD2" s="72"/>
-      <c r="DE2" s="72"/>
-      <c r="DF2" s="72"/>
-      <c r="DG2" s="72"/>
-      <c r="DH2" s="72" t="s">
+      <c r="DS2" s="81"/>
+      <c r="DT2" s="81"/>
+      <c r="DU2" s="81"/>
+      <c r="DV2" s="81"/>
+      <c r="DW2" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="DI2" s="72"/>
-      <c r="DJ2" s="72"/>
-      <c r="DK2" s="72"/>
-      <c r="DL2" s="72"/>
-      <c r="DM2" s="72" t="s">
+      <c r="DX2" s="81"/>
+      <c r="DY2" s="81"/>
+      <c r="DZ2" s="81"/>
+      <c r="EA2" s="81"/>
+      <c r="EB2" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="DN2" s="72"/>
-      <c r="DO2" s="72"/>
-      <c r="DP2" s="72"/>
-      <c r="DQ2" s="72"/>
-      <c r="DR2" s="72" t="s">
+      <c r="EC2" s="81"/>
+      <c r="ED2" s="81"/>
+      <c r="EE2" s="81"/>
+      <c r="EF2" s="81"/>
+      <c r="EG2" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="DS2" s="72"/>
-      <c r="DT2" s="72"/>
-      <c r="DU2" s="72"/>
-      <c r="DV2" s="72"/>
-      <c r="DW2" s="72" t="s">
+      <c r="EH2" s="81"/>
+      <c r="EI2" s="81"/>
+      <c r="EJ2" s="81"/>
+      <c r="EK2" s="81"/>
+      <c r="EL2" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="DX2" s="72"/>
-      <c r="DY2" s="72"/>
-      <c r="DZ2" s="72"/>
-      <c r="EA2" s="72"/>
-      <c r="EB2" s="72" t="s">
+      <c r="EM2" s="81"/>
+      <c r="EN2" s="81"/>
+      <c r="EO2" s="81"/>
+      <c r="EP2" s="81"/>
+      <c r="EQ2" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="EC2" s="72"/>
-      <c r="ED2" s="72"/>
-      <c r="EE2" s="72"/>
-      <c r="EF2" s="72"/>
-      <c r="EG2" s="72" t="s">
+      <c r="ER2" s="81"/>
+      <c r="ES2" s="81"/>
+      <c r="ET2" s="81"/>
+      <c r="EU2" s="81"/>
+      <c r="EV2" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="EH2" s="72"/>
-      <c r="EI2" s="72"/>
-      <c r="EJ2" s="72"/>
-      <c r="EK2" s="72"/>
-      <c r="EL2" s="72" t="s">
+      <c r="EW2" s="81"/>
+      <c r="EX2" s="81"/>
+      <c r="EY2" s="81"/>
+      <c r="EZ2" s="81"/>
+      <c r="FA2" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="EM2" s="72"/>
-      <c r="EN2" s="72"/>
-      <c r="EO2" s="72"/>
-      <c r="EP2" s="72"/>
-      <c r="EQ2" s="72" t="s">
+      <c r="FB2" s="81"/>
+      <c r="FC2" s="81"/>
+      <c r="FD2" s="81"/>
+      <c r="FE2" s="81"/>
+      <c r="FF2" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="ER2" s="72"/>
-      <c r="ES2" s="72"/>
-      <c r="ET2" s="72"/>
-      <c r="EU2" s="72"/>
-      <c r="EV2" s="72" t="s">
+      <c r="FG2" s="81"/>
+      <c r="FH2" s="81"/>
+      <c r="FI2" s="81"/>
+      <c r="FJ2" s="81"/>
+      <c r="FK2" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="EW2" s="72"/>
-      <c r="EX2" s="72"/>
-      <c r="EY2" s="72"/>
-      <c r="EZ2" s="72"/>
-      <c r="FA2" s="72" t="s">
+      <c r="FL2" s="81"/>
+      <c r="FM2" s="81"/>
+      <c r="FN2" s="81"/>
+      <c r="FO2" s="81"/>
+      <c r="FP2" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="FB2" s="72"/>
-      <c r="FC2" s="72"/>
-      <c r="FD2" s="72"/>
-      <c r="FE2" s="72"/>
-      <c r="FF2" s="72" t="s">
+      <c r="FQ2" s="81"/>
+      <c r="FR2" s="81"/>
+      <c r="FS2" s="81"/>
+      <c r="FT2" s="81"/>
+      <c r="FU2" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="FG2" s="72"/>
-      <c r="FH2" s="72"/>
-      <c r="FI2" s="72"/>
-      <c r="FJ2" s="72"/>
-      <c r="FK2" s="72" t="s">
+      <c r="FV2" s="81"/>
+      <c r="FW2" s="81"/>
+      <c r="FX2" s="81"/>
+      <c r="FY2" s="81"/>
+      <c r="FZ2" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="FL2" s="72"/>
-      <c r="FM2" s="72"/>
-      <c r="FN2" s="72"/>
-      <c r="FO2" s="72"/>
-      <c r="FP2" s="72" t="s">
+      <c r="GA2" s="81"/>
+      <c r="GB2" s="81"/>
+      <c r="GC2" s="81"/>
+      <c r="GD2" s="81"/>
+      <c r="GE2" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="FQ2" s="72"/>
-      <c r="FR2" s="72"/>
-      <c r="FS2" s="72"/>
-      <c r="FT2" s="72"/>
-      <c r="FU2" s="72" t="s">
+      <c r="GF2" s="81"/>
+      <c r="GG2" s="81"/>
+      <c r="GH2" s="81"/>
+      <c r="GI2" s="81"/>
+      <c r="GJ2" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="FV2" s="72"/>
-      <c r="FW2" s="72"/>
-      <c r="FX2" s="72"/>
-      <c r="FY2" s="72"/>
-      <c r="FZ2" s="72" t="s">
+      <c r="GK2" s="81"/>
+      <c r="GL2" s="81"/>
+      <c r="GM2" s="81"/>
+      <c r="GN2" s="81"/>
+      <c r="GO2" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="GA2" s="72"/>
-      <c r="GB2" s="72"/>
-      <c r="GC2" s="72"/>
-      <c r="GD2" s="72"/>
-      <c r="GE2" s="72" t="s">
+      <c r="GP2" s="81"/>
+      <c r="GQ2" s="81"/>
+      <c r="GR2" s="81"/>
+      <c r="GS2" s="81"/>
+      <c r="GT2" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="GF2" s="72"/>
-      <c r="GG2" s="72"/>
-      <c r="GH2" s="72"/>
-      <c r="GI2" s="72"/>
-      <c r="GJ2" s="72" t="s">
+      <c r="GU2" s="81"/>
+      <c r="GV2" s="81"/>
+      <c r="GW2" s="81"/>
+      <c r="GX2" s="81"/>
+      <c r="GY2" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="GK2" s="72"/>
-      <c r="GL2" s="72"/>
-      <c r="GM2" s="72"/>
-      <c r="GN2" s="72"/>
-      <c r="GO2" s="72" t="s">
+      <c r="GZ2" s="81"/>
+      <c r="HA2" s="81"/>
+      <c r="HB2" s="81"/>
+      <c r="HC2" s="81"/>
+      <c r="HD2" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="GP2" s="72"/>
-      <c r="GQ2" s="72"/>
-      <c r="GR2" s="72"/>
-      <c r="GS2" s="72"/>
-      <c r="GT2" s="72" t="s">
+      <c r="HE2" s="81"/>
+      <c r="HF2" s="81"/>
+      <c r="HG2" s="81"/>
+      <c r="HH2" s="81"/>
+      <c r="HI2" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="GU2" s="72"/>
-      <c r="GV2" s="72"/>
-      <c r="GW2" s="72"/>
-      <c r="GX2" s="72"/>
-      <c r="GY2" s="72" t="s">
+      <c r="HJ2" s="81"/>
+      <c r="HK2" s="81"/>
+      <c r="HL2" s="81"/>
+      <c r="HM2" s="81"/>
+    </row>
+    <row r="3" spans="1:221" s="47" customFormat="1" ht="15" thickBot="1">
+      <c r="A3" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="GZ2" s="72"/>
-      <c r="HA2" s="72"/>
-      <c r="HB2" s="72"/>
-      <c r="HC2" s="72"/>
-      <c r="HD2" s="72" t="s">
-        <v>86</v>
-      </c>
-      <c r="HE2" s="72"/>
-      <c r="HF2" s="72"/>
-      <c r="HG2" s="72"/>
-      <c r="HH2" s="72"/>
-      <c r="HI2" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="HJ2" s="72"/>
-      <c r="HK2" s="72"/>
-      <c r="HL2" s="72"/>
-      <c r="HM2" s="72"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="46"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="86"/>
+      <c r="AB3" s="87"/>
+      <c r="AC3" s="87"/>
+      <c r="AD3" s="87"/>
+      <c r="AE3" s="88"/>
+      <c r="AF3" s="89"/>
+      <c r="AG3" s="90"/>
+      <c r="AH3" s="90"/>
+      <c r="AI3" s="90"/>
+      <c r="AJ3" s="91"/>
+      <c r="AK3" s="86"/>
+      <c r="AL3" s="87"/>
+      <c r="AM3" s="87"/>
+      <c r="AN3" s="87"/>
+      <c r="AO3" s="92"/>
+      <c r="AP3" s="86"/>
+      <c r="AQ3" s="87"/>
+      <c r="AR3" s="87"/>
+      <c r="AS3" s="87"/>
+      <c r="AT3" s="92"/>
+      <c r="AU3" s="86"/>
+      <c r="AV3" s="87"/>
+      <c r="AW3" s="87"/>
+      <c r="AX3" s="87"/>
+      <c r="AY3" s="92"/>
+      <c r="AZ3" s="86"/>
+      <c r="BA3" s="87"/>
+      <c r="BB3" s="87"/>
+      <c r="BC3" s="87"/>
+      <c r="BD3" s="93"/>
+      <c r="BE3" s="89"/>
+      <c r="BF3" s="90"/>
+      <c r="BG3" s="90"/>
+      <c r="BH3" s="90"/>
+      <c r="BI3" s="91"/>
+      <c r="BJ3" s="87"/>
+      <c r="BK3" s="87"/>
+      <c r="BL3" s="87"/>
+      <c r="BM3" s="87"/>
+      <c r="BN3" s="87"/>
+      <c r="BO3" s="87"/>
+      <c r="BP3" s="87"/>
+      <c r="BQ3" s="87"/>
+      <c r="BR3" s="87"/>
+      <c r="BS3" s="87"/>
+      <c r="BT3" s="87"/>
+      <c r="BU3" s="87"/>
+      <c r="BV3" s="87"/>
+      <c r="BW3" s="87"/>
+      <c r="BX3" s="87"/>
+      <c r="BY3" s="87"/>
+      <c r="BZ3" s="87"/>
+      <c r="CA3" s="87"/>
+      <c r="CB3" s="87"/>
+      <c r="CC3" s="87"/>
+      <c r="CD3" s="87"/>
+      <c r="CE3" s="87"/>
+      <c r="CF3" s="87"/>
+      <c r="CG3" s="87"/>
+      <c r="CH3" s="87"/>
+      <c r="CI3" s="87"/>
+      <c r="CJ3" s="87"/>
+      <c r="CK3" s="87"/>
+      <c r="CL3" s="87"/>
+      <c r="CM3" s="87"/>
+      <c r="CN3" s="87"/>
+      <c r="CO3" s="87"/>
+      <c r="CP3" s="87"/>
+      <c r="CQ3" s="87"/>
+      <c r="CR3" s="87"/>
+      <c r="CS3" s="87"/>
+      <c r="CT3" s="87"/>
+      <c r="CU3" s="87"/>
+      <c r="CV3" s="87"/>
+      <c r="CW3" s="87"/>
+      <c r="CX3" s="87"/>
+      <c r="CY3" s="87"/>
+      <c r="CZ3" s="87"/>
+      <c r="DA3" s="87"/>
+      <c r="DB3" s="87"/>
+      <c r="DC3" s="87"/>
+      <c r="DD3" s="87"/>
+      <c r="DE3" s="87"/>
+      <c r="DF3" s="87"/>
+      <c r="DG3" s="87"/>
+      <c r="DH3" s="87"/>
+      <c r="DI3" s="87"/>
+      <c r="DJ3" s="87"/>
+      <c r="DK3" s="87"/>
+      <c r="DL3" s="87"/>
+      <c r="DM3" s="87"/>
+      <c r="DN3" s="87"/>
+      <c r="DO3" s="87"/>
+      <c r="DP3" s="87"/>
+      <c r="DQ3" s="87"/>
+      <c r="DR3" s="87"/>
+      <c r="DS3" s="87"/>
+      <c r="DT3" s="87"/>
+      <c r="DU3" s="87"/>
+      <c r="DV3" s="87"/>
+      <c r="DW3" s="87"/>
+      <c r="DX3" s="87"/>
+      <c r="DY3" s="87"/>
+      <c r="DZ3" s="87"/>
+      <c r="EA3" s="87"/>
+      <c r="EB3" s="87"/>
+      <c r="EC3" s="87"/>
+      <c r="ED3" s="87"/>
+      <c r="EE3" s="87"/>
+      <c r="EF3" s="87"/>
+      <c r="EG3" s="87"/>
+      <c r="EH3" s="87"/>
+      <c r="EI3" s="87"/>
+      <c r="EJ3" s="87"/>
+      <c r="EK3" s="87"/>
+      <c r="EL3" s="87"/>
+      <c r="EM3" s="87"/>
+      <c r="EN3" s="87"/>
+      <c r="EO3" s="87"/>
+      <c r="EP3" s="87"/>
+      <c r="EQ3" s="87"/>
+      <c r="ER3" s="87"/>
+      <c r="ES3" s="87"/>
+      <c r="ET3" s="87"/>
+      <c r="EU3" s="87"/>
+      <c r="EV3" s="87"/>
+      <c r="EW3" s="87"/>
+      <c r="EX3" s="87"/>
+      <c r="EY3" s="87"/>
+      <c r="EZ3" s="87"/>
+      <c r="FA3" s="87"/>
+      <c r="FB3" s="87"/>
+      <c r="FC3" s="87"/>
+      <c r="FD3" s="87"/>
+      <c r="FE3" s="87"/>
+      <c r="FF3" s="87"/>
+      <c r="FG3" s="87"/>
+      <c r="FH3" s="87"/>
+      <c r="FI3" s="87"/>
+      <c r="FJ3" s="87"/>
+      <c r="FK3" s="87"/>
+      <c r="FL3" s="87"/>
+      <c r="FM3" s="87"/>
+      <c r="FN3" s="87"/>
+      <c r="FO3" s="87"/>
+      <c r="FP3" s="87"/>
+      <c r="FQ3" s="87"/>
+      <c r="FR3" s="87"/>
+      <c r="FS3" s="87"/>
+      <c r="FT3" s="87"/>
+      <c r="FU3" s="87"/>
+      <c r="FV3" s="87"/>
+      <c r="FW3" s="87"/>
+      <c r="FX3" s="87"/>
+      <c r="FY3" s="87"/>
+      <c r="FZ3" s="87"/>
+      <c r="GA3" s="87"/>
+      <c r="GB3" s="87"/>
+      <c r="GC3" s="87"/>
+      <c r="GD3" s="87"/>
+      <c r="GE3" s="87"/>
+      <c r="GF3" s="87"/>
+      <c r="GG3" s="87"/>
+      <c r="GH3" s="87"/>
+      <c r="GI3" s="87"/>
+      <c r="GJ3" s="87"/>
+      <c r="GK3" s="87"/>
+      <c r="GL3" s="87"/>
+      <c r="GM3" s="45"/>
+      <c r="GN3" s="45"/>
+      <c r="GO3" s="45"/>
+      <c r="GP3" s="45"/>
+      <c r="GQ3" s="45"/>
+      <c r="GR3" s="45"/>
+      <c r="GS3" s="45"/>
+      <c r="GT3" s="45"/>
+      <c r="GU3" s="45"/>
+      <c r="GV3" s="45"/>
+      <c r="GW3" s="45"/>
+      <c r="GX3" s="45"/>
+      <c r="GY3" s="45"/>
+      <c r="GZ3" s="45"/>
+      <c r="HA3" s="45"/>
+      <c r="HB3" s="45"/>
+      <c r="HC3" s="45"/>
+      <c r="HD3" s="45"/>
+      <c r="HE3" s="45"/>
+      <c r="HF3" s="45"/>
+      <c r="HG3" s="45"/>
+      <c r="HH3" s="45"/>
+      <c r="HI3" s="45"/>
+      <c r="HJ3" s="45"/>
+      <c r="HK3" s="45"/>
+      <c r="HL3" s="45"/>
+      <c r="HM3" s="45"/>
     </row>
-    <row r="3" spans="1:221" s="77" customFormat="1" ht="15" thickBot="1">
-      <c r="A3" s="74" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="76"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="87"/>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="89"/>
-      <c r="AK3" s="81"/>
-      <c r="AL3" s="75"/>
-      <c r="AM3" s="75"/>
-      <c r="AN3" s="75"/>
-      <c r="AO3" s="90"/>
-      <c r="AP3" s="81"/>
-      <c r="AQ3" s="75"/>
-      <c r="AR3" s="75"/>
-      <c r="AS3" s="75"/>
-      <c r="AT3" s="90"/>
-      <c r="AU3" s="81"/>
-      <c r="AV3" s="75"/>
-      <c r="AW3" s="75"/>
-      <c r="AX3" s="75"/>
-      <c r="AY3" s="90"/>
-      <c r="AZ3" s="81"/>
-      <c r="BA3" s="75"/>
-      <c r="BB3" s="75"/>
-      <c r="BC3" s="75"/>
-      <c r="BD3" s="93"/>
-      <c r="BE3" s="84"/>
-      <c r="BF3" s="78"/>
-      <c r="BG3" s="78"/>
-      <c r="BH3" s="78"/>
-      <c r="BI3" s="89"/>
-      <c r="BJ3" s="75"/>
-      <c r="BK3" s="75"/>
-      <c r="BL3" s="75"/>
-      <c r="BM3" s="75"/>
-      <c r="BN3" s="75"/>
-      <c r="BO3" s="75"/>
-      <c r="BP3" s="75"/>
-      <c r="BQ3" s="75"/>
-      <c r="BR3" s="75"/>
-      <c r="BS3" s="75"/>
-      <c r="BT3" s="75"/>
-      <c r="BU3" s="75"/>
-      <c r="BV3" s="75"/>
-      <c r="BW3" s="75"/>
-      <c r="BX3" s="75"/>
-      <c r="BY3" s="75"/>
-      <c r="BZ3" s="75"/>
-      <c r="CA3" s="75"/>
-      <c r="CB3" s="75"/>
-      <c r="CC3" s="75"/>
-      <c r="CD3" s="75"/>
-      <c r="CE3" s="75"/>
-      <c r="CF3" s="75"/>
-      <c r="CG3" s="75"/>
-      <c r="CH3" s="75"/>
-      <c r="CI3" s="75"/>
-      <c r="CJ3" s="75"/>
-      <c r="CK3" s="75"/>
-      <c r="CL3" s="75"/>
-      <c r="CM3" s="75"/>
-      <c r="CN3" s="75"/>
-      <c r="CO3" s="75"/>
-      <c r="CP3" s="75"/>
-      <c r="CQ3" s="75"/>
-      <c r="CR3" s="75"/>
-      <c r="CS3" s="75"/>
-      <c r="CT3" s="75"/>
-      <c r="CU3" s="75"/>
-      <c r="CV3" s="75"/>
-      <c r="CW3" s="75"/>
-      <c r="CX3" s="75"/>
-      <c r="CY3" s="75"/>
-      <c r="CZ3" s="75"/>
-      <c r="DA3" s="75"/>
-      <c r="DB3" s="75"/>
-      <c r="DC3" s="75"/>
-      <c r="DD3" s="75"/>
-      <c r="DE3" s="75"/>
-      <c r="DF3" s="75"/>
-      <c r="DG3" s="75"/>
-      <c r="DH3" s="75"/>
-      <c r="DI3" s="75"/>
-      <c r="DJ3" s="75"/>
-      <c r="DK3" s="75"/>
-      <c r="DL3" s="75"/>
-      <c r="DM3" s="75"/>
-      <c r="DN3" s="75"/>
-      <c r="DO3" s="75"/>
-      <c r="DP3" s="75"/>
-      <c r="DQ3" s="75"/>
-      <c r="DR3" s="75"/>
-      <c r="DS3" s="75"/>
-      <c r="DT3" s="75"/>
-      <c r="DU3" s="75"/>
-      <c r="DV3" s="75"/>
-      <c r="DW3" s="75"/>
-      <c r="DX3" s="75"/>
-      <c r="DY3" s="75"/>
-      <c r="DZ3" s="75"/>
-      <c r="EA3" s="75"/>
-      <c r="EB3" s="75"/>
-      <c r="EC3" s="75"/>
-      <c r="ED3" s="75"/>
-      <c r="EE3" s="75"/>
-      <c r="EF3" s="75"/>
-      <c r="EG3" s="75"/>
-      <c r="EH3" s="75"/>
-      <c r="EI3" s="75"/>
-      <c r="EJ3" s="75"/>
-      <c r="EK3" s="75"/>
-      <c r="EL3" s="75"/>
-      <c r="EM3" s="75"/>
-      <c r="EN3" s="75"/>
-      <c r="EO3" s="75"/>
-      <c r="EP3" s="75"/>
-      <c r="EQ3" s="75"/>
-      <c r="ER3" s="75"/>
-      <c r="ES3" s="75"/>
-      <c r="ET3" s="75"/>
-      <c r="EU3" s="75"/>
-      <c r="EV3" s="75"/>
-      <c r="EW3" s="75"/>
-      <c r="EX3" s="75"/>
-      <c r="EY3" s="75"/>
-      <c r="EZ3" s="75"/>
-      <c r="FA3" s="75"/>
-      <c r="FB3" s="75"/>
-      <c r="FC3" s="75"/>
-      <c r="FD3" s="75"/>
-      <c r="FE3" s="75"/>
-      <c r="FF3" s="75"/>
-      <c r="FG3" s="75"/>
-      <c r="FH3" s="75"/>
-      <c r="FI3" s="75"/>
-      <c r="FJ3" s="75"/>
-      <c r="FK3" s="75"/>
-      <c r="FL3" s="75"/>
-      <c r="FM3" s="75"/>
-      <c r="FN3" s="75"/>
-      <c r="FO3" s="75"/>
-      <c r="FP3" s="75"/>
-      <c r="FQ3" s="75"/>
-      <c r="FR3" s="75"/>
-      <c r="FS3" s="75"/>
-      <c r="FT3" s="75"/>
-      <c r="FU3" s="75"/>
-      <c r="FV3" s="75"/>
-      <c r="FW3" s="75"/>
-      <c r="FX3" s="75"/>
-      <c r="FY3" s="75"/>
-      <c r="FZ3" s="75"/>
-      <c r="GA3" s="75"/>
-      <c r="GB3" s="75"/>
-      <c r="GC3" s="75"/>
-      <c r="GD3" s="75"/>
-      <c r="GE3" s="75"/>
-      <c r="GF3" s="75"/>
-      <c r="GG3" s="75"/>
-      <c r="GH3" s="75"/>
-      <c r="GI3" s="75"/>
-      <c r="GJ3" s="75"/>
-      <c r="GK3" s="75"/>
-      <c r="GL3" s="75"/>
-      <c r="GM3" s="75"/>
-      <c r="GN3" s="75"/>
-      <c r="GO3" s="75"/>
-      <c r="GP3" s="75"/>
-      <c r="GQ3" s="75"/>
-      <c r="GR3" s="75"/>
-      <c r="GS3" s="75"/>
-      <c r="GT3" s="75"/>
-      <c r="GU3" s="75"/>
-      <c r="GV3" s="75"/>
-      <c r="GW3" s="75"/>
-      <c r="GX3" s="75"/>
-      <c r="GY3" s="75"/>
-      <c r="GZ3" s="75"/>
-      <c r="HA3" s="75"/>
-      <c r="HB3" s="75"/>
-      <c r="HC3" s="75"/>
-      <c r="HD3" s="75"/>
-      <c r="HE3" s="75"/>
-      <c r="HF3" s="75"/>
-      <c r="HG3" s="75"/>
-      <c r="HH3" s="75"/>
-      <c r="HI3" s="75"/>
-      <c r="HJ3" s="75"/>
-      <c r="HK3" s="75"/>
-      <c r="HL3" s="75"/>
-      <c r="HM3" s="75"/>
+    <row r="4" spans="1:221">
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="94"/>
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="94"/>
+      <c r="AK4" s="94"/>
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="94"/>
+      <c r="AR4" s="94"/>
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="94"/>
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="94"/>
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="94"/>
+      <c r="AY4" s="94"/>
+      <c r="AZ4" s="94"/>
+      <c r="BA4" s="94"/>
+      <c r="BB4" s="94"/>
+      <c r="BC4" s="94"/>
+      <c r="BD4" s="94"/>
+      <c r="BE4" s="94"/>
+      <c r="BF4" s="94"/>
+      <c r="BG4" s="94"/>
+      <c r="BH4" s="94"/>
+      <c r="BI4" s="94"/>
+      <c r="BJ4" s="94"/>
+      <c r="BK4" s="94"/>
+      <c r="BL4" s="94"/>
+      <c r="BM4" s="94"/>
+      <c r="BN4" s="94"/>
+      <c r="BO4" s="94"/>
+      <c r="BP4" s="94"/>
+      <c r="BQ4" s="94"/>
+      <c r="BR4" s="94"/>
+      <c r="BS4" s="94"/>
+      <c r="BT4" s="94"/>
+      <c r="BU4" s="94"/>
+      <c r="BV4" s="94"/>
+      <c r="BW4" s="94"/>
+      <c r="BX4" s="94"/>
+      <c r="BY4" s="94"/>
+      <c r="BZ4" s="94"/>
+      <c r="CA4" s="94"/>
+      <c r="CB4" s="94"/>
+      <c r="CC4" s="94"/>
+      <c r="CD4" s="94"/>
+      <c r="CE4" s="94"/>
+      <c r="CF4" s="94"/>
+      <c r="CG4" s="94"/>
+      <c r="CH4" s="94"/>
+      <c r="CI4" s="94"/>
+      <c r="CJ4" s="94"/>
+      <c r="CK4" s="94"/>
+      <c r="CL4" s="94"/>
+      <c r="CM4" s="94"/>
+      <c r="CN4" s="94"/>
+      <c r="CO4" s="94"/>
+      <c r="CP4" s="94"/>
+      <c r="CQ4" s="94"/>
+      <c r="CR4" s="94"/>
+      <c r="CS4" s="94"/>
+      <c r="CT4" s="94"/>
+      <c r="CU4" s="94"/>
+      <c r="CV4" s="94"/>
+      <c r="CW4" s="94"/>
+      <c r="CX4" s="94"/>
+      <c r="CY4" s="94"/>
+      <c r="CZ4" s="94"/>
+      <c r="DA4" s="94"/>
+      <c r="DB4" s="94"/>
+      <c r="DC4" s="94"/>
+      <c r="DD4" s="94"/>
+      <c r="DE4" s="94"/>
+      <c r="DF4" s="94"/>
+      <c r="DG4" s="94"/>
+      <c r="DH4" s="94"/>
+      <c r="DI4" s="94"/>
+      <c r="DJ4" s="94"/>
+      <c r="DK4" s="94"/>
+      <c r="DL4" s="94"/>
+      <c r="DM4" s="94"/>
+      <c r="DN4" s="94"/>
+      <c r="DO4" s="94"/>
+      <c r="DP4" s="94"/>
+      <c r="DQ4" s="94"/>
+      <c r="DR4" s="94"/>
+      <c r="DS4" s="94"/>
+      <c r="DT4" s="94"/>
+      <c r="DU4" s="94"/>
+      <c r="DV4" s="94"/>
+      <c r="DW4" s="94"/>
+      <c r="DX4" s="94"/>
+      <c r="DY4" s="94"/>
+      <c r="DZ4" s="94"/>
+      <c r="EA4" s="94"/>
+      <c r="EB4" s="94"/>
+      <c r="EC4" s="94"/>
+      <c r="ED4" s="94"/>
+      <c r="EE4" s="94"/>
+      <c r="EF4" s="94"/>
+      <c r="EG4" s="94"/>
+      <c r="EH4" s="94"/>
+      <c r="EI4" s="94"/>
+      <c r="EJ4" s="94"/>
+      <c r="EK4" s="94"/>
+      <c r="EL4" s="94"/>
+      <c r="EM4" s="94"/>
+      <c r="EN4" s="94"/>
+      <c r="EO4" s="94"/>
+      <c r="EP4" s="94"/>
+      <c r="EQ4" s="94"/>
+      <c r="ER4" s="94"/>
+      <c r="ES4" s="94"/>
+      <c r="ET4" s="94"/>
+      <c r="EU4" s="94"/>
+      <c r="EV4" s="94"/>
+      <c r="EW4" s="94"/>
+      <c r="EX4" s="94"/>
+      <c r="EY4" s="94"/>
+      <c r="EZ4" s="94"/>
+      <c r="FA4" s="94"/>
+      <c r="FB4" s="94"/>
+      <c r="FC4" s="94"/>
+      <c r="FD4" s="94"/>
+      <c r="FE4" s="94"/>
+      <c r="FF4" s="94"/>
+      <c r="FG4" s="94"/>
+      <c r="FH4" s="94"/>
+      <c r="FI4" s="94"/>
+      <c r="FJ4" s="94"/>
+      <c r="FK4" s="94"/>
+      <c r="FL4" s="94"/>
+      <c r="FM4" s="94"/>
+      <c r="FN4" s="94"/>
+      <c r="FO4" s="94"/>
+      <c r="FP4" s="94"/>
+      <c r="FQ4" s="94"/>
+      <c r="FR4" s="94"/>
+      <c r="FS4" s="94"/>
+      <c r="FT4" s="94"/>
+      <c r="FU4" s="94"/>
+      <c r="FV4" s="94"/>
+      <c r="FW4" s="94"/>
+      <c r="FX4" s="94"/>
+      <c r="FY4" s="94"/>
+      <c r="FZ4" s="94"/>
+      <c r="GA4" s="94"/>
+      <c r="GB4" s="94"/>
+      <c r="GC4" s="94"/>
+      <c r="GD4" s="94"/>
+      <c r="GE4" s="94"/>
+      <c r="GF4" s="94"/>
+      <c r="GG4" s="94"/>
+      <c r="GH4" s="94"/>
+      <c r="GI4" s="94"/>
+      <c r="GJ4" s="94"/>
+      <c r="GK4" s="94"/>
+      <c r="GL4" s="94"/>
     </row>
     <row r="5" spans="1:221">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="AQ5" s="91"/>
-      <c r="AR5" s="91"/>
-      <c r="AS5" s="91"/>
-      <c r="AT5" s="92"/>
-      <c r="AU5" s="94"/>
-      <c r="AV5" s="91"/>
-      <c r="AW5" s="91"/>
-      <c r="AX5" s="91"/>
-      <c r="AY5" s="92"/>
-      <c r="AZ5" s="94"/>
-      <c r="BA5" s="91"/>
+      <c r="AA5" s="94"/>
+      <c r="AB5" s="94"/>
+      <c r="AC5" s="94"/>
+      <c r="AD5" s="94"/>
+      <c r="AE5" s="94"/>
+      <c r="AF5" s="94"/>
+      <c r="AG5" s="94"/>
+      <c r="AH5" s="94"/>
+      <c r="AI5" s="94"/>
+      <c r="AJ5" s="94"/>
+      <c r="AK5" s="94"/>
+      <c r="AL5" s="94"/>
+      <c r="AM5" s="94"/>
+      <c r="AN5" s="94"/>
+      <c r="AO5" s="94"/>
+      <c r="AP5" s="94"/>
+      <c r="AQ5" s="95"/>
+      <c r="AR5" s="95"/>
+      <c r="AS5" s="95"/>
+      <c r="AT5" s="95"/>
+      <c r="AU5" s="95"/>
+      <c r="AV5" s="95"/>
+      <c r="AW5" s="95"/>
+      <c r="AX5" s="95"/>
+      <c r="AY5" s="95"/>
+      <c r="AZ5" s="95"/>
+      <c r="BA5" s="95"/>
+      <c r="BB5" s="94"/>
+      <c r="BC5" s="94"/>
+      <c r="BD5" s="94"/>
+      <c r="BE5" s="94"/>
+      <c r="BF5" s="94"/>
+      <c r="BG5" s="94"/>
+      <c r="BH5" s="94"/>
+      <c r="BI5" s="94"/>
+      <c r="BJ5" s="94"/>
+      <c r="BK5" s="94"/>
+      <c r="BL5" s="94"/>
+      <c r="BM5" s="94"/>
+      <c r="BN5" s="94"/>
+      <c r="BO5" s="94"/>
+      <c r="BP5" s="94"/>
+      <c r="BQ5" s="94"/>
+      <c r="BR5" s="94"/>
+      <c r="BS5" s="94"/>
+      <c r="BT5" s="94"/>
+      <c r="BU5" s="94"/>
+      <c r="BV5" s="94"/>
+      <c r="BW5" s="94"/>
+      <c r="BX5" s="94"/>
+      <c r="BY5" s="94"/>
+      <c r="BZ5" s="94"/>
+      <c r="CA5" s="94"/>
+      <c r="CB5" s="94"/>
+      <c r="CC5" s="94"/>
+      <c r="CD5" s="94"/>
+      <c r="CE5" s="94"/>
+      <c r="CF5" s="94"/>
+      <c r="CG5" s="94"/>
+      <c r="CH5" s="94"/>
+      <c r="CI5" s="94"/>
+      <c r="CJ5" s="94"/>
+      <c r="CK5" s="94"/>
+      <c r="CL5" s="94"/>
+      <c r="CM5" s="94"/>
+      <c r="CN5" s="94"/>
+      <c r="CO5" s="94"/>
+      <c r="CP5" s="94"/>
+      <c r="CQ5" s="94"/>
+      <c r="CR5" s="94"/>
+      <c r="CS5" s="94"/>
+      <c r="CT5" s="94"/>
+      <c r="CU5" s="94"/>
+      <c r="CV5" s="94"/>
+      <c r="CW5" s="94"/>
+      <c r="CX5" s="94"/>
+      <c r="CY5" s="94"/>
+      <c r="CZ5" s="94"/>
+      <c r="DA5" s="94"/>
+      <c r="DB5" s="94"/>
+      <c r="DC5" s="94"/>
+      <c r="DD5" s="94"/>
+      <c r="DE5" s="94"/>
+      <c r="DF5" s="94"/>
+      <c r="DG5" s="94"/>
+      <c r="DH5" s="94"/>
+      <c r="DI5" s="94"/>
+      <c r="DJ5" s="94"/>
+      <c r="DK5" s="94"/>
+      <c r="DL5" s="94"/>
+      <c r="DM5" s="94"/>
+      <c r="DN5" s="94"/>
+      <c r="DO5" s="94"/>
+      <c r="DP5" s="94"/>
+      <c r="DQ5" s="94"/>
+      <c r="DR5" s="94"/>
+      <c r="DS5" s="94"/>
+      <c r="DT5" s="94"/>
+      <c r="DU5" s="94"/>
+      <c r="DV5" s="94"/>
+      <c r="DW5" s="94"/>
+      <c r="DX5" s="94"/>
+      <c r="DY5" s="94"/>
+      <c r="DZ5" s="94"/>
+      <c r="EA5" s="94"/>
+      <c r="EB5" s="94"/>
+      <c r="EC5" s="94"/>
+      <c r="ED5" s="94"/>
+      <c r="EE5" s="94"/>
+      <c r="EF5" s="94"/>
+      <c r="EG5" s="94"/>
+      <c r="EH5" s="94"/>
+      <c r="EI5" s="94"/>
+      <c r="EJ5" s="94"/>
+      <c r="EK5" s="94"/>
+      <c r="EL5" s="94"/>
+      <c r="EM5" s="94"/>
+      <c r="EN5" s="94"/>
+      <c r="EO5" s="94"/>
+      <c r="EP5" s="94"/>
+      <c r="EQ5" s="94"/>
+      <c r="ER5" s="94"/>
+      <c r="ES5" s="94"/>
+      <c r="ET5" s="94"/>
+      <c r="EU5" s="94"/>
+      <c r="EV5" s="94"/>
+      <c r="EW5" s="94"/>
+      <c r="EX5" s="94"/>
+      <c r="EY5" s="94"/>
+      <c r="EZ5" s="94"/>
+      <c r="FA5" s="94"/>
+      <c r="FB5" s="94"/>
+      <c r="FC5" s="94"/>
+      <c r="FD5" s="94"/>
+      <c r="FE5" s="94"/>
+      <c r="FF5" s="94"/>
+      <c r="FG5" s="94"/>
+      <c r="FH5" s="94"/>
+      <c r="FI5" s="94"/>
+      <c r="FJ5" s="94"/>
+      <c r="FK5" s="94"/>
+      <c r="FL5" s="94"/>
+      <c r="FM5" s="94"/>
+      <c r="FN5" s="94"/>
+      <c r="FO5" s="94"/>
+      <c r="FP5" s="94"/>
+      <c r="FQ5" s="94"/>
+      <c r="FR5" s="94"/>
+      <c r="FS5" s="94"/>
+      <c r="FT5" s="94"/>
+      <c r="FU5" s="94"/>
+      <c r="FV5" s="94"/>
+      <c r="FW5" s="94"/>
+      <c r="FX5" s="94"/>
+      <c r="FY5" s="94"/>
+      <c r="FZ5" s="94"/>
+      <c r="GA5" s="94"/>
+      <c r="GB5" s="94"/>
+      <c r="GC5" s="94"/>
+      <c r="GD5" s="94"/>
+      <c r="GE5" s="94"/>
+      <c r="GF5" s="94"/>
+      <c r="GG5" s="94"/>
+      <c r="GH5" s="94"/>
+      <c r="GI5" s="94"/>
+      <c r="GJ5" s="94"/>
+      <c r="GK5" s="94"/>
+      <c r="GL5" s="94"/>
     </row>
     <row r="6" spans="1:221">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AF6" s="98"/>
-      <c r="AG6" s="99"/>
-      <c r="AH6" s="99"/>
-      <c r="AI6" s="99"/>
-      <c r="AJ6" s="100"/>
-      <c r="AQ6" s="91"/>
-      <c r="AR6" s="91"/>
-      <c r="AS6" s="91"/>
-      <c r="AT6" s="92"/>
-      <c r="AU6" s="94"/>
-      <c r="AV6" s="91"/>
-      <c r="AW6" s="91"/>
-      <c r="AX6" s="91"/>
-      <c r="AY6" s="92"/>
-      <c r="AZ6" s="94"/>
-      <c r="BA6" s="91"/>
+      <c r="AA6" s="94"/>
+      <c r="AB6" s="94"/>
+      <c r="AC6" s="94"/>
+      <c r="AD6" s="94"/>
+      <c r="AE6" s="94"/>
+      <c r="AF6" s="94"/>
+      <c r="AG6" s="94"/>
+      <c r="AH6" s="96"/>
+      <c r="AI6" s="96"/>
+      <c r="AJ6" s="96"/>
+      <c r="AK6" s="94"/>
+      <c r="AL6" s="94"/>
+      <c r="AM6" s="94"/>
+      <c r="AN6" s="94"/>
+      <c r="AO6" s="94"/>
+      <c r="AP6" s="94"/>
+      <c r="AQ6" s="95"/>
+      <c r="AR6" s="95"/>
+      <c r="AS6" s="95"/>
+      <c r="AT6" s="95"/>
+      <c r="AU6" s="95"/>
+      <c r="AV6" s="95"/>
+      <c r="AW6" s="95"/>
+      <c r="AX6" s="95"/>
+      <c r="AY6" s="95"/>
+      <c r="AZ6" s="95"/>
+      <c r="BA6" s="95"/>
+      <c r="BB6" s="94"/>
+      <c r="BC6" s="94"/>
+      <c r="BD6" s="94"/>
+      <c r="BE6" s="94"/>
+      <c r="BF6" s="94"/>
+      <c r="BG6" s="94"/>
+      <c r="BH6" s="94"/>
+      <c r="BI6" s="94"/>
+      <c r="BJ6" s="94"/>
+      <c r="BK6" s="94"/>
+      <c r="BL6" s="94"/>
+      <c r="BM6" s="94"/>
+      <c r="BN6" s="94"/>
+      <c r="BO6" s="94"/>
+      <c r="BP6" s="94"/>
+      <c r="BQ6" s="94"/>
+      <c r="BR6" s="94"/>
+      <c r="BS6" s="94"/>
+      <c r="BT6" s="94"/>
+      <c r="BU6" s="94"/>
+      <c r="BV6" s="94"/>
+      <c r="BW6" s="94"/>
+      <c r="BX6" s="94"/>
+      <c r="BY6" s="94"/>
+      <c r="BZ6" s="94"/>
+      <c r="CA6" s="94"/>
+      <c r="CB6" s="94"/>
+      <c r="CC6" s="94"/>
+      <c r="CD6" s="94"/>
+      <c r="CE6" s="94"/>
+      <c r="CF6" s="94"/>
+      <c r="CG6" s="94"/>
+      <c r="CH6" s="94"/>
+      <c r="CI6" s="94"/>
+      <c r="CJ6" s="94"/>
+      <c r="CK6" s="94"/>
+      <c r="CL6" s="94"/>
+      <c r="CM6" s="94"/>
+      <c r="CN6" s="94"/>
+      <c r="CO6" s="94"/>
+      <c r="CP6" s="94"/>
+      <c r="CQ6" s="94"/>
+      <c r="CR6" s="94"/>
+      <c r="CS6" s="94"/>
+      <c r="CT6" s="94"/>
+      <c r="CU6" s="94"/>
+      <c r="CV6" s="94"/>
+      <c r="CW6" s="94"/>
+      <c r="CX6" s="94"/>
+      <c r="CY6" s="94"/>
+      <c r="CZ6" s="94"/>
+      <c r="DA6" s="94"/>
+      <c r="DB6" s="94"/>
+      <c r="DC6" s="94"/>
+      <c r="DD6" s="94"/>
+      <c r="DE6" s="94"/>
+      <c r="DF6" s="94"/>
+      <c r="DG6" s="94"/>
+      <c r="DH6" s="94"/>
+      <c r="DI6" s="94"/>
+      <c r="DJ6" s="94"/>
+      <c r="DK6" s="94"/>
+      <c r="DL6" s="94"/>
+      <c r="DM6" s="94"/>
+      <c r="DN6" s="94"/>
+      <c r="DO6" s="94"/>
+      <c r="DP6" s="94"/>
+      <c r="DQ6" s="94"/>
+      <c r="DR6" s="94"/>
+      <c r="DS6" s="94"/>
+      <c r="DT6" s="94"/>
+      <c r="DU6" s="94"/>
+      <c r="DV6" s="94"/>
+      <c r="DW6" s="94"/>
+      <c r="DX6" s="94"/>
+      <c r="DY6" s="94"/>
+      <c r="DZ6" s="94"/>
+      <c r="EA6" s="94"/>
+      <c r="EB6" s="94"/>
+      <c r="EC6" s="94"/>
+      <c r="ED6" s="94"/>
+      <c r="EE6" s="94"/>
+      <c r="EF6" s="94"/>
+      <c r="EG6" s="94"/>
+      <c r="EH6" s="94"/>
+      <c r="EI6" s="94"/>
+      <c r="EJ6" s="94"/>
+      <c r="EK6" s="94"/>
+      <c r="EL6" s="94"/>
+      <c r="EM6" s="94"/>
+      <c r="EN6" s="94"/>
+      <c r="EO6" s="94"/>
+      <c r="EP6" s="94"/>
+      <c r="EQ6" s="94"/>
+      <c r="ER6" s="94"/>
+      <c r="ES6" s="94"/>
+      <c r="ET6" s="94"/>
+      <c r="EU6" s="94"/>
+      <c r="EV6" s="94"/>
+      <c r="EW6" s="94"/>
+      <c r="EX6" s="94"/>
+      <c r="EY6" s="94"/>
+      <c r="EZ6" s="94"/>
+      <c r="FA6" s="94"/>
+      <c r="FB6" s="94"/>
+      <c r="FC6" s="94"/>
+      <c r="FD6" s="94"/>
+      <c r="FE6" s="94"/>
+      <c r="FF6" s="94"/>
+      <c r="FG6" s="94"/>
+      <c r="FH6" s="94"/>
+      <c r="FI6" s="94"/>
+      <c r="FJ6" s="94"/>
+      <c r="FK6" s="94"/>
+      <c r="FL6" s="94"/>
+      <c r="FM6" s="94"/>
+      <c r="FN6" s="94"/>
+      <c r="FO6" s="94"/>
+      <c r="FP6" s="94"/>
+      <c r="FQ6" s="94"/>
+      <c r="FR6" s="94"/>
+      <c r="FS6" s="94"/>
+      <c r="FT6" s="94"/>
+      <c r="FU6" s="94"/>
+      <c r="FV6" s="94"/>
+      <c r="FW6" s="94"/>
+      <c r="FX6" s="94"/>
+      <c r="FY6" s="94"/>
+      <c r="FZ6" s="94"/>
+      <c r="GA6" s="94"/>
+      <c r="GB6" s="94"/>
+      <c r="GC6" s="94"/>
+      <c r="GD6" s="94"/>
+      <c r="GE6" s="94"/>
+      <c r="GF6" s="94"/>
+      <c r="GG6" s="94"/>
+      <c r="GH6" s="94"/>
+      <c r="GI6" s="94"/>
+      <c r="GJ6" s="94"/>
+      <c r="GK6" s="94"/>
+      <c r="GL6" s="94"/>
     </row>
     <row r="7" spans="1:221">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="AK7" s="101"/>
-      <c r="AL7" s="102"/>
-      <c r="AM7" s="102"/>
-      <c r="AN7" s="102"/>
-      <c r="AO7" s="103"/>
-      <c r="AQ7" s="91"/>
-      <c r="AR7" s="91"/>
-      <c r="AS7" s="91"/>
-      <c r="AT7" s="92"/>
-      <c r="AU7" s="94"/>
-      <c r="AV7" s="91"/>
-      <c r="AW7" s="91"/>
-      <c r="AX7" s="91"/>
-      <c r="AY7" s="92"/>
-      <c r="AZ7" s="94"/>
-      <c r="BA7" s="91"/>
+      <c r="AA7" s="94"/>
+      <c r="AB7" s="94"/>
+      <c r="AC7" s="94"/>
+      <c r="AD7" s="94"/>
+      <c r="AE7" s="94"/>
+      <c r="AF7" s="94"/>
+      <c r="AG7" s="94"/>
+      <c r="AH7" s="94"/>
+      <c r="AI7" s="94"/>
+      <c r="AJ7" s="94"/>
+      <c r="AK7" s="97"/>
+      <c r="AL7" s="97"/>
+      <c r="AM7" s="97"/>
+      <c r="AN7" s="97"/>
+      <c r="AO7" s="97"/>
+      <c r="AP7" s="94"/>
+      <c r="AQ7" s="95"/>
+      <c r="AR7" s="95"/>
+      <c r="AS7" s="95"/>
+      <c r="AT7" s="95"/>
+      <c r="AU7" s="95"/>
+      <c r="AV7" s="95"/>
+      <c r="AW7" s="95"/>
+      <c r="AX7" s="95"/>
+      <c r="AY7" s="95"/>
+      <c r="AZ7" s="95"/>
+      <c r="BA7" s="95"/>
+      <c r="BB7" s="94"/>
+      <c r="BC7" s="94"/>
+      <c r="BD7" s="94"/>
+      <c r="BE7" s="94"/>
+      <c r="BF7" s="94"/>
+      <c r="BG7" s="94"/>
+      <c r="BH7" s="94"/>
+      <c r="BI7" s="94"/>
+      <c r="BJ7" s="94"/>
+      <c r="BK7" s="94"/>
+      <c r="BL7" s="94"/>
+      <c r="BM7" s="94"/>
+      <c r="BN7" s="94"/>
+      <c r="BO7" s="94"/>
+      <c r="BP7" s="94"/>
+      <c r="BQ7" s="94"/>
+      <c r="BR7" s="94"/>
+      <c r="BS7" s="94"/>
+      <c r="BT7" s="94"/>
+      <c r="BU7" s="94"/>
+      <c r="BV7" s="94"/>
+      <c r="BW7" s="94"/>
+      <c r="BX7" s="94"/>
+      <c r="BY7" s="94"/>
+      <c r="BZ7" s="94"/>
+      <c r="CA7" s="94"/>
+      <c r="CB7" s="94"/>
+      <c r="CC7" s="94"/>
+      <c r="CD7" s="94"/>
+      <c r="CE7" s="94"/>
+      <c r="CF7" s="94"/>
+      <c r="CG7" s="94"/>
+      <c r="CH7" s="94"/>
+      <c r="CI7" s="94"/>
+      <c r="CJ7" s="94"/>
+      <c r="CK7" s="94"/>
+      <c r="CL7" s="94"/>
+      <c r="CM7" s="94"/>
+      <c r="CN7" s="94"/>
+      <c r="CO7" s="94"/>
+      <c r="CP7" s="94"/>
+      <c r="CQ7" s="94"/>
+      <c r="CR7" s="94"/>
+      <c r="CS7" s="94"/>
+      <c r="CT7" s="94"/>
+      <c r="CU7" s="94"/>
+      <c r="CV7" s="94"/>
+      <c r="CW7" s="94"/>
+      <c r="CX7" s="94"/>
+      <c r="CY7" s="94"/>
+      <c r="CZ7" s="94"/>
+      <c r="DA7" s="94"/>
+      <c r="DB7" s="94"/>
+      <c r="DC7" s="94"/>
+      <c r="DD7" s="94"/>
+      <c r="DE7" s="94"/>
+      <c r="DF7" s="94"/>
+      <c r="DG7" s="94"/>
+      <c r="DH7" s="94"/>
+      <c r="DI7" s="94"/>
+      <c r="DJ7" s="94"/>
+      <c r="DK7" s="94"/>
+      <c r="DL7" s="94"/>
+      <c r="DM7" s="94"/>
+      <c r="DN7" s="94"/>
+      <c r="DO7" s="94"/>
+      <c r="DP7" s="94"/>
+      <c r="DQ7" s="94"/>
+      <c r="DR7" s="94"/>
+      <c r="DS7" s="94"/>
+      <c r="DT7" s="94"/>
+      <c r="DU7" s="94"/>
+      <c r="DV7" s="94"/>
+      <c r="DW7" s="94"/>
+      <c r="DX7" s="94"/>
+      <c r="DY7" s="94"/>
+      <c r="DZ7" s="94"/>
+      <c r="EA7" s="94"/>
+      <c r="EB7" s="94"/>
+      <c r="EC7" s="94"/>
+      <c r="ED7" s="94"/>
+      <c r="EE7" s="94"/>
+      <c r="EF7" s="94"/>
+      <c r="EG7" s="94"/>
+      <c r="EH7" s="94"/>
+      <c r="EI7" s="94"/>
+      <c r="EJ7" s="94"/>
+      <c r="EK7" s="94"/>
+      <c r="EL7" s="94"/>
+      <c r="EM7" s="94"/>
+      <c r="EN7" s="94"/>
+      <c r="EO7" s="94"/>
+      <c r="EP7" s="94"/>
+      <c r="EQ7" s="94"/>
+      <c r="ER7" s="94"/>
+      <c r="ES7" s="94"/>
+      <c r="ET7" s="94"/>
+      <c r="EU7" s="94"/>
+      <c r="EV7" s="94"/>
+      <c r="EW7" s="94"/>
+      <c r="EX7" s="94"/>
+      <c r="EY7" s="94"/>
+      <c r="EZ7" s="94"/>
+      <c r="FA7" s="94"/>
+      <c r="FB7" s="94"/>
+      <c r="FC7" s="94"/>
+      <c r="FD7" s="94"/>
+      <c r="FE7" s="94"/>
+      <c r="FF7" s="94"/>
+      <c r="FG7" s="94"/>
+      <c r="FH7" s="94"/>
+      <c r="FI7" s="94"/>
+      <c r="FJ7" s="94"/>
+      <c r="FK7" s="94"/>
+      <c r="FL7" s="94"/>
+      <c r="FM7" s="94"/>
+      <c r="FN7" s="94"/>
+      <c r="FO7" s="94"/>
+      <c r="FP7" s="94"/>
+      <c r="FQ7" s="94"/>
+      <c r="FR7" s="94"/>
+      <c r="FS7" s="94"/>
+      <c r="FT7" s="94"/>
+      <c r="FU7" s="94"/>
+      <c r="FV7" s="94"/>
+      <c r="FW7" s="94"/>
+      <c r="FX7" s="94"/>
+      <c r="FY7" s="94"/>
+      <c r="FZ7" s="94"/>
+      <c r="GA7" s="94"/>
+      <c r="GB7" s="94"/>
+      <c r="GC7" s="94"/>
+      <c r="GD7" s="94"/>
+      <c r="GE7" s="94"/>
+      <c r="GF7" s="94"/>
+      <c r="GG7" s="94"/>
+      <c r="GH7" s="94"/>
+      <c r="GI7" s="94"/>
+      <c r="GJ7" s="94"/>
+      <c r="GK7" s="94"/>
+      <c r="GL7" s="94"/>
     </row>
     <row r="8" spans="1:221">
-      <c r="A8" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="AQ8" s="91"/>
-      <c r="AR8" s="91"/>
-      <c r="AS8" s="91"/>
-      <c r="AT8" s="92"/>
-      <c r="AU8" s="94"/>
-      <c r="AV8" s="91"/>
-      <c r="AW8" s="91"/>
-      <c r="AX8" s="91"/>
-      <c r="AY8" s="92"/>
-      <c r="AZ8" s="94"/>
-      <c r="BA8" s="91"/>
+      <c r="A8" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA8" s="94"/>
+      <c r="AB8" s="94"/>
+      <c r="AC8" s="94"/>
+      <c r="AD8" s="94"/>
+      <c r="AE8" s="94"/>
+      <c r="AF8" s="94"/>
+      <c r="AG8" s="94"/>
+      <c r="AH8" s="94"/>
+      <c r="AI8" s="94"/>
+      <c r="AJ8" s="94"/>
+      <c r="AK8" s="97"/>
+      <c r="AL8" s="97"/>
+      <c r="AM8" s="97"/>
+      <c r="AN8" s="97"/>
+      <c r="AO8" s="97"/>
+      <c r="AP8" s="94"/>
+      <c r="AQ8" s="95"/>
+      <c r="AR8" s="95"/>
+      <c r="AS8" s="95"/>
+      <c r="AT8" s="95"/>
+      <c r="AU8" s="95"/>
+      <c r="AV8" s="95"/>
+      <c r="AW8" s="95"/>
+      <c r="AX8" s="95"/>
+      <c r="AY8" s="95"/>
+      <c r="AZ8" s="95"/>
+      <c r="BA8" s="95"/>
+      <c r="BB8" s="94"/>
+      <c r="BC8" s="94"/>
+      <c r="BD8" s="94"/>
+      <c r="BE8" s="94"/>
+      <c r="BF8" s="94"/>
+      <c r="BG8" s="94"/>
+      <c r="BH8" s="94"/>
+      <c r="BI8" s="94"/>
+      <c r="BJ8" s="94"/>
+      <c r="BK8" s="94"/>
+      <c r="BL8" s="94"/>
+      <c r="BM8" s="94"/>
+      <c r="BN8" s="94"/>
+      <c r="BO8" s="94"/>
+      <c r="BP8" s="94"/>
+      <c r="BQ8" s="94"/>
+      <c r="BR8" s="94"/>
+      <c r="BS8" s="94"/>
+      <c r="BT8" s="94"/>
+      <c r="BU8" s="94"/>
+      <c r="BV8" s="94"/>
+      <c r="BW8" s="94"/>
+      <c r="BX8" s="94"/>
+      <c r="BY8" s="94"/>
+      <c r="BZ8" s="94"/>
+      <c r="CA8" s="94"/>
+      <c r="CB8" s="94"/>
+      <c r="CC8" s="94"/>
+      <c r="CD8" s="94"/>
+      <c r="CE8" s="94"/>
+      <c r="CF8" s="94"/>
+      <c r="CG8" s="94"/>
+      <c r="CH8" s="94"/>
+      <c r="CI8" s="94"/>
+      <c r="CJ8" s="94"/>
+      <c r="CK8" s="94"/>
+      <c r="CL8" s="94"/>
+      <c r="CM8" s="94"/>
+      <c r="CN8" s="94"/>
+      <c r="CO8" s="94"/>
+      <c r="CP8" s="94"/>
+      <c r="CQ8" s="94"/>
+      <c r="CR8" s="94"/>
+      <c r="CS8" s="94"/>
+      <c r="CT8" s="94"/>
+      <c r="CU8" s="94"/>
+      <c r="CV8" s="94"/>
+      <c r="CW8" s="94"/>
+      <c r="CX8" s="94"/>
+      <c r="CY8" s="94"/>
+      <c r="CZ8" s="94"/>
+      <c r="DA8" s="94"/>
+      <c r="DB8" s="94"/>
+      <c r="DC8" s="94"/>
+      <c r="DD8" s="94"/>
+      <c r="DE8" s="94"/>
+      <c r="DF8" s="94"/>
+      <c r="DG8" s="94"/>
+      <c r="DH8" s="94"/>
+      <c r="DI8" s="94"/>
+      <c r="DJ8" s="94"/>
+      <c r="DK8" s="94"/>
+      <c r="DL8" s="94"/>
+      <c r="DM8" s="94"/>
+      <c r="DN8" s="94"/>
+      <c r="DO8" s="94"/>
+      <c r="DP8" s="94"/>
+      <c r="DQ8" s="94"/>
+      <c r="DR8" s="94"/>
+      <c r="DS8" s="94"/>
+      <c r="DT8" s="94"/>
+      <c r="DU8" s="94"/>
+      <c r="DV8" s="94"/>
+      <c r="DW8" s="94"/>
+      <c r="DX8" s="94"/>
+      <c r="DY8" s="94"/>
+      <c r="DZ8" s="94"/>
+      <c r="EA8" s="94"/>
+      <c r="EB8" s="94"/>
+      <c r="EC8" s="94"/>
+      <c r="ED8" s="94"/>
+      <c r="EE8" s="94"/>
+      <c r="EF8" s="94"/>
+      <c r="EG8" s="94"/>
+      <c r="EH8" s="94"/>
+      <c r="EI8" s="94"/>
+      <c r="EJ8" s="94"/>
+      <c r="EK8" s="94"/>
+      <c r="EL8" s="94"/>
+      <c r="EM8" s="94"/>
+      <c r="EN8" s="94"/>
+      <c r="EO8" s="94"/>
+      <c r="EP8" s="94"/>
+      <c r="EQ8" s="94"/>
+      <c r="ER8" s="94"/>
+      <c r="ES8" s="94"/>
+      <c r="ET8" s="94"/>
+      <c r="EU8" s="94"/>
+      <c r="EV8" s="94"/>
+      <c r="EW8" s="94"/>
+      <c r="EX8" s="94"/>
+      <c r="EY8" s="94"/>
+      <c r="EZ8" s="94"/>
+      <c r="FA8" s="94"/>
+      <c r="FB8" s="94"/>
+      <c r="FC8" s="94"/>
+      <c r="FD8" s="94"/>
+      <c r="FE8" s="94"/>
+      <c r="FF8" s="94"/>
+      <c r="FG8" s="94"/>
+      <c r="FH8" s="94"/>
+      <c r="FI8" s="94"/>
+      <c r="FJ8" s="94"/>
+      <c r="FK8" s="94"/>
+      <c r="FL8" s="94"/>
+      <c r="FM8" s="94"/>
+      <c r="FN8" s="94"/>
+      <c r="FO8" s="94"/>
+      <c r="FP8" s="94"/>
+      <c r="FQ8" s="94"/>
+      <c r="FR8" s="94"/>
+      <c r="FS8" s="94"/>
+      <c r="FT8" s="94"/>
+      <c r="FU8" s="94"/>
+      <c r="FV8" s="94"/>
+      <c r="FW8" s="94"/>
+      <c r="FX8" s="94"/>
+      <c r="FY8" s="94"/>
+      <c r="FZ8" s="94"/>
+      <c r="GA8" s="94"/>
+      <c r="GB8" s="94"/>
+      <c r="GC8" s="94"/>
+      <c r="GD8" s="94"/>
+      <c r="GE8" s="94"/>
+      <c r="GF8" s="94"/>
+      <c r="GG8" s="94"/>
+      <c r="GH8" s="94"/>
+      <c r="GI8" s="94"/>
+      <c r="GJ8" s="94"/>
+      <c r="GK8" s="94"/>
+      <c r="GL8" s="94"/>
     </row>
     <row r="9" spans="1:221">
-      <c r="A9" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ9" s="91"/>
-      <c r="AR9" s="91"/>
-      <c r="AS9" s="91"/>
-      <c r="AT9" s="92"/>
-      <c r="AU9" s="94"/>
-      <c r="AV9" s="91"/>
-      <c r="AW9" s="91"/>
-      <c r="AX9" s="91"/>
-      <c r="AY9" s="92"/>
-      <c r="AZ9" s="94"/>
-      <c r="BA9" s="91"/>
+      <c r="A9" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA9" s="94"/>
+      <c r="AB9" s="94"/>
+      <c r="AC9" s="94"/>
+      <c r="AD9" s="94"/>
+      <c r="AE9" s="94"/>
+      <c r="AF9" s="94"/>
+      <c r="AG9" s="94"/>
+      <c r="AH9" s="94"/>
+      <c r="AI9" s="94"/>
+      <c r="AJ9" s="94"/>
+      <c r="AK9" s="96"/>
+      <c r="AL9" s="96"/>
+      <c r="AM9" s="96"/>
+      <c r="AN9" s="96"/>
+      <c r="AO9" s="96"/>
+      <c r="AP9" s="94"/>
+      <c r="AQ9" s="95"/>
+      <c r="AR9" s="95"/>
+      <c r="AS9" s="95"/>
+      <c r="AT9" s="95"/>
+      <c r="AU9" s="95"/>
+      <c r="AV9" s="95"/>
+      <c r="AW9" s="95"/>
+      <c r="AX9" s="95"/>
+      <c r="AY9" s="95"/>
+      <c r="AZ9" s="95"/>
+      <c r="BA9" s="95"/>
+      <c r="BB9" s="94"/>
+      <c r="BC9" s="94"/>
+      <c r="BD9" s="94"/>
+      <c r="BE9" s="94"/>
+      <c r="BF9" s="94"/>
+      <c r="BG9" s="94"/>
+      <c r="BH9" s="94"/>
+      <c r="BI9" s="94"/>
+      <c r="BJ9" s="94"/>
+      <c r="BK9" s="94"/>
+      <c r="BL9" s="94"/>
+      <c r="BM9" s="94"/>
+      <c r="BN9" s="94"/>
+      <c r="BO9" s="94"/>
+      <c r="BP9" s="94"/>
+      <c r="BQ9" s="94"/>
+      <c r="BR9" s="94"/>
+      <c r="BS9" s="94"/>
+      <c r="BT9" s="94"/>
+      <c r="BU9" s="94"/>
+      <c r="BV9" s="94"/>
+      <c r="BW9" s="94"/>
+      <c r="BX9" s="94"/>
+      <c r="BY9" s="94"/>
+      <c r="BZ9" s="94"/>
+      <c r="CA9" s="94"/>
+      <c r="CB9" s="94"/>
+      <c r="CC9" s="94"/>
+      <c r="CD9" s="94"/>
+      <c r="CE9" s="94"/>
+      <c r="CF9" s="94"/>
+      <c r="CG9" s="94"/>
+      <c r="CH9" s="94"/>
+      <c r="CI9" s="94"/>
+      <c r="CJ9" s="94"/>
+      <c r="CK9" s="94"/>
+      <c r="CL9" s="94"/>
+      <c r="CM9" s="94"/>
+      <c r="CN9" s="94"/>
+      <c r="CO9" s="94"/>
+      <c r="CP9" s="94"/>
+      <c r="CQ9" s="94"/>
+      <c r="CR9" s="94"/>
+      <c r="CS9" s="94"/>
+      <c r="CT9" s="94"/>
+      <c r="CU9" s="94"/>
+      <c r="CV9" s="94"/>
+      <c r="CW9" s="94"/>
+      <c r="CX9" s="94"/>
+      <c r="CY9" s="94"/>
+      <c r="CZ9" s="94"/>
+      <c r="DA9" s="94"/>
+      <c r="DB9" s="94"/>
+      <c r="DC9" s="94"/>
+      <c r="DD9" s="94"/>
+      <c r="DE9" s="94"/>
+      <c r="DF9" s="94"/>
+      <c r="DG9" s="94"/>
+      <c r="DH9" s="94"/>
+      <c r="DI9" s="94"/>
+      <c r="DJ9" s="94"/>
+      <c r="DK9" s="94"/>
+      <c r="DL9" s="94"/>
+      <c r="DM9" s="94"/>
+      <c r="DN9" s="94"/>
+      <c r="DO9" s="94"/>
+      <c r="DP9" s="94"/>
+      <c r="DQ9" s="94"/>
+      <c r="DR9" s="94"/>
+      <c r="DS9" s="94"/>
+      <c r="DT9" s="94"/>
+      <c r="DU9" s="94"/>
+      <c r="DV9" s="94"/>
+      <c r="DW9" s="94"/>
+      <c r="DX9" s="94"/>
+      <c r="DY9" s="94"/>
+      <c r="DZ9" s="94"/>
+      <c r="EA9" s="94"/>
+      <c r="EB9" s="94"/>
+      <c r="EC9" s="94"/>
+      <c r="ED9" s="94"/>
+      <c r="EE9" s="94"/>
+      <c r="EF9" s="94"/>
+      <c r="EG9" s="94"/>
+      <c r="EH9" s="94"/>
+      <c r="EI9" s="94"/>
+      <c r="EJ9" s="94"/>
+      <c r="EK9" s="94"/>
+      <c r="EL9" s="94"/>
+      <c r="EM9" s="94"/>
+      <c r="EN9" s="94"/>
+      <c r="EO9" s="94"/>
+      <c r="EP9" s="94"/>
+      <c r="EQ9" s="94"/>
+      <c r="ER9" s="94"/>
+      <c r="ES9" s="94"/>
+      <c r="ET9" s="94"/>
+      <c r="EU9" s="94"/>
+      <c r="EV9" s="94"/>
+      <c r="EW9" s="94"/>
+      <c r="EX9" s="94"/>
+      <c r="EY9" s="94"/>
+      <c r="EZ9" s="94"/>
+      <c r="FA9" s="94"/>
+      <c r="FB9" s="94"/>
+      <c r="FC9" s="94"/>
+      <c r="FD9" s="94"/>
+      <c r="FE9" s="94"/>
+      <c r="FF9" s="94"/>
+      <c r="FG9" s="94"/>
+      <c r="FH9" s="94"/>
+      <c r="FI9" s="94"/>
+      <c r="FJ9" s="94"/>
+      <c r="FK9" s="94"/>
+      <c r="FL9" s="94"/>
+      <c r="FM9" s="94"/>
+      <c r="FN9" s="94"/>
+      <c r="FO9" s="94"/>
+      <c r="FP9" s="94"/>
+      <c r="FQ9" s="94"/>
+      <c r="FR9" s="94"/>
+      <c r="FS9" s="94"/>
+      <c r="FT9" s="94"/>
+      <c r="FU9" s="94"/>
+      <c r="FV9" s="94"/>
+      <c r="FW9" s="94"/>
+      <c r="FX9" s="94"/>
+      <c r="FY9" s="94"/>
+      <c r="FZ9" s="94"/>
+      <c r="GA9" s="94"/>
+      <c r="GB9" s="94"/>
+      <c r="GC9" s="94"/>
+      <c r="GD9" s="94"/>
+      <c r="GE9" s="94"/>
+      <c r="GF9" s="94"/>
+      <c r="GG9" s="94"/>
+      <c r="GH9" s="94"/>
+      <c r="GI9" s="94"/>
+      <c r="GJ9" s="94"/>
+      <c r="GK9" s="94"/>
+      <c r="GL9" s="94"/>
     </row>
     <row r="10" spans="1:221">
-      <c r="A10" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="AQ10" s="91"/>
-      <c r="AR10" s="91"/>
-      <c r="AS10" s="91"/>
-      <c r="AT10" s="92"/>
-      <c r="AU10" s="94"/>
-      <c r="AV10" s="91"/>
-      <c r="AW10" s="91"/>
-      <c r="AX10" s="91"/>
-      <c r="AY10" s="92"/>
-      <c r="AZ10" s="94"/>
-      <c r="BA10" s="91"/>
+      <c r="A10" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA10" s="94"/>
+      <c r="AB10" s="94"/>
+      <c r="AC10" s="94"/>
+      <c r="AD10" s="94"/>
+      <c r="AE10" s="94"/>
+      <c r="AF10" s="94"/>
+      <c r="AG10" s="94"/>
+      <c r="AH10" s="94"/>
+      <c r="AI10" s="94"/>
+      <c r="AJ10" s="94"/>
+      <c r="AK10" s="96"/>
+      <c r="AL10" s="96"/>
+      <c r="AM10" s="96"/>
+      <c r="AN10" s="96"/>
+      <c r="AO10" s="96"/>
+      <c r="AP10" s="94"/>
+      <c r="AQ10" s="95"/>
+      <c r="AR10" s="95"/>
+      <c r="AS10" s="95"/>
+      <c r="AT10" s="95"/>
+      <c r="AU10" s="95"/>
+      <c r="AV10" s="95"/>
+      <c r="AW10" s="95"/>
+      <c r="AX10" s="95"/>
+      <c r="AY10" s="95"/>
+      <c r="AZ10" s="95"/>
+      <c r="BA10" s="95"/>
+      <c r="BB10" s="94"/>
+      <c r="BC10" s="94"/>
+      <c r="BD10" s="94"/>
+      <c r="BE10" s="94"/>
+      <c r="BF10" s="94"/>
+      <c r="BG10" s="94"/>
+      <c r="BH10" s="94"/>
+      <c r="BI10" s="94"/>
+      <c r="BJ10" s="94"/>
+      <c r="BK10" s="94"/>
+      <c r="BL10" s="94"/>
+      <c r="BM10" s="94"/>
+      <c r="BN10" s="94"/>
+      <c r="BO10" s="94"/>
+      <c r="BP10" s="94"/>
+      <c r="BQ10" s="94"/>
+      <c r="BR10" s="94"/>
+      <c r="BS10" s="94"/>
+      <c r="BT10" s="94"/>
+      <c r="BU10" s="94"/>
+      <c r="BV10" s="94"/>
+      <c r="BW10" s="94"/>
+      <c r="BX10" s="94"/>
+      <c r="BY10" s="94"/>
+      <c r="BZ10" s="94"/>
+      <c r="CA10" s="94"/>
+      <c r="CB10" s="94"/>
+      <c r="CC10" s="94"/>
+      <c r="CD10" s="94"/>
+      <c r="CE10" s="94"/>
+      <c r="CF10" s="94"/>
+      <c r="CG10" s="94"/>
+      <c r="CH10" s="94"/>
+      <c r="CI10" s="94"/>
+      <c r="CJ10" s="94"/>
+      <c r="CK10" s="94"/>
+      <c r="CL10" s="94"/>
+      <c r="CM10" s="94"/>
+      <c r="CN10" s="94"/>
+      <c r="CO10" s="94"/>
+      <c r="CP10" s="94"/>
+      <c r="CQ10" s="94"/>
+      <c r="CR10" s="94"/>
+      <c r="CS10" s="94"/>
+      <c r="CT10" s="94"/>
+      <c r="CU10" s="94"/>
+      <c r="CV10" s="94"/>
+      <c r="CW10" s="94"/>
+      <c r="CX10" s="94"/>
+      <c r="CY10" s="94"/>
+      <c r="CZ10" s="94"/>
+      <c r="DA10" s="94"/>
+      <c r="DB10" s="94"/>
+      <c r="DC10" s="94"/>
+      <c r="DD10" s="94"/>
+      <c r="DE10" s="94"/>
+      <c r="DF10" s="94"/>
+      <c r="DG10" s="94"/>
+      <c r="DH10" s="94"/>
+      <c r="DI10" s="94"/>
+      <c r="DJ10" s="94"/>
+      <c r="DK10" s="94"/>
+      <c r="DL10" s="94"/>
+      <c r="DM10" s="94"/>
+      <c r="DN10" s="94"/>
+      <c r="DO10" s="94"/>
+      <c r="DP10" s="94"/>
+      <c r="DQ10" s="94"/>
+      <c r="DR10" s="94"/>
+      <c r="DS10" s="94"/>
+      <c r="DT10" s="94"/>
+      <c r="DU10" s="94"/>
+      <c r="DV10" s="94"/>
+      <c r="DW10" s="94"/>
+      <c r="DX10" s="94"/>
+      <c r="DY10" s="94"/>
+      <c r="DZ10" s="94"/>
+      <c r="EA10" s="94"/>
+      <c r="EB10" s="94"/>
+      <c r="EC10" s="94"/>
+      <c r="ED10" s="94"/>
+      <c r="EE10" s="94"/>
+      <c r="EF10" s="94"/>
+      <c r="EG10" s="94"/>
+      <c r="EH10" s="94"/>
+      <c r="EI10" s="94"/>
+      <c r="EJ10" s="94"/>
+      <c r="EK10" s="94"/>
+      <c r="EL10" s="94"/>
+      <c r="EM10" s="94"/>
+      <c r="EN10" s="94"/>
+      <c r="EO10" s="94"/>
+      <c r="EP10" s="94"/>
+      <c r="EQ10" s="94"/>
+      <c r="ER10" s="94"/>
+      <c r="ES10" s="94"/>
+      <c r="ET10" s="94"/>
+      <c r="EU10" s="94"/>
+      <c r="EV10" s="94"/>
+      <c r="EW10" s="94"/>
+      <c r="EX10" s="94"/>
+      <c r="EY10" s="94"/>
+      <c r="EZ10" s="94"/>
+      <c r="FA10" s="94"/>
+      <c r="FB10" s="94"/>
+      <c r="FC10" s="94"/>
+      <c r="FD10" s="94"/>
+      <c r="FE10" s="94"/>
+      <c r="FF10" s="94"/>
+      <c r="FG10" s="94"/>
+      <c r="FH10" s="94"/>
+      <c r="FI10" s="94"/>
+      <c r="FJ10" s="94"/>
+      <c r="FK10" s="94"/>
+      <c r="FL10" s="94"/>
+      <c r="FM10" s="94"/>
+      <c r="FN10" s="94"/>
+      <c r="FO10" s="94"/>
+      <c r="FP10" s="94"/>
+      <c r="FQ10" s="94"/>
+      <c r="FR10" s="94"/>
+      <c r="FS10" s="94"/>
+      <c r="FT10" s="94"/>
+      <c r="FU10" s="94"/>
+      <c r="FV10" s="94"/>
+      <c r="FW10" s="94"/>
+      <c r="FX10" s="94"/>
+      <c r="FY10" s="94"/>
+      <c r="FZ10" s="94"/>
+      <c r="GA10" s="94"/>
+      <c r="GB10" s="94"/>
+      <c r="GC10" s="94"/>
+      <c r="GD10" s="94"/>
+      <c r="GE10" s="94"/>
+      <c r="GF10" s="94"/>
+      <c r="GG10" s="94"/>
+      <c r="GH10" s="94"/>
+      <c r="GI10" s="94"/>
+      <c r="GJ10" s="94"/>
+      <c r="GK10" s="94"/>
+      <c r="GL10" s="94"/>
     </row>
     <row r="11" spans="1:221">
-      <c r="A11" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ11" s="91"/>
-      <c r="AR11" s="91"/>
-      <c r="AS11" s="91"/>
-      <c r="AT11" s="92"/>
+      <c r="A11" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA11" s="94"/>
+      <c r="AB11" s="94"/>
+      <c r="AC11" s="94"/>
+      <c r="AD11" s="94"/>
+      <c r="AE11" s="94"/>
+      <c r="AF11" s="94"/>
+      <c r="AG11" s="94"/>
+      <c r="AH11" s="94"/>
+      <c r="AI11" s="94"/>
+      <c r="AJ11" s="94"/>
+      <c r="AK11" s="96"/>
+      <c r="AL11" s="96"/>
+      <c r="AM11" s="96"/>
+      <c r="AN11" s="96"/>
+      <c r="AO11" s="96"/>
       <c r="AU11" s="94"/>
-      <c r="AV11" s="91"/>
-      <c r="AW11" s="91"/>
-      <c r="AX11" s="91"/>
-      <c r="AY11" s="92"/>
+      <c r="AV11" s="94"/>
+      <c r="AW11" s="94"/>
+      <c r="AX11" s="94"/>
+      <c r="AY11" s="94"/>
       <c r="AZ11" s="94"/>
-      <c r="BA11" s="91"/>
+      <c r="BA11" s="94"/>
+      <c r="BB11" s="94"/>
+      <c r="BC11" s="94"/>
+      <c r="BD11" s="94"/>
+      <c r="BE11" s="94"/>
+      <c r="BF11" s="94"/>
+      <c r="BG11" s="94"/>
+      <c r="BH11" s="94"/>
+      <c r="BI11" s="94"/>
+      <c r="BJ11" s="94"/>
+      <c r="BK11" s="94"/>
+      <c r="BL11" s="94"/>
+      <c r="BM11" s="94"/>
+      <c r="BN11" s="94"/>
+      <c r="BO11" s="94"/>
+      <c r="BP11" s="94"/>
+      <c r="BQ11" s="94"/>
+      <c r="BR11" s="94"/>
+      <c r="BS11" s="94"/>
+      <c r="BT11" s="94"/>
+      <c r="BU11" s="94"/>
+      <c r="BV11" s="94"/>
+      <c r="BW11" s="94"/>
+      <c r="BX11" s="94"/>
+      <c r="BY11" s="94"/>
+      <c r="BZ11" s="94"/>
+      <c r="CA11" s="94"/>
+      <c r="CB11" s="94"/>
+      <c r="CC11" s="94"/>
+      <c r="CD11" s="94"/>
+      <c r="CE11" s="94"/>
+      <c r="CF11" s="94"/>
+      <c r="CG11" s="94"/>
+      <c r="CH11" s="94"/>
+      <c r="CI11" s="94"/>
+      <c r="CJ11" s="94"/>
+      <c r="CK11" s="94"/>
+      <c r="CL11" s="94"/>
+      <c r="CM11" s="94"/>
+      <c r="CN11" s="94"/>
+      <c r="CO11" s="94"/>
+      <c r="CP11" s="94"/>
+      <c r="CQ11" s="94"/>
+      <c r="CR11" s="94"/>
+      <c r="CS11" s="94"/>
+      <c r="CT11" s="94"/>
+      <c r="CU11" s="94"/>
+      <c r="CV11" s="94"/>
+      <c r="CW11" s="94"/>
+      <c r="CX11" s="94"/>
+      <c r="CY11" s="94"/>
+      <c r="CZ11" s="94"/>
+      <c r="DA11" s="94"/>
+      <c r="DB11" s="94"/>
+      <c r="DC11" s="94"/>
+      <c r="DD11" s="94"/>
+      <c r="DE11" s="94"/>
+      <c r="DF11" s="94"/>
+      <c r="DG11" s="94"/>
+      <c r="DH11" s="94"/>
+      <c r="DI11" s="94"/>
+      <c r="DJ11" s="94"/>
+      <c r="DK11" s="94"/>
+      <c r="DL11" s="94"/>
+      <c r="DM11" s="94"/>
+      <c r="DN11" s="94"/>
+      <c r="DO11" s="94"/>
+      <c r="DP11" s="94"/>
+      <c r="DQ11" s="94"/>
+      <c r="DR11" s="94"/>
+      <c r="DS11" s="94"/>
+      <c r="DT11" s="94"/>
+      <c r="DU11" s="94"/>
+      <c r="DV11" s="94"/>
+      <c r="DW11" s="94"/>
+      <c r="DX11" s="94"/>
+      <c r="DY11" s="94"/>
+      <c r="DZ11" s="94"/>
+      <c r="EA11" s="94"/>
+      <c r="EB11" s="94"/>
+      <c r="EC11" s="94"/>
+      <c r="ED11" s="94"/>
+      <c r="EE11" s="94"/>
+      <c r="EF11" s="94"/>
+      <c r="EG11" s="94"/>
+      <c r="EH11" s="94"/>
+      <c r="EI11" s="94"/>
+      <c r="EJ11" s="94"/>
+      <c r="EK11" s="94"/>
+      <c r="EL11" s="94"/>
+      <c r="EM11" s="94"/>
+      <c r="EN11" s="94"/>
+      <c r="EO11" s="94"/>
+      <c r="EP11" s="94"/>
+      <c r="EQ11" s="94"/>
+      <c r="ER11" s="94"/>
+      <c r="ES11" s="94"/>
+      <c r="ET11" s="94"/>
+      <c r="EU11" s="94"/>
+      <c r="EV11" s="94"/>
+      <c r="EW11" s="94"/>
+      <c r="EX11" s="94"/>
+      <c r="EY11" s="94"/>
+      <c r="EZ11" s="94"/>
+      <c r="FA11" s="94"/>
+      <c r="FB11" s="94"/>
+      <c r="FC11" s="94"/>
+      <c r="FD11" s="94"/>
+      <c r="FE11" s="94"/>
+      <c r="FF11" s="94"/>
+      <c r="FG11" s="94"/>
+      <c r="FH11" s="94"/>
+      <c r="FI11" s="94"/>
+      <c r="FJ11" s="94"/>
+      <c r="FK11" s="94"/>
+      <c r="FL11" s="94"/>
+      <c r="FM11" s="94"/>
+      <c r="FN11" s="94"/>
+      <c r="FO11" s="94"/>
+      <c r="FP11" s="94"/>
+      <c r="FQ11" s="94"/>
+      <c r="FR11" s="94"/>
+      <c r="FS11" s="94"/>
+      <c r="FT11" s="94"/>
+      <c r="FU11" s="94"/>
+      <c r="FV11" s="94"/>
+      <c r="FW11" s="94"/>
+      <c r="FX11" s="94"/>
+      <c r="FY11" s="94"/>
+      <c r="FZ11" s="94"/>
+      <c r="GA11" s="94"/>
+      <c r="GB11" s="94"/>
+      <c r="GC11" s="94"/>
+      <c r="GD11" s="94"/>
+      <c r="GE11" s="94"/>
+      <c r="GF11" s="94"/>
+      <c r="GG11" s="94"/>
+      <c r="GH11" s="94"/>
+      <c r="GI11" s="94"/>
+      <c r="GJ11" s="94"/>
+      <c r="GK11" s="94"/>
+      <c r="GL11" s="94"/>
     </row>
     <row r="12" spans="1:221">
-      <c r="A12" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ12" s="91"/>
-      <c r="AR12" s="91"/>
-      <c r="AS12" s="91"/>
-      <c r="AT12" s="92"/>
-      <c r="AU12" s="94"/>
-      <c r="AV12" s="91"/>
-      <c r="AW12" s="91"/>
-      <c r="AX12" s="91"/>
-      <c r="AY12" s="92"/>
-      <c r="AZ12" s="94"/>
-      <c r="BA12" s="91"/>
+      <c r="A12" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA12" s="94"/>
+      <c r="AB12" s="94"/>
+      <c r="AC12" s="94"/>
+      <c r="AD12" s="94"/>
+      <c r="AE12" s="94"/>
+      <c r="AF12" s="94"/>
+      <c r="AG12" s="94"/>
+      <c r="AH12" s="94"/>
+      <c r="AI12" s="94"/>
+      <c r="AJ12" s="94"/>
+      <c r="AP12" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ12" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR12" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS12" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT12" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU12" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV12" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW12" s="95"/>
+      <c r="AX12" s="95"/>
+      <c r="AY12" s="95"/>
+      <c r="AZ12" s="95"/>
+      <c r="BA12" s="95"/>
+      <c r="BB12" s="94"/>
+      <c r="BC12" s="94"/>
+      <c r="BD12" s="94"/>
+      <c r="BE12" s="94"/>
+      <c r="BF12" s="94"/>
+      <c r="BG12" s="94"/>
+      <c r="BH12" s="94"/>
+      <c r="BI12" s="94"/>
+      <c r="BJ12" s="94"/>
+      <c r="BK12" s="94"/>
+      <c r="BL12" s="94"/>
+      <c r="BM12" s="94"/>
+      <c r="BN12" s="94"/>
+      <c r="BO12" s="94"/>
+      <c r="BP12" s="94"/>
+      <c r="BQ12" s="94"/>
+      <c r="BR12" s="94"/>
+      <c r="BS12" s="94"/>
+      <c r="BT12" s="94"/>
+      <c r="BU12" s="94"/>
+      <c r="BV12" s="94"/>
+      <c r="BW12" s="94"/>
+      <c r="BX12" s="94"/>
+      <c r="BY12" s="94"/>
+      <c r="BZ12" s="94"/>
+      <c r="CA12" s="94"/>
+      <c r="CB12" s="94"/>
+      <c r="CC12" s="94"/>
+      <c r="CD12" s="94"/>
+      <c r="CE12" s="94"/>
+      <c r="CF12" s="94"/>
+      <c r="CG12" s="94"/>
+      <c r="CH12" s="94"/>
+      <c r="CI12" s="94"/>
+      <c r="CJ12" s="94"/>
+      <c r="CK12" s="94"/>
+      <c r="CL12" s="94"/>
+      <c r="CM12" s="94"/>
+      <c r="CN12" s="94"/>
+      <c r="CO12" s="94"/>
+      <c r="CP12" s="94"/>
+      <c r="CQ12" s="94"/>
+      <c r="CR12" s="94"/>
+      <c r="CS12" s="94"/>
+      <c r="CT12" s="94"/>
+      <c r="CU12" s="94"/>
+      <c r="CV12" s="94"/>
+      <c r="CW12" s="94"/>
+      <c r="CX12" s="94"/>
+      <c r="CY12" s="94"/>
+      <c r="CZ12" s="94"/>
+      <c r="DA12" s="94"/>
+      <c r="DB12" s="94"/>
+      <c r="DC12" s="94"/>
+      <c r="DD12" s="94"/>
+      <c r="DE12" s="94"/>
+      <c r="DF12" s="94"/>
+      <c r="DG12" s="94"/>
+      <c r="DH12" s="94"/>
+      <c r="DI12" s="94"/>
+      <c r="DJ12" s="94"/>
+      <c r="DK12" s="94"/>
+      <c r="DL12" s="94"/>
+      <c r="DM12" s="94"/>
+      <c r="DN12" s="94"/>
+      <c r="DO12" s="94"/>
+      <c r="DP12" s="94"/>
+      <c r="DQ12" s="94"/>
+      <c r="DR12" s="94"/>
+      <c r="DS12" s="94"/>
+      <c r="DT12" s="94"/>
+      <c r="DU12" s="94"/>
+      <c r="DV12" s="94"/>
+      <c r="DW12" s="94"/>
+      <c r="DX12" s="94"/>
+      <c r="DY12" s="94"/>
+      <c r="DZ12" s="94"/>
+      <c r="EA12" s="94"/>
+      <c r="EB12" s="94"/>
+      <c r="EC12" s="94"/>
+      <c r="ED12" s="94"/>
+      <c r="EE12" s="94"/>
+      <c r="EF12" s="94"/>
+      <c r="EG12" s="94"/>
+      <c r="EH12" s="94"/>
+      <c r="EI12" s="94"/>
+      <c r="EJ12" s="94"/>
+      <c r="EK12" s="94"/>
+      <c r="EL12" s="94"/>
+      <c r="EM12" s="94"/>
+      <c r="EN12" s="94"/>
+      <c r="EO12" s="94"/>
+      <c r="EP12" s="94"/>
+      <c r="EQ12" s="94"/>
+      <c r="ER12" s="94"/>
+      <c r="ES12" s="94"/>
+      <c r="ET12" s="94"/>
+      <c r="EU12" s="94"/>
+      <c r="EV12" s="94"/>
+      <c r="EW12" s="94"/>
+      <c r="EX12" s="94"/>
+      <c r="EY12" s="94"/>
+      <c r="EZ12" s="94"/>
+      <c r="FA12" s="94"/>
+      <c r="FB12" s="94"/>
+      <c r="FC12" s="94"/>
+      <c r="FD12" s="94"/>
+      <c r="FE12" s="94"/>
+      <c r="FF12" s="94"/>
+      <c r="FG12" s="94"/>
+      <c r="FH12" s="94"/>
+      <c r="FI12" s="94"/>
+      <c r="FJ12" s="94"/>
+      <c r="FK12" s="94"/>
+      <c r="FL12" s="94"/>
+      <c r="FM12" s="94"/>
+      <c r="FN12" s="94"/>
+      <c r="FO12" s="94"/>
+      <c r="FP12" s="94"/>
+      <c r="FQ12" s="94"/>
+      <c r="FR12" s="94"/>
+      <c r="FS12" s="94"/>
+      <c r="FT12" s="94"/>
+      <c r="FU12" s="94"/>
+      <c r="FV12" s="94"/>
+      <c r="FW12" s="94"/>
+      <c r="FX12" s="94"/>
+      <c r="FY12" s="94"/>
+      <c r="FZ12" s="94"/>
+      <c r="GA12" s="94"/>
+      <c r="GB12" s="94"/>
+      <c r="GC12" s="94"/>
+      <c r="GD12" s="94"/>
+      <c r="GE12" s="94"/>
+      <c r="GF12" s="94"/>
+      <c r="GG12" s="94"/>
+      <c r="GH12" s="94"/>
+      <c r="GI12" s="94"/>
+      <c r="GJ12" s="94"/>
+      <c r="GK12" s="94"/>
+      <c r="GL12" s="94"/>
     </row>
-    <row r="14" spans="1:221">
-      <c r="A14" s="68" t="s">
-        <v>27</v>
-      </c>
+    <row r="13" spans="1:221">
+      <c r="A13" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA13" s="94"/>
+      <c r="AB13" s="94"/>
+      <c r="AC13" s="94"/>
+      <c r="AD13" s="94"/>
+      <c r="AE13" s="94"/>
+      <c r="AF13" s="94"/>
+      <c r="AG13" s="94"/>
+      <c r="AH13" s="94"/>
+      <c r="AI13" s="94"/>
+      <c r="AJ13" s="94"/>
+      <c r="AK13" s="94"/>
+      <c r="AL13" s="94"/>
+      <c r="AM13" s="94"/>
+      <c r="AN13" s="94"/>
+      <c r="AO13" s="94"/>
+      <c r="AP13" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ13" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR13" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS13" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT13" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU13" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV13" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW13" s="95"/>
+      <c r="AX13" s="95"/>
+      <c r="AY13" s="95"/>
+      <c r="AZ13" s="95"/>
+      <c r="BA13" s="95"/>
+      <c r="BB13" s="94"/>
+      <c r="BC13" s="94"/>
+      <c r="BD13" s="94"/>
+      <c r="BE13" s="94"/>
+      <c r="BF13" s="94"/>
+      <c r="BG13" s="94"/>
+      <c r="BH13" s="94"/>
+      <c r="BI13" s="94"/>
+      <c r="BJ13" s="94"/>
+      <c r="BK13" s="94"/>
+      <c r="BL13" s="94"/>
+      <c r="BM13" s="94"/>
+      <c r="BN13" s="94"/>
+      <c r="BO13" s="94"/>
+      <c r="BP13" s="94"/>
+      <c r="BQ13" s="94"/>
+      <c r="BR13" s="94"/>
+      <c r="BS13" s="94"/>
+      <c r="BT13" s="94"/>
+      <c r="BU13" s="94"/>
+      <c r="BV13" s="94"/>
+      <c r="BW13" s="94"/>
+      <c r="BX13" s="94"/>
+      <c r="BY13" s="94"/>
+      <c r="BZ13" s="94"/>
+      <c r="CA13" s="94"/>
+      <c r="CB13" s="94"/>
+      <c r="CC13" s="94"/>
+      <c r="CD13" s="94"/>
+      <c r="CE13" s="94"/>
+      <c r="CF13" s="94"/>
+      <c r="CG13" s="94"/>
+      <c r="CH13" s="94"/>
+      <c r="CI13" s="94"/>
+      <c r="CJ13" s="94"/>
+      <c r="CK13" s="94"/>
+      <c r="CL13" s="94"/>
+      <c r="CM13" s="94"/>
+      <c r="CN13" s="94"/>
+      <c r="CO13" s="94"/>
+      <c r="CP13" s="94"/>
+      <c r="CQ13" s="94"/>
+      <c r="CR13" s="94"/>
+      <c r="CS13" s="94"/>
+      <c r="CT13" s="94"/>
+      <c r="CU13" s="94"/>
+      <c r="CV13" s="94"/>
+      <c r="CW13" s="94"/>
+      <c r="CX13" s="94"/>
+      <c r="CY13" s="94"/>
+      <c r="CZ13" s="94"/>
+      <c r="DA13" s="94"/>
+      <c r="DB13" s="94"/>
+      <c r="DC13" s="94"/>
+      <c r="DD13" s="94"/>
+      <c r="DE13" s="94"/>
+      <c r="DF13" s="94"/>
+      <c r="DG13" s="94"/>
+      <c r="DH13" s="94"/>
+      <c r="DI13" s="94"/>
+      <c r="DJ13" s="94"/>
+      <c r="DK13" s="94"/>
+      <c r="DL13" s="94"/>
+      <c r="DM13" s="94"/>
+      <c r="DN13" s="94"/>
+      <c r="DO13" s="94"/>
+      <c r="DP13" s="94"/>
+      <c r="DQ13" s="94"/>
+      <c r="DR13" s="94"/>
+      <c r="DS13" s="94"/>
+      <c r="DT13" s="94"/>
+      <c r="DU13" s="94"/>
+      <c r="DV13" s="94"/>
+      <c r="DW13" s="94"/>
+      <c r="DX13" s="94"/>
+      <c r="DY13" s="94"/>
+      <c r="DZ13" s="94"/>
+      <c r="EA13" s="94"/>
+      <c r="EB13" s="94"/>
+      <c r="EC13" s="94"/>
+      <c r="ED13" s="94"/>
+      <c r="EE13" s="94"/>
+      <c r="EF13" s="94"/>
+      <c r="EG13" s="94"/>
+      <c r="EH13" s="94"/>
+      <c r="EI13" s="94"/>
+      <c r="EJ13" s="94"/>
+      <c r="EK13" s="94"/>
+      <c r="EL13" s="94"/>
+      <c r="EM13" s="94"/>
+      <c r="EN13" s="94"/>
+      <c r="EO13" s="94"/>
+      <c r="EP13" s="94"/>
+      <c r="EQ13" s="94"/>
+      <c r="ER13" s="94"/>
+      <c r="ES13" s="94"/>
+      <c r="ET13" s="94"/>
+      <c r="EU13" s="94"/>
+      <c r="EV13" s="94"/>
+      <c r="EW13" s="94"/>
+      <c r="EX13" s="94"/>
+      <c r="EY13" s="94"/>
+      <c r="EZ13" s="94"/>
+      <c r="FA13" s="94"/>
+      <c r="FB13" s="94"/>
+      <c r="FC13" s="94"/>
+      <c r="FD13" s="94"/>
+      <c r="FE13" s="94"/>
+      <c r="FF13" s="94"/>
+      <c r="FG13" s="94"/>
+      <c r="FH13" s="94"/>
+      <c r="FI13" s="94"/>
+      <c r="FJ13" s="94"/>
+      <c r="FK13" s="94"/>
+      <c r="FL13" s="94"/>
+      <c r="FM13" s="94"/>
+      <c r="FN13" s="94"/>
+      <c r="FO13" s="94"/>
+      <c r="FP13" s="94"/>
+      <c r="FQ13" s="94"/>
+      <c r="FR13" s="94"/>
+      <c r="FS13" s="94"/>
+      <c r="FT13" s="94"/>
+      <c r="FU13" s="94"/>
+      <c r="FV13" s="94"/>
+      <c r="FW13" s="94"/>
+      <c r="FX13" s="94"/>
+      <c r="FY13" s="94"/>
+      <c r="FZ13" s="94"/>
+      <c r="GA13" s="94"/>
+      <c r="GB13" s="94"/>
+      <c r="GC13" s="94"/>
+      <c r="GD13" s="94"/>
+      <c r="GE13" s="94"/>
+      <c r="GF13" s="94"/>
+      <c r="GG13" s="94"/>
+      <c r="GH13" s="94"/>
+      <c r="GI13" s="94"/>
+      <c r="GJ13" s="94"/>
+      <c r="GK13" s="94"/>
+      <c r="GL13" s="94"/>
     </row>
     <row r="15" spans="1:221">
-      <c r="A15" s="67" t="s">
-        <v>52</v>
-      </c>
+      <c r="A15" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA15" s="94"/>
+      <c r="AB15" s="94"/>
+      <c r="AC15" s="94"/>
+      <c r="AD15" s="94"/>
+      <c r="AE15" s="94"/>
+      <c r="AF15" s="94"/>
+      <c r="AG15" s="94"/>
+      <c r="AH15" s="94"/>
+      <c r="AI15" s="94"/>
+      <c r="AJ15" s="94"/>
+      <c r="AK15" s="94"/>
+      <c r="AL15" s="94"/>
+      <c r="AM15" s="94"/>
+      <c r="AN15" s="94"/>
+      <c r="AO15" s="94"/>
+      <c r="AP15" s="94"/>
+      <c r="AQ15" s="94"/>
+      <c r="AR15" s="94"/>
+      <c r="AS15" s="94"/>
+      <c r="AT15" s="94"/>
+      <c r="AU15" s="94"/>
+      <c r="AV15" s="94"/>
+      <c r="AW15" s="94"/>
+      <c r="AX15" s="94"/>
+      <c r="AY15" s="94"/>
+      <c r="AZ15" s="94"/>
+      <c r="BA15" s="94"/>
+      <c r="BB15" s="94"/>
+      <c r="BC15" s="94"/>
+      <c r="BD15" s="94"/>
+      <c r="BE15" s="94"/>
+      <c r="BF15" s="94"/>
+      <c r="BG15" s="94"/>
+      <c r="BH15" s="94"/>
+      <c r="BI15" s="94"/>
+      <c r="BJ15" s="94"/>
+      <c r="BK15" s="94"/>
+      <c r="BL15" s="94"/>
+      <c r="BM15" s="94"/>
+      <c r="BN15" s="94"/>
+      <c r="BO15" s="94"/>
+      <c r="BP15" s="94"/>
+      <c r="BQ15" s="94"/>
+      <c r="BR15" s="94"/>
+      <c r="BS15" s="94"/>
+      <c r="BT15" s="94"/>
+      <c r="BU15" s="94"/>
+      <c r="BV15" s="94"/>
+      <c r="BW15" s="94"/>
+      <c r="BX15" s="94"/>
+      <c r="BY15" s="94"/>
+      <c r="BZ15" s="94"/>
+      <c r="CA15" s="94"/>
+      <c r="CB15" s="94"/>
+      <c r="CC15" s="94"/>
+      <c r="CD15" s="94"/>
+      <c r="CE15" s="94"/>
+      <c r="CF15" s="94"/>
+      <c r="CG15" s="94"/>
+      <c r="CH15" s="94"/>
+      <c r="CI15" s="94"/>
+      <c r="CJ15" s="94"/>
+      <c r="CK15" s="94"/>
+      <c r="CL15" s="94"/>
+      <c r="CM15" s="94"/>
+      <c r="CN15" s="94"/>
+      <c r="CO15" s="94"/>
+      <c r="CP15" s="94"/>
+      <c r="CQ15" s="94"/>
+      <c r="CR15" s="94"/>
+      <c r="CS15" s="94"/>
+      <c r="CT15" s="94"/>
+      <c r="CU15" s="94"/>
+      <c r="CV15" s="94"/>
+      <c r="CW15" s="94"/>
+      <c r="CX15" s="94"/>
+      <c r="CY15" s="94"/>
+      <c r="CZ15" s="94"/>
+      <c r="DA15" s="94"/>
+      <c r="DB15" s="94"/>
+      <c r="DC15" s="94"/>
+      <c r="DD15" s="94"/>
+      <c r="DE15" s="94"/>
+      <c r="DF15" s="94"/>
+      <c r="DG15" s="94"/>
+      <c r="DH15" s="94"/>
+      <c r="DI15" s="94"/>
+      <c r="DJ15" s="94"/>
+      <c r="DK15" s="94"/>
+      <c r="DL15" s="94"/>
+      <c r="DM15" s="94"/>
+      <c r="DN15" s="94"/>
+      <c r="DO15" s="94"/>
+      <c r="DP15" s="94"/>
+      <c r="DQ15" s="94"/>
+      <c r="DR15" s="94"/>
+      <c r="DS15" s="94"/>
+      <c r="DT15" s="94"/>
+      <c r="DU15" s="94"/>
+      <c r="DV15" s="94"/>
+      <c r="DW15" s="94"/>
+      <c r="DX15" s="94"/>
+      <c r="DY15" s="94"/>
+      <c r="DZ15" s="94"/>
+      <c r="EA15" s="94"/>
+      <c r="EB15" s="94"/>
+      <c r="EC15" s="94"/>
+      <c r="ED15" s="94"/>
+      <c r="EE15" s="94"/>
+      <c r="EF15" s="94"/>
+      <c r="EG15" s="94"/>
+      <c r="EH15" s="94"/>
+      <c r="EI15" s="94"/>
+      <c r="EJ15" s="94"/>
+      <c r="EK15" s="94"/>
+      <c r="EL15" s="94"/>
+      <c r="EM15" s="94"/>
+      <c r="EN15" s="94"/>
+      <c r="EO15" s="94"/>
+      <c r="EP15" s="94"/>
+      <c r="EQ15" s="94"/>
+      <c r="ER15" s="94"/>
+      <c r="ES15" s="94"/>
+      <c r="ET15" s="94"/>
+      <c r="EU15" s="94"/>
+      <c r="EV15" s="94"/>
+      <c r="EW15" s="94"/>
+      <c r="EX15" s="94"/>
+      <c r="EY15" s="94"/>
+      <c r="EZ15" s="94"/>
+      <c r="FA15" s="94"/>
+      <c r="FB15" s="94"/>
+      <c r="FC15" s="94"/>
+      <c r="FD15" s="94"/>
+      <c r="FE15" s="94"/>
+      <c r="FF15" s="94"/>
+      <c r="FG15" s="94"/>
+      <c r="FH15" s="94"/>
+      <c r="FI15" s="94"/>
+      <c r="FJ15" s="94"/>
+      <c r="FK15" s="94"/>
+      <c r="FL15" s="94"/>
+      <c r="FM15" s="94"/>
+      <c r="FN15" s="94"/>
+      <c r="FO15" s="94"/>
+      <c r="FP15" s="94"/>
+      <c r="FQ15" s="94"/>
+      <c r="FR15" s="94"/>
+      <c r="FS15" s="94"/>
+      <c r="FT15" s="94"/>
+      <c r="FU15" s="94"/>
+      <c r="FV15" s="94"/>
+      <c r="FW15" s="94"/>
+      <c r="FX15" s="94"/>
+      <c r="FY15" s="94"/>
+      <c r="FZ15" s="94"/>
+      <c r="GA15" s="94"/>
+      <c r="GB15" s="94"/>
+      <c r="GC15" s="94"/>
+      <c r="GD15" s="94"/>
+      <c r="GE15" s="94"/>
+      <c r="GF15" s="94"/>
+      <c r="GG15" s="94"/>
+      <c r="GH15" s="94"/>
+      <c r="GI15" s="94"/>
+      <c r="GJ15" s="94"/>
+      <c r="GK15" s="94"/>
+      <c r="GL15" s="94"/>
     </row>
     <row r="16" spans="1:221">
-      <c r="A16" s="67" t="s">
-        <v>53</v>
-      </c>
+      <c r="A16" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA16" s="94"/>
+      <c r="AB16" s="94"/>
+      <c r="AC16" s="94"/>
+      <c r="AD16" s="94"/>
+      <c r="AE16" s="94"/>
+      <c r="AF16" s="94"/>
+      <c r="AG16" s="94"/>
+      <c r="AH16" s="94"/>
+      <c r="AI16" s="94"/>
+      <c r="AJ16" s="94"/>
+      <c r="AK16" s="94"/>
+      <c r="AL16" s="94"/>
+      <c r="AM16" s="94"/>
+      <c r="AN16" s="94"/>
+      <c r="AO16" s="94"/>
+      <c r="AP16" s="94"/>
+      <c r="AQ16" s="94"/>
+      <c r="AR16" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS16" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT16" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU16" s="94"/>
+      <c r="AV16" s="94"/>
+      <c r="AW16" s="94"/>
+      <c r="AX16" s="94"/>
+      <c r="AY16" s="94"/>
+      <c r="AZ16" s="94"/>
+      <c r="BA16" s="94"/>
+      <c r="BB16" s="94"/>
+      <c r="BC16" s="94"/>
+      <c r="BD16" s="94"/>
+      <c r="BE16" s="94"/>
+      <c r="BF16" s="94"/>
+      <c r="BG16" s="94"/>
+      <c r="BH16" s="94"/>
+      <c r="BI16" s="94"/>
+      <c r="BJ16" s="94"/>
+      <c r="BK16" s="94"/>
+      <c r="BL16" s="94"/>
+      <c r="BM16" s="94"/>
+      <c r="BN16" s="94"/>
+      <c r="BO16" s="94"/>
+      <c r="BP16" s="94"/>
+      <c r="BQ16" s="94"/>
+      <c r="BR16" s="94"/>
+      <c r="BS16" s="94"/>
+      <c r="BT16" s="94"/>
+      <c r="BU16" s="94"/>
+      <c r="BV16" s="94"/>
+      <c r="BW16" s="94"/>
+      <c r="BX16" s="94"/>
+      <c r="BY16" s="94"/>
+      <c r="BZ16" s="94"/>
+      <c r="CA16" s="94"/>
+      <c r="CB16" s="94"/>
+      <c r="CC16" s="94"/>
+      <c r="CD16" s="94"/>
+      <c r="CE16" s="94"/>
+      <c r="CF16" s="94"/>
+      <c r="CG16" s="94"/>
+      <c r="CH16" s="94"/>
+      <c r="CI16" s="94"/>
+      <c r="CJ16" s="94"/>
+      <c r="CK16" s="94"/>
+      <c r="CL16" s="94"/>
+      <c r="CM16" s="94"/>
+      <c r="CN16" s="94"/>
+      <c r="CO16" s="94"/>
+      <c r="CP16" s="94"/>
+      <c r="CQ16" s="94"/>
+      <c r="CR16" s="94"/>
+      <c r="CS16" s="94"/>
+      <c r="CT16" s="94"/>
+      <c r="CU16" s="94"/>
+      <c r="CV16" s="94"/>
+      <c r="CW16" s="94"/>
+      <c r="CX16" s="94"/>
+      <c r="CY16" s="94"/>
+      <c r="CZ16" s="94"/>
+      <c r="DA16" s="94"/>
+      <c r="DB16" s="94"/>
+      <c r="DC16" s="94"/>
+      <c r="DD16" s="94"/>
+      <c r="DE16" s="94"/>
+      <c r="DF16" s="94"/>
+      <c r="DG16" s="94"/>
+      <c r="DH16" s="94"/>
+      <c r="DI16" s="94"/>
+      <c r="DJ16" s="94"/>
+      <c r="DK16" s="94"/>
+      <c r="DL16" s="94"/>
+      <c r="DM16" s="94"/>
+      <c r="DN16" s="94"/>
+      <c r="DO16" s="94"/>
+      <c r="DP16" s="94"/>
+      <c r="DQ16" s="94"/>
+      <c r="DR16" s="94"/>
+      <c r="DS16" s="94"/>
+      <c r="DT16" s="94"/>
+      <c r="DU16" s="94"/>
+      <c r="DV16" s="94"/>
+      <c r="DW16" s="94"/>
+      <c r="DX16" s="94"/>
+      <c r="DY16" s="94"/>
+      <c r="DZ16" s="94"/>
+      <c r="EA16" s="94"/>
+      <c r="EB16" s="94"/>
+      <c r="EC16" s="94"/>
+      <c r="ED16" s="94"/>
+      <c r="EE16" s="94"/>
+      <c r="EF16" s="94"/>
+      <c r="EG16" s="94"/>
+      <c r="EH16" s="94"/>
+      <c r="EI16" s="94"/>
+      <c r="EJ16" s="94"/>
+      <c r="EK16" s="94"/>
+      <c r="EL16" s="94"/>
+      <c r="EM16" s="94"/>
+      <c r="EN16" s="94"/>
+      <c r="EO16" s="94"/>
+      <c r="EP16" s="94"/>
+      <c r="EQ16" s="94"/>
+      <c r="ER16" s="94"/>
+      <c r="ES16" s="94"/>
+      <c r="ET16" s="94"/>
+      <c r="EU16" s="94"/>
+      <c r="EV16" s="94"/>
+      <c r="EW16" s="94"/>
+      <c r="EX16" s="94"/>
+      <c r="EY16" s="94"/>
+      <c r="EZ16" s="94"/>
+      <c r="FA16" s="94"/>
+      <c r="FB16" s="94"/>
+      <c r="FC16" s="94"/>
+      <c r="FD16" s="94"/>
+      <c r="FE16" s="94"/>
+      <c r="FF16" s="94"/>
+      <c r="FG16" s="94"/>
+      <c r="FH16" s="94"/>
+      <c r="FI16" s="94"/>
+      <c r="FJ16" s="94"/>
+      <c r="FK16" s="94"/>
+      <c r="FL16" s="94"/>
+      <c r="FM16" s="94"/>
+      <c r="FN16" s="94"/>
+      <c r="FO16" s="94"/>
+      <c r="FP16" s="94"/>
+      <c r="FQ16" s="94"/>
+      <c r="FR16" s="94"/>
+      <c r="FS16" s="94"/>
+      <c r="FT16" s="94"/>
+      <c r="FU16" s="94"/>
+      <c r="FV16" s="94"/>
+      <c r="FW16" s="94"/>
+      <c r="FX16" s="94"/>
+      <c r="FY16" s="94"/>
+      <c r="FZ16" s="94"/>
+      <c r="GA16" s="94"/>
+      <c r="GB16" s="94"/>
+      <c r="GC16" s="94"/>
+      <c r="GD16" s="94"/>
+      <c r="GE16" s="94"/>
+      <c r="GF16" s="94"/>
+      <c r="GG16" s="94"/>
+      <c r="GH16" s="94"/>
+      <c r="GI16" s="94"/>
+      <c r="GJ16" s="94"/>
+      <c r="GK16" s="94"/>
+      <c r="GL16" s="94"/>
     </row>
-    <row r="18" spans="1:41">
-      <c r="A18" s="68" t="s">
+    <row r="17" spans="1:194">
+      <c r="A17" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA17" s="94"/>
+      <c r="AB17" s="94"/>
+      <c r="AC17" s="94"/>
+      <c r="AD17" s="94"/>
+      <c r="AE17" s="94"/>
+      <c r="AF17" s="94"/>
+      <c r="AG17" s="94"/>
+      <c r="AH17" s="94"/>
+      <c r="AI17" s="94"/>
+      <c r="AJ17" s="94"/>
+      <c r="AK17" s="94"/>
+      <c r="AL17" s="94"/>
+      <c r="AM17" s="94"/>
+      <c r="AN17" s="94"/>
+      <c r="AO17" s="94"/>
+      <c r="AP17" s="94"/>
+      <c r="AQ17" s="94"/>
+      <c r="AR17" s="94"/>
+      <c r="AS17" s="94"/>
+      <c r="AT17" s="94"/>
+      <c r="AU17" s="94"/>
+      <c r="AV17" s="94"/>
+      <c r="AW17" s="94"/>
+      <c r="AX17" s="94"/>
+      <c r="AY17" s="94"/>
+      <c r="AZ17" s="94"/>
+      <c r="BA17" s="94"/>
+      <c r="BB17" s="94"/>
+      <c r="BC17" s="94"/>
+      <c r="BD17" s="94"/>
+      <c r="BE17" s="94"/>
+      <c r="BF17" s="94"/>
+      <c r="BG17" s="94"/>
+      <c r="BH17" s="94"/>
+      <c r="BI17" s="94"/>
+      <c r="BJ17" s="94"/>
+      <c r="BK17" s="94"/>
+      <c r="BL17" s="94"/>
+      <c r="BM17" s="94"/>
+      <c r="BN17" s="94"/>
+      <c r="BO17" s="94"/>
+      <c r="BP17" s="94"/>
+      <c r="BQ17" s="94"/>
+      <c r="BR17" s="94"/>
+      <c r="BS17" s="94"/>
+      <c r="BT17" s="94"/>
+      <c r="BU17" s="94"/>
+      <c r="BV17" s="94"/>
+      <c r="BW17" s="94"/>
+      <c r="BX17" s="94"/>
+      <c r="BY17" s="94"/>
+      <c r="BZ17" s="94"/>
+      <c r="CA17" s="94"/>
+      <c r="CB17" s="94"/>
+      <c r="CC17" s="94"/>
+      <c r="CD17" s="94"/>
+      <c r="CE17" s="94"/>
+      <c r="CF17" s="94"/>
+      <c r="CG17" s="94"/>
+      <c r="CH17" s="94"/>
+      <c r="CI17" s="94"/>
+      <c r="CJ17" s="94"/>
+      <c r="CK17" s="94"/>
+      <c r="CL17" s="94"/>
+      <c r="CM17" s="94"/>
+      <c r="CN17" s="94"/>
+      <c r="CO17" s="94"/>
+      <c r="CP17" s="94"/>
+      <c r="CQ17" s="94"/>
+      <c r="CR17" s="94"/>
+      <c r="CS17" s="94"/>
+      <c r="CT17" s="94"/>
+      <c r="CU17" s="94"/>
+      <c r="CV17" s="94"/>
+      <c r="CW17" s="94"/>
+      <c r="CX17" s="94"/>
+      <c r="CY17" s="94"/>
+      <c r="CZ17" s="94"/>
+      <c r="DA17" s="94"/>
+      <c r="DB17" s="94"/>
+      <c r="DC17" s="94"/>
+      <c r="DD17" s="94"/>
+      <c r="DE17" s="94"/>
+      <c r="DF17" s="94"/>
+      <c r="DG17" s="94"/>
+      <c r="DH17" s="94"/>
+      <c r="DI17" s="94"/>
+      <c r="DJ17" s="94"/>
+      <c r="DK17" s="94"/>
+      <c r="DL17" s="94"/>
+      <c r="DM17" s="94"/>
+      <c r="DN17" s="94"/>
+      <c r="DO17" s="94"/>
+      <c r="DP17" s="94"/>
+      <c r="DQ17" s="94"/>
+      <c r="DR17" s="94"/>
+      <c r="DS17" s="94"/>
+      <c r="DT17" s="94"/>
+      <c r="DU17" s="94"/>
+      <c r="DV17" s="94"/>
+      <c r="DW17" s="94"/>
+      <c r="DX17" s="94"/>
+      <c r="DY17" s="94"/>
+      <c r="DZ17" s="94"/>
+      <c r="EA17" s="94"/>
+      <c r="EB17" s="94"/>
+      <c r="EC17" s="94"/>
+      <c r="ED17" s="94"/>
+      <c r="EE17" s="94"/>
+      <c r="EF17" s="94"/>
+      <c r="EG17" s="94"/>
+      <c r="EH17" s="94"/>
+      <c r="EI17" s="94"/>
+      <c r="EJ17" s="94"/>
+      <c r="EK17" s="94"/>
+      <c r="EL17" s="94"/>
+      <c r="EM17" s="94"/>
+      <c r="EN17" s="94"/>
+      <c r="EO17" s="94"/>
+      <c r="EP17" s="94"/>
+      <c r="EQ17" s="94"/>
+      <c r="ER17" s="94"/>
+      <c r="ES17" s="94"/>
+      <c r="ET17" s="94"/>
+      <c r="EU17" s="94"/>
+      <c r="EV17" s="94"/>
+      <c r="EW17" s="94"/>
+      <c r="EX17" s="94"/>
+      <c r="EY17" s="94"/>
+      <c r="EZ17" s="94"/>
+      <c r="FA17" s="94"/>
+      <c r="FB17" s="94"/>
+      <c r="FC17" s="94"/>
+      <c r="FD17" s="94"/>
+      <c r="FE17" s="94"/>
+      <c r="FF17" s="94"/>
+      <c r="FG17" s="94"/>
+      <c r="FH17" s="94"/>
+      <c r="FI17" s="94"/>
+      <c r="FJ17" s="94"/>
+      <c r="FK17" s="94"/>
+      <c r="FL17" s="94"/>
+      <c r="FM17" s="94"/>
+      <c r="FN17" s="94"/>
+      <c r="FO17" s="94"/>
+      <c r="FP17" s="94"/>
+      <c r="FQ17" s="94"/>
+      <c r="FR17" s="94"/>
+      <c r="FS17" s="94"/>
+      <c r="FT17" s="94"/>
+      <c r="FU17" s="94"/>
+      <c r="FV17" s="94"/>
+      <c r="FW17" s="94"/>
+      <c r="FX17" s="94"/>
+      <c r="FY17" s="94"/>
+      <c r="FZ17" s="94"/>
+      <c r="GA17" s="94"/>
+      <c r="GB17" s="94"/>
+      <c r="GC17" s="94"/>
+      <c r="GD17" s="94"/>
+      <c r="GE17" s="94"/>
+      <c r="GF17" s="94"/>
+      <c r="GG17" s="94"/>
+      <c r="GH17" s="94"/>
+      <c r="GI17" s="94"/>
+      <c r="GJ17" s="94"/>
+      <c r="GK17" s="94"/>
+      <c r="GL17" s="94"/>
+    </row>
+    <row r="18" spans="1:194">
+      <c r="AA18" s="94"/>
+      <c r="AB18" s="94"/>
+      <c r="AC18" s="94"/>
+      <c r="AD18" s="94"/>
+      <c r="AE18" s="94"/>
+      <c r="AF18" s="94"/>
+      <c r="AG18" s="94"/>
+      <c r="AH18" s="94"/>
+      <c r="AI18" s="94"/>
+      <c r="AJ18" s="94"/>
+      <c r="AK18" s="94"/>
+      <c r="AL18" s="94"/>
+      <c r="AM18" s="94"/>
+      <c r="AN18" s="94"/>
+      <c r="AO18" s="94"/>
+      <c r="AP18" s="94"/>
+      <c r="AQ18" s="94"/>
+      <c r="AR18" s="94"/>
+      <c r="AS18" s="94"/>
+      <c r="AT18" s="94"/>
+      <c r="AU18" s="94"/>
+      <c r="AV18" s="94"/>
+      <c r="AW18" s="94"/>
+      <c r="AX18" s="94"/>
+      <c r="AY18" s="94"/>
+      <c r="AZ18" s="94"/>
+      <c r="BA18" s="94"/>
+      <c r="BB18" s="94"/>
+      <c r="BC18" s="94"/>
+      <c r="BD18" s="94"/>
+      <c r="BE18" s="94"/>
+      <c r="BF18" s="94"/>
+      <c r="BG18" s="94"/>
+      <c r="BH18" s="94"/>
+      <c r="BI18" s="94"/>
+      <c r="BJ18" s="94"/>
+      <c r="BK18" s="94"/>
+      <c r="BL18" s="94"/>
+      <c r="BM18" s="94"/>
+      <c r="BN18" s="94"/>
+      <c r="BO18" s="94"/>
+      <c r="BP18" s="94"/>
+      <c r="BQ18" s="94"/>
+      <c r="BR18" s="94"/>
+      <c r="BS18" s="94"/>
+      <c r="BT18" s="94"/>
+      <c r="BU18" s="94"/>
+      <c r="BV18" s="94"/>
+      <c r="BW18" s="94"/>
+      <c r="BX18" s="94"/>
+      <c r="BY18" s="94"/>
+      <c r="BZ18" s="94"/>
+      <c r="CA18" s="94"/>
+      <c r="CB18" s="94"/>
+      <c r="CC18" s="94"/>
+      <c r="CD18" s="94"/>
+      <c r="CE18" s="94"/>
+      <c r="CF18" s="94"/>
+      <c r="CG18" s="94"/>
+      <c r="CH18" s="94"/>
+      <c r="CI18" s="94"/>
+      <c r="CJ18" s="94"/>
+      <c r="CK18" s="94"/>
+      <c r="CL18" s="94"/>
+      <c r="CM18" s="94"/>
+      <c r="CN18" s="94"/>
+      <c r="CO18" s="94"/>
+      <c r="CP18" s="94"/>
+      <c r="CQ18" s="94"/>
+      <c r="CR18" s="94"/>
+      <c r="CS18" s="94"/>
+      <c r="CT18" s="94"/>
+      <c r="CU18" s="94"/>
+      <c r="CV18" s="94"/>
+      <c r="CW18" s="94"/>
+      <c r="CX18" s="94"/>
+      <c r="CY18" s="94"/>
+      <c r="CZ18" s="94"/>
+      <c r="DA18" s="94"/>
+      <c r="DB18" s="94"/>
+      <c r="DC18" s="94"/>
+      <c r="DD18" s="94"/>
+      <c r="DE18" s="94"/>
+      <c r="DF18" s="94"/>
+      <c r="DG18" s="94"/>
+      <c r="DH18" s="94"/>
+      <c r="DI18" s="94"/>
+      <c r="DJ18" s="94"/>
+      <c r="DK18" s="94"/>
+      <c r="DL18" s="94"/>
+      <c r="DM18" s="94"/>
+      <c r="DN18" s="94"/>
+      <c r="DO18" s="94"/>
+      <c r="DP18" s="94"/>
+      <c r="DQ18" s="94"/>
+      <c r="DR18" s="94"/>
+      <c r="DS18" s="94"/>
+      <c r="DT18" s="94"/>
+      <c r="DU18" s="94"/>
+      <c r="DV18" s="94"/>
+      <c r="DW18" s="94"/>
+      <c r="DX18" s="94"/>
+      <c r="DY18" s="94"/>
+      <c r="DZ18" s="94"/>
+      <c r="EA18" s="94"/>
+      <c r="EB18" s="94"/>
+      <c r="EC18" s="94"/>
+      <c r="ED18" s="94"/>
+      <c r="EE18" s="94"/>
+      <c r="EF18" s="94"/>
+      <c r="EG18" s="94"/>
+      <c r="EH18" s="94"/>
+      <c r="EI18" s="94"/>
+      <c r="EJ18" s="94"/>
+      <c r="EK18" s="94"/>
+      <c r="EL18" s="94"/>
+      <c r="EM18" s="94"/>
+      <c r="EN18" s="94"/>
+      <c r="EO18" s="94"/>
+      <c r="EP18" s="94"/>
+      <c r="EQ18" s="94"/>
+      <c r="ER18" s="94"/>
+      <c r="ES18" s="94"/>
+      <c r="ET18" s="94"/>
+      <c r="EU18" s="94"/>
+      <c r="EV18" s="94"/>
+      <c r="EW18" s="94"/>
+      <c r="EX18" s="94"/>
+      <c r="EY18" s="94"/>
+      <c r="EZ18" s="94"/>
+      <c r="FA18" s="94"/>
+      <c r="FB18" s="94"/>
+      <c r="FC18" s="94"/>
+      <c r="FD18" s="94"/>
+      <c r="FE18" s="94"/>
+      <c r="FF18" s="94"/>
+      <c r="FG18" s="94"/>
+      <c r="FH18" s="94"/>
+      <c r="FI18" s="94"/>
+      <c r="FJ18" s="94"/>
+      <c r="FK18" s="94"/>
+      <c r="FL18" s="94"/>
+      <c r="FM18" s="94"/>
+      <c r="FN18" s="94"/>
+      <c r="FO18" s="94"/>
+      <c r="FP18" s="94"/>
+      <c r="FQ18" s="94"/>
+      <c r="FR18" s="94"/>
+      <c r="FS18" s="94"/>
+      <c r="FT18" s="94"/>
+      <c r="FU18" s="94"/>
+      <c r="FV18" s="94"/>
+      <c r="FW18" s="94"/>
+      <c r="FX18" s="94"/>
+      <c r="FY18" s="94"/>
+      <c r="FZ18" s="94"/>
+      <c r="GA18" s="94"/>
+      <c r="GB18" s="94"/>
+      <c r="GC18" s="94"/>
+      <c r="GD18" s="94"/>
+      <c r="GE18" s="94"/>
+      <c r="GF18" s="94"/>
+      <c r="GG18" s="94"/>
+      <c r="GH18" s="94"/>
+      <c r="GI18" s="94"/>
+      <c r="GJ18" s="94"/>
+      <c r="GK18" s="94"/>
+      <c r="GL18" s="94"/>
+    </row>
+    <row r="19" spans="1:194">
+      <c r="A19" s="40" t="s">
         <v>30</v>
       </c>
+      <c r="AA19" s="94"/>
+      <c r="AB19" s="94"/>
+      <c r="AC19" s="94"/>
+      <c r="AD19" s="94"/>
+      <c r="AE19" s="94"/>
+      <c r="AF19" s="94"/>
+      <c r="AG19" s="94"/>
+      <c r="AH19" s="94"/>
+      <c r="AI19" s="94"/>
+      <c r="AJ19" s="94"/>
+      <c r="AK19" s="94"/>
+      <c r="AL19" s="94"/>
+      <c r="AM19" s="94"/>
+      <c r="AN19" s="94"/>
+      <c r="AO19" s="94"/>
+      <c r="AP19" s="94"/>
+      <c r="AQ19" s="94"/>
+      <c r="AR19" s="94"/>
+      <c r="AS19" s="94"/>
+      <c r="AT19" s="94"/>
+      <c r="AU19" s="94"/>
+      <c r="AV19" s="94"/>
+      <c r="AW19" s="94"/>
+      <c r="AX19" s="94"/>
+      <c r="AY19" s="94"/>
+      <c r="AZ19" s="94"/>
+      <c r="BA19" s="94"/>
+      <c r="BB19" s="94"/>
+      <c r="BC19" s="94"/>
+      <c r="BD19" s="94"/>
+      <c r="BE19" s="94"/>
+      <c r="BF19" s="94"/>
+      <c r="BG19" s="94"/>
+      <c r="BH19" s="94"/>
+      <c r="BI19" s="94"/>
+      <c r="BJ19" s="94"/>
+      <c r="BK19" s="94"/>
+      <c r="BL19" s="94"/>
+      <c r="BM19" s="94"/>
+      <c r="BN19" s="94"/>
+      <c r="BO19" s="94"/>
+      <c r="BP19" s="94"/>
+      <c r="BQ19" s="94"/>
+      <c r="BR19" s="94"/>
+      <c r="BS19" s="94"/>
+      <c r="BT19" s="94"/>
+      <c r="BU19" s="94"/>
+      <c r="BV19" s="94"/>
+      <c r="BW19" s="94"/>
+      <c r="BX19" s="94"/>
+      <c r="BY19" s="94"/>
+      <c r="BZ19" s="94"/>
+      <c r="CA19" s="94"/>
+      <c r="CB19" s="94"/>
+      <c r="CC19" s="94"/>
+      <c r="CD19" s="94"/>
+      <c r="CE19" s="94"/>
+      <c r="CF19" s="94"/>
+      <c r="CG19" s="94"/>
+      <c r="CH19" s="94"/>
+      <c r="CI19" s="94"/>
+      <c r="CJ19" s="94"/>
+      <c r="CK19" s="94"/>
+      <c r="CL19" s="94"/>
+      <c r="CM19" s="94"/>
+      <c r="CN19" s="94"/>
+      <c r="CO19" s="94"/>
+      <c r="CP19" s="94"/>
+      <c r="CQ19" s="94"/>
+      <c r="CR19" s="94"/>
+      <c r="CS19" s="94"/>
+      <c r="CT19" s="94"/>
+      <c r="CU19" s="94"/>
+      <c r="CV19" s="94"/>
+      <c r="CW19" s="94"/>
+      <c r="CX19" s="94"/>
+      <c r="CY19" s="94"/>
+      <c r="CZ19" s="94"/>
+      <c r="DA19" s="94"/>
+      <c r="DB19" s="94"/>
+      <c r="DC19" s="94"/>
+      <c r="DD19" s="94"/>
+      <c r="DE19" s="94"/>
+      <c r="DF19" s="94"/>
+      <c r="DG19" s="94"/>
+      <c r="DH19" s="94"/>
+      <c r="DI19" s="94"/>
+      <c r="DJ19" s="94"/>
+      <c r="DK19" s="94"/>
+      <c r="DL19" s="94"/>
+      <c r="DM19" s="94"/>
+      <c r="DN19" s="94"/>
+      <c r="DO19" s="94"/>
+      <c r="DP19" s="94"/>
+      <c r="DQ19" s="94"/>
+      <c r="DR19" s="94"/>
+      <c r="DS19" s="94"/>
+      <c r="DT19" s="94"/>
+      <c r="DU19" s="94"/>
+      <c r="DV19" s="94"/>
+      <c r="DW19" s="94"/>
+      <c r="DX19" s="94"/>
+      <c r="DY19" s="94"/>
+      <c r="DZ19" s="94"/>
+      <c r="EA19" s="94"/>
+      <c r="EB19" s="94"/>
+      <c r="EC19" s="94"/>
+      <c r="ED19" s="94"/>
+      <c r="EE19" s="94"/>
+      <c r="EF19" s="94"/>
+      <c r="EG19" s="94"/>
+      <c r="EH19" s="94"/>
+      <c r="EI19" s="94"/>
+      <c r="EJ19" s="94"/>
+      <c r="EK19" s="94"/>
+      <c r="EL19" s="94"/>
+      <c r="EM19" s="94"/>
+      <c r="EN19" s="94"/>
+      <c r="EO19" s="94"/>
+      <c r="EP19" s="94"/>
+      <c r="EQ19" s="94"/>
+      <c r="ER19" s="94"/>
+      <c r="ES19" s="94"/>
+      <c r="ET19" s="94"/>
+      <c r="EU19" s="94"/>
+      <c r="EV19" s="94"/>
+      <c r="EW19" s="94"/>
+      <c r="EX19" s="94"/>
+      <c r="EY19" s="94"/>
+      <c r="EZ19" s="94"/>
+      <c r="FA19" s="94"/>
+      <c r="FB19" s="94"/>
+      <c r="FC19" s="94"/>
+      <c r="FD19" s="94"/>
+      <c r="FE19" s="94"/>
+      <c r="FF19" s="94"/>
+      <c r="FG19" s="94"/>
+      <c r="FH19" s="94"/>
+      <c r="FI19" s="94"/>
+      <c r="FJ19" s="94"/>
+      <c r="FK19" s="94"/>
+      <c r="FL19" s="94"/>
+      <c r="FM19" s="94"/>
+      <c r="FN19" s="94"/>
+      <c r="FO19" s="94"/>
+      <c r="FP19" s="94"/>
+      <c r="FQ19" s="94"/>
+      <c r="FR19" s="94"/>
+      <c r="FS19" s="94"/>
+      <c r="FT19" s="94"/>
+      <c r="FU19" s="94"/>
+      <c r="FV19" s="94"/>
+      <c r="FW19" s="94"/>
+      <c r="FX19" s="94"/>
+      <c r="FY19" s="94"/>
+      <c r="FZ19" s="94"/>
+      <c r="GA19" s="94"/>
+      <c r="GB19" s="94"/>
+      <c r="GC19" s="94"/>
+      <c r="GD19" s="94"/>
+      <c r="GE19" s="94"/>
+      <c r="GF19" s="94"/>
+      <c r="GG19" s="94"/>
+      <c r="GH19" s="94"/>
+      <c r="GI19" s="94"/>
+      <c r="GJ19" s="94"/>
+      <c r="GK19" s="94"/>
+      <c r="GL19" s="94"/>
     </row>
-    <row r="19" spans="1:41">
-      <c r="A19" s="67" t="s">
+    <row r="20" spans="1:194">
+      <c r="A20" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA20" s="94"/>
+      <c r="AB20" s="94"/>
+      <c r="AC20" s="94"/>
+      <c r="AD20" s="94"/>
+      <c r="AE20" s="94"/>
+      <c r="AF20" s="94"/>
+      <c r="AG20" s="99" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI20" s="49"/>
+      <c r="AJ20" s="49"/>
+      <c r="AK20" s="50"/>
+      <c r="AP20" s="94"/>
+      <c r="AQ20" s="94"/>
+      <c r="AR20" s="94"/>
+      <c r="AS20" s="94"/>
+      <c r="AT20" s="94"/>
+      <c r="AU20" s="94"/>
+      <c r="AV20" s="94"/>
+      <c r="AW20" s="94"/>
+      <c r="AX20" s="94"/>
+      <c r="AY20" s="94"/>
+      <c r="AZ20" s="94"/>
+      <c r="BA20" s="94"/>
+      <c r="BB20" s="94"/>
+      <c r="BC20" s="94"/>
+      <c r="BD20" s="94"/>
+      <c r="BE20" s="94"/>
+      <c r="BF20" s="94"/>
+      <c r="BG20" s="94"/>
+      <c r="BH20" s="94"/>
+      <c r="BI20" s="94"/>
+      <c r="BJ20" s="94"/>
+      <c r="BK20" s="94"/>
+      <c r="BL20" s="94"/>
+      <c r="BM20" s="94"/>
+      <c r="BN20" s="94"/>
+      <c r="BO20" s="94"/>
+      <c r="BP20" s="94"/>
+      <c r="BQ20" s="94"/>
+      <c r="BR20" s="94"/>
+      <c r="BS20" s="94"/>
+      <c r="BT20" s="94"/>
+      <c r="BU20" s="94"/>
+      <c r="BV20" s="94"/>
+      <c r="BW20" s="94"/>
+      <c r="BX20" s="94"/>
+      <c r="BY20" s="94"/>
+      <c r="BZ20" s="94"/>
+      <c r="CA20" s="94"/>
+      <c r="CB20" s="94"/>
+      <c r="CC20" s="94"/>
+      <c r="CD20" s="94"/>
+      <c r="CE20" s="94"/>
+      <c r="CF20" s="94"/>
+      <c r="CG20" s="94"/>
+      <c r="CH20" s="94"/>
+      <c r="CI20" s="94"/>
+      <c r="CJ20" s="94"/>
+      <c r="CK20" s="94"/>
+      <c r="CL20" s="94"/>
+      <c r="CM20" s="94"/>
+      <c r="CN20" s="94"/>
+      <c r="CO20" s="94"/>
+      <c r="CP20" s="94"/>
+      <c r="CQ20" s="94"/>
+      <c r="CR20" s="94"/>
+      <c r="CS20" s="94"/>
+      <c r="CT20" s="94"/>
+      <c r="CU20" s="94"/>
+      <c r="CV20" s="94"/>
+      <c r="CW20" s="94"/>
+      <c r="CX20" s="94"/>
+      <c r="CY20" s="94"/>
+      <c r="CZ20" s="94"/>
+      <c r="DA20" s="94"/>
+      <c r="DB20" s="94"/>
+      <c r="DC20" s="94"/>
+      <c r="DD20" s="94"/>
+      <c r="DE20" s="94"/>
+      <c r="DF20" s="94"/>
+      <c r="DG20" s="94"/>
+      <c r="DH20" s="94"/>
+      <c r="DI20" s="94"/>
+      <c r="DJ20" s="94"/>
+      <c r="DK20" s="94"/>
+      <c r="DL20" s="94"/>
+      <c r="DM20" s="94"/>
+      <c r="DN20" s="94"/>
+      <c r="DO20" s="94"/>
+      <c r="DP20" s="94"/>
+      <c r="DQ20" s="94"/>
+      <c r="DR20" s="94"/>
+      <c r="DS20" s="94"/>
+      <c r="DT20" s="94"/>
+      <c r="DU20" s="94"/>
+      <c r="DV20" s="94"/>
+      <c r="DW20" s="94"/>
+      <c r="DX20" s="94"/>
+      <c r="DY20" s="94"/>
+      <c r="DZ20" s="94"/>
+      <c r="EA20" s="94"/>
+      <c r="EB20" s="94"/>
+      <c r="EC20" s="94"/>
+      <c r="ED20" s="94"/>
+      <c r="EE20" s="94"/>
+      <c r="EF20" s="94"/>
+      <c r="EG20" s="94"/>
+      <c r="EH20" s="94"/>
+      <c r="EI20" s="94"/>
+      <c r="EJ20" s="94"/>
+      <c r="EK20" s="94"/>
+      <c r="EL20" s="94"/>
+      <c r="EM20" s="94"/>
+      <c r="EN20" s="94"/>
+      <c r="EO20" s="94"/>
+      <c r="EP20" s="94"/>
+      <c r="EQ20" s="94"/>
+      <c r="ER20" s="94"/>
+      <c r="ES20" s="94"/>
+      <c r="ET20" s="94"/>
+      <c r="EU20" s="94"/>
+      <c r="EV20" s="94"/>
+      <c r="EW20" s="94"/>
+      <c r="EX20" s="94"/>
+      <c r="EY20" s="94"/>
+      <c r="EZ20" s="94"/>
+      <c r="FA20" s="94"/>
+      <c r="FB20" s="94"/>
+      <c r="FC20" s="94"/>
+      <c r="FD20" s="94"/>
+      <c r="FE20" s="94"/>
+      <c r="FF20" s="94"/>
+      <c r="FG20" s="94"/>
+      <c r="FH20" s="94"/>
+      <c r="FI20" s="94"/>
+      <c r="FJ20" s="94"/>
+      <c r="FK20" s="94"/>
+      <c r="FL20" s="94"/>
+      <c r="FM20" s="94"/>
+      <c r="FN20" s="94"/>
+      <c r="FO20" s="94"/>
+      <c r="FP20" s="94"/>
+      <c r="FQ20" s="94"/>
+      <c r="FR20" s="94"/>
+      <c r="FS20" s="94"/>
+      <c r="FT20" s="94"/>
+      <c r="FU20" s="94"/>
+      <c r="FV20" s="94"/>
+      <c r="FW20" s="94"/>
+      <c r="FX20" s="94"/>
+      <c r="FY20" s="94"/>
+      <c r="FZ20" s="94"/>
+      <c r="GA20" s="94"/>
+      <c r="GB20" s="94"/>
+      <c r="GC20" s="94"/>
+      <c r="GD20" s="94"/>
+      <c r="GE20" s="94"/>
+      <c r="GF20" s="94"/>
+      <c r="GG20" s="94"/>
+      <c r="GH20" s="94"/>
+      <c r="GI20" s="94"/>
+      <c r="GJ20" s="94"/>
+      <c r="GK20" s="94"/>
+      <c r="GL20" s="94"/>
+    </row>
+    <row r="21" spans="1:194">
+      <c r="A21" s="39" t="s">
         <v>45</v>
       </c>
+      <c r="AA21" s="94"/>
+      <c r="AB21" s="94"/>
+      <c r="AC21" s="94"/>
+      <c r="AD21" s="94"/>
+      <c r="AE21" s="94"/>
+      <c r="AF21" s="94"/>
+      <c r="AG21" s="94"/>
+      <c r="AH21" s="94"/>
+      <c r="AI21" s="94"/>
+      <c r="AJ21" s="94"/>
+      <c r="AK21" s="94"/>
+      <c r="AL21" s="94"/>
+      <c r="AM21" s="94"/>
+      <c r="AN21" s="94"/>
+      <c r="AO21" s="94"/>
+      <c r="AP21" s="94"/>
+      <c r="AQ21" s="94"/>
+      <c r="AR21" s="94"/>
+      <c r="AS21" s="94"/>
+      <c r="AT21" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU21" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV21" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW21" s="94"/>
+      <c r="AX21" s="94"/>
+      <c r="AY21" s="94"/>
+      <c r="AZ21" s="94"/>
+      <c r="BA21" s="94"/>
+      <c r="BB21" s="94"/>
+      <c r="BC21" s="94"/>
+      <c r="BD21" s="94"/>
+      <c r="BE21" s="94"/>
+      <c r="BF21" s="94"/>
+      <c r="BG21" s="94"/>
+      <c r="BH21" s="94"/>
+      <c r="BI21" s="94"/>
+      <c r="BJ21" s="94"/>
+      <c r="BK21" s="94"/>
+      <c r="BL21" s="94"/>
+      <c r="BM21" s="94"/>
+      <c r="BN21" s="94"/>
+      <c r="BO21" s="94"/>
+      <c r="BP21" s="94"/>
+      <c r="BQ21" s="94"/>
+      <c r="BR21" s="94"/>
+      <c r="BS21" s="94"/>
+      <c r="BT21" s="94"/>
+      <c r="BU21" s="94"/>
+      <c r="BV21" s="94"/>
+      <c r="BW21" s="94"/>
+      <c r="BX21" s="94"/>
+      <c r="BY21" s="94"/>
+      <c r="BZ21" s="94"/>
+      <c r="CA21" s="94"/>
+      <c r="CB21" s="94"/>
+      <c r="CC21" s="94"/>
+      <c r="CD21" s="94"/>
+      <c r="CE21" s="94"/>
+      <c r="CF21" s="94"/>
+      <c r="CG21" s="94"/>
+      <c r="CH21" s="94"/>
+      <c r="CI21" s="94"/>
+      <c r="CJ21" s="94"/>
+      <c r="CK21" s="94"/>
+      <c r="CL21" s="94"/>
+      <c r="CM21" s="94"/>
+      <c r="CN21" s="94"/>
+      <c r="CO21" s="94"/>
+      <c r="CP21" s="94"/>
+      <c r="CQ21" s="94"/>
+      <c r="CR21" s="94"/>
+      <c r="CS21" s="94"/>
+      <c r="CT21" s="94"/>
+      <c r="CU21" s="94"/>
+      <c r="CV21" s="94"/>
+      <c r="CW21" s="94"/>
+      <c r="CX21" s="94"/>
+      <c r="CY21" s="94"/>
+      <c r="CZ21" s="94"/>
+      <c r="DA21" s="94"/>
+      <c r="DB21" s="94"/>
+      <c r="DC21" s="94"/>
+      <c r="DD21" s="94"/>
+      <c r="DE21" s="94"/>
+      <c r="DF21" s="94"/>
+      <c r="DG21" s="94"/>
+      <c r="DH21" s="94"/>
+      <c r="DI21" s="94"/>
+      <c r="DJ21" s="94"/>
+      <c r="DK21" s="94"/>
+      <c r="DL21" s="94"/>
+      <c r="DM21" s="94"/>
+      <c r="DN21" s="94"/>
+      <c r="DO21" s="94"/>
+      <c r="DP21" s="94"/>
+      <c r="DQ21" s="94"/>
+      <c r="DR21" s="94"/>
+      <c r="DS21" s="94"/>
+      <c r="DT21" s="94"/>
+      <c r="DU21" s="94"/>
+      <c r="DV21" s="94"/>
+      <c r="DW21" s="94"/>
+      <c r="DX21" s="94"/>
+      <c r="DY21" s="94"/>
+      <c r="DZ21" s="94"/>
+      <c r="EA21" s="94"/>
+      <c r="EB21" s="94"/>
+      <c r="EC21" s="94"/>
+      <c r="ED21" s="94"/>
+      <c r="EE21" s="94"/>
+      <c r="EF21" s="94"/>
+      <c r="EG21" s="94"/>
+      <c r="EH21" s="94"/>
+      <c r="EI21" s="94"/>
+      <c r="EJ21" s="94"/>
+      <c r="EK21" s="94"/>
+      <c r="EL21" s="94"/>
+      <c r="EM21" s="94"/>
+      <c r="EN21" s="94"/>
+      <c r="EO21" s="94"/>
+      <c r="EP21" s="94"/>
+      <c r="EQ21" s="94"/>
+      <c r="ER21" s="94"/>
+      <c r="ES21" s="94"/>
+      <c r="ET21" s="94"/>
+      <c r="EU21" s="94"/>
+      <c r="EV21" s="94"/>
+      <c r="EW21" s="94"/>
+      <c r="EX21" s="94"/>
+      <c r="EY21" s="94"/>
+      <c r="EZ21" s="94"/>
+      <c r="FA21" s="94"/>
+      <c r="FB21" s="94"/>
+      <c r="FC21" s="94"/>
+      <c r="FD21" s="94"/>
+      <c r="FE21" s="94"/>
+      <c r="FF21" s="94"/>
+      <c r="FG21" s="94"/>
+      <c r="FH21" s="94"/>
+      <c r="FI21" s="94"/>
+      <c r="FJ21" s="94"/>
+      <c r="FK21" s="94"/>
+      <c r="FL21" s="94"/>
+      <c r="FM21" s="94"/>
+      <c r="FN21" s="94"/>
+      <c r="FO21" s="94"/>
+      <c r="FP21" s="94"/>
+      <c r="FQ21" s="94"/>
+      <c r="FR21" s="94"/>
+      <c r="FS21" s="94"/>
+      <c r="FT21" s="94"/>
+      <c r="FU21" s="94"/>
+      <c r="FV21" s="94"/>
+      <c r="FW21" s="94"/>
+      <c r="FX21" s="94"/>
+      <c r="FY21" s="94"/>
+      <c r="FZ21" s="94"/>
+      <c r="GA21" s="94"/>
+      <c r="GB21" s="94"/>
+      <c r="GC21" s="94"/>
+      <c r="GD21" s="94"/>
+      <c r="GE21" s="94"/>
+      <c r="GF21" s="94"/>
+      <c r="GG21" s="94"/>
+      <c r="GH21" s="94"/>
+      <c r="GI21" s="94"/>
+      <c r="GJ21" s="94"/>
+      <c r="GK21" s="94"/>
+      <c r="GL21" s="94"/>
     </row>
-    <row r="20" spans="1:41">
-      <c r="A20" s="67" t="s">
-        <v>49</v>
-      </c>
+    <row r="22" spans="1:194">
+      <c r="A22" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA22" s="94"/>
+      <c r="AB22" s="94"/>
+      <c r="AC22" s="94"/>
+      <c r="AD22" s="94"/>
+      <c r="AE22" s="94"/>
+      <c r="AF22" s="94"/>
+      <c r="AG22" s="94"/>
+      <c r="AI22" s="94"/>
+      <c r="AJ22" s="94"/>
+      <c r="AK22" s="94"/>
+      <c r="AL22" s="94"/>
+      <c r="AM22" s="94"/>
+      <c r="AN22" s="94"/>
+      <c r="AO22" s="94"/>
+      <c r="AP22" s="94"/>
+      <c r="AQ22" s="94"/>
+      <c r="AR22" s="94"/>
+      <c r="AS22" s="94"/>
+      <c r="AT22" s="94"/>
+      <c r="AU22" s="94"/>
+      <c r="AV22" s="94"/>
+      <c r="AW22" s="94"/>
+      <c r="AX22" s="94"/>
+      <c r="AY22" s="94"/>
+      <c r="AZ22" s="94"/>
+      <c r="BA22" s="94"/>
+      <c r="BB22" s="94"/>
+      <c r="BC22" s="94"/>
+      <c r="BD22" s="94"/>
+      <c r="BE22" s="94"/>
+      <c r="BF22" s="94"/>
+      <c r="BG22" s="94"/>
+      <c r="BH22" s="94"/>
+      <c r="BI22" s="94"/>
+      <c r="BJ22" s="94"/>
+      <c r="BK22" s="94"/>
+      <c r="BL22" s="94"/>
+      <c r="BM22" s="94"/>
+      <c r="BN22" s="94"/>
+      <c r="BO22" s="94"/>
+      <c r="BP22" s="94"/>
+      <c r="BQ22" s="94"/>
+      <c r="BR22" s="94"/>
+      <c r="BS22" s="94"/>
+      <c r="BT22" s="94"/>
+      <c r="BU22" s="94"/>
+      <c r="BV22" s="94"/>
+      <c r="BW22" s="94"/>
+      <c r="BX22" s="94"/>
+      <c r="BY22" s="94"/>
+      <c r="BZ22" s="94"/>
+      <c r="CA22" s="94"/>
+      <c r="CB22" s="94"/>
+      <c r="CC22" s="94"/>
+      <c r="CD22" s="94"/>
+      <c r="CE22" s="94"/>
+      <c r="CF22" s="94"/>
+      <c r="CG22" s="94"/>
+      <c r="CH22" s="94"/>
+      <c r="CI22" s="94"/>
+      <c r="CJ22" s="94"/>
+      <c r="CK22" s="94"/>
+      <c r="CL22" s="94"/>
+      <c r="CM22" s="94"/>
+      <c r="CN22" s="94"/>
+      <c r="CO22" s="94"/>
+      <c r="CP22" s="94"/>
+      <c r="CQ22" s="94"/>
+      <c r="CR22" s="94"/>
+      <c r="CS22" s="94"/>
+      <c r="CT22" s="94"/>
+      <c r="CU22" s="94"/>
+      <c r="CV22" s="94"/>
+      <c r="CW22" s="94"/>
+      <c r="CX22" s="94"/>
+      <c r="CY22" s="94"/>
+      <c r="CZ22" s="94"/>
+      <c r="DA22" s="94"/>
+      <c r="DB22" s="94"/>
+      <c r="DC22" s="94"/>
+      <c r="DD22" s="94"/>
+      <c r="DE22" s="94"/>
+      <c r="DF22" s="94"/>
+      <c r="DG22" s="94"/>
+      <c r="DH22" s="94"/>
+      <c r="DI22" s="94"/>
+      <c r="DJ22" s="94"/>
+      <c r="DK22" s="94"/>
+      <c r="DL22" s="94"/>
+      <c r="DM22" s="94"/>
+      <c r="DN22" s="94"/>
+      <c r="DO22" s="94"/>
+      <c r="DP22" s="94"/>
+      <c r="DQ22" s="94"/>
+      <c r="DR22" s="94"/>
+      <c r="DS22" s="94"/>
+      <c r="DT22" s="94"/>
+      <c r="DU22" s="94"/>
+      <c r="DV22" s="94"/>
+      <c r="DW22" s="94"/>
+      <c r="DX22" s="94"/>
+      <c r="DY22" s="94"/>
+      <c r="DZ22" s="94"/>
+      <c r="EA22" s="94"/>
+      <c r="EB22" s="94"/>
+      <c r="EC22" s="94"/>
+      <c r="ED22" s="94"/>
+      <c r="EE22" s="94"/>
+      <c r="EF22" s="94"/>
+      <c r="EG22" s="94"/>
+      <c r="EH22" s="94"/>
+      <c r="EI22" s="94"/>
+      <c r="EJ22" s="94"/>
+      <c r="EK22" s="94"/>
+      <c r="EL22" s="94"/>
+      <c r="EM22" s="94"/>
+      <c r="EN22" s="94"/>
+      <c r="EO22" s="94"/>
+      <c r="EP22" s="94"/>
+      <c r="EQ22" s="94"/>
+      <c r="ER22" s="94"/>
+      <c r="ES22" s="94"/>
+      <c r="ET22" s="94"/>
+      <c r="EU22" s="94"/>
+      <c r="EV22" s="94"/>
+      <c r="EW22" s="94"/>
+      <c r="EX22" s="94"/>
+      <c r="EY22" s="94"/>
+      <c r="EZ22" s="94"/>
+      <c r="FA22" s="94"/>
+      <c r="FB22" s="94"/>
+      <c r="FC22" s="94"/>
+      <c r="FD22" s="94"/>
+      <c r="FE22" s="94"/>
+      <c r="FF22" s="94"/>
+      <c r="FG22" s="94"/>
+      <c r="FH22" s="94"/>
+      <c r="FI22" s="94"/>
+      <c r="FJ22" s="94"/>
+      <c r="FK22" s="94"/>
+      <c r="FL22" s="94"/>
+      <c r="FM22" s="94"/>
+      <c r="FN22" s="94"/>
+      <c r="FO22" s="94"/>
+      <c r="FP22" s="94"/>
+      <c r="FQ22" s="94"/>
+      <c r="FR22" s="94"/>
+      <c r="FS22" s="94"/>
+      <c r="FT22" s="94"/>
+      <c r="FU22" s="94"/>
+      <c r="FV22" s="94"/>
+      <c r="FW22" s="94"/>
+      <c r="FX22" s="94"/>
+      <c r="FY22" s="94"/>
+      <c r="FZ22" s="94"/>
+      <c r="GA22" s="94"/>
+      <c r="GB22" s="94"/>
+      <c r="GC22" s="94"/>
+      <c r="GD22" s="94"/>
+      <c r="GE22" s="94"/>
+      <c r="GF22" s="94"/>
+      <c r="GG22" s="94"/>
+      <c r="GH22" s="94"/>
+      <c r="GI22" s="94"/>
+      <c r="GJ22" s="94"/>
+      <c r="GK22" s="94"/>
+      <c r="GL22" s="94"/>
     </row>
-    <row r="21" spans="1:41">
-      <c r="A21" s="67" t="s">
-        <v>47</v>
-      </c>
+    <row r="24" spans="1:194">
+      <c r="A24" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA24" s="94"/>
+      <c r="AB24" s="94"/>
+      <c r="AC24" s="94"/>
+      <c r="AD24" s="94"/>
+      <c r="AE24" s="94"/>
+      <c r="AF24" s="94"/>
+      <c r="AG24" s="94"/>
+      <c r="AI24" s="94"/>
+      <c r="AJ24" s="94"/>
+      <c r="AK24" s="94"/>
+      <c r="AL24" s="94"/>
+      <c r="AM24" s="94"/>
+      <c r="AN24" s="94"/>
+      <c r="AO24" s="94"/>
+      <c r="AP24" s="94"/>
+      <c r="AQ24" s="94"/>
+      <c r="AR24" s="94"/>
+      <c r="AS24" s="94"/>
+      <c r="AT24" s="94"/>
+      <c r="AU24" s="94"/>
+      <c r="AV24" s="94"/>
+      <c r="AW24" s="94"/>
+      <c r="AX24" s="94"/>
+      <c r="AY24" s="94"/>
+      <c r="AZ24" s="94"/>
+      <c r="BA24" s="94"/>
+      <c r="BB24" s="94"/>
+      <c r="BC24" s="94"/>
+      <c r="BD24" s="94"/>
+      <c r="BE24" s="94"/>
+      <c r="BF24" s="94"/>
+      <c r="BG24" s="94"/>
+      <c r="BH24" s="94"/>
+      <c r="BI24" s="94"/>
+      <c r="BJ24" s="94"/>
+      <c r="BK24" s="94"/>
+      <c r="BL24" s="94"/>
+      <c r="BM24" s="94"/>
+      <c r="BN24" s="94"/>
+      <c r="BO24" s="94"/>
+      <c r="BP24" s="94"/>
+      <c r="BQ24" s="94"/>
+      <c r="BR24" s="94"/>
+      <c r="BS24" s="94"/>
+      <c r="BT24" s="94"/>
+      <c r="BU24" s="94"/>
+      <c r="BV24" s="94"/>
+      <c r="BW24" s="94"/>
+      <c r="BX24" s="94"/>
+      <c r="BY24" s="94"/>
+      <c r="BZ24" s="94"/>
+      <c r="CA24" s="94"/>
+      <c r="CB24" s="94"/>
+      <c r="CC24" s="94"/>
+      <c r="CD24" s="94"/>
+      <c r="CE24" s="94"/>
+      <c r="CF24" s="94"/>
+      <c r="CG24" s="94"/>
+      <c r="CH24" s="94"/>
+      <c r="CI24" s="94"/>
+      <c r="CJ24" s="94"/>
+      <c r="CK24" s="94"/>
+      <c r="CL24" s="94"/>
+      <c r="CM24" s="94"/>
+      <c r="CN24" s="94"/>
+      <c r="CO24" s="94"/>
+      <c r="CP24" s="94"/>
+      <c r="CQ24" s="94"/>
+      <c r="CR24" s="94"/>
+      <c r="CS24" s="94"/>
+      <c r="CT24" s="94"/>
+      <c r="CU24" s="94"/>
+      <c r="CV24" s="94"/>
+      <c r="CW24" s="94"/>
+      <c r="CX24" s="94"/>
+      <c r="CY24" s="94"/>
+      <c r="CZ24" s="94"/>
+      <c r="DA24" s="94"/>
+      <c r="DB24" s="94"/>
+      <c r="DC24" s="94"/>
+      <c r="DD24" s="94"/>
+      <c r="DE24" s="94"/>
+      <c r="DF24" s="94"/>
+      <c r="DG24" s="94"/>
+      <c r="DH24" s="94"/>
+      <c r="DI24" s="94"/>
+      <c r="DJ24" s="94"/>
+      <c r="DK24" s="94"/>
+      <c r="DL24" s="94"/>
+      <c r="DM24" s="94"/>
+      <c r="DN24" s="94"/>
+      <c r="DO24" s="94"/>
+      <c r="DP24" s="94"/>
+      <c r="DQ24" s="94"/>
+      <c r="DR24" s="94"/>
+      <c r="DS24" s="94"/>
+      <c r="DT24" s="94"/>
+      <c r="DU24" s="94"/>
+      <c r="DV24" s="94"/>
+      <c r="DW24" s="94"/>
+      <c r="DX24" s="94"/>
+      <c r="DY24" s="94"/>
+      <c r="DZ24" s="94"/>
+      <c r="EA24" s="94"/>
+      <c r="EB24" s="94"/>
+      <c r="EC24" s="94"/>
+      <c r="ED24" s="94"/>
+      <c r="EE24" s="94"/>
+      <c r="EF24" s="94"/>
+      <c r="EG24" s="94"/>
+      <c r="EH24" s="94"/>
+      <c r="EI24" s="94"/>
+      <c r="EJ24" s="94"/>
+      <c r="EK24" s="94"/>
+      <c r="EL24" s="94"/>
+      <c r="EM24" s="94"/>
+      <c r="EN24" s="94"/>
+      <c r="EO24" s="94"/>
+      <c r="EP24" s="94"/>
+      <c r="EQ24" s="94"/>
+      <c r="ER24" s="94"/>
+      <c r="ES24" s="94"/>
+      <c r="ET24" s="94"/>
+      <c r="EU24" s="94"/>
+      <c r="EV24" s="94"/>
+      <c r="EW24" s="94"/>
+      <c r="EX24" s="94"/>
+      <c r="EY24" s="94"/>
+      <c r="EZ24" s="94"/>
+      <c r="FA24" s="94"/>
+      <c r="FB24" s="94"/>
+      <c r="FC24" s="94"/>
+      <c r="FD24" s="94"/>
+      <c r="FE24" s="94"/>
+      <c r="FF24" s="94"/>
+      <c r="FG24" s="94"/>
+      <c r="FH24" s="94"/>
+      <c r="FI24" s="94"/>
+      <c r="FJ24" s="94"/>
+      <c r="FK24" s="94"/>
+      <c r="FL24" s="94"/>
+      <c r="FM24" s="94"/>
+      <c r="FN24" s="94"/>
+      <c r="FO24" s="94"/>
+      <c r="FP24" s="94"/>
+      <c r="FQ24" s="94"/>
+      <c r="FR24" s="94"/>
+      <c r="FS24" s="94"/>
+      <c r="FT24" s="94"/>
+      <c r="FU24" s="94"/>
+      <c r="FV24" s="94"/>
+      <c r="FW24" s="94"/>
+      <c r="FX24" s="94"/>
+      <c r="FY24" s="94"/>
+      <c r="FZ24" s="94"/>
+      <c r="GA24" s="94"/>
+      <c r="GB24" s="94"/>
+      <c r="GC24" s="94"/>
+      <c r="GD24" s="94"/>
+      <c r="GE24" s="94"/>
+      <c r="GF24" s="94"/>
+      <c r="GG24" s="94"/>
+      <c r="GH24" s="94"/>
+      <c r="GI24" s="94"/>
+      <c r="GJ24" s="94"/>
+      <c r="GK24" s="94"/>
+      <c r="GL24" s="94"/>
     </row>
-    <row r="23" spans="1:41">
-      <c r="A23" s="68" t="s">
-        <v>50</v>
-      </c>
+    <row r="25" spans="1:194">
+      <c r="A25" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA25" s="94"/>
+      <c r="AB25" s="94"/>
+      <c r="AC25" s="94"/>
+      <c r="AD25" s="94"/>
+      <c r="AE25" s="94"/>
+      <c r="AF25" s="94"/>
+      <c r="AG25" s="99" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI25" s="94"/>
+      <c r="AJ25" s="94"/>
+      <c r="AK25" s="94"/>
+      <c r="AL25" s="94"/>
+      <c r="AM25" s="94"/>
+      <c r="AN25" s="94"/>
+      <c r="AO25" s="94"/>
+      <c r="AP25" s="94"/>
+      <c r="AQ25" s="94"/>
+      <c r="AR25" s="94"/>
+      <c r="AS25" s="94"/>
+      <c r="AT25" s="94"/>
+      <c r="AU25" s="94"/>
+      <c r="AV25" s="94"/>
+      <c r="AW25" s="94"/>
+      <c r="AX25" s="94"/>
+      <c r="AY25" s="94"/>
+      <c r="AZ25" s="94"/>
+      <c r="BA25" s="94"/>
+      <c r="BB25" s="94"/>
+      <c r="BC25" s="94"/>
+      <c r="BD25" s="94"/>
+      <c r="BE25" s="94"/>
+      <c r="BF25" s="94"/>
+      <c r="BG25" s="94"/>
+      <c r="BH25" s="94"/>
+      <c r="BI25" s="94"/>
+      <c r="BJ25" s="94"/>
+      <c r="BK25" s="94"/>
+      <c r="BL25" s="94"/>
+      <c r="BM25" s="94"/>
+      <c r="BN25" s="94"/>
+      <c r="BO25" s="94"/>
+      <c r="BP25" s="94"/>
+      <c r="BQ25" s="94"/>
+      <c r="BR25" s="94"/>
+      <c r="BS25" s="94"/>
+      <c r="BT25" s="94"/>
+      <c r="BU25" s="94"/>
+      <c r="BV25" s="94"/>
+      <c r="BW25" s="94"/>
+      <c r="BX25" s="94"/>
+      <c r="BY25" s="94"/>
+      <c r="BZ25" s="94"/>
+      <c r="CA25" s="94"/>
+      <c r="CB25" s="94"/>
+      <c r="CC25" s="94"/>
+      <c r="CD25" s="94"/>
+      <c r="CE25" s="94"/>
+      <c r="CF25" s="94"/>
+      <c r="CG25" s="94"/>
+      <c r="CH25" s="94"/>
+      <c r="CI25" s="94"/>
+      <c r="CJ25" s="94"/>
+      <c r="CK25" s="94"/>
+      <c r="CL25" s="94"/>
+      <c r="CM25" s="94"/>
+      <c r="CN25" s="94"/>
+      <c r="CO25" s="94"/>
+      <c r="CP25" s="94"/>
+      <c r="CQ25" s="94"/>
+      <c r="CR25" s="94"/>
+      <c r="CS25" s="94"/>
+      <c r="CT25" s="94"/>
+      <c r="CU25" s="94"/>
+      <c r="CV25" s="94"/>
+      <c r="CW25" s="94"/>
+      <c r="CX25" s="94"/>
+      <c r="CY25" s="94"/>
+      <c r="CZ25" s="94"/>
+      <c r="DA25" s="94"/>
+      <c r="DB25" s="94"/>
+      <c r="DC25" s="94"/>
+      <c r="DD25" s="94"/>
+      <c r="DE25" s="94"/>
+      <c r="DF25" s="94"/>
+      <c r="DG25" s="94"/>
+      <c r="DH25" s="94"/>
+      <c r="DI25" s="94"/>
+      <c r="DJ25" s="94"/>
+      <c r="DK25" s="94"/>
+      <c r="DL25" s="94"/>
+      <c r="DM25" s="94"/>
+      <c r="DN25" s="94"/>
+      <c r="DO25" s="94"/>
+      <c r="DP25" s="94"/>
+      <c r="DQ25" s="94"/>
+      <c r="DR25" s="94"/>
+      <c r="DS25" s="94"/>
+      <c r="DT25" s="94"/>
+      <c r="DU25" s="94"/>
+      <c r="DV25" s="94"/>
+      <c r="DW25" s="94"/>
+      <c r="DX25" s="94"/>
+      <c r="DY25" s="94"/>
+      <c r="DZ25" s="94"/>
+      <c r="EA25" s="94"/>
+      <c r="EB25" s="94"/>
+      <c r="EC25" s="94"/>
+      <c r="ED25" s="94"/>
+      <c r="EE25" s="94"/>
+      <c r="EF25" s="94"/>
+      <c r="EG25" s="94"/>
+      <c r="EH25" s="94"/>
+      <c r="EI25" s="94"/>
+      <c r="EJ25" s="94"/>
+      <c r="EK25" s="94"/>
+      <c r="EL25" s="94"/>
+      <c r="EM25" s="94"/>
+      <c r="EN25" s="94"/>
+      <c r="EO25" s="94"/>
+      <c r="EP25" s="94"/>
+      <c r="EQ25" s="94"/>
+      <c r="ER25" s="94"/>
+      <c r="ES25" s="94"/>
+      <c r="ET25" s="94"/>
+      <c r="EU25" s="94"/>
+      <c r="EV25" s="94"/>
+      <c r="EW25" s="94"/>
+      <c r="EX25" s="94"/>
+      <c r="EY25" s="94"/>
+      <c r="EZ25" s="94"/>
+      <c r="FA25" s="94"/>
+      <c r="FB25" s="94"/>
+      <c r="FC25" s="94"/>
+      <c r="FD25" s="94"/>
+      <c r="FE25" s="94"/>
+      <c r="FF25" s="94"/>
+      <c r="FG25" s="94"/>
+      <c r="FH25" s="94"/>
+      <c r="FI25" s="94"/>
+      <c r="FJ25" s="94"/>
+      <c r="FK25" s="94"/>
+      <c r="FL25" s="94"/>
+      <c r="FM25" s="94"/>
+      <c r="FN25" s="94"/>
+      <c r="FO25" s="94"/>
+      <c r="FP25" s="94"/>
+      <c r="FQ25" s="94"/>
+      <c r="FR25" s="94"/>
+      <c r="FS25" s="94"/>
+      <c r="FT25" s="94"/>
+      <c r="FU25" s="94"/>
+      <c r="FV25" s="94"/>
+      <c r="FW25" s="94"/>
+      <c r="FX25" s="94"/>
+      <c r="FY25" s="94"/>
+      <c r="FZ25" s="94"/>
+      <c r="GA25" s="94"/>
+      <c r="GB25" s="94"/>
+      <c r="GC25" s="94"/>
+      <c r="GD25" s="94"/>
+      <c r="GE25" s="94"/>
+      <c r="GF25" s="94"/>
+      <c r="GG25" s="94"/>
+      <c r="GH25" s="94"/>
+      <c r="GI25" s="94"/>
+      <c r="GJ25" s="94"/>
+      <c r="GK25" s="94"/>
+      <c r="GL25" s="94"/>
     </row>
-    <row r="24" spans="1:41">
-      <c r="A24" s="67" t="s">
-        <v>55</v>
-      </c>
+    <row r="26" spans="1:194">
+      <c r="A26" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA26" s="94"/>
+      <c r="AB26" s="94"/>
+      <c r="AC26" s="94"/>
+      <c r="AD26" s="94"/>
+      <c r="AE26" s="94"/>
+      <c r="AF26" s="94"/>
+      <c r="AG26" s="94"/>
+      <c r="AH26" s="94"/>
+      <c r="AI26" s="94"/>
+      <c r="AJ26" s="94"/>
+      <c r="AK26" s="94"/>
+      <c r="AL26" s="94"/>
+      <c r="AM26" s="94"/>
+      <c r="AN26" s="94"/>
+      <c r="AO26" s="94"/>
+      <c r="AP26" s="94"/>
+      <c r="AQ26" s="94"/>
+      <c r="AR26" s="94"/>
+      <c r="AS26" s="94"/>
+      <c r="AT26" s="94"/>
+      <c r="AU26" s="94"/>
+      <c r="AV26" s="94"/>
+      <c r="AW26" s="94"/>
+      <c r="AX26" s="94"/>
+      <c r="AY26" s="94"/>
+      <c r="AZ26" s="94"/>
+      <c r="BA26" s="94"/>
+      <c r="BB26" s="94"/>
+      <c r="BC26" s="94"/>
+      <c r="BD26" s="94"/>
+      <c r="BE26" s="94"/>
+      <c r="BF26" s="94"/>
+      <c r="BG26" s="94"/>
+      <c r="BH26" s="94"/>
+      <c r="BI26" s="94"/>
+      <c r="BJ26" s="94"/>
+      <c r="BK26" s="94"/>
+      <c r="BL26" s="94"/>
+      <c r="BM26" s="94"/>
+      <c r="BN26" s="94"/>
+      <c r="BO26" s="94"/>
+      <c r="BP26" s="94"/>
+      <c r="BQ26" s="94"/>
+      <c r="BR26" s="94"/>
+      <c r="BS26" s="94"/>
+      <c r="BT26" s="94"/>
+      <c r="BU26" s="94"/>
+      <c r="BV26" s="94"/>
+      <c r="BW26" s="94"/>
+      <c r="BX26" s="94"/>
+      <c r="BY26" s="94"/>
+      <c r="BZ26" s="94"/>
+      <c r="CA26" s="94"/>
+      <c r="CB26" s="94"/>
+      <c r="CC26" s="94"/>
+      <c r="CD26" s="94"/>
+      <c r="CE26" s="94"/>
+      <c r="CF26" s="94"/>
+      <c r="CG26" s="94"/>
+      <c r="CH26" s="94"/>
+      <c r="CI26" s="94"/>
+      <c r="CJ26" s="94"/>
+      <c r="CK26" s="94"/>
+      <c r="CL26" s="94"/>
+      <c r="CM26" s="94"/>
+      <c r="CN26" s="94"/>
+      <c r="CO26" s="94"/>
+      <c r="CP26" s="94"/>
+      <c r="CQ26" s="94"/>
+      <c r="CR26" s="94"/>
+      <c r="CS26" s="94"/>
+      <c r="CT26" s="94"/>
+      <c r="CU26" s="94"/>
+      <c r="CV26" s="94"/>
+      <c r="CW26" s="94"/>
+      <c r="CX26" s="94"/>
+      <c r="CY26" s="94"/>
+      <c r="CZ26" s="94"/>
+      <c r="DA26" s="94"/>
+      <c r="DB26" s="94"/>
+      <c r="DC26" s="94"/>
+      <c r="DD26" s="94"/>
+      <c r="DE26" s="94"/>
+      <c r="DF26" s="94"/>
+      <c r="DG26" s="94"/>
+      <c r="DH26" s="94"/>
+      <c r="DI26" s="94"/>
+      <c r="DJ26" s="94"/>
+      <c r="DK26" s="94"/>
+      <c r="DL26" s="94"/>
+      <c r="DM26" s="94"/>
+      <c r="DN26" s="94"/>
+      <c r="DO26" s="94"/>
+      <c r="DP26" s="94"/>
+      <c r="DQ26" s="94"/>
+      <c r="DR26" s="94"/>
+      <c r="DS26" s="94"/>
+      <c r="DT26" s="94"/>
+      <c r="DU26" s="94"/>
+      <c r="DV26" s="94"/>
+      <c r="DW26" s="94"/>
+      <c r="DX26" s="94"/>
+      <c r="DY26" s="94"/>
+      <c r="DZ26" s="94"/>
+      <c r="EA26" s="94"/>
+      <c r="EB26" s="94"/>
+      <c r="EC26" s="94"/>
+      <c r="ED26" s="94"/>
+      <c r="EE26" s="94"/>
+      <c r="EF26" s="94"/>
+      <c r="EG26" s="94"/>
+      <c r="EH26" s="94"/>
+      <c r="EI26" s="94"/>
+      <c r="EJ26" s="94"/>
+      <c r="EK26" s="94"/>
+      <c r="EL26" s="94"/>
+      <c r="EM26" s="94"/>
+      <c r="EN26" s="94"/>
+      <c r="EO26" s="94"/>
+      <c r="EP26" s="94"/>
+      <c r="EQ26" s="94"/>
+      <c r="ER26" s="94"/>
+      <c r="ES26" s="94"/>
+      <c r="ET26" s="94"/>
+      <c r="EU26" s="94"/>
+      <c r="EV26" s="94"/>
+      <c r="EW26" s="94"/>
+      <c r="EX26" s="94"/>
+      <c r="EY26" s="94"/>
+      <c r="EZ26" s="94"/>
+      <c r="FA26" s="94"/>
+      <c r="FB26" s="94"/>
+      <c r="FC26" s="94"/>
+      <c r="FD26" s="94"/>
+      <c r="FE26" s="94"/>
+      <c r="FF26" s="94"/>
+      <c r="FG26" s="94"/>
+      <c r="FH26" s="94"/>
+      <c r="FI26" s="94"/>
+      <c r="FJ26" s="94"/>
+      <c r="FK26" s="94"/>
+      <c r="FL26" s="94"/>
+      <c r="FM26" s="94"/>
+      <c r="FN26" s="94"/>
+      <c r="FO26" s="94"/>
+      <c r="FP26" s="94"/>
+      <c r="FQ26" s="94"/>
+      <c r="FR26" s="94"/>
+      <c r="FS26" s="94"/>
+      <c r="FT26" s="94"/>
+      <c r="FU26" s="94"/>
+      <c r="FV26" s="94"/>
+      <c r="FW26" s="94"/>
+      <c r="FX26" s="94"/>
+      <c r="FY26" s="94"/>
+      <c r="FZ26" s="94"/>
+      <c r="GA26" s="94"/>
+      <c r="GB26" s="94"/>
+      <c r="GC26" s="94"/>
+      <c r="GD26" s="94"/>
+      <c r="GE26" s="94"/>
+      <c r="GF26" s="94"/>
+      <c r="GG26" s="94"/>
+      <c r="GH26" s="94"/>
+      <c r="GI26" s="94"/>
+      <c r="GJ26" s="94"/>
+      <c r="GK26" s="94"/>
+      <c r="GL26" s="94"/>
     </row>
-    <row r="25" spans="1:41">
-      <c r="A25" s="67" t="s">
-        <v>51</v>
-      </c>
+    <row r="27" spans="1:194">
+      <c r="AA27" s="94"/>
+      <c r="AB27" s="94"/>
+      <c r="AC27" s="94"/>
+      <c r="AD27" s="94"/>
+      <c r="AE27" s="94"/>
+      <c r="AF27" s="94"/>
+      <c r="AG27" s="94"/>
+      <c r="AH27" s="94"/>
+      <c r="AI27" s="94"/>
+      <c r="AJ27" s="94"/>
+      <c r="AK27" s="94"/>
+      <c r="AL27" s="94"/>
+      <c r="AM27" s="94"/>
+      <c r="AN27" s="94"/>
+      <c r="AO27" s="94"/>
+      <c r="AP27" s="94"/>
+      <c r="AQ27" s="94"/>
+      <c r="AR27" s="94"/>
+      <c r="AS27" s="94"/>
+      <c r="AT27" s="94"/>
+      <c r="AU27" s="94"/>
+      <c r="AV27" s="94"/>
+      <c r="AW27" s="94"/>
+      <c r="AX27" s="94"/>
+      <c r="AY27" s="94"/>
+      <c r="AZ27" s="94"/>
+      <c r="BA27" s="94"/>
+      <c r="BB27" s="94"/>
+      <c r="BC27" s="94"/>
+      <c r="BD27" s="94"/>
+      <c r="BE27" s="94"/>
+      <c r="BF27" s="94"/>
+      <c r="BG27" s="94"/>
+      <c r="BH27" s="94"/>
+      <c r="BI27" s="94"/>
+      <c r="BJ27" s="94"/>
+      <c r="BK27" s="94"/>
+      <c r="BL27" s="94"/>
+      <c r="BM27" s="94"/>
+      <c r="BN27" s="94"/>
+      <c r="BO27" s="94"/>
+      <c r="BP27" s="94"/>
+      <c r="BQ27" s="94"/>
+      <c r="BR27" s="94"/>
+      <c r="BS27" s="94"/>
+      <c r="BT27" s="94"/>
+      <c r="BU27" s="94"/>
+      <c r="BV27" s="94"/>
+      <c r="BW27" s="94"/>
+      <c r="BX27" s="94"/>
+      <c r="BY27" s="94"/>
+      <c r="BZ27" s="94"/>
+      <c r="CA27" s="94"/>
+      <c r="CB27" s="94"/>
+      <c r="CC27" s="94"/>
+      <c r="CD27" s="94"/>
+      <c r="CE27" s="94"/>
+      <c r="CF27" s="94"/>
+      <c r="CG27" s="94"/>
+      <c r="CH27" s="94"/>
+      <c r="CI27" s="94"/>
+      <c r="CJ27" s="94"/>
+      <c r="CK27" s="94"/>
+      <c r="CL27" s="94"/>
+      <c r="CM27" s="94"/>
+      <c r="CN27" s="94"/>
+      <c r="CO27" s="94"/>
+      <c r="CP27" s="94"/>
+      <c r="CQ27" s="94"/>
+      <c r="CR27" s="94"/>
+      <c r="CS27" s="94"/>
+      <c r="CT27" s="94"/>
+      <c r="CU27" s="94"/>
+      <c r="CV27" s="94"/>
+      <c r="CW27" s="94"/>
+      <c r="CX27" s="94"/>
+      <c r="CY27" s="94"/>
+      <c r="CZ27" s="94"/>
+      <c r="DA27" s="94"/>
+      <c r="DB27" s="94"/>
+      <c r="DC27" s="94"/>
+      <c r="DD27" s="94"/>
+      <c r="DE27" s="94"/>
+      <c r="DF27" s="94"/>
+      <c r="DG27" s="94"/>
+      <c r="DH27" s="94"/>
+      <c r="DI27" s="94"/>
+      <c r="DJ27" s="94"/>
+      <c r="DK27" s="94"/>
+      <c r="DL27" s="94"/>
+      <c r="DM27" s="94"/>
+      <c r="DN27" s="94"/>
+      <c r="DO27" s="94"/>
+      <c r="DP27" s="94"/>
+      <c r="DQ27" s="94"/>
+      <c r="DR27" s="94"/>
+      <c r="DS27" s="94"/>
+      <c r="DT27" s="94"/>
+      <c r="DU27" s="94"/>
+      <c r="DV27" s="94"/>
+      <c r="DW27" s="94"/>
+      <c r="DX27" s="94"/>
+      <c r="DY27" s="94"/>
+      <c r="DZ27" s="94"/>
+      <c r="EA27" s="94"/>
+      <c r="EB27" s="94"/>
+      <c r="EC27" s="94"/>
+      <c r="ED27" s="94"/>
+      <c r="EE27" s="94"/>
+      <c r="EF27" s="94"/>
+      <c r="EG27" s="94"/>
+      <c r="EH27" s="94"/>
+      <c r="EI27" s="94"/>
+      <c r="EJ27" s="94"/>
+      <c r="EK27" s="94"/>
+      <c r="EL27" s="94"/>
+      <c r="EM27" s="94"/>
+      <c r="EN27" s="94"/>
+      <c r="EO27" s="94"/>
+      <c r="EP27" s="94"/>
+      <c r="EQ27" s="94"/>
+      <c r="ER27" s="94"/>
+      <c r="ES27" s="94"/>
+      <c r="ET27" s="94"/>
+      <c r="EU27" s="94"/>
+      <c r="EV27" s="94"/>
+      <c r="EW27" s="94"/>
+      <c r="EX27" s="94"/>
+      <c r="EY27" s="94"/>
+      <c r="EZ27" s="94"/>
+      <c r="FA27" s="94"/>
+      <c r="FB27" s="94"/>
+      <c r="FC27" s="94"/>
+      <c r="FD27" s="94"/>
+      <c r="FE27" s="94"/>
+      <c r="FF27" s="94"/>
+      <c r="FG27" s="94"/>
+      <c r="FH27" s="94"/>
+      <c r="FI27" s="94"/>
+      <c r="FJ27" s="94"/>
+      <c r="FK27" s="94"/>
+      <c r="FL27" s="94"/>
+      <c r="FM27" s="94"/>
+      <c r="FN27" s="94"/>
+      <c r="FO27" s="94"/>
+      <c r="FP27" s="94"/>
+      <c r="FQ27" s="94"/>
+      <c r="FR27" s="94"/>
+      <c r="FS27" s="94"/>
+      <c r="FT27" s="94"/>
+      <c r="FU27" s="94"/>
+      <c r="FV27" s="94"/>
+      <c r="FW27" s="94"/>
+      <c r="FX27" s="94"/>
+      <c r="FY27" s="94"/>
+      <c r="FZ27" s="94"/>
+      <c r="GA27" s="94"/>
+      <c r="GB27" s="94"/>
+      <c r="GC27" s="94"/>
+      <c r="GD27" s="94"/>
+      <c r="GE27" s="94"/>
+      <c r="GF27" s="94"/>
+      <c r="GG27" s="94"/>
+      <c r="GH27" s="94"/>
+      <c r="GI27" s="94"/>
+      <c r="GJ27" s="94"/>
+      <c r="GK27" s="94"/>
+      <c r="GL27" s="94"/>
     </row>
-    <row r="26" spans="1:41">
-      <c r="A26" s="67" t="s">
-        <v>54</v>
-      </c>
+    <row r="28" spans="1:194">
+      <c r="A28" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA28" s="94"/>
+      <c r="AB28" s="94"/>
+      <c r="AC28" s="94"/>
+      <c r="AD28" s="94"/>
+      <c r="AE28" s="94"/>
+      <c r="AF28" s="94"/>
+      <c r="AG28" s="94"/>
+      <c r="AH28" s="94"/>
+      <c r="AI28" s="94"/>
+      <c r="AJ28" s="94"/>
+      <c r="AK28" s="94"/>
+      <c r="AL28" s="94"/>
+      <c r="AM28" s="94"/>
+      <c r="AN28" s="94"/>
+      <c r="AO28" s="94"/>
+      <c r="AP28" s="94"/>
+      <c r="AQ28" s="94"/>
+      <c r="AR28" s="94"/>
+      <c r="AS28" s="94"/>
+      <c r="AT28" s="94"/>
+      <c r="AU28" s="94"/>
+      <c r="AV28" s="94"/>
+      <c r="AW28" s="94"/>
+      <c r="AX28" s="94"/>
+      <c r="AY28" s="94"/>
+      <c r="AZ28" s="94"/>
+      <c r="BA28" s="94"/>
+      <c r="BB28" s="94"/>
+      <c r="BC28" s="94"/>
+      <c r="BD28" s="94"/>
+      <c r="BE28" s="94"/>
+      <c r="BF28" s="94"/>
+      <c r="BG28" s="94"/>
+      <c r="BH28" s="94"/>
+      <c r="BI28" s="94"/>
+      <c r="BJ28" s="94"/>
+      <c r="BK28" s="94"/>
+      <c r="BL28" s="94"/>
+      <c r="BM28" s="94"/>
+      <c r="BN28" s="94"/>
+      <c r="BO28" s="94"/>
+      <c r="BP28" s="94"/>
+      <c r="BQ28" s="94"/>
+      <c r="BR28" s="94"/>
+      <c r="BS28" s="94"/>
+      <c r="BT28" s="94"/>
+      <c r="BU28" s="94"/>
+      <c r="BV28" s="94"/>
+      <c r="BW28" s="94"/>
+      <c r="BX28" s="94"/>
+      <c r="BY28" s="94"/>
+      <c r="BZ28" s="94"/>
+      <c r="CA28" s="94"/>
+      <c r="CB28" s="94"/>
+      <c r="CC28" s="94"/>
+      <c r="CD28" s="94"/>
+      <c r="CE28" s="94"/>
+      <c r="CF28" s="94"/>
+      <c r="CG28" s="94"/>
+      <c r="CH28" s="94"/>
+      <c r="CI28" s="94"/>
+      <c r="CJ28" s="94"/>
+      <c r="CK28" s="94"/>
+      <c r="CL28" s="94"/>
+      <c r="CM28" s="94"/>
+      <c r="CN28" s="94"/>
+      <c r="CO28" s="94"/>
+      <c r="CP28" s="94"/>
+      <c r="CQ28" s="94"/>
+      <c r="CR28" s="94"/>
+      <c r="CS28" s="94"/>
+      <c r="CT28" s="94"/>
+      <c r="CU28" s="94"/>
+      <c r="CV28" s="94"/>
+      <c r="CW28" s="94"/>
+      <c r="CX28" s="94"/>
+      <c r="CY28" s="94"/>
+      <c r="CZ28" s="94"/>
+      <c r="DA28" s="94"/>
+      <c r="DB28" s="94"/>
+      <c r="DC28" s="94"/>
+      <c r="DD28" s="94"/>
+      <c r="DE28" s="94"/>
+      <c r="DF28" s="94"/>
+      <c r="DG28" s="94"/>
+      <c r="DH28" s="94"/>
+      <c r="DI28" s="94"/>
+      <c r="DJ28" s="94"/>
+      <c r="DK28" s="94"/>
+      <c r="DL28" s="94"/>
+      <c r="DM28" s="94"/>
+      <c r="DN28" s="94"/>
+      <c r="DO28" s="94"/>
+      <c r="DP28" s="94"/>
+      <c r="DQ28" s="94"/>
+      <c r="DR28" s="94"/>
+      <c r="DS28" s="94"/>
+      <c r="DT28" s="94"/>
+      <c r="DU28" s="94"/>
+      <c r="DV28" s="94"/>
+      <c r="DW28" s="94"/>
+      <c r="DX28" s="94"/>
+      <c r="DY28" s="94"/>
+      <c r="DZ28" s="94"/>
+      <c r="EA28" s="94"/>
+      <c r="EB28" s="94"/>
+      <c r="EC28" s="94"/>
+      <c r="ED28" s="94"/>
+      <c r="EE28" s="94"/>
+      <c r="EF28" s="94"/>
+      <c r="EG28" s="94"/>
+      <c r="EH28" s="94"/>
+      <c r="EI28" s="94"/>
+      <c r="EJ28" s="94"/>
+      <c r="EK28" s="94"/>
+      <c r="EL28" s="94"/>
+      <c r="EM28" s="94"/>
+      <c r="EN28" s="94"/>
+      <c r="EO28" s="94"/>
+      <c r="EP28" s="94"/>
+      <c r="EQ28" s="94"/>
+      <c r="ER28" s="94"/>
+      <c r="ES28" s="94"/>
+      <c r="ET28" s="94"/>
+      <c r="EU28" s="94"/>
+      <c r="EV28" s="94"/>
+      <c r="EW28" s="94"/>
+      <c r="EX28" s="94"/>
+      <c r="EY28" s="94"/>
+      <c r="EZ28" s="94"/>
+      <c r="FA28" s="94"/>
+      <c r="FB28" s="94"/>
+      <c r="FC28" s="94"/>
+      <c r="FD28" s="94"/>
+      <c r="FE28" s="94"/>
+      <c r="FF28" s="94"/>
+      <c r="FG28" s="94"/>
+      <c r="FH28" s="94"/>
+      <c r="FI28" s="94"/>
+      <c r="FJ28" s="94"/>
+      <c r="FK28" s="94"/>
+      <c r="FL28" s="94"/>
+      <c r="FM28" s="94"/>
+      <c r="FN28" s="94"/>
+      <c r="FO28" s="94"/>
+      <c r="FP28" s="94"/>
+      <c r="FQ28" s="94"/>
+      <c r="FR28" s="94"/>
+      <c r="FS28" s="94"/>
+      <c r="FT28" s="94"/>
+      <c r="FU28" s="94"/>
+      <c r="FV28" s="94"/>
+      <c r="FW28" s="94"/>
+      <c r="FX28" s="94"/>
+      <c r="FY28" s="94"/>
+      <c r="FZ28" s="94"/>
+      <c r="GA28" s="94"/>
+      <c r="GB28" s="94"/>
+      <c r="GC28" s="94"/>
+      <c r="GD28" s="94"/>
+      <c r="GE28" s="94"/>
+      <c r="GF28" s="94"/>
+      <c r="GG28" s="94"/>
+      <c r="GH28" s="94"/>
+      <c r="GI28" s="94"/>
+      <c r="GJ28" s="94"/>
+      <c r="GK28" s="94"/>
+      <c r="GL28" s="94"/>
     </row>
-    <row r="28" spans="1:41">
-      <c r="A28" s="68" t="s">
-        <v>40</v>
-      </c>
+    <row r="29" spans="1:194">
+      <c r="A29" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA29" s="94"/>
+      <c r="AB29" s="94"/>
+      <c r="AC29" s="94"/>
+      <c r="AD29" s="94"/>
+      <c r="AE29" s="94"/>
+      <c r="AF29" s="98"/>
+      <c r="AG29" s="98"/>
+      <c r="AH29" s="98"/>
+      <c r="AI29" s="98"/>
+      <c r="AJ29" s="98"/>
+      <c r="AK29" s="94"/>
+      <c r="AL29" s="94"/>
+      <c r="AM29" s="94"/>
+      <c r="AN29" s="94"/>
+      <c r="AO29" s="94"/>
+      <c r="AP29" s="94"/>
+      <c r="AQ29" s="94"/>
+      <c r="AR29" s="94"/>
+      <c r="AS29" s="94"/>
+      <c r="AT29" s="94"/>
+      <c r="AU29" s="94"/>
+      <c r="AV29" s="94"/>
+      <c r="AW29" s="94"/>
+      <c r="AX29" s="94"/>
+      <c r="AY29" s="94"/>
+      <c r="AZ29" s="94"/>
+      <c r="BA29" s="94"/>
+      <c r="BB29" s="94"/>
+      <c r="BC29" s="94"/>
+      <c r="BD29" s="94"/>
+      <c r="BE29" s="94"/>
+      <c r="BF29" s="94"/>
+      <c r="BG29" s="94"/>
+      <c r="BH29" s="94"/>
+      <c r="BI29" s="94"/>
+      <c r="BJ29" s="94"/>
+      <c r="BK29" s="94"/>
+      <c r="BL29" s="94"/>
+      <c r="BM29" s="94"/>
+      <c r="BN29" s="94"/>
+      <c r="BO29" s="94"/>
+      <c r="BP29" s="94"/>
+      <c r="BQ29" s="94"/>
+      <c r="BR29" s="94"/>
+      <c r="BS29" s="94"/>
+      <c r="BT29" s="94"/>
+      <c r="BU29" s="94"/>
+      <c r="BV29" s="94"/>
+      <c r="BW29" s="94"/>
+      <c r="BX29" s="94"/>
+      <c r="BY29" s="94"/>
+      <c r="BZ29" s="94"/>
+      <c r="CA29" s="94"/>
+      <c r="CB29" s="94"/>
+      <c r="CC29" s="94"/>
+      <c r="CD29" s="94"/>
+      <c r="CE29" s="94"/>
+      <c r="CF29" s="94"/>
+      <c r="CG29" s="94"/>
+      <c r="CH29" s="94"/>
+      <c r="CI29" s="94"/>
+      <c r="CJ29" s="94"/>
+      <c r="CK29" s="94"/>
+      <c r="CL29" s="94"/>
+      <c r="CM29" s="94"/>
+      <c r="CN29" s="94"/>
+      <c r="CO29" s="94"/>
+      <c r="CP29" s="94"/>
+      <c r="CQ29" s="94"/>
+      <c r="CR29" s="94"/>
+      <c r="CS29" s="94"/>
+      <c r="CT29" s="94"/>
+      <c r="CU29" s="94"/>
+      <c r="CV29" s="94"/>
+      <c r="CW29" s="94"/>
+      <c r="CX29" s="94"/>
+      <c r="CY29" s="94"/>
+      <c r="CZ29" s="94"/>
+      <c r="DA29" s="94"/>
+      <c r="DB29" s="94"/>
+      <c r="DC29" s="94"/>
+      <c r="DD29" s="94"/>
+      <c r="DE29" s="94"/>
+      <c r="DF29" s="94"/>
+      <c r="DG29" s="94"/>
+      <c r="DH29" s="94"/>
+      <c r="DI29" s="94"/>
+      <c r="DJ29" s="94"/>
+      <c r="DK29" s="94"/>
+      <c r="DL29" s="94"/>
+      <c r="DM29" s="94"/>
+      <c r="DN29" s="94"/>
+      <c r="DO29" s="94"/>
+      <c r="DP29" s="94"/>
+      <c r="DQ29" s="94"/>
+      <c r="DR29" s="94"/>
+      <c r="DS29" s="94"/>
+      <c r="DT29" s="94"/>
+      <c r="DU29" s="94"/>
+      <c r="DV29" s="94"/>
+      <c r="DW29" s="94"/>
+      <c r="DX29" s="94"/>
+      <c r="DY29" s="94"/>
+      <c r="DZ29" s="94"/>
+      <c r="EA29" s="94"/>
+      <c r="EB29" s="94"/>
+      <c r="EC29" s="94"/>
+      <c r="ED29" s="94"/>
+      <c r="EE29" s="94"/>
+      <c r="EF29" s="94"/>
+      <c r="EG29" s="94"/>
+      <c r="EH29" s="94"/>
+      <c r="EI29" s="94"/>
+      <c r="EJ29" s="94"/>
+      <c r="EK29" s="94"/>
+      <c r="EL29" s="94"/>
+      <c r="EM29" s="94"/>
+      <c r="EN29" s="94"/>
+      <c r="EO29" s="94"/>
+      <c r="EP29" s="94"/>
+      <c r="EQ29" s="94"/>
+      <c r="ER29" s="94"/>
+      <c r="ES29" s="94"/>
+      <c r="ET29" s="94"/>
+      <c r="EU29" s="94"/>
+      <c r="EV29" s="94"/>
+      <c r="EW29" s="94"/>
+      <c r="EX29" s="94"/>
+      <c r="EY29" s="94"/>
+      <c r="EZ29" s="94"/>
+      <c r="FA29" s="94"/>
+      <c r="FB29" s="94"/>
+      <c r="FC29" s="94"/>
+      <c r="FD29" s="94"/>
+      <c r="FE29" s="94"/>
+      <c r="FF29" s="94"/>
+      <c r="FG29" s="94"/>
+      <c r="FH29" s="94"/>
+      <c r="FI29" s="94"/>
+      <c r="FJ29" s="94"/>
+      <c r="FK29" s="94"/>
+      <c r="FL29" s="94"/>
+      <c r="FM29" s="94"/>
+      <c r="FN29" s="94"/>
+      <c r="FO29" s="94"/>
+      <c r="FP29" s="94"/>
+      <c r="FQ29" s="94"/>
+      <c r="FR29" s="94"/>
+      <c r="FS29" s="94"/>
+      <c r="FT29" s="94"/>
+      <c r="FU29" s="94"/>
+      <c r="FV29" s="94"/>
+      <c r="FW29" s="94"/>
+      <c r="FX29" s="94"/>
+      <c r="FY29" s="94"/>
+      <c r="FZ29" s="94"/>
+      <c r="GA29" s="94"/>
+      <c r="GB29" s="94"/>
+      <c r="GC29" s="94"/>
+      <c r="GD29" s="94"/>
+      <c r="GE29" s="94"/>
+      <c r="GF29" s="94"/>
+      <c r="GG29" s="94"/>
+      <c r="GH29" s="94"/>
+      <c r="GI29" s="94"/>
+      <c r="GJ29" s="94"/>
+      <c r="GK29" s="94"/>
+      <c r="GL29" s="94"/>
     </row>
-    <row r="29" spans="1:41">
-      <c r="A29" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF29" s="95"/>
-      <c r="AG29" s="96"/>
-      <c r="AH29" s="96"/>
-      <c r="AI29" s="96"/>
-      <c r="AJ29" s="97"/>
+    <row r="30" spans="1:194">
+      <c r="A30" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA30" s="94"/>
+      <c r="AB30" s="94"/>
+      <c r="AC30" s="94"/>
+      <c r="AD30" s="94"/>
+      <c r="AE30" s="94"/>
+      <c r="AF30" s="98"/>
+      <c r="AG30" s="98"/>
+      <c r="AH30" s="98"/>
+      <c r="AI30" s="98"/>
+      <c r="AJ30" s="98"/>
+      <c r="AK30" s="94"/>
+      <c r="AL30" s="94"/>
+      <c r="AM30" s="94"/>
+      <c r="AN30" s="94"/>
+      <c r="AO30" s="94"/>
+      <c r="AP30" s="94"/>
+      <c r="AQ30" s="94"/>
+      <c r="AR30" s="94"/>
+      <c r="AS30" s="94"/>
+      <c r="AT30" s="94"/>
+      <c r="AU30" s="94"/>
+      <c r="AV30" s="94"/>
+      <c r="AW30" s="94"/>
+      <c r="AX30" s="94"/>
+      <c r="AY30" s="94"/>
+      <c r="AZ30" s="94"/>
+      <c r="BA30" s="94"/>
+      <c r="BB30" s="94"/>
+      <c r="BC30" s="94"/>
+      <c r="BD30" s="94"/>
+      <c r="BE30" s="94"/>
+      <c r="BF30" s="94"/>
+      <c r="BG30" s="94"/>
+      <c r="BH30" s="94"/>
+      <c r="BI30" s="94"/>
+      <c r="BJ30" s="94"/>
+      <c r="BK30" s="94"/>
+      <c r="BL30" s="94"/>
+      <c r="BM30" s="94"/>
+      <c r="BN30" s="94"/>
+      <c r="BO30" s="94"/>
+      <c r="BP30" s="94"/>
+      <c r="BQ30" s="94"/>
+      <c r="BR30" s="94"/>
+      <c r="BS30" s="94"/>
+      <c r="BT30" s="94"/>
+      <c r="BU30" s="94"/>
+      <c r="BV30" s="94"/>
+      <c r="BW30" s="94"/>
+      <c r="BX30" s="94"/>
+      <c r="BY30" s="94"/>
+      <c r="BZ30" s="94"/>
+      <c r="CA30" s="94"/>
+      <c r="CB30" s="94"/>
+      <c r="CC30" s="94"/>
+      <c r="CD30" s="94"/>
+      <c r="CE30" s="94"/>
+      <c r="CF30" s="94"/>
+      <c r="CG30" s="94"/>
+      <c r="CH30" s="94"/>
+      <c r="CI30" s="94"/>
+      <c r="CJ30" s="94"/>
+      <c r="CK30" s="94"/>
+      <c r="CL30" s="94"/>
+      <c r="CM30" s="94"/>
+      <c r="CN30" s="94"/>
+      <c r="CO30" s="94"/>
+      <c r="CP30" s="94"/>
+      <c r="CQ30" s="94"/>
+      <c r="CR30" s="94"/>
+      <c r="CS30" s="94"/>
+      <c r="CT30" s="94"/>
+      <c r="CU30" s="94"/>
+      <c r="CV30" s="94"/>
+      <c r="CW30" s="94"/>
+      <c r="CX30" s="94"/>
+      <c r="CY30" s="94"/>
+      <c r="CZ30" s="94"/>
+      <c r="DA30" s="94"/>
+      <c r="DB30" s="94"/>
+      <c r="DC30" s="94"/>
+      <c r="DD30" s="94"/>
+      <c r="DE30" s="94"/>
+      <c r="DF30" s="94"/>
+      <c r="DG30" s="94"/>
+      <c r="DH30" s="94"/>
+      <c r="DI30" s="94"/>
+      <c r="DJ30" s="94"/>
+      <c r="DK30" s="94"/>
+      <c r="DL30" s="94"/>
+      <c r="DM30" s="94"/>
+      <c r="DN30" s="94"/>
+      <c r="DO30" s="94"/>
+      <c r="DP30" s="94"/>
+      <c r="DQ30" s="94"/>
+      <c r="DR30" s="94"/>
+      <c r="DS30" s="94"/>
+      <c r="DT30" s="94"/>
+      <c r="DU30" s="94"/>
+      <c r="DV30" s="94"/>
+      <c r="DW30" s="94"/>
+      <c r="DX30" s="94"/>
+      <c r="DY30" s="94"/>
+      <c r="DZ30" s="94"/>
+      <c r="EA30" s="94"/>
+      <c r="EB30" s="94"/>
+      <c r="EC30" s="94"/>
+      <c r="ED30" s="94"/>
+      <c r="EE30" s="94"/>
+      <c r="EF30" s="94"/>
+      <c r="EG30" s="94"/>
+      <c r="EH30" s="94"/>
+      <c r="EI30" s="94"/>
+      <c r="EJ30" s="94"/>
+      <c r="EK30" s="94"/>
+      <c r="EL30" s="94"/>
+      <c r="EM30" s="94"/>
+      <c r="EN30" s="94"/>
+      <c r="EO30" s="94"/>
+      <c r="EP30" s="94"/>
+      <c r="EQ30" s="94"/>
+      <c r="ER30" s="94"/>
+      <c r="ES30" s="94"/>
+      <c r="ET30" s="94"/>
+      <c r="EU30" s="94"/>
+      <c r="EV30" s="94"/>
+      <c r="EW30" s="94"/>
+      <c r="EX30" s="94"/>
+      <c r="EY30" s="94"/>
+      <c r="EZ30" s="94"/>
+      <c r="FA30" s="94"/>
+      <c r="FB30" s="94"/>
+      <c r="FC30" s="94"/>
+      <c r="FD30" s="94"/>
+      <c r="FE30" s="94"/>
+      <c r="FF30" s="94"/>
+      <c r="FG30" s="94"/>
+      <c r="FH30" s="94"/>
+      <c r="FI30" s="94"/>
+      <c r="FJ30" s="94"/>
+      <c r="FK30" s="94"/>
+      <c r="FL30" s="94"/>
+      <c r="FM30" s="94"/>
+      <c r="FN30" s="94"/>
+      <c r="FO30" s="94"/>
+      <c r="FP30" s="94"/>
+      <c r="FQ30" s="94"/>
+      <c r="FR30" s="94"/>
+      <c r="FS30" s="94"/>
+      <c r="FT30" s="94"/>
+      <c r="FU30" s="94"/>
+      <c r="FV30" s="94"/>
+      <c r="FW30" s="94"/>
+      <c r="FX30" s="94"/>
+      <c r="FY30" s="94"/>
+      <c r="FZ30" s="94"/>
+      <c r="GA30" s="94"/>
+      <c r="GB30" s="94"/>
+      <c r="GC30" s="94"/>
+      <c r="GD30" s="94"/>
+      <c r="GE30" s="94"/>
+      <c r="GF30" s="94"/>
+      <c r="GG30" s="94"/>
+      <c r="GH30" s="94"/>
+      <c r="GI30" s="94"/>
+      <c r="GJ30" s="94"/>
+      <c r="GK30" s="94"/>
+      <c r="GL30" s="94"/>
     </row>
-    <row r="30" spans="1:41">
-      <c r="A30" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF30" s="95"/>
-      <c r="AG30" s="96"/>
-      <c r="AH30" s="96"/>
-      <c r="AI30" s="96"/>
-      <c r="AJ30" s="97"/>
+    <row r="31" spans="1:194">
+      <c r="A31" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA31" s="94"/>
+      <c r="AB31" s="94"/>
+      <c r="AC31" s="94"/>
+      <c r="AD31" s="94"/>
+      <c r="AE31" s="94"/>
+      <c r="AF31" s="94"/>
+      <c r="AG31" s="94"/>
+      <c r="AH31" s="94"/>
+      <c r="AI31" s="94"/>
+      <c r="AJ31" s="94"/>
+      <c r="AK31" s="98"/>
+      <c r="AL31" s="98"/>
+      <c r="AM31" s="98"/>
+      <c r="AN31" s="98"/>
+      <c r="AO31" s="98"/>
+      <c r="AP31" s="94"/>
+      <c r="AQ31" s="94"/>
+      <c r="AR31" s="94"/>
+      <c r="AS31" s="94"/>
+      <c r="AT31" s="94"/>
+      <c r="AU31" s="94"/>
+      <c r="AV31" s="94"/>
+      <c r="AW31" s="94"/>
+      <c r="AX31" s="94"/>
+      <c r="AY31" s="94"/>
+      <c r="AZ31" s="94"/>
+      <c r="BA31" s="94"/>
+      <c r="BB31" s="94"/>
+      <c r="BC31" s="94"/>
+      <c r="BD31" s="94"/>
+      <c r="BE31" s="94"/>
+      <c r="BF31" s="94"/>
+      <c r="BG31" s="94"/>
+      <c r="BH31" s="94"/>
+      <c r="BI31" s="94"/>
+      <c r="BJ31" s="94"/>
+      <c r="BK31" s="94"/>
+      <c r="BL31" s="94"/>
+      <c r="BM31" s="94"/>
+      <c r="BN31" s="94"/>
+      <c r="BO31" s="94"/>
+      <c r="BP31" s="94"/>
+      <c r="BQ31" s="94"/>
+      <c r="BR31" s="94"/>
+      <c r="BS31" s="94"/>
+      <c r="BT31" s="94"/>
+      <c r="BU31" s="94"/>
+      <c r="BV31" s="94"/>
+      <c r="BW31" s="94"/>
+      <c r="BX31" s="94"/>
+      <c r="BY31" s="94"/>
+      <c r="BZ31" s="94"/>
+      <c r="CA31" s="94"/>
+      <c r="CB31" s="94"/>
+      <c r="CC31" s="94"/>
+      <c r="CD31" s="94"/>
+      <c r="CE31" s="94"/>
+      <c r="CF31" s="94"/>
+      <c r="CG31" s="94"/>
+      <c r="CH31" s="94"/>
+      <c r="CI31" s="94"/>
+      <c r="CJ31" s="94"/>
+      <c r="CK31" s="94"/>
+      <c r="CL31" s="94"/>
+      <c r="CM31" s="94"/>
+      <c r="CN31" s="94"/>
+      <c r="CO31" s="94"/>
+      <c r="CP31" s="94"/>
+      <c r="CQ31" s="94"/>
+      <c r="CR31" s="94"/>
+      <c r="CS31" s="94"/>
+      <c r="CT31" s="94"/>
+      <c r="CU31" s="94"/>
+      <c r="CV31" s="94"/>
+      <c r="CW31" s="94"/>
+      <c r="CX31" s="94"/>
+      <c r="CY31" s="94"/>
+      <c r="CZ31" s="94"/>
+      <c r="DA31" s="94"/>
+      <c r="DB31" s="94"/>
+      <c r="DC31" s="94"/>
+      <c r="DD31" s="94"/>
+      <c r="DE31" s="94"/>
+      <c r="DF31" s="94"/>
+      <c r="DG31" s="94"/>
+      <c r="DH31" s="94"/>
+      <c r="DI31" s="94"/>
+      <c r="DJ31" s="94"/>
+      <c r="DK31" s="94"/>
+      <c r="DL31" s="94"/>
+      <c r="DM31" s="94"/>
+      <c r="DN31" s="94"/>
+      <c r="DO31" s="94"/>
+      <c r="DP31" s="94"/>
+      <c r="DQ31" s="94"/>
+      <c r="DR31" s="94"/>
+      <c r="DS31" s="94"/>
+      <c r="DT31" s="94"/>
+      <c r="DU31" s="94"/>
+      <c r="DV31" s="94"/>
+      <c r="DW31" s="94"/>
+      <c r="DX31" s="94"/>
+      <c r="DY31" s="94"/>
+      <c r="DZ31" s="94"/>
+      <c r="EA31" s="94"/>
+      <c r="EB31" s="94"/>
+      <c r="EC31" s="94"/>
+      <c r="ED31" s="94"/>
+      <c r="EE31" s="94"/>
+      <c r="EF31" s="94"/>
+      <c r="EG31" s="94"/>
+      <c r="EH31" s="94"/>
+      <c r="EI31" s="94"/>
+      <c r="EJ31" s="94"/>
+      <c r="EK31" s="94"/>
+      <c r="EL31" s="94"/>
+      <c r="EM31" s="94"/>
+      <c r="EN31" s="94"/>
+      <c r="EO31" s="94"/>
+      <c r="EP31" s="94"/>
+      <c r="EQ31" s="94"/>
+      <c r="ER31" s="94"/>
+      <c r="ES31" s="94"/>
+      <c r="ET31" s="94"/>
+      <c r="EU31" s="94"/>
+      <c r="EV31" s="94"/>
+      <c r="EW31" s="94"/>
+      <c r="EX31" s="94"/>
+      <c r="EY31" s="94"/>
+      <c r="EZ31" s="94"/>
+      <c r="FA31" s="94"/>
+      <c r="FB31" s="94"/>
+      <c r="FC31" s="94"/>
+      <c r="FD31" s="94"/>
+      <c r="FE31" s="94"/>
+      <c r="FF31" s="94"/>
+      <c r="FG31" s="94"/>
+      <c r="FH31" s="94"/>
+      <c r="FI31" s="94"/>
+      <c r="FJ31" s="94"/>
+      <c r="FK31" s="94"/>
+      <c r="FL31" s="94"/>
+      <c r="FM31" s="94"/>
+      <c r="FN31" s="94"/>
+      <c r="FO31" s="94"/>
+      <c r="FP31" s="94"/>
+      <c r="FQ31" s="94"/>
+      <c r="FR31" s="94"/>
+      <c r="FS31" s="94"/>
+      <c r="FT31" s="94"/>
+      <c r="FU31" s="94"/>
+      <c r="FV31" s="94"/>
+      <c r="FW31" s="94"/>
+      <c r="FX31" s="94"/>
+      <c r="FY31" s="94"/>
+      <c r="FZ31" s="94"/>
+      <c r="GA31" s="94"/>
+      <c r="GB31" s="94"/>
+      <c r="GC31" s="94"/>
+      <c r="GD31" s="94"/>
+      <c r="GE31" s="94"/>
+      <c r="GF31" s="94"/>
+      <c r="GG31" s="94"/>
+      <c r="GH31" s="94"/>
+      <c r="GI31" s="94"/>
+      <c r="GJ31" s="94"/>
+      <c r="GK31" s="94"/>
+      <c r="GL31" s="94"/>
     </row>
-    <row r="31" spans="1:41">
-      <c r="A31" s="67" t="s">
+    <row r="32" spans="1:194">
+      <c r="A32" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA32" s="94"/>
+      <c r="AB32" s="94"/>
+      <c r="AC32" s="94"/>
+      <c r="AD32" s="94"/>
+      <c r="AE32" s="94"/>
+      <c r="AF32" s="94"/>
+      <c r="AG32" s="94"/>
+      <c r="AH32" s="94"/>
+      <c r="AI32" s="94"/>
+      <c r="AJ32" s="94"/>
+      <c r="AK32" s="98"/>
+      <c r="AL32" s="98"/>
+      <c r="AM32" s="98"/>
+      <c r="AN32" s="98"/>
+      <c r="AO32" s="98"/>
+      <c r="AP32" s="94"/>
+      <c r="AQ32" s="94"/>
+      <c r="AR32" s="94"/>
+      <c r="AS32" s="94"/>
+      <c r="AT32" s="94"/>
+      <c r="AU32" s="94"/>
+      <c r="AV32" s="94"/>
+      <c r="AW32" s="94"/>
+      <c r="AX32" s="94"/>
+      <c r="AY32" s="94"/>
+      <c r="AZ32" s="94"/>
+      <c r="BA32" s="94"/>
+      <c r="BB32" s="94"/>
+      <c r="BC32" s="94"/>
+      <c r="BD32" s="94"/>
+      <c r="BE32" s="94"/>
+      <c r="BF32" s="94"/>
+      <c r="BG32" s="94"/>
+      <c r="BH32" s="94"/>
+      <c r="BI32" s="94"/>
+      <c r="BJ32" s="94"/>
+      <c r="BK32" s="94"/>
+      <c r="BL32" s="94"/>
+      <c r="BM32" s="94"/>
+      <c r="BN32" s="94"/>
+      <c r="BO32" s="94"/>
+      <c r="BP32" s="94"/>
+      <c r="BQ32" s="94"/>
+      <c r="BR32" s="94"/>
+      <c r="BS32" s="94"/>
+      <c r="BT32" s="94"/>
+      <c r="BU32" s="94"/>
+      <c r="BV32" s="94"/>
+      <c r="BW32" s="94"/>
+      <c r="BX32" s="94"/>
+      <c r="BY32" s="94"/>
+      <c r="BZ32" s="94"/>
+      <c r="CA32" s="94"/>
+      <c r="CB32" s="94"/>
+      <c r="CC32" s="94"/>
+      <c r="CD32" s="94"/>
+      <c r="CE32" s="94"/>
+      <c r="CF32" s="94"/>
+      <c r="CG32" s="94"/>
+      <c r="CH32" s="94"/>
+      <c r="CI32" s="94"/>
+      <c r="CJ32" s="94"/>
+      <c r="CK32" s="94"/>
+      <c r="CL32" s="94"/>
+      <c r="CM32" s="94"/>
+      <c r="CN32" s="94"/>
+      <c r="CO32" s="94"/>
+      <c r="CP32" s="94"/>
+      <c r="CQ32" s="94"/>
+      <c r="CR32" s="94"/>
+      <c r="CS32" s="94"/>
+      <c r="CT32" s="94"/>
+      <c r="CU32" s="94"/>
+      <c r="CV32" s="94"/>
+      <c r="CW32" s="94"/>
+      <c r="CX32" s="94"/>
+      <c r="CY32" s="94"/>
+      <c r="CZ32" s="94"/>
+      <c r="DA32" s="94"/>
+      <c r="DB32" s="94"/>
+      <c r="DC32" s="94"/>
+      <c r="DD32" s="94"/>
+      <c r="DE32" s="94"/>
+      <c r="DF32" s="94"/>
+      <c r="DG32" s="94"/>
+      <c r="DH32" s="94"/>
+      <c r="DI32" s="94"/>
+      <c r="DJ32" s="94"/>
+      <c r="DK32" s="94"/>
+      <c r="DL32" s="94"/>
+      <c r="DM32" s="94"/>
+      <c r="DN32" s="94"/>
+      <c r="DO32" s="94"/>
+      <c r="DP32" s="94"/>
+      <c r="DQ32" s="94"/>
+      <c r="DR32" s="94"/>
+      <c r="DS32" s="94"/>
+      <c r="DT32" s="94"/>
+      <c r="DU32" s="94"/>
+      <c r="DV32" s="94"/>
+      <c r="DW32" s="94"/>
+      <c r="DX32" s="94"/>
+      <c r="DY32" s="94"/>
+      <c r="DZ32" s="94"/>
+      <c r="EA32" s="94"/>
+      <c r="EB32" s="94"/>
+      <c r="EC32" s="94"/>
+      <c r="ED32" s="94"/>
+      <c r="EE32" s="94"/>
+      <c r="EF32" s="94"/>
+      <c r="EG32" s="94"/>
+      <c r="EH32" s="94"/>
+      <c r="EI32" s="94"/>
+      <c r="EJ32" s="94"/>
+      <c r="EK32" s="94"/>
+      <c r="EL32" s="94"/>
+      <c r="EM32" s="94"/>
+      <c r="EN32" s="94"/>
+      <c r="EO32" s="94"/>
+      <c r="EP32" s="94"/>
+      <c r="EQ32" s="94"/>
+      <c r="ER32" s="94"/>
+      <c r="ES32" s="94"/>
+      <c r="ET32" s="94"/>
+      <c r="EU32" s="94"/>
+      <c r="EV32" s="94"/>
+      <c r="EW32" s="94"/>
+      <c r="EX32" s="94"/>
+      <c r="EY32" s="94"/>
+      <c r="EZ32" s="94"/>
+      <c r="FA32" s="94"/>
+      <c r="FB32" s="94"/>
+      <c r="FC32" s="94"/>
+      <c r="FD32" s="94"/>
+      <c r="FE32" s="94"/>
+      <c r="FF32" s="94"/>
+      <c r="FG32" s="94"/>
+      <c r="FH32" s="94"/>
+      <c r="FI32" s="94"/>
+      <c r="FJ32" s="94"/>
+      <c r="FK32" s="94"/>
+      <c r="FL32" s="94"/>
+      <c r="FM32" s="94"/>
+      <c r="FN32" s="94"/>
+      <c r="FO32" s="94"/>
+      <c r="FP32" s="94"/>
+      <c r="FQ32" s="94"/>
+      <c r="FR32" s="94"/>
+      <c r="FS32" s="94"/>
+      <c r="FT32" s="94"/>
+      <c r="FU32" s="94"/>
+      <c r="FV32" s="94"/>
+      <c r="FW32" s="94"/>
+      <c r="FX32" s="94"/>
+      <c r="FY32" s="94"/>
+      <c r="FZ32" s="94"/>
+      <c r="GA32" s="94"/>
+      <c r="GB32" s="94"/>
+      <c r="GC32" s="94"/>
+      <c r="GD32" s="94"/>
+      <c r="GE32" s="94"/>
+      <c r="GF32" s="94"/>
+      <c r="GG32" s="94"/>
+      <c r="GH32" s="94"/>
+      <c r="GI32" s="94"/>
+      <c r="GJ32" s="94"/>
+      <c r="GK32" s="94"/>
+      <c r="GL32" s="94"/>
+    </row>
+    <row r="33" spans="1:194">
+      <c r="A33" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA33" s="94"/>
+      <c r="AB33" s="94"/>
+      <c r="AC33" s="94"/>
+      <c r="AD33" s="94"/>
+      <c r="AE33" s="94"/>
+      <c r="AF33" s="94"/>
+      <c r="AG33" s="94"/>
+      <c r="AH33" s="94"/>
+      <c r="AI33" s="94"/>
+      <c r="AJ33" s="94"/>
+      <c r="AK33" s="98"/>
+      <c r="AL33" s="98"/>
+      <c r="AM33" s="98"/>
+      <c r="AN33" s="98"/>
+      <c r="AO33" s="98"/>
+      <c r="AP33" s="94"/>
+      <c r="AQ33" s="94"/>
+      <c r="AR33" s="94"/>
+      <c r="AS33" s="94"/>
+      <c r="AT33" s="94"/>
+      <c r="AU33" s="94"/>
+      <c r="AV33" s="94"/>
+      <c r="AW33" s="94"/>
+      <c r="AX33" s="94"/>
+      <c r="AY33" s="94"/>
+      <c r="AZ33" s="94"/>
+      <c r="BA33" s="94"/>
+      <c r="BB33" s="94"/>
+      <c r="BC33" s="94"/>
+      <c r="BD33" s="94"/>
+      <c r="BE33" s="94"/>
+      <c r="BF33" s="94"/>
+      <c r="BG33" s="94"/>
+      <c r="BH33" s="94"/>
+      <c r="BI33" s="94"/>
+      <c r="BJ33" s="94"/>
+      <c r="BK33" s="94"/>
+      <c r="BL33" s="94"/>
+      <c r="BM33" s="94"/>
+      <c r="BN33" s="94"/>
+      <c r="BO33" s="94"/>
+      <c r="BP33" s="94"/>
+      <c r="BQ33" s="94"/>
+      <c r="BR33" s="94"/>
+      <c r="BS33" s="94"/>
+      <c r="BT33" s="94"/>
+      <c r="BU33" s="94"/>
+      <c r="BV33" s="94"/>
+      <c r="BW33" s="94"/>
+      <c r="BX33" s="94"/>
+      <c r="BY33" s="94"/>
+      <c r="BZ33" s="94"/>
+      <c r="CA33" s="94"/>
+      <c r="CB33" s="94"/>
+      <c r="CC33" s="94"/>
+      <c r="CD33" s="94"/>
+      <c r="CE33" s="94"/>
+      <c r="CF33" s="94"/>
+      <c r="CG33" s="94"/>
+      <c r="CH33" s="94"/>
+      <c r="CI33" s="94"/>
+      <c r="CJ33" s="94"/>
+      <c r="CK33" s="94"/>
+      <c r="CL33" s="94"/>
+      <c r="CM33" s="94"/>
+      <c r="CN33" s="94"/>
+      <c r="CO33" s="94"/>
+      <c r="CP33" s="94"/>
+      <c r="CQ33" s="94"/>
+      <c r="CR33" s="94"/>
+      <c r="CS33" s="94"/>
+      <c r="CT33" s="94"/>
+      <c r="CU33" s="94"/>
+      <c r="CV33" s="94"/>
+      <c r="CW33" s="94"/>
+      <c r="CX33" s="94"/>
+      <c r="CY33" s="94"/>
+      <c r="CZ33" s="94"/>
+      <c r="DA33" s="94"/>
+      <c r="DB33" s="94"/>
+      <c r="DC33" s="94"/>
+      <c r="DD33" s="94"/>
+      <c r="DE33" s="94"/>
+      <c r="DF33" s="94"/>
+      <c r="DG33" s="94"/>
+      <c r="DH33" s="94"/>
+      <c r="DI33" s="94"/>
+      <c r="DJ33" s="94"/>
+      <c r="DK33" s="94"/>
+      <c r="DL33" s="94"/>
+      <c r="DM33" s="94"/>
+      <c r="DN33" s="94"/>
+      <c r="DO33" s="94"/>
+      <c r="DP33" s="94"/>
+      <c r="DQ33" s="94"/>
+      <c r="DR33" s="94"/>
+      <c r="DS33" s="94"/>
+      <c r="DT33" s="94"/>
+      <c r="DU33" s="94"/>
+      <c r="DV33" s="94"/>
+      <c r="DW33" s="94"/>
+      <c r="DX33" s="94"/>
+      <c r="DY33" s="94"/>
+      <c r="DZ33" s="94"/>
+      <c r="EA33" s="94"/>
+      <c r="EB33" s="94"/>
+      <c r="EC33" s="94"/>
+      <c r="ED33" s="94"/>
+      <c r="EE33" s="94"/>
+      <c r="EF33" s="94"/>
+      <c r="EG33" s="94"/>
+      <c r="EH33" s="94"/>
+      <c r="EI33" s="94"/>
+      <c r="EJ33" s="94"/>
+      <c r="EK33" s="94"/>
+      <c r="EL33" s="94"/>
+      <c r="EM33" s="94"/>
+      <c r="EN33" s="94"/>
+      <c r="EO33" s="94"/>
+      <c r="EP33" s="94"/>
+      <c r="EQ33" s="94"/>
+      <c r="ER33" s="94"/>
+      <c r="ES33" s="94"/>
+      <c r="ET33" s="94"/>
+      <c r="EU33" s="94"/>
+      <c r="EV33" s="94"/>
+      <c r="EW33" s="94"/>
+      <c r="EX33" s="94"/>
+      <c r="EY33" s="94"/>
+      <c r="EZ33" s="94"/>
+      <c r="FA33" s="94"/>
+      <c r="FB33" s="94"/>
+      <c r="FC33" s="94"/>
+      <c r="FD33" s="94"/>
+      <c r="FE33" s="94"/>
+      <c r="FF33" s="94"/>
+      <c r="FG33" s="94"/>
+      <c r="FH33" s="94"/>
+      <c r="FI33" s="94"/>
+      <c r="FJ33" s="94"/>
+      <c r="FK33" s="94"/>
+      <c r="FL33" s="94"/>
+      <c r="FM33" s="94"/>
+      <c r="FN33" s="94"/>
+      <c r="FO33" s="94"/>
+      <c r="FP33" s="94"/>
+      <c r="FQ33" s="94"/>
+      <c r="FR33" s="94"/>
+      <c r="FS33" s="94"/>
+      <c r="FT33" s="94"/>
+      <c r="FU33" s="94"/>
+      <c r="FV33" s="94"/>
+      <c r="FW33" s="94"/>
+      <c r="FX33" s="94"/>
+      <c r="FY33" s="94"/>
+      <c r="FZ33" s="94"/>
+      <c r="GA33" s="94"/>
+      <c r="GB33" s="94"/>
+      <c r="GC33" s="94"/>
+      <c r="GD33" s="94"/>
+      <c r="GE33" s="94"/>
+      <c r="GF33" s="94"/>
+      <c r="GG33" s="94"/>
+      <c r="GH33" s="94"/>
+      <c r="GI33" s="94"/>
+      <c r="GJ33" s="94"/>
+      <c r="GK33" s="94"/>
+      <c r="GL33" s="94"/>
+    </row>
+    <row r="34" spans="1:194">
+      <c r="A34" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA34" s="94"/>
+      <c r="AB34" s="94"/>
+      <c r="AC34" s="94"/>
+      <c r="AD34" s="94"/>
+      <c r="AE34" s="94"/>
+      <c r="AF34" s="94"/>
+      <c r="AG34" s="94"/>
+      <c r="AH34" s="94"/>
+      <c r="AI34" s="94"/>
+      <c r="AJ34" s="94"/>
+      <c r="AK34" s="94"/>
+      <c r="AL34" s="94"/>
+      <c r="AM34" s="94"/>
+      <c r="AN34" s="94"/>
+      <c r="AO34" s="94"/>
+      <c r="AP34" s="98"/>
+      <c r="AQ34" s="98"/>
+      <c r="AR34" s="98"/>
+      <c r="AS34" s="98"/>
+      <c r="AT34" s="98"/>
+      <c r="AZ34" s="94"/>
+      <c r="BA34" s="94"/>
+      <c r="BB34" s="94"/>
+      <c r="BC34" s="94"/>
+      <c r="BD34" s="94"/>
+      <c r="BE34" s="94"/>
+      <c r="BF34" s="94"/>
+      <c r="BG34" s="94"/>
+      <c r="BH34" s="94"/>
+      <c r="BI34" s="94"/>
+      <c r="BJ34" s="94"/>
+      <c r="BK34" s="94"/>
+      <c r="BL34" s="94"/>
+      <c r="BM34" s="94"/>
+      <c r="BN34" s="94"/>
+      <c r="BO34" s="94"/>
+      <c r="BP34" s="94"/>
+      <c r="BQ34" s="94"/>
+      <c r="BR34" s="94"/>
+      <c r="BS34" s="94"/>
+      <c r="BT34" s="94"/>
+      <c r="BU34" s="94"/>
+      <c r="BV34" s="94"/>
+      <c r="BW34" s="94"/>
+      <c r="BX34" s="94"/>
+      <c r="BY34" s="94"/>
+      <c r="BZ34" s="94"/>
+      <c r="CA34" s="94"/>
+      <c r="CB34" s="94"/>
+      <c r="CC34" s="94"/>
+      <c r="CD34" s="94"/>
+      <c r="CE34" s="94"/>
+      <c r="CF34" s="94"/>
+      <c r="CG34" s="94"/>
+      <c r="CH34" s="94"/>
+      <c r="CI34" s="94"/>
+      <c r="CJ34" s="94"/>
+      <c r="CK34" s="94"/>
+      <c r="CL34" s="94"/>
+      <c r="CM34" s="94"/>
+      <c r="CN34" s="94"/>
+      <c r="CO34" s="94"/>
+      <c r="CP34" s="94"/>
+      <c r="CQ34" s="94"/>
+      <c r="CR34" s="94"/>
+      <c r="CS34" s="94"/>
+      <c r="CT34" s="94"/>
+      <c r="CU34" s="94"/>
+      <c r="CV34" s="94"/>
+      <c r="CW34" s="94"/>
+      <c r="CX34" s="94"/>
+      <c r="CY34" s="94"/>
+      <c r="CZ34" s="94"/>
+      <c r="DA34" s="94"/>
+      <c r="DB34" s="94"/>
+      <c r="DC34" s="94"/>
+      <c r="DD34" s="94"/>
+      <c r="DE34" s="94"/>
+      <c r="DF34" s="94"/>
+      <c r="DG34" s="94"/>
+      <c r="DH34" s="94"/>
+      <c r="DI34" s="94"/>
+      <c r="DJ34" s="94"/>
+      <c r="DK34" s="94"/>
+      <c r="DL34" s="94"/>
+      <c r="DM34" s="94"/>
+      <c r="DN34" s="94"/>
+      <c r="DO34" s="94"/>
+      <c r="DP34" s="94"/>
+      <c r="DQ34" s="94"/>
+      <c r="DR34" s="94"/>
+      <c r="DS34" s="94"/>
+      <c r="DT34" s="94"/>
+      <c r="DU34" s="94"/>
+      <c r="DV34" s="94"/>
+      <c r="DW34" s="94"/>
+      <c r="DX34" s="94"/>
+      <c r="DY34" s="94"/>
+      <c r="DZ34" s="94"/>
+      <c r="EA34" s="94"/>
+      <c r="EB34" s="94"/>
+      <c r="EC34" s="94"/>
+      <c r="ED34" s="94"/>
+      <c r="EE34" s="94"/>
+      <c r="EF34" s="94"/>
+      <c r="EG34" s="94"/>
+      <c r="EH34" s="94"/>
+      <c r="EI34" s="94"/>
+      <c r="EJ34" s="94"/>
+      <c r="EK34" s="94"/>
+      <c r="EL34" s="94"/>
+      <c r="EM34" s="94"/>
+      <c r="EN34" s="94"/>
+      <c r="EO34" s="94"/>
+      <c r="EP34" s="94"/>
+      <c r="EQ34" s="94"/>
+      <c r="ER34" s="94"/>
+      <c r="ES34" s="94"/>
+      <c r="ET34" s="94"/>
+      <c r="EU34" s="94"/>
+      <c r="EV34" s="94"/>
+      <c r="EW34" s="94"/>
+      <c r="EX34" s="94"/>
+      <c r="EY34" s="94"/>
+      <c r="EZ34" s="94"/>
+      <c r="FA34" s="94"/>
+      <c r="FB34" s="94"/>
+      <c r="FC34" s="94"/>
+      <c r="FD34" s="94"/>
+      <c r="FE34" s="94"/>
+      <c r="FF34" s="94"/>
+      <c r="FG34" s="94"/>
+      <c r="FH34" s="94"/>
+      <c r="FI34" s="94"/>
+      <c r="FJ34" s="94"/>
+      <c r="FK34" s="94"/>
+      <c r="FL34" s="94"/>
+      <c r="FM34" s="94"/>
+      <c r="FN34" s="94"/>
+      <c r="FO34" s="94"/>
+      <c r="FP34" s="94"/>
+      <c r="FQ34" s="94"/>
+      <c r="FR34" s="94"/>
+      <c r="FS34" s="94"/>
+      <c r="FT34" s="94"/>
+      <c r="FU34" s="94"/>
+      <c r="FV34" s="94"/>
+      <c r="FW34" s="94"/>
+      <c r="FX34" s="94"/>
+      <c r="FY34" s="94"/>
+      <c r="FZ34" s="94"/>
+      <c r="GA34" s="94"/>
+      <c r="GB34" s="94"/>
+      <c r="GC34" s="94"/>
+      <c r="GD34" s="94"/>
+      <c r="GE34" s="94"/>
+      <c r="GF34" s="94"/>
+      <c r="GG34" s="94"/>
+      <c r="GH34" s="94"/>
+      <c r="GI34" s="94"/>
+      <c r="GJ34" s="94"/>
+      <c r="GK34" s="94"/>
+      <c r="GL34" s="94"/>
+    </row>
+    <row r="35" spans="1:194">
+      <c r="A35" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA35" s="94"/>
+      <c r="AB35" s="94"/>
+      <c r="AC35" s="94"/>
+      <c r="AD35" s="94"/>
+      <c r="AE35" s="94"/>
+      <c r="AF35" s="94"/>
+      <c r="AG35" s="94"/>
+      <c r="AH35" s="94"/>
+      <c r="AI35" s="94"/>
+      <c r="AJ35" s="94"/>
+      <c r="AK35" s="98"/>
+      <c r="AL35" s="98"/>
+      <c r="AM35" s="98"/>
+      <c r="AN35" s="98"/>
+      <c r="AO35" s="98"/>
+      <c r="AP35" s="94"/>
+      <c r="AQ35" s="94"/>
+      <c r="AR35" s="94"/>
+      <c r="AS35" s="94"/>
+      <c r="AT35" s="94"/>
+      <c r="AU35" s="94"/>
+      <c r="AV35" s="94"/>
+      <c r="AW35" s="94"/>
+      <c r="AX35" s="94"/>
+      <c r="AY35" s="94"/>
+      <c r="AZ35" s="94"/>
+      <c r="BA35" s="94"/>
+      <c r="BB35" s="94"/>
+      <c r="BC35" s="94"/>
+      <c r="BD35" s="94"/>
+      <c r="BE35" s="94"/>
+      <c r="BF35" s="94"/>
+      <c r="BG35" s="94"/>
+      <c r="BH35" s="94"/>
+      <c r="BI35" s="94"/>
+      <c r="BJ35" s="94"/>
+      <c r="BK35" s="94"/>
+      <c r="BL35" s="94"/>
+      <c r="BM35" s="94"/>
+      <c r="BN35" s="94"/>
+      <c r="BO35" s="94"/>
+      <c r="BP35" s="94"/>
+      <c r="BQ35" s="94"/>
+      <c r="BR35" s="94"/>
+      <c r="BS35" s="94"/>
+      <c r="BT35" s="94"/>
+      <c r="BU35" s="94"/>
+      <c r="BV35" s="94"/>
+      <c r="BW35" s="94"/>
+      <c r="BX35" s="94"/>
+      <c r="BY35" s="94"/>
+      <c r="BZ35" s="94"/>
+      <c r="CA35" s="94"/>
+      <c r="CB35" s="94"/>
+      <c r="CC35" s="94"/>
+      <c r="CD35" s="94"/>
+      <c r="CE35" s="94"/>
+      <c r="CF35" s="94"/>
+      <c r="CG35" s="94"/>
+      <c r="CH35" s="94"/>
+      <c r="CI35" s="94"/>
+      <c r="CJ35" s="94"/>
+      <c r="CK35" s="94"/>
+      <c r="CL35" s="94"/>
+      <c r="CM35" s="94"/>
+      <c r="CN35" s="94"/>
+      <c r="CO35" s="94"/>
+      <c r="CP35" s="94"/>
+      <c r="CQ35" s="94"/>
+      <c r="CR35" s="94"/>
+      <c r="CS35" s="94"/>
+      <c r="CT35" s="94"/>
+      <c r="CU35" s="94"/>
+      <c r="CV35" s="94"/>
+      <c r="CW35" s="94"/>
+      <c r="CX35" s="94"/>
+      <c r="CY35" s="94"/>
+      <c r="CZ35" s="94"/>
+      <c r="DA35" s="94"/>
+      <c r="DB35" s="94"/>
+      <c r="DC35" s="94"/>
+      <c r="DD35" s="94"/>
+      <c r="DE35" s="94"/>
+      <c r="DF35" s="94"/>
+      <c r="DG35" s="94"/>
+      <c r="DH35" s="94"/>
+      <c r="DI35" s="94"/>
+      <c r="DJ35" s="94"/>
+      <c r="DK35" s="94"/>
+      <c r="DL35" s="94"/>
+      <c r="DM35" s="94"/>
+      <c r="DN35" s="94"/>
+      <c r="DO35" s="94"/>
+      <c r="DP35" s="94"/>
+      <c r="DQ35" s="94"/>
+      <c r="DR35" s="94"/>
+      <c r="DS35" s="94"/>
+      <c r="DT35" s="94"/>
+      <c r="DU35" s="94"/>
+      <c r="DV35" s="94"/>
+      <c r="DW35" s="94"/>
+      <c r="DX35" s="94"/>
+      <c r="DY35" s="94"/>
+      <c r="DZ35" s="94"/>
+      <c r="EA35" s="94"/>
+      <c r="EB35" s="94"/>
+      <c r="EC35" s="94"/>
+      <c r="ED35" s="94"/>
+      <c r="EE35" s="94"/>
+      <c r="EF35" s="94"/>
+      <c r="EG35" s="94"/>
+      <c r="EH35" s="94"/>
+      <c r="EI35" s="94"/>
+      <c r="EJ35" s="94"/>
+      <c r="EK35" s="94"/>
+      <c r="EL35" s="94"/>
+      <c r="EM35" s="94"/>
+      <c r="EN35" s="94"/>
+      <c r="EO35" s="94"/>
+      <c r="EP35" s="94"/>
+      <c r="EQ35" s="94"/>
+      <c r="ER35" s="94"/>
+      <c r="ES35" s="94"/>
+      <c r="ET35" s="94"/>
+      <c r="EU35" s="94"/>
+      <c r="EV35" s="94"/>
+      <c r="EW35" s="94"/>
+      <c r="EX35" s="94"/>
+      <c r="EY35" s="94"/>
+      <c r="EZ35" s="94"/>
+      <c r="FA35" s="94"/>
+      <c r="FB35" s="94"/>
+      <c r="FC35" s="94"/>
+      <c r="FD35" s="94"/>
+      <c r="FE35" s="94"/>
+      <c r="FF35" s="94"/>
+      <c r="FG35" s="94"/>
+      <c r="FH35" s="94"/>
+      <c r="FI35" s="94"/>
+      <c r="FJ35" s="94"/>
+      <c r="FK35" s="94"/>
+      <c r="FL35" s="94"/>
+      <c r="FM35" s="94"/>
+      <c r="FN35" s="94"/>
+      <c r="FO35" s="94"/>
+      <c r="FP35" s="94"/>
+      <c r="FQ35" s="94"/>
+      <c r="FR35" s="94"/>
+      <c r="FS35" s="94"/>
+      <c r="FT35" s="94"/>
+      <c r="FU35" s="94"/>
+      <c r="FV35" s="94"/>
+      <c r="FW35" s="94"/>
+      <c r="FX35" s="94"/>
+      <c r="FY35" s="94"/>
+      <c r="FZ35" s="94"/>
+      <c r="GA35" s="94"/>
+      <c r="GB35" s="94"/>
+      <c r="GC35" s="94"/>
+      <c r="GD35" s="94"/>
+      <c r="GE35" s="94"/>
+      <c r="GF35" s="94"/>
+      <c r="GG35" s="94"/>
+      <c r="GH35" s="94"/>
+      <c r="GI35" s="94"/>
+      <c r="GJ35" s="94"/>
+      <c r="GK35" s="94"/>
+      <c r="GL35" s="94"/>
+    </row>
+    <row r="36" spans="1:194">
+      <c r="A36" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="AK31" s="95"/>
-      <c r="AL31" s="96"/>
-      <c r="AM31" s="96"/>
-      <c r="AN31" s="96"/>
-      <c r="AO31" s="97"/>
+      <c r="AA36" s="94"/>
+      <c r="AB36" s="94"/>
+      <c r="AC36" s="94"/>
+      <c r="AD36" s="94"/>
+      <c r="AE36" s="94"/>
+      <c r="AF36" s="98"/>
+      <c r="AG36" s="98"/>
+      <c r="AH36" s="98"/>
+      <c r="AI36" s="98"/>
+      <c r="AJ36" s="98"/>
+      <c r="AK36" s="94"/>
+      <c r="AL36" s="94"/>
+      <c r="AM36" s="94"/>
+      <c r="AN36" s="94"/>
+      <c r="AO36" s="94"/>
+      <c r="AP36" s="94"/>
+      <c r="AQ36" s="94"/>
+      <c r="AR36" s="94"/>
+      <c r="AS36" s="94"/>
+      <c r="AT36" s="94"/>
+      <c r="AU36" s="94"/>
+      <c r="AV36" s="94"/>
+      <c r="AW36" s="94"/>
+      <c r="AX36" s="94"/>
+      <c r="AY36" s="94"/>
+      <c r="AZ36" s="94"/>
+      <c r="BA36" s="94"/>
+      <c r="BB36" s="94"/>
+      <c r="BC36" s="94"/>
+      <c r="BD36" s="94"/>
+      <c r="BE36" s="94"/>
+      <c r="BF36" s="94"/>
+      <c r="BG36" s="94"/>
+      <c r="BH36" s="94"/>
+      <c r="BI36" s="94"/>
+      <c r="BJ36" s="94"/>
+      <c r="BK36" s="94"/>
+      <c r="BL36" s="94"/>
+      <c r="BM36" s="94"/>
+      <c r="BN36" s="94"/>
+      <c r="BO36" s="94"/>
+      <c r="BP36" s="94"/>
+      <c r="BQ36" s="94"/>
+      <c r="BR36" s="94"/>
+      <c r="BS36" s="94"/>
+      <c r="BT36" s="94"/>
+      <c r="BU36" s="94"/>
+      <c r="BV36" s="94"/>
+      <c r="BW36" s="94"/>
+      <c r="BX36" s="94"/>
+      <c r="BY36" s="94"/>
+      <c r="BZ36" s="94"/>
+      <c r="CA36" s="94"/>
+      <c r="CB36" s="94"/>
+      <c r="CC36" s="94"/>
+      <c r="CD36" s="94"/>
+      <c r="CE36" s="94"/>
+      <c r="CF36" s="94"/>
+      <c r="CG36" s="94"/>
+      <c r="CH36" s="94"/>
+      <c r="CI36" s="94"/>
+      <c r="CJ36" s="94"/>
+      <c r="CK36" s="94"/>
+      <c r="CL36" s="94"/>
+      <c r="CM36" s="94"/>
+      <c r="CN36" s="94"/>
+      <c r="CO36" s="94"/>
+      <c r="CP36" s="94"/>
+      <c r="CQ36" s="94"/>
+      <c r="CR36" s="94"/>
+      <c r="CS36" s="94"/>
+      <c r="CT36" s="94"/>
+      <c r="CU36" s="94"/>
+      <c r="CV36" s="94"/>
+      <c r="CW36" s="94"/>
+      <c r="CX36" s="94"/>
+      <c r="CY36" s="94"/>
+      <c r="CZ36" s="94"/>
+      <c r="DA36" s="94"/>
+      <c r="DB36" s="94"/>
+      <c r="DC36" s="94"/>
+      <c r="DD36" s="94"/>
+      <c r="DE36" s="94"/>
+      <c r="DF36" s="94"/>
+      <c r="DG36" s="94"/>
+      <c r="DH36" s="94"/>
+      <c r="DI36" s="94"/>
+      <c r="DJ36" s="94"/>
+      <c r="DK36" s="94"/>
+      <c r="DL36" s="94"/>
+      <c r="DM36" s="94"/>
+      <c r="DN36" s="94"/>
+      <c r="DO36" s="94"/>
+      <c r="DP36" s="94"/>
+      <c r="DQ36" s="94"/>
+      <c r="DR36" s="94"/>
+      <c r="DS36" s="94"/>
+      <c r="DT36" s="94"/>
+      <c r="DU36" s="94"/>
+      <c r="DV36" s="94"/>
+      <c r="DW36" s="94"/>
+      <c r="DX36" s="94"/>
+      <c r="DY36" s="94"/>
+      <c r="DZ36" s="94"/>
+      <c r="EA36" s="94"/>
+      <c r="EB36" s="94"/>
+      <c r="EC36" s="94"/>
+      <c r="ED36" s="94"/>
+      <c r="EE36" s="94"/>
+      <c r="EF36" s="94"/>
+      <c r="EG36" s="94"/>
+      <c r="EH36" s="94"/>
+      <c r="EI36" s="94"/>
+      <c r="EJ36" s="94"/>
+      <c r="EK36" s="94"/>
+      <c r="EL36" s="94"/>
+      <c r="EM36" s="94"/>
+      <c r="EN36" s="94"/>
+      <c r="EO36" s="94"/>
+      <c r="EP36" s="94"/>
+      <c r="EQ36" s="94"/>
+      <c r="ER36" s="94"/>
+      <c r="ES36" s="94"/>
+      <c r="ET36" s="94"/>
+      <c r="EU36" s="94"/>
+      <c r="EV36" s="94"/>
+      <c r="EW36" s="94"/>
+      <c r="EX36" s="94"/>
+      <c r="EY36" s="94"/>
+      <c r="EZ36" s="94"/>
+      <c r="FA36" s="94"/>
+      <c r="FB36" s="94"/>
+      <c r="FC36" s="94"/>
+      <c r="FD36" s="94"/>
+      <c r="FE36" s="94"/>
+      <c r="FF36" s="94"/>
+      <c r="FG36" s="94"/>
+      <c r="FH36" s="94"/>
+      <c r="FI36" s="94"/>
+      <c r="FJ36" s="94"/>
+      <c r="FK36" s="94"/>
+      <c r="FL36" s="94"/>
+      <c r="FM36" s="94"/>
+      <c r="FN36" s="94"/>
+      <c r="FO36" s="94"/>
+      <c r="FP36" s="94"/>
+      <c r="FQ36" s="94"/>
+      <c r="FR36" s="94"/>
+      <c r="FS36" s="94"/>
+      <c r="FT36" s="94"/>
+      <c r="FU36" s="94"/>
+      <c r="FV36" s="94"/>
+      <c r="FW36" s="94"/>
+      <c r="FX36" s="94"/>
+      <c r="FY36" s="94"/>
+      <c r="FZ36" s="94"/>
+      <c r="GA36" s="94"/>
+      <c r="GB36" s="94"/>
+      <c r="GC36" s="94"/>
+      <c r="GD36" s="94"/>
+      <c r="GE36" s="94"/>
+      <c r="GF36" s="94"/>
+      <c r="GG36" s="94"/>
+      <c r="GH36" s="94"/>
+      <c r="GI36" s="94"/>
+      <c r="GJ36" s="94"/>
+      <c r="GK36" s="94"/>
+      <c r="GL36" s="94"/>
     </row>
-    <row r="32" spans="1:41">
-      <c r="A32" s="67" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK32" s="95"/>
-      <c r="AL32" s="96"/>
-      <c r="AM32" s="96"/>
-      <c r="AN32" s="96"/>
-      <c r="AO32" s="97"/>
-    </row>
-    <row r="33" spans="1:51">
-      <c r="A33" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK33" s="95"/>
-      <c r="AL33" s="96"/>
-      <c r="AM33" s="96"/>
-      <c r="AN33" s="96"/>
-      <c r="AO33" s="97"/>
-    </row>
-    <row r="34" spans="1:51">
-      <c r="A34" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU34" s="95"/>
-      <c r="AV34" s="96"/>
-      <c r="AW34" s="96"/>
-      <c r="AX34" s="96"/>
-      <c r="AY34" s="97"/>
+    <row r="37" spans="1:194">
+      <c r="A37" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA37" s="94"/>
+      <c r="AB37" s="94"/>
+      <c r="AC37" s="94"/>
+      <c r="AD37" s="94"/>
+      <c r="AE37" s="94"/>
+      <c r="AF37" s="98"/>
+      <c r="AG37" s="98"/>
+      <c r="AH37" s="98"/>
+      <c r="AI37" s="98"/>
+      <c r="AJ37" s="98"/>
+      <c r="AK37" s="94"/>
+      <c r="AL37" s="94"/>
+      <c r="AM37" s="94"/>
+      <c r="AN37" s="94"/>
+      <c r="AO37" s="94"/>
+      <c r="AP37" s="94"/>
+      <c r="AQ37" s="94"/>
+      <c r="AR37" s="94"/>
+      <c r="AS37" s="94"/>
+      <c r="AT37" s="94"/>
+      <c r="AU37" s="94"/>
+      <c r="AV37" s="94"/>
+      <c r="AW37" s="94"/>
+      <c r="AX37" s="94"/>
+      <c r="AY37" s="94"/>
+      <c r="AZ37" s="94"/>
+      <c r="BA37" s="94"/>
+      <c r="BB37" s="94"/>
+      <c r="BC37" s="94"/>
+      <c r="BD37" s="94"/>
+      <c r="BE37" s="94"/>
+      <c r="BF37" s="94"/>
+      <c r="BG37" s="94"/>
+      <c r="BH37" s="94"/>
+      <c r="BI37" s="94"/>
+      <c r="BJ37" s="94"/>
+      <c r="BK37" s="94"/>
+      <c r="BL37" s="94"/>
+      <c r="BM37" s="94"/>
+      <c r="BN37" s="94"/>
+      <c r="BO37" s="94"/>
+      <c r="BP37" s="94"/>
+      <c r="BQ37" s="94"/>
+      <c r="BR37" s="94"/>
+      <c r="BS37" s="94"/>
+      <c r="BT37" s="94"/>
+      <c r="BU37" s="94"/>
+      <c r="BV37" s="94"/>
+      <c r="BW37" s="94"/>
+      <c r="BX37" s="94"/>
+      <c r="BY37" s="94"/>
+      <c r="BZ37" s="94"/>
+      <c r="CA37" s="94"/>
+      <c r="CB37" s="94"/>
+      <c r="CC37" s="94"/>
+      <c r="CD37" s="94"/>
+      <c r="CE37" s="94"/>
+      <c r="CF37" s="94"/>
+      <c r="CG37" s="94"/>
+      <c r="CH37" s="94"/>
+      <c r="CI37" s="94"/>
+      <c r="CJ37" s="94"/>
+      <c r="CK37" s="94"/>
+      <c r="CL37" s="94"/>
+      <c r="CM37" s="94"/>
+      <c r="CN37" s="94"/>
+      <c r="CO37" s="94"/>
+      <c r="CP37" s="94"/>
+      <c r="CQ37" s="94"/>
+      <c r="CR37" s="94"/>
+      <c r="CS37" s="94"/>
+      <c r="CT37" s="94"/>
+      <c r="CU37" s="94"/>
+      <c r="CV37" s="94"/>
+      <c r="CW37" s="94"/>
+      <c r="CX37" s="94"/>
+      <c r="CY37" s="94"/>
+      <c r="CZ37" s="94"/>
+      <c r="DA37" s="94"/>
+      <c r="DB37" s="94"/>
+      <c r="DC37" s="94"/>
+      <c r="DD37" s="94"/>
+      <c r="DE37" s="94"/>
+      <c r="DF37" s="94"/>
+      <c r="DG37" s="94"/>
+      <c r="DH37" s="94"/>
+      <c r="DI37" s="94"/>
+      <c r="DJ37" s="94"/>
+      <c r="DK37" s="94"/>
+      <c r="DL37" s="94"/>
+      <c r="DM37" s="94"/>
+      <c r="DN37" s="94"/>
+      <c r="DO37" s="94"/>
+      <c r="DP37" s="94"/>
+      <c r="DQ37" s="94"/>
+      <c r="DR37" s="94"/>
+      <c r="DS37" s="94"/>
+      <c r="DT37" s="94"/>
+      <c r="DU37" s="94"/>
+      <c r="DV37" s="94"/>
+      <c r="DW37" s="94"/>
+      <c r="DX37" s="94"/>
+      <c r="DY37" s="94"/>
+      <c r="DZ37" s="94"/>
+      <c r="EA37" s="94"/>
+      <c r="EB37" s="94"/>
+      <c r="EC37" s="94"/>
+      <c r="ED37" s="94"/>
+      <c r="EE37" s="94"/>
+      <c r="EF37" s="94"/>
+      <c r="EG37" s="94"/>
+      <c r="EH37" s="94"/>
+      <c r="EI37" s="94"/>
+      <c r="EJ37" s="94"/>
+      <c r="EK37" s="94"/>
+      <c r="EL37" s="94"/>
+      <c r="EM37" s="94"/>
+      <c r="EN37" s="94"/>
+      <c r="EO37" s="94"/>
+      <c r="EP37" s="94"/>
+      <c r="EQ37" s="94"/>
+      <c r="ER37" s="94"/>
+      <c r="ES37" s="94"/>
+      <c r="ET37" s="94"/>
+      <c r="EU37" s="94"/>
+      <c r="EV37" s="94"/>
+      <c r="EW37" s="94"/>
+      <c r="EX37" s="94"/>
+      <c r="EY37" s="94"/>
+      <c r="EZ37" s="94"/>
+      <c r="FA37" s="94"/>
+      <c r="FB37" s="94"/>
+      <c r="FC37" s="94"/>
+      <c r="FD37" s="94"/>
+      <c r="FE37" s="94"/>
+      <c r="FF37" s="94"/>
+      <c r="FG37" s="94"/>
+      <c r="FH37" s="94"/>
+      <c r="FI37" s="94"/>
+      <c r="FJ37" s="94"/>
+      <c r="FK37" s="94"/>
+      <c r="FL37" s="94"/>
+      <c r="FM37" s="94"/>
+      <c r="FN37" s="94"/>
+      <c r="FO37" s="94"/>
+      <c r="FP37" s="94"/>
+      <c r="FQ37" s="94"/>
+      <c r="FR37" s="94"/>
+      <c r="FS37" s="94"/>
+      <c r="FT37" s="94"/>
+      <c r="FU37" s="94"/>
+      <c r="FV37" s="94"/>
+      <c r="FW37" s="94"/>
+      <c r="FX37" s="94"/>
+      <c r="FY37" s="94"/>
+      <c r="FZ37" s="94"/>
+      <c r="GA37" s="94"/>
+      <c r="GB37" s="94"/>
+      <c r="GC37" s="94"/>
+      <c r="GD37" s="94"/>
+      <c r="GE37" s="94"/>
+      <c r="GF37" s="94"/>
+      <c r="GG37" s="94"/>
+      <c r="GH37" s="94"/>
+      <c r="GI37" s="94"/>
+      <c r="GJ37" s="94"/>
+      <c r="GK37" s="94"/>
+      <c r="GL37" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="GY1:HC1"/>
-    <mergeCell ref="HD1:HH1"/>
-    <mergeCell ref="HI1:HM1"/>
-    <mergeCell ref="GY2:HC2"/>
-    <mergeCell ref="HD2:HH2"/>
-    <mergeCell ref="HI2:HM2"/>
-    <mergeCell ref="FU2:FY2"/>
-    <mergeCell ref="FZ2:GD2"/>
-    <mergeCell ref="GE2:GI2"/>
-    <mergeCell ref="GJ2:GN2"/>
-    <mergeCell ref="GO2:GS2"/>
-    <mergeCell ref="GT2:GX2"/>
-    <mergeCell ref="EQ2:EU2"/>
-    <mergeCell ref="EV2:EZ2"/>
-    <mergeCell ref="FA2:FE2"/>
-    <mergeCell ref="FF2:FJ2"/>
-    <mergeCell ref="FK2:FO2"/>
-    <mergeCell ref="FP2:FT2"/>
-    <mergeCell ref="DM2:DQ2"/>
-    <mergeCell ref="DR2:DV2"/>
-    <mergeCell ref="DW2:EA2"/>
-    <mergeCell ref="EB2:EF2"/>
-    <mergeCell ref="EG2:EK2"/>
+    <mergeCell ref="AF2:AJ2"/>
+    <mergeCell ref="AK2:AO2"/>
+    <mergeCell ref="AP2:AT2"/>
+    <mergeCell ref="AU2:AY2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AU1:AY1"/>
+    <mergeCell ref="AZ1:BD1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="BO1:BS1"/>
+    <mergeCell ref="BT1:BX1"/>
+    <mergeCell ref="AZ2:BD2"/>
+    <mergeCell ref="BE2:BI2"/>
+    <mergeCell ref="BJ2:BN2"/>
+    <mergeCell ref="BO2:BS2"/>
+    <mergeCell ref="BT2:BX2"/>
+    <mergeCell ref="BE1:BI1"/>
+    <mergeCell ref="EB1:EF1"/>
+    <mergeCell ref="BY1:CC1"/>
+    <mergeCell ref="CD1:CH1"/>
+    <mergeCell ref="CI1:CM1"/>
+    <mergeCell ref="CN1:CR1"/>
+    <mergeCell ref="CS1:CW1"/>
+    <mergeCell ref="CX1:DB1"/>
+    <mergeCell ref="DC1:DG1"/>
+    <mergeCell ref="DH1:DL1"/>
+    <mergeCell ref="DM1:DQ1"/>
+    <mergeCell ref="DR1:DV1"/>
+    <mergeCell ref="DW1:EA1"/>
+    <mergeCell ref="GJ1:GN1"/>
+    <mergeCell ref="EG1:EK1"/>
+    <mergeCell ref="EL1:EP1"/>
+    <mergeCell ref="EQ1:EU1"/>
+    <mergeCell ref="EV1:EZ1"/>
+    <mergeCell ref="FA1:FE1"/>
+    <mergeCell ref="FF1:FJ1"/>
     <mergeCell ref="EL2:EP2"/>
     <mergeCell ref="GO1:GS1"/>
     <mergeCell ref="GT1:GX1"/>
@@ -5426,55 +10784,29 @@
     <mergeCell ref="FU1:FY1"/>
     <mergeCell ref="FZ1:GD1"/>
     <mergeCell ref="GE1:GI1"/>
-    <mergeCell ref="GJ1:GN1"/>
-    <mergeCell ref="EG1:EK1"/>
-    <mergeCell ref="EL1:EP1"/>
-    <mergeCell ref="EQ1:EU1"/>
-    <mergeCell ref="EV1:EZ1"/>
-    <mergeCell ref="FA1:FE1"/>
-    <mergeCell ref="FF1:FJ1"/>
-    <mergeCell ref="DC1:DG1"/>
-    <mergeCell ref="DH1:DL1"/>
-    <mergeCell ref="DM1:DQ1"/>
-    <mergeCell ref="DR1:DV1"/>
-    <mergeCell ref="DW1:EA1"/>
-    <mergeCell ref="EB1:EF1"/>
-    <mergeCell ref="BY1:CC1"/>
-    <mergeCell ref="CD1:CH1"/>
-    <mergeCell ref="CI1:CM1"/>
-    <mergeCell ref="CN1:CR1"/>
-    <mergeCell ref="CS1:CW1"/>
-    <mergeCell ref="CX1:DB1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="BO1:BS1"/>
-    <mergeCell ref="BT1:BX1"/>
-    <mergeCell ref="AZ2:BD2"/>
-    <mergeCell ref="BE2:BI2"/>
-    <mergeCell ref="BJ2:BN2"/>
-    <mergeCell ref="BO2:BS2"/>
-    <mergeCell ref="BT2:BX2"/>
-    <mergeCell ref="AF1:AJ1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="AU1:AY1"/>
-    <mergeCell ref="AZ1:BD1"/>
-    <mergeCell ref="BE1:BI1"/>
-    <mergeCell ref="AF2:AJ2"/>
-    <mergeCell ref="AK2:AO2"/>
-    <mergeCell ref="AP2:AT2"/>
-    <mergeCell ref="AU2:AY2"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="DM2:DQ2"/>
+    <mergeCell ref="DR2:DV2"/>
+    <mergeCell ref="DW2:EA2"/>
+    <mergeCell ref="EB2:EF2"/>
+    <mergeCell ref="EG2:EK2"/>
+    <mergeCell ref="GT2:GX2"/>
+    <mergeCell ref="EQ2:EU2"/>
+    <mergeCell ref="EV2:EZ2"/>
+    <mergeCell ref="FA2:FE2"/>
+    <mergeCell ref="FF2:FJ2"/>
+    <mergeCell ref="FK2:FO2"/>
+    <mergeCell ref="FP2:FT2"/>
+    <mergeCell ref="FU2:FY2"/>
+    <mergeCell ref="FZ2:GD2"/>
+    <mergeCell ref="GE2:GI2"/>
+    <mergeCell ref="GJ2:GN2"/>
+    <mergeCell ref="GO2:GS2"/>
+    <mergeCell ref="GY1:HC1"/>
+    <mergeCell ref="HD1:HH1"/>
+    <mergeCell ref="HI1:HM1"/>
+    <mergeCell ref="GY2:HC2"/>
+    <mergeCell ref="HD2:HH2"/>
+    <mergeCell ref="HI2:HM2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/0_Projektorga/RoadMap.xlsx
+++ b/0_Projektorga/RoadMap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janbantle/Documents/GitHub/Studienarbeit/0_Projektorga/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F34151-F7EA-4E4D-B634-DF2BB6AD71E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE05C4E-23B4-464A-B932-DDD592868C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{FA9784DD-23F6-4C9A-9C04-5F94D8053CAD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="100">
   <si>
     <t xml:space="preserve">Oktober </t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>Fertigung Riemenrad I</t>
+  </si>
+  <si>
+    <t>Anforderungsanalyse Mechanik</t>
   </si>
 </sst>
 </file>
@@ -1179,45 +1182,6 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1263,16 +1227,55 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3780,24 +3783,24 @@
   <sheetData>
     <row r="1" spans="1:14" ht="16">
       <c r="A1" s="23"/>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="82" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="85" t="s">
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="86"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="73"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="15">
@@ -3902,26 +3905,26 @@
       <c r="A5" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="78" t="s">
+      <c r="C5" s="92"/>
+      <c r="D5" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="81"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="74" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="12"/>
@@ -3939,7 +3942,7 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A7" s="88"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="12"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -3955,7 +3958,7 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A8" s="89"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="12"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -3971,7 +3974,7 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="77" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="13"/>
@@ -3989,7 +3992,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A10" s="91"/>
+      <c r="A10" s="78"/>
       <c r="B10" s="13"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -4005,7 +4008,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A11" s="92"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="13"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -4021,7 +4024,7 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="85" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="14"/>
@@ -4039,7 +4042,7 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A13" s="71"/>
+      <c r="A13" s="86"/>
       <c r="B13" s="14"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -4055,7 +4058,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A14" s="72"/>
+      <c r="A14" s="87"/>
       <c r="B14" s="14"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -4071,7 +4074,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="88" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="5"/>
@@ -4089,7 +4092,7 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A16" s="74"/>
+      <c r="A16" s="89"/>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -4105,7 +4108,7 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="16" thickBot="1">
-      <c r="A17" s="75"/>
+      <c r="A17" s="90"/>
       <c r="B17" s="20"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -4121,7 +4124,7 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="82" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="32"/>
@@ -4138,7 +4141,7 @@
       <c r="M18" s="34"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="68"/>
+      <c r="A19" s="83"/>
       <c r="B19" s="32"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
@@ -4153,7 +4156,7 @@
       <c r="M19" s="34"/>
     </row>
     <row r="20" spans="1:14" ht="15" thickBot="1">
-      <c r="A20" s="69"/>
+      <c r="A20" s="84"/>
       <c r="B20" s="35"/>
       <c r="C20" s="36"/>
       <c r="D20" s="36"/>
@@ -4169,17 +4172,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:K5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="L5:M5"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:K5"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="B6:J14">
@@ -4246,11 +4249,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08215EA3-8C9C-604B-8B92-D34B0C342221}">
-  <dimension ref="A1:HM37"/>
+  <dimension ref="A1:HM38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" workbookViewId="0">
       <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AK12" sqref="AK12"/>
+      <selection pane="topRight" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5" defaultRowHeight="14"/>
@@ -4282,357 +4285,357 @@
   <sheetData>
     <row r="1" spans="1:221" s="41" customFormat="1">
       <c r="A1" s="38"/>
-      <c r="B1" s="98">
+      <c r="B1" s="95">
         <v>44473</v>
       </c>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98">
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95">
         <f>B1+7</f>
         <v>44480</v>
       </c>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98">
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95">
         <f t="shared" ref="L1" si="0">G1+7</f>
         <v>44487</v>
       </c>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98">
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95">
         <f t="shared" ref="Q1" si="1">L1+7</f>
         <v>44494</v>
       </c>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="98">
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95">
         <f t="shared" ref="V1" si="2">Q1+7</f>
         <v>44501</v>
       </c>
-      <c r="W1" s="98"/>
-      <c r="X1" s="98"/>
-      <c r="Y1" s="98"/>
-      <c r="Z1" s="98"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95"/>
       <c r="AA1" s="99">
         <f t="shared" ref="AA1" si="3">V1+7</f>
         <v>44508</v>
       </c>
-      <c r="AB1" s="98"/>
-      <c r="AC1" s="98"/>
-      <c r="AD1" s="98"/>
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="95"/>
+      <c r="AD1" s="95"/>
       <c r="AE1" s="100"/>
       <c r="AF1" s="99">
         <f t="shared" ref="AF1" si="4">AA1+7</f>
         <v>44515</v>
       </c>
-      <c r="AG1" s="98"/>
-      <c r="AH1" s="98"/>
-      <c r="AI1" s="98"/>
+      <c r="AG1" s="95"/>
+      <c r="AH1" s="95"/>
+      <c r="AI1" s="95"/>
       <c r="AJ1" s="100"/>
       <c r="AK1" s="99">
         <f t="shared" ref="AK1" si="5">AF1+7</f>
         <v>44522</v>
       </c>
-      <c r="AL1" s="98"/>
-      <c r="AM1" s="98"/>
-      <c r="AN1" s="98"/>
+      <c r="AL1" s="95"/>
+      <c r="AM1" s="95"/>
+      <c r="AN1" s="95"/>
       <c r="AO1" s="100"/>
       <c r="AP1" s="99">
         <f t="shared" ref="AP1" si="6">AK1+7</f>
         <v>44529</v>
       </c>
-      <c r="AQ1" s="98"/>
-      <c r="AR1" s="98"/>
-      <c r="AS1" s="98"/>
+      <c r="AQ1" s="95"/>
+      <c r="AR1" s="95"/>
+      <c r="AS1" s="95"/>
       <c r="AT1" s="100"/>
       <c r="AU1" s="99">
         <f t="shared" ref="AU1" si="7">AP1+7</f>
         <v>44536</v>
       </c>
-      <c r="AV1" s="98"/>
-      <c r="AW1" s="98"/>
-      <c r="AX1" s="98"/>
+      <c r="AV1" s="95"/>
+      <c r="AW1" s="95"/>
+      <c r="AX1" s="95"/>
       <c r="AY1" s="100"/>
       <c r="AZ1" s="99">
         <f t="shared" ref="AZ1" si="8">AU1+7</f>
         <v>44543</v>
       </c>
-      <c r="BA1" s="98"/>
-      <c r="BB1" s="98"/>
-      <c r="BC1" s="98"/>
+      <c r="BA1" s="95"/>
+      <c r="BB1" s="95"/>
+      <c r="BC1" s="95"/>
       <c r="BD1" s="100"/>
       <c r="BE1" s="99">
         <f t="shared" ref="BE1" si="9">AZ1+7</f>
         <v>44550</v>
       </c>
-      <c r="BF1" s="98"/>
-      <c r="BG1" s="98"/>
-      <c r="BH1" s="98"/>
+      <c r="BF1" s="95"/>
+      <c r="BG1" s="95"/>
+      <c r="BH1" s="95"/>
       <c r="BI1" s="100"/>
-      <c r="BJ1" s="98">
+      <c r="BJ1" s="95">
         <f t="shared" ref="BJ1" si="10">BE1+7</f>
         <v>44557</v>
       </c>
-      <c r="BK1" s="98"/>
-      <c r="BL1" s="98"/>
-      <c r="BM1" s="98"/>
-      <c r="BN1" s="98"/>
-      <c r="BO1" s="98">
+      <c r="BK1" s="95"/>
+      <c r="BL1" s="95"/>
+      <c r="BM1" s="95"/>
+      <c r="BN1" s="95"/>
+      <c r="BO1" s="95">
         <f t="shared" ref="BO1" si="11">BJ1+7</f>
         <v>44564</v>
       </c>
-      <c r="BP1" s="98"/>
-      <c r="BQ1" s="98"/>
-      <c r="BR1" s="98"/>
-      <c r="BS1" s="98"/>
-      <c r="BT1" s="98">
+      <c r="BP1" s="95"/>
+      <c r="BQ1" s="95"/>
+      <c r="BR1" s="95"/>
+      <c r="BS1" s="95"/>
+      <c r="BT1" s="95">
         <f t="shared" ref="BT1" si="12">BO1+7</f>
         <v>44571</v>
       </c>
-      <c r="BU1" s="98"/>
-      <c r="BV1" s="98"/>
-      <c r="BW1" s="98"/>
-      <c r="BX1" s="98"/>
-      <c r="BY1" s="98">
+      <c r="BU1" s="95"/>
+      <c r="BV1" s="95"/>
+      <c r="BW1" s="95"/>
+      <c r="BX1" s="95"/>
+      <c r="BY1" s="95">
         <f t="shared" ref="BY1" si="13">BT1+7</f>
         <v>44578</v>
       </c>
-      <c r="BZ1" s="98"/>
-      <c r="CA1" s="98"/>
-      <c r="CB1" s="98"/>
-      <c r="CC1" s="98"/>
-      <c r="CD1" s="98">
+      <c r="BZ1" s="95"/>
+      <c r="CA1" s="95"/>
+      <c r="CB1" s="95"/>
+      <c r="CC1" s="95"/>
+      <c r="CD1" s="95">
         <f t="shared" ref="CD1" si="14">BY1+7</f>
         <v>44585</v>
       </c>
-      <c r="CE1" s="98"/>
-      <c r="CF1" s="98"/>
-      <c r="CG1" s="98"/>
-      <c r="CH1" s="98"/>
-      <c r="CI1" s="98">
+      <c r="CE1" s="95"/>
+      <c r="CF1" s="95"/>
+      <c r="CG1" s="95"/>
+      <c r="CH1" s="95"/>
+      <c r="CI1" s="95">
         <f t="shared" ref="CI1" si="15">CD1+7</f>
         <v>44592</v>
       </c>
-      <c r="CJ1" s="98"/>
-      <c r="CK1" s="98"/>
-      <c r="CL1" s="98"/>
-      <c r="CM1" s="98"/>
-      <c r="CN1" s="98">
+      <c r="CJ1" s="95"/>
+      <c r="CK1" s="95"/>
+      <c r="CL1" s="95"/>
+      <c r="CM1" s="95"/>
+      <c r="CN1" s="95">
         <f t="shared" ref="CN1" si="16">CI1+7</f>
         <v>44599</v>
       </c>
-      <c r="CO1" s="98"/>
-      <c r="CP1" s="98"/>
-      <c r="CQ1" s="98"/>
-      <c r="CR1" s="98"/>
-      <c r="CS1" s="98">
+      <c r="CO1" s="95"/>
+      <c r="CP1" s="95"/>
+      <c r="CQ1" s="95"/>
+      <c r="CR1" s="95"/>
+      <c r="CS1" s="95">
         <f t="shared" ref="CS1" si="17">CN1+7</f>
         <v>44606</v>
       </c>
-      <c r="CT1" s="98"/>
-      <c r="CU1" s="98"/>
-      <c r="CV1" s="98"/>
-      <c r="CW1" s="98"/>
-      <c r="CX1" s="98">
+      <c r="CT1" s="95"/>
+      <c r="CU1" s="95"/>
+      <c r="CV1" s="95"/>
+      <c r="CW1" s="95"/>
+      <c r="CX1" s="95">
         <f t="shared" ref="CX1" si="18">CS1+7</f>
         <v>44613</v>
       </c>
-      <c r="CY1" s="98"/>
-      <c r="CZ1" s="98"/>
-      <c r="DA1" s="98"/>
-      <c r="DB1" s="98"/>
-      <c r="DC1" s="98">
+      <c r="CY1" s="95"/>
+      <c r="CZ1" s="95"/>
+      <c r="DA1" s="95"/>
+      <c r="DB1" s="95"/>
+      <c r="DC1" s="95">
         <f t="shared" ref="DC1" si="19">CX1+7</f>
         <v>44620</v>
       </c>
-      <c r="DD1" s="98"/>
-      <c r="DE1" s="98"/>
-      <c r="DF1" s="98"/>
-      <c r="DG1" s="98"/>
-      <c r="DH1" s="98">
+      <c r="DD1" s="95"/>
+      <c r="DE1" s="95"/>
+      <c r="DF1" s="95"/>
+      <c r="DG1" s="95"/>
+      <c r="DH1" s="95">
         <f t="shared" ref="DH1" si="20">DC1+7</f>
         <v>44627</v>
       </c>
-      <c r="DI1" s="98"/>
-      <c r="DJ1" s="98"/>
-      <c r="DK1" s="98"/>
-      <c r="DL1" s="98"/>
-      <c r="DM1" s="98">
+      <c r="DI1" s="95"/>
+      <c r="DJ1" s="95"/>
+      <c r="DK1" s="95"/>
+      <c r="DL1" s="95"/>
+      <c r="DM1" s="95">
         <f t="shared" ref="DM1" si="21">DH1+7</f>
         <v>44634</v>
       </c>
-      <c r="DN1" s="98"/>
-      <c r="DO1" s="98"/>
-      <c r="DP1" s="98"/>
-      <c r="DQ1" s="98"/>
-      <c r="DR1" s="98">
+      <c r="DN1" s="95"/>
+      <c r="DO1" s="95"/>
+      <c r="DP1" s="95"/>
+      <c r="DQ1" s="95"/>
+      <c r="DR1" s="95">
         <f t="shared" ref="DR1" si="22">DM1+7</f>
         <v>44641</v>
       </c>
-      <c r="DS1" s="98"/>
-      <c r="DT1" s="98"/>
-      <c r="DU1" s="98"/>
-      <c r="DV1" s="98"/>
-      <c r="DW1" s="98">
+      <c r="DS1" s="95"/>
+      <c r="DT1" s="95"/>
+      <c r="DU1" s="95"/>
+      <c r="DV1" s="95"/>
+      <c r="DW1" s="95">
         <f t="shared" ref="DW1" si="23">DR1+7</f>
         <v>44648</v>
       </c>
-      <c r="DX1" s="98"/>
-      <c r="DY1" s="98"/>
-      <c r="DZ1" s="98"/>
-      <c r="EA1" s="98"/>
-      <c r="EB1" s="98">
+      <c r="DX1" s="95"/>
+      <c r="DY1" s="95"/>
+      <c r="DZ1" s="95"/>
+      <c r="EA1" s="95"/>
+      <c r="EB1" s="95">
         <f t="shared" ref="EB1" si="24">DW1+7</f>
         <v>44655</v>
       </c>
-      <c r="EC1" s="98"/>
-      <c r="ED1" s="98"/>
-      <c r="EE1" s="98"/>
-      <c r="EF1" s="98"/>
-      <c r="EG1" s="98">
+      <c r="EC1" s="95"/>
+      <c r="ED1" s="95"/>
+      <c r="EE1" s="95"/>
+      <c r="EF1" s="95"/>
+      <c r="EG1" s="95">
         <f t="shared" ref="EG1" si="25">EB1+7</f>
         <v>44662</v>
       </c>
-      <c r="EH1" s="98"/>
-      <c r="EI1" s="98"/>
-      <c r="EJ1" s="98"/>
-      <c r="EK1" s="98"/>
-      <c r="EL1" s="98">
+      <c r="EH1" s="95"/>
+      <c r="EI1" s="95"/>
+      <c r="EJ1" s="95"/>
+      <c r="EK1" s="95"/>
+      <c r="EL1" s="95">
         <f t="shared" ref="EL1" si="26">EG1+7</f>
         <v>44669</v>
       </c>
-      <c r="EM1" s="98"/>
-      <c r="EN1" s="98"/>
-      <c r="EO1" s="98"/>
-      <c r="EP1" s="98"/>
-      <c r="EQ1" s="98">
+      <c r="EM1" s="95"/>
+      <c r="EN1" s="95"/>
+      <c r="EO1" s="95"/>
+      <c r="EP1" s="95"/>
+      <c r="EQ1" s="95">
         <f t="shared" ref="EQ1" si="27">EL1+7</f>
         <v>44676</v>
       </c>
-      <c r="ER1" s="98"/>
-      <c r="ES1" s="98"/>
-      <c r="ET1" s="98"/>
-      <c r="EU1" s="98"/>
-      <c r="EV1" s="98">
+      <c r="ER1" s="95"/>
+      <c r="ES1" s="95"/>
+      <c r="ET1" s="95"/>
+      <c r="EU1" s="95"/>
+      <c r="EV1" s="95">
         <f t="shared" ref="EV1" si="28">EQ1+7</f>
         <v>44683</v>
       </c>
-      <c r="EW1" s="98"/>
-      <c r="EX1" s="98"/>
-      <c r="EY1" s="98"/>
-      <c r="EZ1" s="98"/>
-      <c r="FA1" s="98">
+      <c r="EW1" s="95"/>
+      <c r="EX1" s="95"/>
+      <c r="EY1" s="95"/>
+      <c r="EZ1" s="95"/>
+      <c r="FA1" s="95">
         <f t="shared" ref="FA1" si="29">EV1+7</f>
         <v>44690</v>
       </c>
-      <c r="FB1" s="98"/>
-      <c r="FC1" s="98"/>
-      <c r="FD1" s="98"/>
-      <c r="FE1" s="98"/>
-      <c r="FF1" s="98">
+      <c r="FB1" s="95"/>
+      <c r="FC1" s="95"/>
+      <c r="FD1" s="95"/>
+      <c r="FE1" s="95"/>
+      <c r="FF1" s="95">
         <f t="shared" ref="FF1" si="30">FA1+7</f>
         <v>44697</v>
       </c>
-      <c r="FG1" s="98"/>
-      <c r="FH1" s="98"/>
-      <c r="FI1" s="98"/>
-      <c r="FJ1" s="98"/>
-      <c r="FK1" s="98">
+      <c r="FG1" s="95"/>
+      <c r="FH1" s="95"/>
+      <c r="FI1" s="95"/>
+      <c r="FJ1" s="95"/>
+      <c r="FK1" s="95">
         <f t="shared" ref="FK1" si="31">FF1+7</f>
         <v>44704</v>
       </c>
-      <c r="FL1" s="98"/>
-      <c r="FM1" s="98"/>
-      <c r="FN1" s="98"/>
-      <c r="FO1" s="98"/>
-      <c r="FP1" s="98">
+      <c r="FL1" s="95"/>
+      <c r="FM1" s="95"/>
+      <c r="FN1" s="95"/>
+      <c r="FO1" s="95"/>
+      <c r="FP1" s="95">
         <f t="shared" ref="FP1" si="32">FK1+7</f>
         <v>44711</v>
       </c>
-      <c r="FQ1" s="98"/>
-      <c r="FR1" s="98"/>
-      <c r="FS1" s="98"/>
-      <c r="FT1" s="98"/>
-      <c r="FU1" s="98">
+      <c r="FQ1" s="95"/>
+      <c r="FR1" s="95"/>
+      <c r="FS1" s="95"/>
+      <c r="FT1" s="95"/>
+      <c r="FU1" s="95">
         <f t="shared" ref="FU1" si="33">FP1+7</f>
         <v>44718</v>
       </c>
-      <c r="FV1" s="98"/>
-      <c r="FW1" s="98"/>
-      <c r="FX1" s="98"/>
-      <c r="FY1" s="98"/>
-      <c r="FZ1" s="98">
+      <c r="FV1" s="95"/>
+      <c r="FW1" s="95"/>
+      <c r="FX1" s="95"/>
+      <c r="FY1" s="95"/>
+      <c r="FZ1" s="95">
         <f t="shared" ref="FZ1" si="34">FU1+7</f>
         <v>44725</v>
       </c>
-      <c r="GA1" s="98"/>
-      <c r="GB1" s="98"/>
-      <c r="GC1" s="98"/>
-      <c r="GD1" s="98"/>
-      <c r="GE1" s="98">
+      <c r="GA1" s="95"/>
+      <c r="GB1" s="95"/>
+      <c r="GC1" s="95"/>
+      <c r="GD1" s="95"/>
+      <c r="GE1" s="95">
         <f t="shared" ref="GE1" si="35">FZ1+7</f>
         <v>44732</v>
       </c>
-      <c r="GF1" s="98"/>
-      <c r="GG1" s="98"/>
-      <c r="GH1" s="98"/>
-      <c r="GI1" s="98"/>
-      <c r="GJ1" s="98">
+      <c r="GF1" s="95"/>
+      <c r="GG1" s="95"/>
+      <c r="GH1" s="95"/>
+      <c r="GI1" s="95"/>
+      <c r="GJ1" s="95">
         <f t="shared" ref="GJ1" si="36">GE1+7</f>
         <v>44739</v>
       </c>
-      <c r="GK1" s="98"/>
-      <c r="GL1" s="98"/>
-      <c r="GM1" s="98"/>
-      <c r="GN1" s="98"/>
-      <c r="GO1" s="98">
+      <c r="GK1" s="95"/>
+      <c r="GL1" s="95"/>
+      <c r="GM1" s="95"/>
+      <c r="GN1" s="95"/>
+      <c r="GO1" s="95">
         <f t="shared" ref="GO1" si="37">GJ1+7</f>
         <v>44746</v>
       </c>
-      <c r="GP1" s="98"/>
-      <c r="GQ1" s="98"/>
-      <c r="GR1" s="98"/>
-      <c r="GS1" s="98"/>
-      <c r="GT1" s="98">
+      <c r="GP1" s="95"/>
+      <c r="GQ1" s="95"/>
+      <c r="GR1" s="95"/>
+      <c r="GS1" s="95"/>
+      <c r="GT1" s="95">
         <f t="shared" ref="GT1" si="38">GO1+7</f>
         <v>44753</v>
       </c>
-      <c r="GU1" s="98"/>
-      <c r="GV1" s="98"/>
-      <c r="GW1" s="98"/>
-      <c r="GX1" s="98"/>
-      <c r="GY1" s="98">
+      <c r="GU1" s="95"/>
+      <c r="GV1" s="95"/>
+      <c r="GW1" s="95"/>
+      <c r="GX1" s="95"/>
+      <c r="GY1" s="95">
         <f t="shared" ref="GY1" si="39">GT1+7</f>
         <v>44760</v>
       </c>
-      <c r="GZ1" s="98"/>
-      <c r="HA1" s="98"/>
-      <c r="HB1" s="98"/>
-      <c r="HC1" s="98"/>
-      <c r="HD1" s="98">
+      <c r="GZ1" s="95"/>
+      <c r="HA1" s="95"/>
+      <c r="HB1" s="95"/>
+      <c r="HC1" s="95"/>
+      <c r="HD1" s="95">
         <f t="shared" ref="HD1" si="40">GY1+7</f>
         <v>44767</v>
       </c>
-      <c r="HE1" s="98"/>
-      <c r="HF1" s="98"/>
-      <c r="HG1" s="98"/>
-      <c r="HH1" s="98"/>
-      <c r="HI1" s="98">
+      <c r="HE1" s="95"/>
+      <c r="HF1" s="95"/>
+      <c r="HG1" s="95"/>
+      <c r="HH1" s="95"/>
+      <c r="HI1" s="95">
         <f t="shared" ref="HI1" si="41">HD1+7</f>
         <v>44774</v>
       </c>
-      <c r="HJ1" s="98"/>
-      <c r="HK1" s="98"/>
-      <c r="HL1" s="98"/>
-      <c r="HM1" s="98"/>
+      <c r="HJ1" s="95"/>
+      <c r="HK1" s="95"/>
+      <c r="HL1" s="95"/>
+      <c r="HM1" s="95"/>
     </row>
     <row r="2" spans="1:221" s="43" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="42"/>
@@ -4671,55 +4674,55 @@
       <c r="X2" s="96"/>
       <c r="Y2" s="96"/>
       <c r="Z2" s="96"/>
-      <c r="AA2" s="95" t="s">
+      <c r="AA2" s="97" t="s">
         <v>4</v>
       </c>
       <c r="AB2" s="96"/>
       <c r="AC2" s="96"/>
       <c r="AD2" s="96"/>
-      <c r="AE2" s="97"/>
-      <c r="AF2" s="95" t="s">
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="97" t="s">
         <v>5</v>
       </c>
       <c r="AG2" s="96"/>
       <c r="AH2" s="96"/>
       <c r="AI2" s="96"/>
-      <c r="AJ2" s="97"/>
-      <c r="AK2" s="95" t="s">
+      <c r="AJ2" s="98"/>
+      <c r="AK2" s="97" t="s">
         <v>6</v>
       </c>
       <c r="AL2" s="96"/>
       <c r="AM2" s="96"/>
       <c r="AN2" s="96"/>
-      <c r="AO2" s="97"/>
-      <c r="AP2" s="95" t="s">
+      <c r="AO2" s="98"/>
+      <c r="AP2" s="97" t="s">
         <v>7</v>
       </c>
       <c r="AQ2" s="96"/>
       <c r="AR2" s="96"/>
       <c r="AS2" s="96"/>
-      <c r="AT2" s="97"/>
-      <c r="AU2" s="95" t="s">
+      <c r="AT2" s="98"/>
+      <c r="AU2" s="97" t="s">
         <v>8</v>
       </c>
       <c r="AV2" s="96"/>
       <c r="AW2" s="96"/>
       <c r="AX2" s="96"/>
-      <c r="AY2" s="97"/>
-      <c r="AZ2" s="95" t="s">
+      <c r="AY2" s="98"/>
+      <c r="AZ2" s="97" t="s">
         <v>9</v>
       </c>
       <c r="BA2" s="96"/>
       <c r="BB2" s="96"/>
       <c r="BC2" s="96"/>
-      <c r="BD2" s="97"/>
-      <c r="BE2" s="95" t="s">
+      <c r="BD2" s="98"/>
+      <c r="BE2" s="97" t="s">
         <v>10</v>
       </c>
       <c r="BF2" s="96"/>
       <c r="BG2" s="96"/>
       <c r="BH2" s="96"/>
-      <c r="BI2" s="97"/>
+      <c r="BI2" s="98"/>
       <c r="BJ2" s="96" t="s">
         <v>54</v>
       </c>
@@ -10720,31 +10723,67 @@
       <c r="GK37" s="60"/>
       <c r="GL37" s="60"/>
     </row>
+    <row r="38" spans="1:194">
+      <c r="A38" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK38" s="64"/>
+      <c r="AL38" s="64"/>
+      <c r="AM38" s="64"/>
+      <c r="AN38" s="64"/>
+      <c r="AO38" s="64"/>
+    </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="GY1:HC1"/>
-    <mergeCell ref="HD1:HH1"/>
-    <mergeCell ref="HI1:HM1"/>
-    <mergeCell ref="GY2:HC2"/>
-    <mergeCell ref="HD2:HH2"/>
-    <mergeCell ref="HI2:HM2"/>
-    <mergeCell ref="GT2:GX2"/>
-    <mergeCell ref="EQ2:EU2"/>
-    <mergeCell ref="EV2:EZ2"/>
-    <mergeCell ref="FA2:FE2"/>
-    <mergeCell ref="FF2:FJ2"/>
-    <mergeCell ref="FK2:FO2"/>
-    <mergeCell ref="FP2:FT2"/>
-    <mergeCell ref="FU2:FY2"/>
-    <mergeCell ref="FZ2:GD2"/>
-    <mergeCell ref="GE2:GI2"/>
-    <mergeCell ref="GJ2:GN2"/>
-    <mergeCell ref="GO2:GS2"/>
-    <mergeCell ref="DM2:DQ2"/>
-    <mergeCell ref="DR2:DV2"/>
-    <mergeCell ref="DW2:EA2"/>
-    <mergeCell ref="EB2:EF2"/>
-    <mergeCell ref="EG2:EK2"/>
+    <mergeCell ref="AF2:AJ2"/>
+    <mergeCell ref="AK2:AO2"/>
+    <mergeCell ref="AP2:AT2"/>
+    <mergeCell ref="AU2:AY2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AU1:AY1"/>
+    <mergeCell ref="AZ1:BD1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="BO1:BS1"/>
+    <mergeCell ref="BT1:BX1"/>
+    <mergeCell ref="AZ2:BD2"/>
+    <mergeCell ref="BE2:BI2"/>
+    <mergeCell ref="BJ2:BN2"/>
+    <mergeCell ref="BO2:BS2"/>
+    <mergeCell ref="BT2:BX2"/>
+    <mergeCell ref="BE1:BI1"/>
+    <mergeCell ref="EB1:EF1"/>
+    <mergeCell ref="BY1:CC1"/>
+    <mergeCell ref="CD1:CH1"/>
+    <mergeCell ref="CI1:CM1"/>
+    <mergeCell ref="CN1:CR1"/>
+    <mergeCell ref="CS1:CW1"/>
+    <mergeCell ref="CX1:DB1"/>
+    <mergeCell ref="DC1:DG1"/>
+    <mergeCell ref="DH1:DL1"/>
+    <mergeCell ref="DM1:DQ1"/>
+    <mergeCell ref="DR1:DV1"/>
+    <mergeCell ref="DW1:EA1"/>
+    <mergeCell ref="GJ1:GN1"/>
+    <mergeCell ref="EG1:EK1"/>
+    <mergeCell ref="EL1:EP1"/>
+    <mergeCell ref="EQ1:EU1"/>
+    <mergeCell ref="EV1:EZ1"/>
+    <mergeCell ref="FA1:FE1"/>
+    <mergeCell ref="FF1:FJ1"/>
     <mergeCell ref="EL2:EP2"/>
     <mergeCell ref="GO1:GS1"/>
     <mergeCell ref="GT1:GX1"/>
@@ -10761,55 +10800,29 @@
     <mergeCell ref="FU1:FY1"/>
     <mergeCell ref="FZ1:GD1"/>
     <mergeCell ref="GE1:GI1"/>
-    <mergeCell ref="GJ1:GN1"/>
-    <mergeCell ref="EG1:EK1"/>
-    <mergeCell ref="EL1:EP1"/>
-    <mergeCell ref="EQ1:EU1"/>
-    <mergeCell ref="EV1:EZ1"/>
-    <mergeCell ref="FA1:FE1"/>
-    <mergeCell ref="FF1:FJ1"/>
-    <mergeCell ref="EB1:EF1"/>
-    <mergeCell ref="BY1:CC1"/>
-    <mergeCell ref="CD1:CH1"/>
-    <mergeCell ref="CI1:CM1"/>
-    <mergeCell ref="CN1:CR1"/>
-    <mergeCell ref="CS1:CW1"/>
-    <mergeCell ref="CX1:DB1"/>
-    <mergeCell ref="DC1:DG1"/>
-    <mergeCell ref="DH1:DL1"/>
-    <mergeCell ref="DM1:DQ1"/>
-    <mergeCell ref="DR1:DV1"/>
-    <mergeCell ref="DW1:EA1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="BO1:BS1"/>
-    <mergeCell ref="BT1:BX1"/>
-    <mergeCell ref="AZ2:BD2"/>
-    <mergeCell ref="BE2:BI2"/>
-    <mergeCell ref="BJ2:BN2"/>
-    <mergeCell ref="BO2:BS2"/>
-    <mergeCell ref="BT2:BX2"/>
-    <mergeCell ref="BE1:BI1"/>
-    <mergeCell ref="AF1:AJ1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="AU1:AY1"/>
-    <mergeCell ref="AZ1:BD1"/>
-    <mergeCell ref="AF2:AJ2"/>
-    <mergeCell ref="AK2:AO2"/>
-    <mergeCell ref="AP2:AT2"/>
-    <mergeCell ref="AU2:AY2"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="DM2:DQ2"/>
+    <mergeCell ref="DR2:DV2"/>
+    <mergeCell ref="DW2:EA2"/>
+    <mergeCell ref="EB2:EF2"/>
+    <mergeCell ref="EG2:EK2"/>
+    <mergeCell ref="GT2:GX2"/>
+    <mergeCell ref="EQ2:EU2"/>
+    <mergeCell ref="EV2:EZ2"/>
+    <mergeCell ref="FA2:FE2"/>
+    <mergeCell ref="FF2:FJ2"/>
+    <mergeCell ref="FK2:FO2"/>
+    <mergeCell ref="FP2:FT2"/>
+    <mergeCell ref="FU2:FY2"/>
+    <mergeCell ref="FZ2:GD2"/>
+    <mergeCell ref="GE2:GI2"/>
+    <mergeCell ref="GJ2:GN2"/>
+    <mergeCell ref="GO2:GS2"/>
+    <mergeCell ref="GY1:HC1"/>
+    <mergeCell ref="HD1:HH1"/>
+    <mergeCell ref="HI1:HM1"/>
+    <mergeCell ref="GY2:HC2"/>
+    <mergeCell ref="HD2:HH2"/>
+    <mergeCell ref="HI2:HM2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/0_Projektorga/RoadMap.xlsx
+++ b/0_Projektorga/RoadMap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janbantle/Documents/GitHub/Studienarbeit/0_Projektorga/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE05C4E-23B4-464A-B932-DDD592868C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002B90D3-84FD-9F46-8D97-066F8D6D95E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{FA9784DD-23F6-4C9A-9C04-5F94D8053CAD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="100">
   <si>
     <t xml:space="preserve">Oktober </t>
   </si>
@@ -309,9 +309,6 @@
     <t>Stand d. Technik</t>
   </si>
   <si>
-    <t xml:space="preserve">Spannrolle </t>
-  </si>
-  <si>
     <t>Ultraschallensoren testen</t>
   </si>
   <si>
@@ -334,6 +331,9 @@
   </si>
   <si>
     <t>Anforderungsanalyse Mechanik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verschiebung Motor </t>
   </si>
 </sst>
 </file>
@@ -1182,6 +1182,45 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1227,55 +1266,16 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3783,24 +3783,24 @@
   <sheetData>
     <row r="1" spans="1:14" ht="16">
       <c r="A1" s="23"/>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="69" t="s">
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72" t="s">
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="73"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="86"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="15">
@@ -3905,26 +3905,26 @@
       <c r="A5" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="93" t="s">
+      <c r="C5" s="77"/>
+      <c r="D5" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="81"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="94"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="87" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="12"/>
@@ -3942,7 +3942,7 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A7" s="75"/>
+      <c r="A7" s="88"/>
       <c r="B7" s="12"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -3958,7 +3958,7 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A8" s="76"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="12"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -3974,7 +3974,7 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="90" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="13"/>
@@ -3992,7 +3992,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A10" s="78"/>
+      <c r="A10" s="91"/>
       <c r="B10" s="13"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -4008,7 +4008,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A11" s="79"/>
+      <c r="A11" s="92"/>
       <c r="B11" s="13"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -4024,7 +4024,7 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="70" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="14"/>
@@ -4042,7 +4042,7 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A13" s="86"/>
+      <c r="A13" s="71"/>
       <c r="B13" s="14"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -4058,7 +4058,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A14" s="87"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="14"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -4074,7 +4074,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="73" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="5"/>
@@ -4092,7 +4092,7 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A16" s="89"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -4108,7 +4108,7 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="16" thickBot="1">
-      <c r="A17" s="90"/>
+      <c r="A17" s="75"/>
       <c r="B17" s="20"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -4124,7 +4124,7 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="82" t="s">
+      <c r="A18" s="67" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="32"/>
@@ -4141,7 +4141,7 @@
       <c r="M18" s="34"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="83"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="32"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
@@ -4156,7 +4156,7 @@
       <c r="M19" s="34"/>
     </row>
     <row r="20" spans="1:14" ht="15" thickBot="1">
-      <c r="A20" s="84"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="35"/>
       <c r="C20" s="36"/>
       <c r="D20" s="36"/>
@@ -4172,17 +4172,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:K5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="L5:M5"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:K5"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="B6:J14">
@@ -4251,393 +4251,394 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08215EA3-8C9C-604B-8B92-D34B0C342221}">
   <dimension ref="A1:HM38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CI6" sqref="CI6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="30" style="39" customWidth="1"/>
     <col min="2" max="26" width="1.6640625" customWidth="1"/>
-    <col min="27" max="27" width="3.5" style="49"/>
-    <col min="28" max="30" width="3.5" style="50"/>
-    <col min="31" max="31" width="3.5" style="51"/>
-    <col min="32" max="32" width="3.5" style="49"/>
-    <col min="33" max="35" width="3.5" style="50"/>
-    <col min="36" max="36" width="3.5" style="51"/>
-    <col min="37" max="37" width="3.5" style="49"/>
-    <col min="38" max="40" width="3.5" style="50"/>
-    <col min="41" max="41" width="3.5" style="51"/>
-    <col min="42" max="42" width="3.5" style="49"/>
-    <col min="43" max="45" width="3.5" style="50"/>
-    <col min="46" max="46" width="3.5" style="51"/>
-    <col min="47" max="47" width="3.5" style="49"/>
-    <col min="48" max="50" width="3.5" style="50"/>
-    <col min="51" max="51" width="3.5" style="51"/>
-    <col min="52" max="52" width="3.5" style="49"/>
-    <col min="53" max="55" width="3.5" style="50"/>
-    <col min="56" max="56" width="3.5" style="51"/>
-    <col min="57" max="57" width="3.5" style="49"/>
-    <col min="58" max="60" width="3.5" style="50"/>
-    <col min="61" max="61" width="3.5" style="51"/>
+    <col min="27" max="27" width="1.83203125" style="49" customWidth="1"/>
+    <col min="28" max="30" width="1.83203125" style="50" customWidth="1"/>
+    <col min="31" max="31" width="1.83203125" style="51" customWidth="1"/>
+    <col min="32" max="32" width="1.83203125" style="49" customWidth="1"/>
+    <col min="33" max="35" width="1.83203125" style="50" customWidth="1"/>
+    <col min="36" max="36" width="1.83203125" style="51" customWidth="1"/>
+    <col min="37" max="37" width="1.83203125" style="49" customWidth="1"/>
+    <col min="38" max="40" width="1.83203125" style="50" customWidth="1"/>
+    <col min="41" max="41" width="1.83203125" style="51" customWidth="1"/>
+    <col min="42" max="42" width="1.83203125" style="49" customWidth="1"/>
+    <col min="43" max="45" width="1.83203125" style="50" customWidth="1"/>
+    <col min="46" max="46" width="1.83203125" style="51" customWidth="1"/>
+    <col min="47" max="47" width="1.83203125" style="49" customWidth="1"/>
+    <col min="48" max="50" width="1.83203125" style="50" customWidth="1"/>
+    <col min="51" max="51" width="1.83203125" style="51" customWidth="1"/>
+    <col min="52" max="52" width="1.83203125" style="49" customWidth="1"/>
+    <col min="53" max="55" width="1.83203125" style="50" customWidth="1"/>
+    <col min="56" max="56" width="1.83203125" style="51" customWidth="1"/>
+    <col min="57" max="57" width="1.83203125" style="49" customWidth="1"/>
+    <col min="58" max="60" width="1.83203125" style="50" customWidth="1"/>
+    <col min="61" max="61" width="1.83203125" style="51" customWidth="1"/>
+    <col min="62" max="68" width="1.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:221" s="41" customFormat="1">
+    <row r="1" spans="1:221" s="41" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="38"/>
-      <c r="B1" s="95">
+      <c r="B1" s="98">
         <v>44473</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95">
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98">
         <f>B1+7</f>
         <v>44480</v>
       </c>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95">
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98">
         <f t="shared" ref="L1" si="0">G1+7</f>
         <v>44487</v>
       </c>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95">
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98">
         <f t="shared" ref="Q1" si="1">L1+7</f>
         <v>44494</v>
       </c>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95">
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98">
         <f t="shared" ref="V1" si="2">Q1+7</f>
         <v>44501</v>
       </c>
-      <c r="W1" s="95"/>
-      <c r="X1" s="95"/>
-      <c r="Y1" s="95"/>
-      <c r="Z1" s="95"/>
+      <c r="W1" s="98"/>
+      <c r="X1" s="98"/>
+      <c r="Y1" s="98"/>
+      <c r="Z1" s="98"/>
       <c r="AA1" s="99">
         <f t="shared" ref="AA1" si="3">V1+7</f>
         <v>44508</v>
       </c>
-      <c r="AB1" s="95"/>
-      <c r="AC1" s="95"/>
-      <c r="AD1" s="95"/>
+      <c r="AB1" s="98"/>
+      <c r="AC1" s="98"/>
+      <c r="AD1" s="98"/>
       <c r="AE1" s="100"/>
       <c r="AF1" s="99">
         <f t="shared" ref="AF1" si="4">AA1+7</f>
         <v>44515</v>
       </c>
-      <c r="AG1" s="95"/>
-      <c r="AH1" s="95"/>
-      <c r="AI1" s="95"/>
+      <c r="AG1" s="98"/>
+      <c r="AH1" s="98"/>
+      <c r="AI1" s="98"/>
       <c r="AJ1" s="100"/>
       <c r="AK1" s="99">
         <f t="shared" ref="AK1" si="5">AF1+7</f>
         <v>44522</v>
       </c>
-      <c r="AL1" s="95"/>
-      <c r="AM1" s="95"/>
-      <c r="AN1" s="95"/>
+      <c r="AL1" s="98"/>
+      <c r="AM1" s="98"/>
+      <c r="AN1" s="98"/>
       <c r="AO1" s="100"/>
       <c r="AP1" s="99">
         <f t="shared" ref="AP1" si="6">AK1+7</f>
         <v>44529</v>
       </c>
-      <c r="AQ1" s="95"/>
-      <c r="AR1" s="95"/>
-      <c r="AS1" s="95"/>
+      <c r="AQ1" s="98"/>
+      <c r="AR1" s="98"/>
+      <c r="AS1" s="98"/>
       <c r="AT1" s="100"/>
       <c r="AU1" s="99">
         <f t="shared" ref="AU1" si="7">AP1+7</f>
         <v>44536</v>
       </c>
-      <c r="AV1" s="95"/>
-      <c r="AW1" s="95"/>
-      <c r="AX1" s="95"/>
+      <c r="AV1" s="98"/>
+      <c r="AW1" s="98"/>
+      <c r="AX1" s="98"/>
       <c r="AY1" s="100"/>
       <c r="AZ1" s="99">
         <f t="shared" ref="AZ1" si="8">AU1+7</f>
         <v>44543</v>
       </c>
-      <c r="BA1" s="95"/>
-      <c r="BB1" s="95"/>
-      <c r="BC1" s="95"/>
+      <c r="BA1" s="98"/>
+      <c r="BB1" s="98"/>
+      <c r="BC1" s="98"/>
       <c r="BD1" s="100"/>
       <c r="BE1" s="99">
         <f t="shared" ref="BE1" si="9">AZ1+7</f>
         <v>44550</v>
       </c>
-      <c r="BF1" s="95"/>
-      <c r="BG1" s="95"/>
-      <c r="BH1" s="95"/>
+      <c r="BF1" s="98"/>
+      <c r="BG1" s="98"/>
+      <c r="BH1" s="98"/>
       <c r="BI1" s="100"/>
-      <c r="BJ1" s="95">
+      <c r="BJ1" s="98">
         <f t="shared" ref="BJ1" si="10">BE1+7</f>
         <v>44557</v>
       </c>
-      <c r="BK1" s="95"/>
-      <c r="BL1" s="95"/>
-      <c r="BM1" s="95"/>
-      <c r="BN1" s="95"/>
-      <c r="BO1" s="95">
+      <c r="BK1" s="98"/>
+      <c r="BL1" s="98"/>
+      <c r="BM1" s="98"/>
+      <c r="BN1" s="98"/>
+      <c r="BO1" s="98">
         <f t="shared" ref="BO1" si="11">BJ1+7</f>
         <v>44564</v>
       </c>
-      <c r="BP1" s="95"/>
-      <c r="BQ1" s="95"/>
-      <c r="BR1" s="95"/>
-      <c r="BS1" s="95"/>
-      <c r="BT1" s="95">
+      <c r="BP1" s="98"/>
+      <c r="BQ1" s="98"/>
+      <c r="BR1" s="98"/>
+      <c r="BS1" s="98"/>
+      <c r="BT1" s="98">
         <f t="shared" ref="BT1" si="12">BO1+7</f>
         <v>44571</v>
       </c>
-      <c r="BU1" s="95"/>
-      <c r="BV1" s="95"/>
-      <c r="BW1" s="95"/>
-      <c r="BX1" s="95"/>
-      <c r="BY1" s="95">
+      <c r="BU1" s="98"/>
+      <c r="BV1" s="98"/>
+      <c r="BW1" s="98"/>
+      <c r="BX1" s="98"/>
+      <c r="BY1" s="98">
         <f t="shared" ref="BY1" si="13">BT1+7</f>
         <v>44578</v>
       </c>
-      <c r="BZ1" s="95"/>
-      <c r="CA1" s="95"/>
-      <c r="CB1" s="95"/>
-      <c r="CC1" s="95"/>
-      <c r="CD1" s="95">
+      <c r="BZ1" s="98"/>
+      <c r="CA1" s="98"/>
+      <c r="CB1" s="98"/>
+      <c r="CC1" s="98"/>
+      <c r="CD1" s="98">
         <f t="shared" ref="CD1" si="14">BY1+7</f>
         <v>44585</v>
       </c>
-      <c r="CE1" s="95"/>
-      <c r="CF1" s="95"/>
-      <c r="CG1" s="95"/>
-      <c r="CH1" s="95"/>
-      <c r="CI1" s="95">
+      <c r="CE1" s="98"/>
+      <c r="CF1" s="98"/>
+      <c r="CG1" s="98"/>
+      <c r="CH1" s="98"/>
+      <c r="CI1" s="98">
         <f t="shared" ref="CI1" si="15">CD1+7</f>
         <v>44592</v>
       </c>
-      <c r="CJ1" s="95"/>
-      <c r="CK1" s="95"/>
-      <c r="CL1" s="95"/>
-      <c r="CM1" s="95"/>
-      <c r="CN1" s="95">
+      <c r="CJ1" s="98"/>
+      <c r="CK1" s="98"/>
+      <c r="CL1" s="98"/>
+      <c r="CM1" s="98"/>
+      <c r="CN1" s="98">
         <f t="shared" ref="CN1" si="16">CI1+7</f>
         <v>44599</v>
       </c>
-      <c r="CO1" s="95"/>
-      <c r="CP1" s="95"/>
-      <c r="CQ1" s="95"/>
-      <c r="CR1" s="95"/>
-      <c r="CS1" s="95">
+      <c r="CO1" s="98"/>
+      <c r="CP1" s="98"/>
+      <c r="CQ1" s="98"/>
+      <c r="CR1" s="98"/>
+      <c r="CS1" s="98">
         <f t="shared" ref="CS1" si="17">CN1+7</f>
         <v>44606</v>
       </c>
-      <c r="CT1" s="95"/>
-      <c r="CU1" s="95"/>
-      <c r="CV1" s="95"/>
-      <c r="CW1" s="95"/>
-      <c r="CX1" s="95">
+      <c r="CT1" s="98"/>
+      <c r="CU1" s="98"/>
+      <c r="CV1" s="98"/>
+      <c r="CW1" s="98"/>
+      <c r="CX1" s="98">
         <f t="shared" ref="CX1" si="18">CS1+7</f>
         <v>44613</v>
       </c>
-      <c r="CY1" s="95"/>
-      <c r="CZ1" s="95"/>
-      <c r="DA1" s="95"/>
-      <c r="DB1" s="95"/>
-      <c r="DC1" s="95">
+      <c r="CY1" s="98"/>
+      <c r="CZ1" s="98"/>
+      <c r="DA1" s="98"/>
+      <c r="DB1" s="98"/>
+      <c r="DC1" s="98">
         <f t="shared" ref="DC1" si="19">CX1+7</f>
         <v>44620</v>
       </c>
-      <c r="DD1" s="95"/>
-      <c r="DE1" s="95"/>
-      <c r="DF1" s="95"/>
-      <c r="DG1" s="95"/>
-      <c r="DH1" s="95">
+      <c r="DD1" s="98"/>
+      <c r="DE1" s="98"/>
+      <c r="DF1" s="98"/>
+      <c r="DG1" s="98"/>
+      <c r="DH1" s="98">
         <f t="shared" ref="DH1" si="20">DC1+7</f>
         <v>44627</v>
       </c>
-      <c r="DI1" s="95"/>
-      <c r="DJ1" s="95"/>
-      <c r="DK1" s="95"/>
-      <c r="DL1" s="95"/>
-      <c r="DM1" s="95">
+      <c r="DI1" s="98"/>
+      <c r="DJ1" s="98"/>
+      <c r="DK1" s="98"/>
+      <c r="DL1" s="98"/>
+      <c r="DM1" s="98">
         <f t="shared" ref="DM1" si="21">DH1+7</f>
         <v>44634</v>
       </c>
-      <c r="DN1" s="95"/>
-      <c r="DO1" s="95"/>
-      <c r="DP1" s="95"/>
-      <c r="DQ1" s="95"/>
-      <c r="DR1" s="95">
+      <c r="DN1" s="98"/>
+      <c r="DO1" s="98"/>
+      <c r="DP1" s="98"/>
+      <c r="DQ1" s="98"/>
+      <c r="DR1" s="98">
         <f t="shared" ref="DR1" si="22">DM1+7</f>
         <v>44641</v>
       </c>
-      <c r="DS1" s="95"/>
-      <c r="DT1" s="95"/>
-      <c r="DU1" s="95"/>
-      <c r="DV1" s="95"/>
-      <c r="DW1" s="95">
+      <c r="DS1" s="98"/>
+      <c r="DT1" s="98"/>
+      <c r="DU1" s="98"/>
+      <c r="DV1" s="98"/>
+      <c r="DW1" s="98">
         <f t="shared" ref="DW1" si="23">DR1+7</f>
         <v>44648</v>
       </c>
-      <c r="DX1" s="95"/>
-      <c r="DY1" s="95"/>
-      <c r="DZ1" s="95"/>
-      <c r="EA1" s="95"/>
-      <c r="EB1" s="95">
+      <c r="DX1" s="98"/>
+      <c r="DY1" s="98"/>
+      <c r="DZ1" s="98"/>
+      <c r="EA1" s="98"/>
+      <c r="EB1" s="98">
         <f t="shared" ref="EB1" si="24">DW1+7</f>
         <v>44655</v>
       </c>
-      <c r="EC1" s="95"/>
-      <c r="ED1" s="95"/>
-      <c r="EE1" s="95"/>
-      <c r="EF1" s="95"/>
-      <c r="EG1" s="95">
+      <c r="EC1" s="98"/>
+      <c r="ED1" s="98"/>
+      <c r="EE1" s="98"/>
+      <c r="EF1" s="98"/>
+      <c r="EG1" s="98">
         <f t="shared" ref="EG1" si="25">EB1+7</f>
         <v>44662</v>
       </c>
-      <c r="EH1" s="95"/>
-      <c r="EI1" s="95"/>
-      <c r="EJ1" s="95"/>
-      <c r="EK1" s="95"/>
-      <c r="EL1" s="95">
+      <c r="EH1" s="98"/>
+      <c r="EI1" s="98"/>
+      <c r="EJ1" s="98"/>
+      <c r="EK1" s="98"/>
+      <c r="EL1" s="98">
         <f t="shared" ref="EL1" si="26">EG1+7</f>
         <v>44669</v>
       </c>
-      <c r="EM1" s="95"/>
-      <c r="EN1" s="95"/>
-      <c r="EO1" s="95"/>
-      <c r="EP1" s="95"/>
-      <c r="EQ1" s="95">
+      <c r="EM1" s="98"/>
+      <c r="EN1" s="98"/>
+      <c r="EO1" s="98"/>
+      <c r="EP1" s="98"/>
+      <c r="EQ1" s="98">
         <f t="shared" ref="EQ1" si="27">EL1+7</f>
         <v>44676</v>
       </c>
-      <c r="ER1" s="95"/>
-      <c r="ES1" s="95"/>
-      <c r="ET1" s="95"/>
-      <c r="EU1" s="95"/>
-      <c r="EV1" s="95">
+      <c r="ER1" s="98"/>
+      <c r="ES1" s="98"/>
+      <c r="ET1" s="98"/>
+      <c r="EU1" s="98"/>
+      <c r="EV1" s="98">
         <f t="shared" ref="EV1" si="28">EQ1+7</f>
         <v>44683</v>
       </c>
-      <c r="EW1" s="95"/>
-      <c r="EX1" s="95"/>
-      <c r="EY1" s="95"/>
-      <c r="EZ1" s="95"/>
-      <c r="FA1" s="95">
+      <c r="EW1" s="98"/>
+      <c r="EX1" s="98"/>
+      <c r="EY1" s="98"/>
+      <c r="EZ1" s="98"/>
+      <c r="FA1" s="98">
         <f t="shared" ref="FA1" si="29">EV1+7</f>
         <v>44690</v>
       </c>
-      <c r="FB1" s="95"/>
-      <c r="FC1" s="95"/>
-      <c r="FD1" s="95"/>
-      <c r="FE1" s="95"/>
-      <c r="FF1" s="95">
+      <c r="FB1" s="98"/>
+      <c r="FC1" s="98"/>
+      <c r="FD1" s="98"/>
+      <c r="FE1" s="98"/>
+      <c r="FF1" s="98">
         <f t="shared" ref="FF1" si="30">FA1+7</f>
         <v>44697</v>
       </c>
-      <c r="FG1" s="95"/>
-      <c r="FH1" s="95"/>
-      <c r="FI1" s="95"/>
-      <c r="FJ1" s="95"/>
-      <c r="FK1" s="95">
+      <c r="FG1" s="98"/>
+      <c r="FH1" s="98"/>
+      <c r="FI1" s="98"/>
+      <c r="FJ1" s="98"/>
+      <c r="FK1" s="98">
         <f t="shared" ref="FK1" si="31">FF1+7</f>
         <v>44704</v>
       </c>
-      <c r="FL1" s="95"/>
-      <c r="FM1" s="95"/>
-      <c r="FN1" s="95"/>
-      <c r="FO1" s="95"/>
-      <c r="FP1" s="95">
+      <c r="FL1" s="98"/>
+      <c r="FM1" s="98"/>
+      <c r="FN1" s="98"/>
+      <c r="FO1" s="98"/>
+      <c r="FP1" s="98">
         <f t="shared" ref="FP1" si="32">FK1+7</f>
         <v>44711</v>
       </c>
-      <c r="FQ1" s="95"/>
-      <c r="FR1" s="95"/>
-      <c r="FS1" s="95"/>
-      <c r="FT1" s="95"/>
-      <c r="FU1" s="95">
+      <c r="FQ1" s="98"/>
+      <c r="FR1" s="98"/>
+      <c r="FS1" s="98"/>
+      <c r="FT1" s="98"/>
+      <c r="FU1" s="98">
         <f t="shared" ref="FU1" si="33">FP1+7</f>
         <v>44718</v>
       </c>
-      <c r="FV1" s="95"/>
-      <c r="FW1" s="95"/>
-      <c r="FX1" s="95"/>
-      <c r="FY1" s="95"/>
-      <c r="FZ1" s="95">
+      <c r="FV1" s="98"/>
+      <c r="FW1" s="98"/>
+      <c r="FX1" s="98"/>
+      <c r="FY1" s="98"/>
+      <c r="FZ1" s="98">
         <f t="shared" ref="FZ1" si="34">FU1+7</f>
         <v>44725</v>
       </c>
-      <c r="GA1" s="95"/>
-      <c r="GB1" s="95"/>
-      <c r="GC1" s="95"/>
-      <c r="GD1" s="95"/>
-      <c r="GE1" s="95">
+      <c r="GA1" s="98"/>
+      <c r="GB1" s="98"/>
+      <c r="GC1" s="98"/>
+      <c r="GD1" s="98"/>
+      <c r="GE1" s="98">
         <f t="shared" ref="GE1" si="35">FZ1+7</f>
         <v>44732</v>
       </c>
-      <c r="GF1" s="95"/>
-      <c r="GG1" s="95"/>
-      <c r="GH1" s="95"/>
-      <c r="GI1" s="95"/>
-      <c r="GJ1" s="95">
+      <c r="GF1" s="98"/>
+      <c r="GG1" s="98"/>
+      <c r="GH1" s="98"/>
+      <c r="GI1" s="98"/>
+      <c r="GJ1" s="98">
         <f t="shared" ref="GJ1" si="36">GE1+7</f>
         <v>44739</v>
       </c>
-      <c r="GK1" s="95"/>
-      <c r="GL1" s="95"/>
-      <c r="GM1" s="95"/>
-      <c r="GN1" s="95"/>
-      <c r="GO1" s="95">
+      <c r="GK1" s="98"/>
+      <c r="GL1" s="98"/>
+      <c r="GM1" s="98"/>
+      <c r="GN1" s="98"/>
+      <c r="GO1" s="98">
         <f t="shared" ref="GO1" si="37">GJ1+7</f>
         <v>44746</v>
       </c>
-      <c r="GP1" s="95"/>
-      <c r="GQ1" s="95"/>
-      <c r="GR1" s="95"/>
-      <c r="GS1" s="95"/>
-      <c r="GT1" s="95">
+      <c r="GP1" s="98"/>
+      <c r="GQ1" s="98"/>
+      <c r="GR1" s="98"/>
+      <c r="GS1" s="98"/>
+      <c r="GT1" s="98">
         <f t="shared" ref="GT1" si="38">GO1+7</f>
         <v>44753</v>
       </c>
-      <c r="GU1" s="95"/>
-      <c r="GV1" s="95"/>
-      <c r="GW1" s="95"/>
-      <c r="GX1" s="95"/>
-      <c r="GY1" s="95">
+      <c r="GU1" s="98"/>
+      <c r="GV1" s="98"/>
+      <c r="GW1" s="98"/>
+      <c r="GX1" s="98"/>
+      <c r="GY1" s="98">
         <f t="shared" ref="GY1" si="39">GT1+7</f>
         <v>44760</v>
       </c>
-      <c r="GZ1" s="95"/>
-      <c r="HA1" s="95"/>
-      <c r="HB1" s="95"/>
-      <c r="HC1" s="95"/>
-      <c r="HD1" s="95">
+      <c r="GZ1" s="98"/>
+      <c r="HA1" s="98"/>
+      <c r="HB1" s="98"/>
+      <c r="HC1" s="98"/>
+      <c r="HD1" s="98">
         <f t="shared" ref="HD1" si="40">GY1+7</f>
         <v>44767</v>
       </c>
-      <c r="HE1" s="95"/>
-      <c r="HF1" s="95"/>
-      <c r="HG1" s="95"/>
-      <c r="HH1" s="95"/>
-      <c r="HI1" s="95">
+      <c r="HE1" s="98"/>
+      <c r="HF1" s="98"/>
+      <c r="HG1" s="98"/>
+      <c r="HH1" s="98"/>
+      <c r="HI1" s="98">
         <f t="shared" ref="HI1" si="41">HD1+7</f>
         <v>44774</v>
       </c>
-      <c r="HJ1" s="95"/>
-      <c r="HK1" s="95"/>
-      <c r="HL1" s="95"/>
-      <c r="HM1" s="95"/>
+      <c r="HJ1" s="98"/>
+      <c r="HK1" s="98"/>
+      <c r="HL1" s="98"/>
+      <c r="HM1" s="98"/>
     </row>
-    <row r="2" spans="1:221" s="43" customFormat="1" ht="15" thickBot="1">
+    <row r="2" spans="1:221" s="43" customFormat="1" ht="12" customHeight="1" thickBot="1">
       <c r="A2" s="42"/>
       <c r="B2" s="96" t="s">
         <v>11</v>
@@ -4674,55 +4675,55 @@
       <c r="X2" s="96"/>
       <c r="Y2" s="96"/>
       <c r="Z2" s="96"/>
-      <c r="AA2" s="97" t="s">
+      <c r="AA2" s="95" t="s">
         <v>4</v>
       </c>
       <c r="AB2" s="96"/>
       <c r="AC2" s="96"/>
       <c r="AD2" s="96"/>
-      <c r="AE2" s="98"/>
-      <c r="AF2" s="97" t="s">
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="95" t="s">
         <v>5</v>
       </c>
       <c r="AG2" s="96"/>
       <c r="AH2" s="96"/>
       <c r="AI2" s="96"/>
-      <c r="AJ2" s="98"/>
-      <c r="AK2" s="97" t="s">
+      <c r="AJ2" s="97"/>
+      <c r="AK2" s="95" t="s">
         <v>6</v>
       </c>
       <c r="AL2" s="96"/>
       <c r="AM2" s="96"/>
       <c r="AN2" s="96"/>
-      <c r="AO2" s="98"/>
-      <c r="AP2" s="97" t="s">
+      <c r="AO2" s="97"/>
+      <c r="AP2" s="95" t="s">
         <v>7</v>
       </c>
       <c r="AQ2" s="96"/>
       <c r="AR2" s="96"/>
       <c r="AS2" s="96"/>
-      <c r="AT2" s="98"/>
-      <c r="AU2" s="97" t="s">
+      <c r="AT2" s="97"/>
+      <c r="AU2" s="95" t="s">
         <v>8</v>
       </c>
       <c r="AV2" s="96"/>
       <c r="AW2" s="96"/>
       <c r="AX2" s="96"/>
-      <c r="AY2" s="98"/>
-      <c r="AZ2" s="97" t="s">
+      <c r="AY2" s="97"/>
+      <c r="AZ2" s="95" t="s">
         <v>9</v>
       </c>
       <c r="BA2" s="96"/>
       <c r="BB2" s="96"/>
       <c r="BC2" s="96"/>
-      <c r="BD2" s="98"/>
-      <c r="BE2" s="97" t="s">
+      <c r="BD2" s="97"/>
+      <c r="BE2" s="95" t="s">
         <v>10</v>
       </c>
       <c r="BF2" s="96"/>
       <c r="BG2" s="96"/>
       <c r="BH2" s="96"/>
-      <c r="BI2" s="98"/>
+      <c r="BI2" s="97"/>
       <c r="BJ2" s="96" t="s">
         <v>54</v>
       </c>
@@ -4948,7 +4949,7 @@
       <c r="HL2" s="96"/>
       <c r="HM2" s="96"/>
     </row>
-    <row r="3" spans="1:221" s="47" customFormat="1" ht="15" thickBot="1">
+    <row r="3" spans="1:221" s="47" customFormat="1" ht="12" customHeight="1" thickBot="1">
       <c r="A3" s="44" t="s">
         <v>85</v>
       </c>
@@ -4980,7 +4981,9 @@
       <c r="AB3" s="53"/>
       <c r="AC3" s="53"/>
       <c r="AD3" s="53"/>
-      <c r="AE3" s="54"/>
+      <c r="AE3" s="54" t="s">
+        <v>94</v>
+      </c>
       <c r="AF3" s="55"/>
       <c r="AG3" s="56"/>
       <c r="AH3" s="56"/>
@@ -5005,7 +5008,9 @@
       <c r="BA3" s="53"/>
       <c r="BB3" s="53"/>
       <c r="BC3" s="53"/>
-      <c r="BD3" s="59"/>
+      <c r="BD3" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="BE3" s="55"/>
       <c r="BF3" s="56"/>
       <c r="BG3" s="56"/>
@@ -5172,7 +5177,7 @@
       <c r="HL3" s="45"/>
       <c r="HM3" s="45"/>
     </row>
-    <row r="4" spans="1:221">
+    <row r="4" spans="1:221" ht="12" customHeight="1">
       <c r="AA4" s="60"/>
       <c r="AB4" s="60"/>
       <c r="AC4" s="60"/>
@@ -5342,7 +5347,7 @@
       <c r="GK4" s="60"/>
       <c r="GL4" s="60"/>
     </row>
-    <row r="5" spans="1:221">
+    <row r="5" spans="1:221" ht="12" customHeight="1">
       <c r="A5" s="40" t="s">
         <v>48</v>
       </c>
@@ -5515,7 +5520,7 @@
       <c r="GK5" s="60"/>
       <c r="GL5" s="60"/>
     </row>
-    <row r="6" spans="1:221">
+    <row r="6" spans="1:221" ht="12" customHeight="1">
       <c r="A6" s="39" t="s">
         <v>36</v>
       </c>
@@ -5688,7 +5693,7 @@
       <c r="GK6" s="60"/>
       <c r="GL6" s="60"/>
     </row>
-    <row r="7" spans="1:221">
+    <row r="7" spans="1:221" ht="12" customHeight="1">
       <c r="A7" s="39" t="s">
         <v>38</v>
       </c>
@@ -5861,7 +5866,7 @@
       <c r="GK7" s="60"/>
       <c r="GL7" s="60"/>
     </row>
-    <row r="8" spans="1:221">
+    <row r="8" spans="1:221" ht="12" customHeight="1">
       <c r="A8" s="39" t="s">
         <v>39</v>
       </c>
@@ -6034,7 +6039,7 @@
       <c r="GK8" s="60"/>
       <c r="GL8" s="60"/>
     </row>
-    <row r="9" spans="1:221">
+    <row r="9" spans="1:221" ht="12" customHeight="1">
       <c r="A9" s="39" t="s">
         <v>46</v>
       </c>
@@ -6054,10 +6059,10 @@
       <c r="AN9" s="62"/>
       <c r="AO9" s="62"/>
       <c r="AP9" s="60"/>
-      <c r="AQ9" s="61"/>
-      <c r="AR9" s="61"/>
-      <c r="AS9" s="61"/>
-      <c r="AT9" s="61"/>
+      <c r="AQ9" s="60"/>
+      <c r="AR9" s="60"/>
+      <c r="AS9" s="60"/>
+      <c r="AT9" s="60"/>
       <c r="AU9" s="61"/>
       <c r="AV9" s="61"/>
       <c r="AW9" s="61"/>
@@ -6207,7 +6212,7 @@
       <c r="GK9" s="60"/>
       <c r="GL9" s="60"/>
     </row>
-    <row r="10" spans="1:221">
+    <row r="10" spans="1:221" ht="12" customHeight="1">
       <c r="A10" s="39" t="s">
         <v>37</v>
       </c>
@@ -6227,14 +6232,14 @@
       <c r="AN10" s="62"/>
       <c r="AO10" s="62"/>
       <c r="AP10" s="60"/>
-      <c r="AQ10" s="61"/>
-      <c r="AR10" s="61"/>
-      <c r="AS10" s="61"/>
-      <c r="AT10" s="61"/>
-      <c r="AU10" s="61"/>
-      <c r="AV10" s="61"/>
-      <c r="AW10" s="61"/>
-      <c r="AX10" s="61"/>
+      <c r="AQ10" s="60"/>
+      <c r="AR10" s="60"/>
+      <c r="AS10" s="60"/>
+      <c r="AT10" s="60"/>
+      <c r="AU10" s="60"/>
+      <c r="AV10" s="60"/>
+      <c r="AW10" s="60"/>
+      <c r="AX10" s="60"/>
       <c r="AY10" s="61"/>
       <c r="AZ10" s="61"/>
       <c r="BA10" s="61"/>
@@ -6380,9 +6385,9 @@
       <c r="GK10" s="60"/>
       <c r="GL10" s="60"/>
     </row>
-    <row r="11" spans="1:221">
+    <row r="11" spans="1:221" ht="12" customHeight="1">
       <c r="A11" s="39" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="AA11" s="60"/>
       <c r="AB11" s="60"/>
@@ -6399,6 +6404,11 @@
       <c r="AM11" s="62"/>
       <c r="AN11" s="62"/>
       <c r="AO11" s="62"/>
+      <c r="AP11" s="60"/>
+      <c r="AQ11" s="60"/>
+      <c r="AR11" s="60"/>
+      <c r="AS11" s="60"/>
+      <c r="AT11" s="60"/>
       <c r="AU11" s="60"/>
       <c r="AV11" s="60"/>
       <c r="AW11" s="60"/>
@@ -6548,9 +6558,9 @@
       <c r="GK11" s="60"/>
       <c r="GL11" s="60"/>
     </row>
-    <row r="12" spans="1:221">
+    <row r="12" spans="1:221" ht="12" customHeight="1">
       <c r="A12" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA12" s="60"/>
       <c r="AB12" s="60"/>
@@ -6563,29 +6573,15 @@
       <c r="AI12" s="60"/>
       <c r="AJ12" s="60"/>
       <c r="AK12" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="AP12" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="AQ12" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="AR12" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="AS12" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT12" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU12" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV12" s="65" t="s">
-        <v>95</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="AP12" s="61"/>
+      <c r="AQ12" s="61"/>
+      <c r="AR12" s="61"/>
+      <c r="AS12" s="61"/>
+      <c r="AT12" s="61"/>
+      <c r="AU12" s="61"/>
+      <c r="AV12" s="61"/>
       <c r="AW12" s="61"/>
       <c r="AX12" s="61"/>
       <c r="AY12" s="61"/>
@@ -6599,13 +6595,27 @@
       <c r="BG12" s="60"/>
       <c r="BH12" s="60"/>
       <c r="BI12" s="60"/>
-      <c r="BJ12" s="60"/>
-      <c r="BK12" s="60"/>
-      <c r="BL12" s="60"/>
-      <c r="BM12" s="60"/>
-      <c r="BN12" s="60"/>
-      <c r="BO12" s="60"/>
-      <c r="BP12" s="60"/>
+      <c r="BJ12" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="BK12" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL12" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="BM12" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="BN12" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="BO12" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="BP12" s="65" t="s">
+        <v>94</v>
+      </c>
       <c r="BQ12" s="60"/>
       <c r="BR12" s="60"/>
       <c r="BS12" s="60"/>
@@ -6733,7 +6743,7 @@
       <c r="GK12" s="60"/>
       <c r="GL12" s="60"/>
     </row>
-    <row r="13" spans="1:221">
+    <row r="13" spans="1:221" ht="12" customHeight="1">
       <c r="A13" s="39" t="s">
         <v>86</v>
       </c>
@@ -6752,27 +6762,13 @@
       <c r="AM13" s="60"/>
       <c r="AN13" s="60"/>
       <c r="AO13" s="60"/>
-      <c r="AP13" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="AQ13" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="AR13" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="AS13" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT13" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU13" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV13" s="65" t="s">
-        <v>95</v>
-      </c>
+      <c r="AP13" s="61"/>
+      <c r="AQ13" s="61"/>
+      <c r="AR13" s="61"/>
+      <c r="AS13" s="61"/>
+      <c r="AT13" s="61"/>
+      <c r="AU13" s="61"/>
+      <c r="AV13" s="61"/>
       <c r="AW13" s="61"/>
       <c r="AX13" s="61"/>
       <c r="AY13" s="61"/>
@@ -6786,13 +6782,27 @@
       <c r="BG13" s="60"/>
       <c r="BH13" s="60"/>
       <c r="BI13" s="60"/>
-      <c r="BJ13" s="60"/>
-      <c r="BK13" s="60"/>
-      <c r="BL13" s="60"/>
-      <c r="BM13" s="60"/>
-      <c r="BN13" s="60"/>
-      <c r="BO13" s="60"/>
-      <c r="BP13" s="60"/>
+      <c r="BJ13" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="BK13" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL13" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="BM13" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="BN13" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="BO13" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="BP13" s="65" t="s">
+        <v>94</v>
+      </c>
       <c r="BQ13" s="60"/>
       <c r="BR13" s="60"/>
       <c r="BS13" s="60"/>
@@ -6920,7 +6930,14 @@
       <c r="GK13" s="60"/>
       <c r="GL13" s="60"/>
     </row>
-    <row r="15" spans="1:221">
+    <row r="14" spans="1:221" ht="12" customHeight="1">
+      <c r="AP14" s="50"/>
+      <c r="AT14" s="50"/>
+      <c r="AU14" s="50"/>
+      <c r="AY14" s="50"/>
+      <c r="AZ14" s="50"/>
+    </row>
+    <row r="15" spans="1:221" ht="12" customHeight="1">
       <c r="A15" s="40" t="s">
         <v>27</v>
       </c>
@@ -7093,9 +7110,9 @@
       <c r="GK15" s="60"/>
       <c r="GL15" s="60"/>
     </row>
-    <row r="16" spans="1:221">
+    <row r="16" spans="1:221" ht="12" customHeight="1">
       <c r="A16" s="39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA16" s="60"/>
       <c r="AB16" s="60"/>
@@ -7114,15 +7131,6 @@
       <c r="AO16" s="60"/>
       <c r="AP16" s="60"/>
       <c r="AQ16" s="60"/>
-      <c r="AR16" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS16" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT16" s="65" t="s">
-        <v>95</v>
-      </c>
       <c r="AU16" s="60"/>
       <c r="AV16" s="60"/>
       <c r="AW16" s="60"/>
@@ -7138,9 +7146,15 @@
       <c r="BG16" s="60"/>
       <c r="BH16" s="60"/>
       <c r="BI16" s="60"/>
-      <c r="BJ16" s="60"/>
-      <c r="BK16" s="60"/>
-      <c r="BL16" s="60"/>
+      <c r="BJ16" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="BK16" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="BL16" s="65" t="s">
+        <v>94</v>
+      </c>
       <c r="BM16" s="60"/>
       <c r="BN16" s="60"/>
       <c r="BO16" s="60"/>
@@ -7272,7 +7286,7 @@
       <c r="GK16" s="60"/>
       <c r="GL16" s="60"/>
     </row>
-    <row r="17" spans="1:194">
+    <row r="17" spans="1:194" ht="12" customHeight="1">
       <c r="A17" s="39" t="s">
         <v>51</v>
       </c>
@@ -7445,7 +7459,7 @@
       <c r="GK17" s="60"/>
       <c r="GL17" s="60"/>
     </row>
-    <row r="18" spans="1:194">
+    <row r="18" spans="1:194" ht="12" customHeight="1">
       <c r="AA18" s="60"/>
       <c r="AB18" s="60"/>
       <c r="AC18" s="60"/>
@@ -7615,7 +7629,7 @@
       <c r="GK18" s="60"/>
       <c r="GL18" s="60"/>
     </row>
-    <row r="19" spans="1:194">
+    <row r="19" spans="1:194" ht="12" customHeight="1">
       <c r="A19" s="40" t="s">
         <v>30</v>
       </c>
@@ -7788,7 +7802,7 @@
       <c r="GK19" s="60"/>
       <c r="GL19" s="60"/>
     </row>
-    <row r="20" spans="1:194">
+    <row r="20" spans="1:194" ht="12" customHeight="1">
       <c r="A20" s="39" t="s">
         <v>49</v>
       </c>
@@ -7799,7 +7813,7 @@
       <c r="AE20" s="60"/>
       <c r="AF20" s="60"/>
       <c r="AG20" s="65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI20" s="49"/>
       <c r="AJ20" s="49"/>
@@ -7958,7 +7972,7 @@
       <c r="GK20" s="60"/>
       <c r="GL20" s="60"/>
     </row>
-    <row r="21" spans="1:194">
+    <row r="21" spans="1:194" ht="12" customHeight="1">
       <c r="A21" s="39" t="s">
         <v>45</v>
       </c>
@@ -7982,13 +7996,13 @@
       <c r="AR21" s="60"/>
       <c r="AS21" s="60"/>
       <c r="AT21" s="65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AU21" s="65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AV21" s="65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AW21" s="60"/>
       <c r="AX21" s="60"/>
@@ -8137,7 +8151,7 @@
       <c r="GK21" s="60"/>
       <c r="GL21" s="60"/>
     </row>
-    <row r="22" spans="1:194">
+    <row r="22" spans="1:194" ht="12" customHeight="1">
       <c r="A22" s="39" t="s">
         <v>47</v>
       </c>
@@ -8309,7 +8323,8 @@
       <c r="GK22" s="60"/>
       <c r="GL22" s="60"/>
     </row>
-    <row r="24" spans="1:194">
+    <row r="23" spans="1:194" ht="12" customHeight="1"/>
+    <row r="24" spans="1:194" ht="12" customHeight="1">
       <c r="A24" s="40" t="s">
         <v>50</v>
       </c>
@@ -8481,9 +8496,9 @@
       <c r="GK24" s="60"/>
       <c r="GL24" s="60"/>
     </row>
-    <row r="25" spans="1:194">
+    <row r="25" spans="1:194" ht="12" customHeight="1">
       <c r="A25" s="39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA25" s="60"/>
       <c r="AB25" s="60"/>
@@ -8492,7 +8507,7 @@
       <c r="AE25" s="60"/>
       <c r="AF25" s="60"/>
       <c r="AG25" s="65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI25" s="60"/>
       <c r="AJ25" s="60"/>
@@ -8655,7 +8670,7 @@
       <c r="GK25" s="60"/>
       <c r="GL25" s="60"/>
     </row>
-    <row r="26" spans="1:194">
+    <row r="26" spans="1:194" ht="12" customHeight="1">
       <c r="A26" s="39" t="s">
         <v>52</v>
       </c>
@@ -8828,7 +8843,7 @@
       <c r="GK26" s="60"/>
       <c r="GL26" s="60"/>
     </row>
-    <row r="27" spans="1:194">
+    <row r="27" spans="1:194" ht="12" customHeight="1">
       <c r="AA27" s="60"/>
       <c r="AB27" s="60"/>
       <c r="AC27" s="60"/>
@@ -8998,7 +9013,7 @@
       <c r="GK27" s="60"/>
       <c r="GL27" s="60"/>
     </row>
-    <row r="28" spans="1:194">
+    <row r="28" spans="1:194" ht="12" customHeight="1">
       <c r="A28" s="40" t="s">
         <v>40</v>
       </c>
@@ -9171,7 +9186,7 @@
       <c r="GK28" s="60"/>
       <c r="GL28" s="60"/>
     </row>
-    <row r="29" spans="1:194">
+    <row r="29" spans="1:194" ht="12" customHeight="1">
       <c r="A29" s="39" t="s">
         <v>41</v>
       </c>
@@ -9344,7 +9359,7 @@
       <c r="GK29" s="60"/>
       <c r="GL29" s="60"/>
     </row>
-    <row r="30" spans="1:194">
+    <row r="30" spans="1:194" ht="12" customHeight="1">
       <c r="A30" s="39" t="s">
         <v>42</v>
       </c>
@@ -9517,7 +9532,7 @@
       <c r="GK30" s="60"/>
       <c r="GL30" s="60"/>
     </row>
-    <row r="31" spans="1:194">
+    <row r="31" spans="1:194" ht="12" customHeight="1">
       <c r="A31" s="39" t="s">
         <v>87</v>
       </c>
@@ -9690,7 +9705,7 @@
       <c r="GK31" s="60"/>
       <c r="GL31" s="60"/>
     </row>
-    <row r="32" spans="1:194">
+    <row r="32" spans="1:194" ht="12" customHeight="1">
       <c r="A32" s="39" t="s">
         <v>43</v>
       </c>
@@ -9863,7 +9878,7 @@
       <c r="GK32" s="60"/>
       <c r="GL32" s="60"/>
     </row>
-    <row r="33" spans="1:194">
+    <row r="33" spans="1:194" ht="12" customHeight="1">
       <c r="A33" s="39" t="s">
         <v>44</v>
       </c>
@@ -10036,7 +10051,7 @@
       <c r="GK33" s="60"/>
       <c r="GL33" s="60"/>
     </row>
-    <row r="34" spans="1:194">
+    <row r="34" spans="1:194" ht="12" customHeight="1">
       <c r="A34" s="39" t="s">
         <v>88</v>
       </c>
@@ -10060,6 +10075,11 @@
       <c r="AR34" s="64"/>
       <c r="AS34" s="64"/>
       <c r="AT34" s="64"/>
+      <c r="AU34" s="60"/>
+      <c r="AV34" s="60"/>
+      <c r="AW34" s="60"/>
+      <c r="AX34" s="60"/>
+      <c r="AY34" s="60"/>
       <c r="AZ34" s="60"/>
       <c r="BA34" s="60"/>
       <c r="BB34" s="60"/>
@@ -10204,7 +10224,7 @@
       <c r="GK34" s="60"/>
       <c r="GL34" s="60"/>
     </row>
-    <row r="35" spans="1:194">
+    <row r="35" spans="1:194" ht="12" customHeight="1">
       <c r="A35" s="39" t="s">
         <v>89</v>
       </c>
@@ -10218,11 +10238,11 @@
       <c r="AH35" s="60"/>
       <c r="AI35" s="60"/>
       <c r="AJ35" s="60"/>
-      <c r="AK35" s="64"/>
-      <c r="AL35" s="64"/>
-      <c r="AM35" s="64"/>
-      <c r="AN35" s="64"/>
-      <c r="AO35" s="64"/>
+      <c r="AK35" s="60"/>
+      <c r="AL35" s="60"/>
+      <c r="AM35" s="60"/>
+      <c r="AN35" s="60"/>
+      <c r="AO35" s="60"/>
       <c r="AP35" s="60"/>
       <c r="AQ35" s="60"/>
       <c r="AR35" s="60"/>
@@ -10234,11 +10254,11 @@
       <c r="AX35" s="60"/>
       <c r="AY35" s="60"/>
       <c r="AZ35" s="60"/>
-      <c r="BA35" s="60"/>
-      <c r="BB35" s="60"/>
-      <c r="BC35" s="60"/>
-      <c r="BD35" s="60"/>
-      <c r="BE35" s="60"/>
+      <c r="BA35" s="64"/>
+      <c r="BB35" s="64"/>
+      <c r="BC35" s="64"/>
+      <c r="BD35" s="64"/>
+      <c r="BE35" s="64"/>
       <c r="BF35" s="60"/>
       <c r="BG35" s="60"/>
       <c r="BH35" s="60"/>
@@ -10377,7 +10397,7 @@
       <c r="GK35" s="60"/>
       <c r="GL35" s="60"/>
     </row>
-    <row r="36" spans="1:194">
+    <row r="36" spans="1:194" ht="12" customHeight="1">
       <c r="A36" s="39" t="s">
         <v>90</v>
       </c>
@@ -10550,9 +10570,9 @@
       <c r="GK36" s="60"/>
       <c r="GL36" s="60"/>
     </row>
-    <row r="37" spans="1:194">
+    <row r="37" spans="1:194" ht="12" customHeight="1">
       <c r="A37" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA37" s="60"/>
       <c r="AB37" s="60"/>
@@ -10723,9 +10743,9 @@
       <c r="GK37" s="60"/>
       <c r="GL37" s="60"/>
     </row>
-    <row r="38" spans="1:194">
+    <row r="38" spans="1:194" ht="12" customHeight="1">
       <c r="A38" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK38" s="64"/>
       <c r="AL38" s="64"/>
@@ -10735,6 +10755,78 @@
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="GY1:HC1"/>
+    <mergeCell ref="HD1:HH1"/>
+    <mergeCell ref="HI1:HM1"/>
+    <mergeCell ref="GY2:HC2"/>
+    <mergeCell ref="HD2:HH2"/>
+    <mergeCell ref="HI2:HM2"/>
+    <mergeCell ref="GT2:GX2"/>
+    <mergeCell ref="EQ2:EU2"/>
+    <mergeCell ref="EV2:EZ2"/>
+    <mergeCell ref="FA2:FE2"/>
+    <mergeCell ref="FF2:FJ2"/>
+    <mergeCell ref="FK2:FO2"/>
+    <mergeCell ref="FP2:FT2"/>
+    <mergeCell ref="FU2:FY2"/>
+    <mergeCell ref="FZ2:GD2"/>
+    <mergeCell ref="GE2:GI2"/>
+    <mergeCell ref="GJ2:GN2"/>
+    <mergeCell ref="GO2:GS2"/>
+    <mergeCell ref="DM2:DQ2"/>
+    <mergeCell ref="DR2:DV2"/>
+    <mergeCell ref="DW2:EA2"/>
+    <mergeCell ref="EB2:EF2"/>
+    <mergeCell ref="EG2:EK2"/>
+    <mergeCell ref="EL2:EP2"/>
+    <mergeCell ref="GO1:GS1"/>
+    <mergeCell ref="GT1:GX1"/>
+    <mergeCell ref="BY2:CC2"/>
+    <mergeCell ref="CD2:CH2"/>
+    <mergeCell ref="CI2:CM2"/>
+    <mergeCell ref="CN2:CR2"/>
+    <mergeCell ref="CS2:CW2"/>
+    <mergeCell ref="CX2:DB2"/>
+    <mergeCell ref="DC2:DG2"/>
+    <mergeCell ref="DH2:DL2"/>
+    <mergeCell ref="FK1:FO1"/>
+    <mergeCell ref="FP1:FT1"/>
+    <mergeCell ref="FU1:FY1"/>
+    <mergeCell ref="FZ1:GD1"/>
+    <mergeCell ref="GE1:GI1"/>
+    <mergeCell ref="GJ1:GN1"/>
+    <mergeCell ref="EG1:EK1"/>
+    <mergeCell ref="EL1:EP1"/>
+    <mergeCell ref="EQ1:EU1"/>
+    <mergeCell ref="EV1:EZ1"/>
+    <mergeCell ref="FA1:FE1"/>
+    <mergeCell ref="FF1:FJ1"/>
+    <mergeCell ref="EB1:EF1"/>
+    <mergeCell ref="BY1:CC1"/>
+    <mergeCell ref="CD1:CH1"/>
+    <mergeCell ref="CI1:CM1"/>
+    <mergeCell ref="CN1:CR1"/>
+    <mergeCell ref="CS1:CW1"/>
+    <mergeCell ref="CX1:DB1"/>
+    <mergeCell ref="DC1:DG1"/>
+    <mergeCell ref="DH1:DL1"/>
+    <mergeCell ref="DM1:DQ1"/>
+    <mergeCell ref="DR1:DV1"/>
+    <mergeCell ref="DW1:EA1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="BO1:BS1"/>
+    <mergeCell ref="BT1:BX1"/>
+    <mergeCell ref="AZ2:BD2"/>
+    <mergeCell ref="BE2:BI2"/>
+    <mergeCell ref="BJ2:BN2"/>
+    <mergeCell ref="BO2:BS2"/>
+    <mergeCell ref="BT2:BX2"/>
+    <mergeCell ref="BE1:BI1"/>
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AU1:AY1"/>
+    <mergeCell ref="AZ1:BD1"/>
     <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="AK2:AO2"/>
     <mergeCell ref="AP2:AT2"/>
@@ -10751,78 +10843,6 @@
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="V2:Z2"/>
     <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AF1:AJ1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="AU1:AY1"/>
-    <mergeCell ref="AZ1:BD1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="BO1:BS1"/>
-    <mergeCell ref="BT1:BX1"/>
-    <mergeCell ref="AZ2:BD2"/>
-    <mergeCell ref="BE2:BI2"/>
-    <mergeCell ref="BJ2:BN2"/>
-    <mergeCell ref="BO2:BS2"/>
-    <mergeCell ref="BT2:BX2"/>
-    <mergeCell ref="BE1:BI1"/>
-    <mergeCell ref="EB1:EF1"/>
-    <mergeCell ref="BY1:CC1"/>
-    <mergeCell ref="CD1:CH1"/>
-    <mergeCell ref="CI1:CM1"/>
-    <mergeCell ref="CN1:CR1"/>
-    <mergeCell ref="CS1:CW1"/>
-    <mergeCell ref="CX1:DB1"/>
-    <mergeCell ref="DC1:DG1"/>
-    <mergeCell ref="DH1:DL1"/>
-    <mergeCell ref="DM1:DQ1"/>
-    <mergeCell ref="DR1:DV1"/>
-    <mergeCell ref="DW1:EA1"/>
-    <mergeCell ref="GJ1:GN1"/>
-    <mergeCell ref="EG1:EK1"/>
-    <mergeCell ref="EL1:EP1"/>
-    <mergeCell ref="EQ1:EU1"/>
-    <mergeCell ref="EV1:EZ1"/>
-    <mergeCell ref="FA1:FE1"/>
-    <mergeCell ref="FF1:FJ1"/>
-    <mergeCell ref="EL2:EP2"/>
-    <mergeCell ref="GO1:GS1"/>
-    <mergeCell ref="GT1:GX1"/>
-    <mergeCell ref="BY2:CC2"/>
-    <mergeCell ref="CD2:CH2"/>
-    <mergeCell ref="CI2:CM2"/>
-    <mergeCell ref="CN2:CR2"/>
-    <mergeCell ref="CS2:CW2"/>
-    <mergeCell ref="CX2:DB2"/>
-    <mergeCell ref="DC2:DG2"/>
-    <mergeCell ref="DH2:DL2"/>
-    <mergeCell ref="FK1:FO1"/>
-    <mergeCell ref="FP1:FT1"/>
-    <mergeCell ref="FU1:FY1"/>
-    <mergeCell ref="FZ1:GD1"/>
-    <mergeCell ref="GE1:GI1"/>
-    <mergeCell ref="DM2:DQ2"/>
-    <mergeCell ref="DR2:DV2"/>
-    <mergeCell ref="DW2:EA2"/>
-    <mergeCell ref="EB2:EF2"/>
-    <mergeCell ref="EG2:EK2"/>
-    <mergeCell ref="GT2:GX2"/>
-    <mergeCell ref="EQ2:EU2"/>
-    <mergeCell ref="EV2:EZ2"/>
-    <mergeCell ref="FA2:FE2"/>
-    <mergeCell ref="FF2:FJ2"/>
-    <mergeCell ref="FK2:FO2"/>
-    <mergeCell ref="FP2:FT2"/>
-    <mergeCell ref="FU2:FY2"/>
-    <mergeCell ref="FZ2:GD2"/>
-    <mergeCell ref="GE2:GI2"/>
-    <mergeCell ref="GJ2:GN2"/>
-    <mergeCell ref="GO2:GS2"/>
-    <mergeCell ref="GY1:HC1"/>
-    <mergeCell ref="HD1:HH1"/>
-    <mergeCell ref="HI1:HM1"/>
-    <mergeCell ref="GY2:HC2"/>
-    <mergeCell ref="HD2:HH2"/>
-    <mergeCell ref="HI2:HM2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
